--- a/jvm/src/main/resources/sample-data-demo.xlsx
+++ b/jvm/src/main/resources/sample-data-demo.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4001" uniqueCount="2484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4010" uniqueCount="2490">
   <si>
     <t>firstName</t>
   </si>
@@ -6992,9 +6992,6 @@
     <t>ID of skills list</t>
   </si>
   <si>
-    <t>&lt;paste configuration rows here&gt;</t>
-  </si>
-  <si>
     <t>review</t>
   </si>
   <si>
@@ -7077,9 +7074,6 @@
   </si>
   <si>
     <t>https://docs.google.com/document/d/1d1i9pLFq5r96FEe5-JekxOllhwod5mZVxjWOzek27Vk/edit#heading=h.oc1ke1f0w7ih</t>
-  </si>
-  <si>
-    <t>{ "labels" : [</t>
   </si>
   <si>
     <t>&lt;paste connections here&gt;</t>
@@ -7528,6 +7522,30 @@
   </si>
   <si>
     <t>this sheet isn't finished of syntactically correct yet</t>
+  </si>
+  <si>
+    <t>],</t>
+  </si>
+  <si>
+    <t>&lt; paste label rows here that are demo (not configuration) in nature &gt;</t>
+  </si>
+  <si>
+    <t>&lt;paste configuration label rows here&gt;</t>
+  </si>
+  <si>
+    <t>Move the LivelyGig agent into the Configuration file, not Sample.  Update the email to info@livelygig.com ?</t>
+  </si>
+  <si>
+    <t>"labels": [</t>
+  </si>
+  <si>
+    <t>{ "labels": [</t>
+  </si>
+  <si>
+    <t>"agents": [</t>
+  </si>
+  <si>
+    <t>"cnxns": [</t>
   </si>
 </sst>
 </file>
@@ -7651,19 +7669,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7749,7 +7767,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -7826,7 +7844,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -7836,13 +7853,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -7892,84 +7902,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="42">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -8068,6 +8017,38 @@
         <bottom/>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -8193,6 +8174,40 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -8992,28 +9007,28 @@
     <tableColumn id="22" name="profilePic Data" dataDxfId="15">
       <calculatedColumnFormula>"""profilePic"" : """&amp;Table1[[#This Row],[profilePic]]&amp;""", "</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="contacts" dataDxfId="1">
+    <tableColumn id="30" name="contacts" dataDxfId="14">
       <calculatedColumnFormula>"""contacts"" : { ""channels"": [ {""url"" : """&amp;Table1[[#This Row],[contact1]]&amp;""", ""channelType"" : """&amp;Table1[[#This Row],[contact1 type]]&amp;""" } ] },"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="bindings" dataDxfId="14">
+    <tableColumn id="7" name="bindings" dataDxfId="13">
       <calculatedColumnFormula>"""bindings"" : [ { ""label"" : ""uuidForFavorites"" , ""blob"" : [ ""uuidForAbed"", ""uuidForPam"" ] } ]"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="PostContent1" dataDxfId="13">
+    <tableColumn id="29" name="PostContent1" dataDxfId="12">
       <calculatedColumnFormula>"Yata! "&amp;ROW()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="PostTarget1-1" dataDxfId="12">
+    <tableColumn id="28" name="PostTarget1-1" dataDxfId="11">
       <calculatedColumnFormula>"768fd55e-2295-4511-9e19-04a8f29f9d9e"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="44" name="PostLabel1GUID" dataDxfId="11">
+    <tableColumn id="44" name="PostLabel1GUID" dataDxfId="10">
       <calculatedColumnFormula>VLOOKUP(#REF!,#REF!,2,TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="48" name="Post1" dataDxfId="0">
+    <tableColumn id="48" name="Post1" dataDxfId="9">
       <calculatedColumnFormula>"{ ""content"" : """&amp;Table1[[#This Row],[PostContent1]]&amp;""" , ""contentType"" : ""message"", ""labels"" : [ """&amp;Table1[[#This Row],[PostLabel1GUID]]&amp;""" ] , ""src"" : """&amp;Table1[[#This Row],[UUID]]&amp;""" , ""trgts"" : [ """&amp;Table1[[#This Row],[PostTarget1-1]]&amp;""" ] }"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="51" name="Posts" dataDxfId="10">
+    <tableColumn id="51" name="Posts" dataDxfId="8">
       <calculatedColumnFormula>"""initialPosts"" : ["&amp;Table1[[#This Row],[Post1]]&amp;" ]"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="data" dataDxfId="9">
+    <tableColumn id="13" name="data" dataDxfId="7">
       <calculatedColumnFormula>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A3)," ",", ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9026,18 +9041,18 @@
   <autoFilter ref="A3:M11"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Sender"/>
-    <tableColumn id="2" name="Sender lookup" dataDxfId="8">
+    <tableColumn id="2" name="Sender lookup" dataDxfId="6">
       <calculatedColumnFormula>VLOOKUP(Table2[[#This Row],[Sender]],Table1[[UUID]:[loginId]],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="Recipient"/>
-    <tableColumn id="4" name="Recipient lookup" dataDxfId="7">
+    <tableColumn id="4" name="Recipient lookup" dataDxfId="5">
       <calculatedColumnFormula>VLOOKUP(Table2[[#This Row],[Recipient]],Table1[[UUID]:[loginId]],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="Message Type"/>
-    <tableColumn id="6" name="Message Type GUID" dataDxfId="6">
+    <tableColumn id="6" name="Message Type GUID" dataDxfId="4">
       <calculatedColumnFormula>IF(Table2[[#This Row],[Message Type]]="buyer profile","eb0c7fee-e815-4590-97cc-7be8251f68b6",IF(Table2[[#This Row],[Message Type]]="project post","3b5d7868-38ff-4404-9ea9-13cd2541924a",IF(Table2[[#This Row],[Message Type]]="project post","333",IF(Table2[[#This Row],[Message Type]]="seller profile","574d0bd0-c372-4f1b-830e-f4df44ca11b7",IF(Table2[[#This Row],[Message Type]]="direct message","4b0f0e1b-136c-469e-8de3-a69d7e34da5d",IF(Table2[[#This Row],[Message Type]]="contract","49607b66-5642-4f96-ab5b-864f44697ea8",IF(Table2[[#This Row],[Message Type]]="offering","4b4a042b-03b4-4e38-8676-f6fef430ae2f","ERROR")))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Rich Text" dataDxfId="5"/>
+    <tableColumn id="7" name="Rich Text" dataDxfId="3"/>
     <tableColumn id="8" name="Column1"/>
     <tableColumn id="9" name="Column2"/>
     <tableColumn id="10" name="Column3"/>
@@ -9055,10 +9070,10 @@
   <tableColumns count="6">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="3" name="L1"/>
-    <tableColumn id="4" name="Type" dataDxfId="4"/>
-    <tableColumn id="5" name="Value" dataDxfId="3"/>
+    <tableColumn id="4" name="Type" dataDxfId="2"/>
+    <tableColumn id="5" name="Value" dataDxfId="1"/>
     <tableColumn id="6" name="Comment"/>
-    <tableColumn id="2" name="Data" dataDxfId="2">
+    <tableColumn id="2" name="Data" dataDxfId="0">
       <calculatedColumnFormula>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C3="]}",$C3="]},"),""," , ")))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9331,8 +9346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E175" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H195"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C190" sqref="C190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9348,28 +9363,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>2342</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2343</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2339</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>2344</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>2345</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>2341</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>2340</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>2344</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>2345</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>2341</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>2346</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>2347</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>2343</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>2342</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -9381,7 +9396,7 @@
         <v>pbennett</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>162</v>
@@ -9391,7 +9406,7 @@
         <v>livelygig</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="G2" s="3" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
@@ -9411,7 +9426,7 @@
         <v>mnori</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>162</v>
@@ -9439,7 +9454,7 @@
         <v>anarayan</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>162</v>
@@ -9467,7 +9482,7 @@
         <v>ibabu</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>162</v>
@@ -9495,7 +9510,7 @@
         <v>mrao</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>162</v>
@@ -9523,7 +9538,7 @@
         <v>nuppal</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>162</v>
@@ -9551,7 +9566,7 @@
         <v>ateja</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>162</v>
@@ -9579,7 +9594,7 @@
         <v>sbalan</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>162</v>
@@ -9607,7 +9622,7 @@
         <v>bbhattacharya</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>162</v>
@@ -9635,7 +9650,7 @@
         <v>mpawar</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>162</v>
@@ -9663,7 +9678,7 @@
         <v>uchauha</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>162</v>
@@ -9691,7 +9706,7 @@
         <v>sraina</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>162</v>
@@ -9719,7 +9734,7 @@
         <v>atipnis</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>162</v>
@@ -9747,7 +9762,7 @@
         <v>gsami</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>162</v>
@@ -9775,7 +9790,7 @@
         <v>mkant</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>162</v>
@@ -9803,7 +9818,7 @@
         <v>dbhardwaj</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>162</v>
@@ -9831,7 +9846,7 @@
         <v>mnarula</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>162</v>
@@ -9859,7 +9874,7 @@
         <v>aviswanathan</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>162</v>
@@ -9887,7 +9902,7 @@
         <v>ybadal</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>162</v>
@@ -9915,7 +9930,7 @@
         <v>mthakur</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>162</v>
@@ -9943,7 +9958,7 @@
         <v>vdey</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>162</v>
@@ -9971,7 +9986,7 @@
         <v>mharrison</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>162</v>
@@ -9999,7 +10014,7 @@
         <v>erice</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>162</v>
@@ -10027,7 +10042,7 @@
         <v>jhart</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>162</v>
@@ -10055,7 +10070,7 @@
         <v>jlawson</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>162</v>
@@ -10083,7 +10098,7 @@
         <v>jdean</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>162</v>
@@ -10111,7 +10126,7 @@
         <v>hhorton</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>162</v>
@@ -10139,7 +10154,7 @@
         <v>lfrank</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>162</v>
@@ -10167,7 +10182,7 @@
         <v>mhill</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>162</v>
@@ -10195,7 +10210,7 @@
         <v>nmendez</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>162</v>
@@ -10223,7 +10238,7 @@
         <v>gmiller</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>162</v>
@@ -10251,7 +10266,7 @@
         <v>jreed</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>162</v>
@@ -10279,7 +10294,7 @@
         <v>danderson</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>162</v>
@@ -10307,7 +10322,7 @@
         <v>wcoleman</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>162</v>
@@ -10335,7 +10350,7 @@
         <v>mmartin</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>162</v>
@@ -10363,7 +10378,7 @@
         <v>iperry</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>162</v>
@@ -10391,7 +10406,7 @@
         <v>rperez</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>162</v>
@@ -10419,7 +10434,7 @@
         <v>mmorris</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>162</v>
@@ -10447,7 +10462,7 @@
         <v>rmurphy</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>162</v>
@@ -10475,7 +10490,7 @@
         <v>ethomas</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>162</v>
@@ -10503,7 +10518,7 @@
         <v>kmoore</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>162</v>
@@ -10531,7 +10546,7 @@
         <v>dmoore</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>162</v>
@@ -10559,7 +10574,7 @@
         <v>hdreesens</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>162</v>
@@ -10587,7 +10602,7 @@
         <v>lborde</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>162</v>
@@ -10615,7 +10630,7 @@
         <v>mdragomirov</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>162</v>
@@ -10643,7 +10658,7 @@
         <v>dcastro</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>162</v>
@@ -10671,7 +10686,7 @@
         <v>rvogts</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>162</v>
@@ -10699,7 +10714,7 @@
         <v>sseward</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>162</v>
@@ -10727,7 +10742,7 @@
         <v>mstilo</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>162</v>
@@ -10755,7 +10770,7 @@
         <v>iungaro</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>162</v>
@@ -10783,7 +10798,7 @@
         <v>famador</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>162</v>
@@ -10811,7 +10826,7 @@
         <v>mlamberti</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>162</v>
@@ -10839,7 +10854,7 @@
         <v>tantall</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>162</v>
@@ -10867,7 +10882,7 @@
         <v>mdonalds</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>162</v>
@@ -10895,7 +10910,7 @@
         <v>svincent</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>162</v>
@@ -10923,7 +10938,7 @@
         <v>kdragic</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>162</v>
@@ -10951,7 +10966,7 @@
         <v>rsarkozi</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>162</v>
@@ -10979,7 +10994,7 @@
         <v>ghall</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>162</v>
@@ -11007,7 +11022,7 @@
         <v>myap</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>162</v>
@@ -11035,7 +11050,7 @@
         <v>csalvage</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>162</v>
@@ -11063,7 +11078,7 @@
         <v>dnagy</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>162</v>
@@ -11091,7 +11106,7 @@
         <v>kestévez</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>162</v>
@@ -11119,7 +11134,7 @@
         <v>mmachado</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>162</v>
@@ -11147,7 +11162,7 @@
         <v>dbenitez</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>162</v>
@@ -11175,7 +11190,7 @@
         <v>apage</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>162</v>
@@ -11203,7 +11218,7 @@
         <v>alim</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>162</v>
@@ -11231,7 +11246,7 @@
         <v>ymasson</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>162</v>
@@ -11259,7 +11274,7 @@
         <v>cmendel</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>162</v>
@@ -11287,7 +11302,7 @@
         <v>lchevrolet</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>162</v>
@@ -11315,7 +11330,7 @@
         <v>esheinfeld</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>162</v>
@@ -11343,7 +11358,7 @@
         <v>ddaniau</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>162</v>
@@ -11371,7 +11386,7 @@
         <v>tzhu</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>162</v>
@@ -11399,7 +11414,7 @@
         <v>mhakim</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>162</v>
@@ -11427,7 +11442,7 @@
         <v>aamirmoez</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>162</v>
@@ -11455,7 +11470,7 @@
         <v>tel-mofty</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>162</v>
@@ -11483,7 +11498,7 @@
         <v>zhakim</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>162</v>
@@ -11511,7 +11526,7 @@
         <v>sxun</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>162</v>
@@ -11539,7 +11554,7 @@
         <v>kabdulrashid</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>162</v>
@@ -11567,7 +11582,7 @@
         <v>iliao</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>162</v>
@@ -11595,7 +11610,7 @@
         <v>bsaqqaf</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>162</v>
@@ -11623,7 +11638,7 @@
         <v>ralfarsi</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>162</v>
@@ -11643,2295 +11658,2295 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="42" t="s">
+      <c r="A83" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="B83" s="43" t="str">
+      <c r="B83" s="42" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>pbennett</v>
       </c>
-      <c r="C83" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D83" s="44" t="s">
+      <c r="C83" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D83" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="E83" s="45" t="str">
+      <c r="E83" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>mnori</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>2348</v>
-      </c>
-      <c r="G83" s="44" t="str">
+        <v>2346</v>
+      </c>
+      <c r="G83" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v>"label" : { "id" : "a7311ed0-9ba6-4a6e-8066-caa2a2247991" , "functor" : "tag list" , "components" : [ { value" : "FAVORITE", "type" : "string" } ] },</v>
       </c>
-      <c r="H83" s="45" t="str">
+      <c r="H83" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A84)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://89cbeaaf-bb58-48a4-8bdf-2917d6ae110d",  "trgt" : "agent://40c96981-ca91-4083-9dfc-76826df0f432" }  , </v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="46" t="s">
+      <c r="A84" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="B84" s="47" t="str">
+      <c r="B84" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>mnori</v>
       </c>
-      <c r="C84" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D84" s="44" t="s">
+      <c r="C84" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D84" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E84" s="45" t="str">
+      <c r="E84" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>erice</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>2348</v>
-      </c>
-      <c r="G84" s="44" t="str">
+        <v>2346</v>
+      </c>
+      <c r="G84" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v>"label" : { "id" : "a7311ed0-9ba6-4a6e-8066-caa2a2247991" , "functor" : "tag list" , "components" : [ { value" : "FAVORITE", "type" : "string" } ] },</v>
       </c>
-      <c r="H84" s="45" t="str">
+      <c r="H84" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A85)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://40c96981-ca91-4083-9dfc-76826df0f432",  "trgt" : "agent://90139a7b-12bc-4ca1-b8c1-05f15f8baeb3" }  , </v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="46" t="s">
+      <c r="A85" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="B85" s="47" t="str">
+      <c r="B85" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>anarayan</v>
       </c>
-      <c r="C85" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D85" s="44" t="s">
+      <c r="C85" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D85" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="E85" s="45" t="str">
+      <c r="E85" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>dbhardwaj</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>2348</v>
-      </c>
-      <c r="G85" s="44" t="str">
+        <v>2346</v>
+      </c>
+      <c r="G85" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v>"label" : { "id" : "a7311ed0-9ba6-4a6e-8066-caa2a2247991" , "functor" : "tag list" , "components" : [ { value" : "FAVORITE", "type" : "string" } ] },</v>
       </c>
-      <c r="H85" s="45" t="str">
+      <c r="H85" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A86)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://c6a3c02e-5724-4a35-adc7-ddc37d3c721b",  "trgt" : "agent://fd2a800d-5bc8-4083-a2c9-4618900d5045" }  , </v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="46" t="s">
+      <c r="A86" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="B86" s="47" t="str">
+      <c r="B86" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>ibabu</v>
       </c>
-      <c r="C86" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D86" s="44" t="s">
+      <c r="C86" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D86" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="E86" s="45" t="str">
+      <c r="E86" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>wcoleman</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>2348</v>
-      </c>
-      <c r="G86" s="44" t="str">
+        <v>2346</v>
+      </c>
+      <c r="G86" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v>"label" : { "id" : "a7311ed0-9ba6-4a6e-8066-caa2a2247991" , "functor" : "tag list" , "components" : [ { value" : "FAVORITE", "type" : "string" } ] },</v>
       </c>
-      <c r="H86" s="45" t="str">
+      <c r="H86" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A87)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://23c3669c-de78-4a5d-8c15-4a3792a96f10",  "trgt" : "agent://23843ee2-0209-4809-9929-f33cc315fcc0" }  , </v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="46" t="s">
+      <c r="A87" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="B87" s="47" t="str">
+      <c r="B87" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>mrao</v>
       </c>
-      <c r="C87" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D87" s="44" t="s">
+      <c r="C87" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D87" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="E87" s="45" t="str">
+      <c r="E87" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>csalvage</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>2348</v>
-      </c>
-      <c r="G87" s="44" t="str">
+        <v>2346</v>
+      </c>
+      <c r="G87" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v>"label" : { "id" : "a7311ed0-9ba6-4a6e-8066-caa2a2247991" , "functor" : "tag list" , "components" : [ { value" : "FAVORITE", "type" : "string" } ] },</v>
       </c>
-      <c r="H87" s="45" t="str">
+      <c r="H87" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A88)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://904e5b1e-1314-41da-bdac-f79ff7722e77",  "trgt" : "agent://d57e47d9-3ad4-45d3-9dd9-c7898dcfbfbc" }  , </v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="46" t="s">
+      <c r="A88" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="B88" s="47" t="str">
+      <c r="B88" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>nuppal</v>
       </c>
-      <c r="C88" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D88" s="44" t="s">
+      <c r="C88" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D88" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="E88" s="45" t="str">
+      <c r="E88" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>iungaro</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>2348</v>
-      </c>
-      <c r="G88" s="44" t="str">
+        <v>2346</v>
+      </c>
+      <c r="G88" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v>"label" : { "id" : "a7311ed0-9ba6-4a6e-8066-caa2a2247991" , "functor" : "tag list" , "components" : [ { value" : "FAVORITE", "type" : "string" } ] },</v>
       </c>
-      <c r="H88" s="45" t="str">
+      <c r="H88" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A89)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://f9ad7bb7-1524-4e1a-bf8e-3611859f1875",  "trgt" : "agent://4c97d00a-f9b7-4073-93bc-968c29f4e86a" }  , </v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="46" t="s">
+      <c r="A89" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="B89" s="47" t="str">
+      <c r="B89" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>ateja</v>
       </c>
-      <c r="C89" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D89" s="44" t="s">
+      <c r="C89" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D89" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="E89" s="45" t="str">
+      <c r="E89" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>ethomas</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>2348</v>
-      </c>
-      <c r="G89" s="44" t="str">
+        <v>2346</v>
+      </c>
+      <c r="G89" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v>"label" : { "id" : "a7311ed0-9ba6-4a6e-8066-caa2a2247991" , "functor" : "tag list" , "components" : [ { value" : "FAVORITE", "type" : "string" } ] },</v>
       </c>
-      <c r="H89" s="45" t="str">
+      <c r="H89" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A90)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://f5f1785b-48a4-4078-b9f8-f2b99f74e608",  "trgt" : "agent://b8616225-0496-417d-bcb9-be4a8bc54c7d" }  , </v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="46" t="s">
+      <c r="A90" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="B90" s="47" t="str">
+      <c r="B90" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>sbalan</v>
       </c>
-      <c r="C90" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D90" s="44" t="s">
+      <c r="C90" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D90" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="E90" s="45" t="str">
+      <c r="E90" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>rmurphy</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>2348</v>
-      </c>
-      <c r="G90" s="44" t="str">
+        <v>2346</v>
+      </c>
+      <c r="G90" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v>"label" : { "id" : "a7311ed0-9ba6-4a6e-8066-caa2a2247991" , "functor" : "tag list" , "components" : [ { value" : "FAVORITE", "type" : "string" } ] },</v>
       </c>
-      <c r="H90" s="45" t="str">
+      <c r="H90" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A91)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://b65fb366-a405-41e9-82c5-f51726fad95b",  "trgt" : "agent://93a381ad-c00d-4ee3-9a5a-fa47308efe64" }  , </v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="46" t="s">
+      <c r="A91" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="B91" s="47" t="str">
+      <c r="B91" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>bbhattacharya</v>
       </c>
-      <c r="C91" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D91" s="44" t="s">
+      <c r="C91" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D91" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="E91" s="45" t="str">
+      <c r="E91" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>iungaro</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>2348</v>
-      </c>
-      <c r="G91" s="44" t="str">
+        <v>2346</v>
+      </c>
+      <c r="G91" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v>"label" : { "id" : "a7311ed0-9ba6-4a6e-8066-caa2a2247991" , "functor" : "tag list" , "components" : [ { value" : "FAVORITE", "type" : "string" } ] },</v>
       </c>
-      <c r="H91" s="45" t="str">
+      <c r="H91" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A92)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://4461f860-d367-4cb0-af03-332ea72e9053",  "trgt" : "agent://4c97d00a-f9b7-4073-93bc-968c29f4e86a" }  , </v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="46" t="s">
+      <c r="A92" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="B92" s="47" t="str">
+      <c r="B92" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>mpawar</v>
       </c>
-      <c r="C92" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D92" s="44" t="s">
+      <c r="C92" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D92" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="E92" s="45" t="str">
+      <c r="E92" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>mhill</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>2348</v>
-      </c>
-      <c r="G92" s="44" t="str">
+        <v>2346</v>
+      </c>
+      <c r="G92" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v>"label" : { "id" : "a7311ed0-9ba6-4a6e-8066-caa2a2247991" , "functor" : "tag list" , "components" : [ { value" : "FAVORITE", "type" : "string" } ] },</v>
       </c>
-      <c r="H92" s="45" t="str">
+      <c r="H92" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A93)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://2413be6a-7573-454d-a393-1d22e45c993b",  "trgt" : "agent://9202217f-e525-46e8-b539-8d2206a526d0" }  , </v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="46" t="s">
+      <c r="A93" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="B93" s="47" t="str">
+      <c r="B93" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>uchauha</v>
       </c>
-      <c r="C93" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D93" s="44" t="s">
+      <c r="C93" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D93" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="E93" s="45" t="str">
+      <c r="E93" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>nuppal</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>2348</v>
-      </c>
-      <c r="G93" s="44" t="str">
+        <v>2346</v>
+      </c>
+      <c r="G93" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v>"label" : { "id" : "a7311ed0-9ba6-4a6e-8066-caa2a2247991" , "functor" : "tag list" , "components" : [ { value" : "FAVORITE", "type" : "string" } ] },</v>
       </c>
-      <c r="H93" s="45" t="str">
+      <c r="H93" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A94)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://05a543f8-0d75-4a25-9b0f-2ef7c6ac85dc",  "trgt" : "agent://f9ad7bb7-1524-4e1a-bf8e-3611859f1875" }  , </v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="46" t="s">
+      <c r="A94" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="B94" s="47" t="str">
+      <c r="B94" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>sraina</v>
       </c>
-      <c r="C94" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D94" s="44" t="s">
+      <c r="C94" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D94" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="E94" s="45" t="str">
+      <c r="E94" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>apage</v>
       </c>
-      <c r="F94" s="45" t="s">
-        <v>2349</v>
-      </c>
-      <c r="G94" s="44" t="str">
+      <c r="F94" s="44" t="s">
+        <v>2347</v>
+      </c>
+      <c r="G94" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v>"label" : { "id" : "a7311ed0-9ba6-4a6e-8066-caa2a2247991" , "functor" : "tag list" , "components" : [ { value" : "IGNORE", "type" : "string" } ] },</v>
       </c>
-      <c r="H94" s="45" t="str">
+      <c r="H94" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A95)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://e6075665-67ee-49d2-8fde-61d8fc6ec50e",  "trgt" : "agent://f7fe2ff1-5756-4ff9-a3fd-15961118746b" }  , </v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="46" t="s">
+      <c r="A95" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="B95" s="47" t="str">
+      <c r="B95" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>atipnis</v>
       </c>
-      <c r="C95" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D95" s="44" t="s">
+      <c r="C95" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D95" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="E95" s="45" t="str">
+      <c r="E95" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>ethomas</v>
       </c>
-      <c r="F95" s="45" t="s">
-        <v>2349</v>
-      </c>
-      <c r="G95" s="44" t="str">
+      <c r="F95" s="44" t="s">
+        <v>2347</v>
+      </c>
+      <c r="G95" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v>"label" : { "id" : "a7311ed0-9ba6-4a6e-8066-caa2a2247991" , "functor" : "tag list" , "components" : [ { value" : "IGNORE", "type" : "string" } ] },</v>
       </c>
-      <c r="H95" s="45" t="str">
+      <c r="H95" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A96)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://9d4db68d-d527-4cb5-8a3b-c8d1c3ad3024",  "trgt" : "agent://b8616225-0496-417d-bcb9-be4a8bc54c7d" }  , </v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="46" t="s">
+      <c r="A96" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="B96" s="47" t="str">
+      <c r="B96" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>gsami</v>
       </c>
-      <c r="C96" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D96" s="44" t="s">
+      <c r="C96" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D96" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="E96" s="45" t="str">
+      <c r="E96" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>jdean</v>
       </c>
-      <c r="F96" s="45"/>
-      <c r="G96" s="44" t="str">
+      <c r="F96" s="44"/>
+      <c r="G96" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H96" s="45" t="str">
+      <c r="H96" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A97)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://79effdbf-2779-4049-be0b-d8c0c284046e",  "trgt" : "agent://8ae601e0-32dd-49d0-8c34-76196ad59861" }  , </v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="46" t="s">
+      <c r="A97" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="B97" s="47" t="str">
+      <c r="B97" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>mkant</v>
       </c>
-      <c r="C97" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D97" s="44" t="s">
+      <c r="C97" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D97" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="E97" s="45" t="str">
+      <c r="E97" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>uchauha</v>
       </c>
-      <c r="F97" s="45"/>
-      <c r="G97" s="44" t="str">
+      <c r="F97" s="44"/>
+      <c r="G97" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H97" s="45" t="str">
+      <c r="H97" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A98)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://7c0fc06b-4f02-4bf8-8aea-f0125f397555",  "trgt" : "agent://05a543f8-0d75-4a25-9b0f-2ef7c6ac85dc" }  , </v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="46" t="s">
+      <c r="A98" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="B98" s="47" t="str">
+      <c r="B98" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>dbhardwaj</v>
       </c>
-      <c r="C98" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D98" s="44" t="s">
+      <c r="C98" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D98" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="E98" s="45" t="str">
+      <c r="E98" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>mmachado</v>
       </c>
-      <c r="F98" s="45"/>
-      <c r="G98" s="44" t="str">
+      <c r="F98" s="44"/>
+      <c r="G98" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H98" s="45" t="str">
+      <c r="H98" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A99)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://fd2a800d-5bc8-4083-a2c9-4618900d5045",  "trgt" : "agent://dfe045e9-42ad-41e5-a2a0-9890b219e4f7" }  , </v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="46" t="s">
+      <c r="A99" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="B99" s="47" t="str">
+      <c r="B99" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>mnarula</v>
       </c>
-      <c r="C99" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D99" s="44" t="s">
+      <c r="C99" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D99" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="E99" s="45" t="str">
+      <c r="E99" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>mmachado</v>
       </c>
-      <c r="F99" s="45"/>
-      <c r="G99" s="44" t="str">
+      <c r="F99" s="44"/>
+      <c r="G99" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H99" s="45" t="str">
+      <c r="H99" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A100)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://3ccea8b2-c856-40ee-aff5-c19817be4ea6",  "trgt" : "agent://dfe045e9-42ad-41e5-a2a0-9890b219e4f7" }  , </v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="46" t="s">
+      <c r="A100" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="B100" s="47" t="str">
+      <c r="B100" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>aviswanathan</v>
       </c>
-      <c r="C100" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D100" s="44" t="s">
+      <c r="C100" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D100" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="E100" s="45" t="str">
+      <c r="E100" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>jreed</v>
       </c>
-      <c r="F100" s="45"/>
-      <c r="G100" s="44" t="str">
+      <c r="F100" s="44"/>
+      <c r="G100" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H100" s="45" t="str">
+      <c r="H100" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A101)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://f4b080c7-75ee-40b7-848c-a1824bfaa483",  "trgt" : "agent://5c06cf2d-4b1d-4ee7-b0ce-64bc5f1fd429" }  , </v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="46" t="s">
+      <c r="A101" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="B101" s="47" t="str">
+      <c r="B101" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>ybadal</v>
       </c>
-      <c r="C101" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D101" s="44" t="s">
+      <c r="C101" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D101" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="E101" s="45" t="str">
+      <c r="E101" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>apage</v>
       </c>
-      <c r="F101" s="45"/>
-      <c r="G101" s="44" t="str">
+      <c r="F101" s="44"/>
+      <c r="G101" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H101" s="45" t="str">
+      <c r="H101" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A102)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://502a7e29-40bb-4ebd-9666-a0651a920b9a",  "trgt" : "agent://f7fe2ff1-5756-4ff9-a3fd-15961118746b" }  , </v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="46" t="s">
+      <c r="A102" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="B102" s="47" t="str">
+      <c r="B102" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>mthakur</v>
       </c>
-      <c r="C102" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D102" s="44" t="s">
+      <c r="C102" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D102" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="E102" s="45" t="str">
+      <c r="E102" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>ghall</v>
       </c>
-      <c r="F102" s="45"/>
-      <c r="G102" s="44" t="str">
+      <c r="F102" s="44"/>
+      <c r="G102" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H102" s="45" t="str">
+      <c r="H102" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A103)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://192a8f61-aac0-4261-918c-b1a31f8f26f6",  "trgt" : "agent://43a9f1ee-41d1-4181-9360-4415f9624ce2" }  , </v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="46" t="s">
+      <c r="A103" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="B103" s="47" t="str">
+      <c r="B103" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>vdey</v>
       </c>
-      <c r="C103" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D103" s="44" t="s">
+      <c r="C103" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D103" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="E103" s="45" t="str">
+      <c r="E103" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>bsaqqaf</v>
       </c>
-      <c r="F103" s="45"/>
-      <c r="G103" s="44" t="str">
+      <c r="F103" s="44"/>
+      <c r="G103" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H103" s="45" t="str">
+      <c r="H103" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A104)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://e4b86eaf-25ba-4ad5-a52e-35b5c9c17b70",  "trgt" : "agent://5da946b7-7b4e-4e7b-8cfd-4eb5c020b0c0" }  , </v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="46" t="s">
+      <c r="A104" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="B104" s="47" t="str">
+      <c r="B104" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>mharrison</v>
       </c>
-      <c r="C104" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D104" s="44" t="s">
+      <c r="C104" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D104" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="E104" s="45" t="str">
+      <c r="E104" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>bsaqqaf</v>
       </c>
-      <c r="F104" s="45"/>
-      <c r="G104" s="44" t="str">
+      <c r="F104" s="44"/>
+      <c r="G104" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H104" s="45" t="str">
+      <c r="H104" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A105)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://aa1a1b4b-c9b4-4d72-96ac-f45f38802f70",  "trgt" : "agent://5da946b7-7b4e-4e7b-8cfd-4eb5c020b0c0" }  , </v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="61" t="s">
+      <c r="A105" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="B105" s="62" t="str">
+      <c r="B105" s="54" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>erice</v>
       </c>
-      <c r="C105" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D105" s="44" t="s">
+      <c r="C105" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D105" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="E105" s="45" t="str">
+      <c r="E105" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>tantall</v>
       </c>
-      <c r="F105" s="45"/>
-      <c r="G105" s="44" t="str">
+      <c r="F105" s="44"/>
+      <c r="G105" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H105" s="45" t="str">
+      <c r="H105" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A106)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://90139a7b-12bc-4ca1-b8c1-05f15f8baeb3",  "trgt" : "agent://476aab86-01a7-4cc8-a80e-b2f36ad6ed0e" }  , </v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="61" t="s">
+      <c r="A106" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="B106" s="62" t="str">
+      <c r="B106" s="54" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>jhart</v>
       </c>
-      <c r="C106" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D106" s="44" t="s">
+      <c r="C106" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D106" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="E106" s="45" t="str">
+      <c r="E106" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>hhorton</v>
       </c>
-      <c r="F106" s="45"/>
-      <c r="G106" s="44" t="str">
+      <c r="F106" s="44"/>
+      <c r="G106" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H106" s="45" t="str">
+      <c r="H106" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A107)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://af4ffdd5-8e19-425f-9ff0-2be6fe96c244",  "trgt" : "agent://f5cd3cf1-f5d3-4f50-a951-e898b9272eb1" }  , </v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="61" t="s">
+      <c r="A107" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="B107" s="62" t="str">
+      <c r="B107" s="54" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>jlawson</v>
       </c>
-      <c r="C107" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D107" s="44" t="s">
+      <c r="C107" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D107" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="E107" s="45" t="str">
+      <c r="E107" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>dbhardwaj</v>
       </c>
-      <c r="F107" s="45"/>
-      <c r="G107" s="44" t="str">
+      <c r="F107" s="44"/>
+      <c r="G107" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H107" s="45" t="str">
+      <c r="H107" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A108)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://2317c0f4-c75a-4130-9965-c039bc39db62",  "trgt" : "agent://fd2a800d-5bc8-4083-a2c9-4618900d5045" }  , </v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="46" t="s">
+      <c r="A108" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="B108" s="47" t="str">
+      <c r="B108" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>jdean</v>
       </c>
-      <c r="C108" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D108" s="44" t="s">
+      <c r="C108" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D108" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="E108" s="45" t="str">
+      <c r="E108" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>jdean</v>
       </c>
-      <c r="F108" s="45"/>
-      <c r="G108" s="44" t="str">
+      <c r="F108" s="44"/>
+      <c r="G108" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H108" s="45" t="str">
+      <c r="H108" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A109)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://8ae601e0-32dd-49d0-8c34-76196ad59861",  "trgt" : "agent://8ae601e0-32dd-49d0-8c34-76196ad59861" }  , </v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="46" t="s">
+      <c r="A109" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="B109" s="47" t="str">
+      <c r="B109" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>hhorton</v>
       </c>
-      <c r="C109" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D109" s="44" t="s">
+      <c r="C109" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D109" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="E109" s="45" t="str">
+      <c r="E109" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>gmiller</v>
       </c>
-      <c r="F109" s="45"/>
-      <c r="G109" s="44" t="str">
+      <c r="F109" s="44"/>
+      <c r="G109" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H109" s="45" t="str">
+      <c r="H109" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A110)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://f5cd3cf1-f5d3-4f50-a951-e898b9272eb1",  "trgt" : "agent://a0182840-d318-48dc-a2f9-550d9a39b9b5" }  , </v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="46" t="s">
+      <c r="A110" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="B110" s="47" t="str">
+      <c r="B110" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>lfrank</v>
       </c>
-      <c r="C110" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D110" s="44" t="s">
+      <c r="C110" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D110" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="E110" s="45" t="str">
+      <c r="E110" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>mhakim</v>
       </c>
-      <c r="F110" s="45"/>
-      <c r="G110" s="44" t="str">
+      <c r="F110" s="44"/>
+      <c r="G110" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H110" s="45" t="str">
+      <c r="H110" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A111)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://ed51310a-b84e-4864-9ada-583139871511",  "trgt" : "agent://af258f6f-4dea-4f5a-936d-be49c638b262" }  , </v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="46" t="s">
+      <c r="A111" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="B111" s="47" t="str">
+      <c r="B111" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>mhill</v>
       </c>
-      <c r="C111" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D111" s="44" t="s">
+      <c r="C111" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D111" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="E111" s="45" t="str">
+      <c r="E111" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>mrao</v>
       </c>
-      <c r="F111" s="45"/>
-      <c r="G111" s="44" t="str">
+      <c r="F111" s="44"/>
+      <c r="G111" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H111" s="45" t="str">
+      <c r="H111" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A112)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://9202217f-e525-46e8-b539-8d2206a526d0",  "trgt" : "agent://904e5b1e-1314-41da-bdac-f79ff7722e77" }  , </v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="46" t="s">
+      <c r="A112" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="B112" s="47" t="str">
+      <c r="B112" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>nmendez</v>
       </c>
-      <c r="C112" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D112" s="44" t="s">
+      <c r="C112" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D112" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="E112" s="45" t="str">
+      <c r="E112" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>kabdulrashid</v>
       </c>
-      <c r="F112" s="45"/>
-      <c r="G112" s="44" t="str">
+      <c r="F112" s="44"/>
+      <c r="G112" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H112" s="45" t="str">
+      <c r="H112" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A113)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://2e7de2ea-9a33-4fd1-aeff-3ab2abf40adc",  "trgt" : "agent://5a452f49-bb74-4f96-8656-65f6df9856be" }  , </v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="46" t="s">
+      <c r="A113" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="B113" s="47" t="str">
+      <c r="B113" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>gmiller</v>
       </c>
-      <c r="C113" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D113" s="44" t="s">
+      <c r="C113" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D113" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="E113" s="45" t="str">
+      <c r="E113" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>rmurphy</v>
       </c>
-      <c r="F113" s="45"/>
-      <c r="G113" s="44" t="str">
+      <c r="F113" s="44"/>
+      <c r="G113" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H113" s="45" t="str">
+      <c r="H113" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A114)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://a0182840-d318-48dc-a2f9-550d9a39b9b5",  "trgt" : "agent://93a381ad-c00d-4ee3-9a5a-fa47308efe64" }  , </v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="46" t="s">
+      <c r="A114" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="B114" s="47" t="str">
+      <c r="B114" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>jreed</v>
       </c>
-      <c r="C114" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D114" s="44" t="s">
+      <c r="C114" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D114" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="E114" s="45" t="str">
+      <c r="E114" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>esheinfeld</v>
       </c>
-      <c r="F114" s="45"/>
-      <c r="G114" s="44" t="str">
+      <c r="F114" s="44"/>
+      <c r="G114" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H114" s="45" t="str">
+      <c r="H114" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A115)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://5c06cf2d-4b1d-4ee7-b0ce-64bc5f1fd429",  "trgt" : "agent://1e15d29f-3bfc-4c23-8be7-6f4bb0e19df9" }  , </v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="46" t="s">
+      <c r="A115" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="B115" s="47" t="str">
+      <c r="B115" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>danderson</v>
       </c>
-      <c r="C115" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D115" s="44" t="s">
+      <c r="C115" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D115" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="E115" s="45" t="str">
+      <c r="E115" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>uchauha</v>
       </c>
-      <c r="F115" s="45"/>
-      <c r="G115" s="44" t="str">
+      <c r="F115" s="44"/>
+      <c r="G115" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H115" s="45" t="str">
+      <c r="H115" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A116)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://622eae32-5c48-4c2f-8b93-dc655380e0e5",  "trgt" : "agent://05a543f8-0d75-4a25-9b0f-2ef7c6ac85dc" }  , </v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="46" t="s">
+      <c r="A116" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="B116" s="47" t="str">
+      <c r="B116" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>wcoleman</v>
       </c>
-      <c r="C116" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D116" s="44" t="s">
+      <c r="C116" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D116" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="E116" s="45" t="str">
+      <c r="E116" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>anarayan</v>
       </c>
-      <c r="F116" s="45"/>
-      <c r="G116" s="44" t="str">
+      <c r="F116" s="44"/>
+      <c r="G116" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H116" s="45" t="str">
+      <c r="H116" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A117)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://23843ee2-0209-4809-9929-f33cc315fcc0",  "trgt" : "agent://c6a3c02e-5724-4a35-adc7-ddc37d3c721b" }  , </v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="46" t="s">
+      <c r="A117" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="B117" s="47" t="str">
+      <c r="B117" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>mmartin</v>
       </c>
-      <c r="C117" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D117" s="44" t="s">
+      <c r="C117" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D117" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="E117" s="45" t="str">
+      <c r="E117" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>mstilo</v>
       </c>
-      <c r="F117" s="45"/>
-      <c r="G117" s="44" t="str">
+      <c r="F117" s="44"/>
+      <c r="G117" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H117" s="45" t="str">
+      <c r="H117" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A118)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://6300a1bb-906c-4013-82cc-4d30f62dfac5",  "trgt" : "agent://1a1bb32e-3a44-4ce1-be6f-6095ff8306dc" }  , </v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="46" t="s">
+      <c r="A118" s="45" t="s">
         <v>198</v>
       </c>
-      <c r="B118" s="47" t="str">
+      <c r="B118" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>iperry</v>
       </c>
-      <c r="C118" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D118" s="44" t="s">
+      <c r="C118" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D118" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="E118" s="45" t="str">
+      <c r="E118" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>ddaniau</v>
       </c>
-      <c r="F118" s="45"/>
-      <c r="G118" s="44" t="str">
+      <c r="F118" s="44"/>
+      <c r="G118" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H118" s="45" t="str">
+      <c r="H118" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A119)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://13421f9e-1bff-4575-820d-1806c8d31190",  "trgt" : "agent://dd8bdf36-fdd1-4046-9fb7-f36848840cdd" }  , </v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="46" t="s">
+      <c r="A119" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="B119" s="47" t="str">
+      <c r="B119" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>rperez</v>
       </c>
-      <c r="C119" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D119" s="44" t="s">
+      <c r="C119" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D119" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="E119" s="45" t="str">
+      <c r="E119" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>mthakur</v>
       </c>
-      <c r="F119" s="45"/>
-      <c r="G119" s="44" t="str">
+      <c r="F119" s="44"/>
+      <c r="G119" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H119" s="45" t="str">
+      <c r="H119" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A120)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://a2ecef3f-df23-467a-bfe1-1fa2d331442d",  "trgt" : "agent://192a8f61-aac0-4261-918c-b1a31f8f26f6" }  , </v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="46" t="s">
+      <c r="A120" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="B120" s="47" t="str">
+      <c r="B120" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>mmorris</v>
       </c>
-      <c r="C120" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D120" s="44" t="s">
+      <c r="C120" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D120" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="E120" s="45" t="str">
+      <c r="E120" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>jdean</v>
       </c>
-      <c r="F120" s="45"/>
-      <c r="G120" s="44" t="str">
+      <c r="F120" s="44"/>
+      <c r="G120" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H120" s="45" t="str">
+      <c r="H120" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A121)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://ee988673-4459-4630-91c3-6f6d9084641e",  "trgt" : "agent://8ae601e0-32dd-49d0-8c34-76196ad59861" }  , </v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="46" t="s">
+      <c r="A121" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="B121" s="47" t="str">
+      <c r="B121" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>rmurphy</v>
       </c>
-      <c r="C121" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D121" s="44" t="s">
+      <c r="C121" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D121" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="E121" s="45" t="str">
+      <c r="E121" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>nmendez</v>
       </c>
-      <c r="F121" s="45"/>
-      <c r="G121" s="44" t="str">
+      <c r="F121" s="44"/>
+      <c r="G121" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H121" s="45" t="str">
+      <c r="H121" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A122)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://93a381ad-c00d-4ee3-9a5a-fa47308efe64",  "trgt" : "agent://2e7de2ea-9a33-4fd1-aeff-3ab2abf40adc" }  , </v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="46" t="s">
+      <c r="A122" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="B122" s="47" t="str">
+      <c r="B122" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>ethomas</v>
       </c>
-      <c r="C122" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D122" s="44" t="s">
+      <c r="C122" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D122" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="E122" s="45" t="str">
+      <c r="E122" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>kmoore</v>
       </c>
-      <c r="F122" s="45"/>
-      <c r="G122" s="44" t="str">
+      <c r="F122" s="44"/>
+      <c r="G122" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H122" s="45" t="str">
+      <c r="H122" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A123)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://b8616225-0496-417d-bcb9-be4a8bc54c7d",  "trgt" : "agent://bc9721c0-6db1-4dd3-a5e2-4e3823ac112b" }  , </v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="46" t="s">
+      <c r="A123" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="B123" s="47" t="str">
+      <c r="B123" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>kmoore</v>
       </c>
-      <c r="C123" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D123" s="44" t="s">
+      <c r="C123" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D123" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="E123" s="45" t="str">
+      <c r="E123" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>kestévez</v>
       </c>
-      <c r="F123" s="45"/>
-      <c r="G123" s="44" t="str">
+      <c r="F123" s="44"/>
+      <c r="G123" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H123" s="45" t="str">
+      <c r="H123" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A124)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://bc9721c0-6db1-4dd3-a5e2-4e3823ac112b",  "trgt" : "agent://9497068c-5c42-48e2-8de9-14a2e44dc651" }  , </v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="46" t="s">
+      <c r="A124" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="B124" s="47" t="str">
+      <c r="B124" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>dmoore</v>
       </c>
-      <c r="C124" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D124" s="44" t="s">
+      <c r="C124" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D124" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="E124" s="45" t="str">
+      <c r="E124" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>ibabu</v>
       </c>
-      <c r="F124" s="45"/>
-      <c r="G124" s="44" t="str">
+      <c r="F124" s="44"/>
+      <c r="G124" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H124" s="45" t="str">
+      <c r="H124" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A125)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://11252d6b-4da4-4fbd-8fe8-d7f36ffbd4c7",  "trgt" : "agent://23c3669c-de78-4a5d-8c15-4a3792a96f10" }  , </v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="46" t="s">
+      <c r="A125" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="B125" s="47" t="str">
+      <c r="B125" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>hdreesens</v>
       </c>
-      <c r="C125" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D125" s="44" t="s">
+      <c r="C125" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D125" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="E125" s="45" t="str">
+      <c r="E125" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>livelygig</v>
       </c>
-      <c r="F125" s="45"/>
-      <c r="G125" s="44" t="str">
+      <c r="F125" s="44"/>
+      <c r="G125" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H125" s="45" t="str">
+      <c r="H125" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A126)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://dbcc610b-ab0e-4a82-9aba-af849ffb6b6b",  "trgt" : "agent://768fd55e-2295-4511-9e19-04a8f29f9d9e" }  , </v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="46" t="s">
+      <c r="A126" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="B126" s="47" t="str">
+      <c r="B126" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>lborde</v>
       </c>
-      <c r="C126" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D126" s="44" t="s">
+      <c r="C126" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D126" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="E126" s="45" t="str">
+      <c r="E126" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>aamirmoez</v>
       </c>
-      <c r="F126" s="45"/>
-      <c r="G126" s="44" t="str">
+      <c r="F126" s="44"/>
+      <c r="G126" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H126" s="45" t="str">
+      <c r="H126" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A127)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://cb979e8b-8c81-42fe-a093-455a823f067d",  "trgt" : "agent://04171b5e-c892-4647-aba2-9eed98b15214" }  , </v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="46" t="s">
+      <c r="A127" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="B127" s="47" t="str">
+      <c r="B127" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>mdragomirov</v>
       </c>
-      <c r="C127" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D127" s="44" t="s">
+      <c r="C127" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D127" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="E127" s="45" t="str">
+      <c r="E127" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>rvogts</v>
       </c>
-      <c r="F127" s="45"/>
-      <c r="G127" s="44" t="str">
+      <c r="F127" s="44"/>
+      <c r="G127" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H127" s="45" t="str">
+      <c r="H127" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A128)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://770495fe-e2b3-43aa-925a-dc4223a99c92",  "trgt" : "agent://b54e7190-040d-469d-8836-dd7afa6aed91" }  , </v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="46" t="s">
+      <c r="A128" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="B128" s="47" t="str">
+      <c r="B128" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>dcastro</v>
       </c>
-      <c r="C128" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D128" s="44" t="s">
+      <c r="C128" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D128" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="E128" s="45" t="str">
+      <c r="E128" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>famador</v>
       </c>
-      <c r="F128" s="45"/>
-      <c r="G128" s="44" t="str">
+      <c r="F128" s="44"/>
+      <c r="G128" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H128" s="45" t="str">
+      <c r="H128" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A129)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://4c6642bc-dfe4-45d6-8077-52210d6dff15",  "trgt" : "agent://7766a637-23b8-44aa-a043-3ccba9693d98" }  , </v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="46" t="s">
+      <c r="A129" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="B129" s="47" t="str">
+      <c r="B129" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>rvogts</v>
       </c>
-      <c r="C129" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D129" s="44" t="s">
+      <c r="C129" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D129" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="E129" s="45" t="str">
+      <c r="E129" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>iperry</v>
       </c>
-      <c r="F129" s="45"/>
-      <c r="G129" s="44" t="str">
+      <c r="F129" s="44"/>
+      <c r="G129" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H129" s="45" t="str">
+      <c r="H129" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A130)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://b54e7190-040d-469d-8836-dd7afa6aed91",  "trgt" : "agent://13421f9e-1bff-4575-820d-1806c8d31190" }  , </v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="46" t="s">
+      <c r="A130" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="B130" s="47" t="str">
+      <c r="B130" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>sseward</v>
       </c>
-      <c r="C130" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D130" s="44" t="s">
+      <c r="C130" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D130" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="E130" s="45" t="str">
+      <c r="E130" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>mdragomirov</v>
       </c>
-      <c r="F130" s="45"/>
-      <c r="G130" s="44" t="str">
+      <c r="F130" s="44"/>
+      <c r="G130" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H130" s="45" t="str">
+      <c r="H130" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A131)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://2af95444-262e-4d3d-93e4-3e9b09d8cc2f",  "trgt" : "agent://770495fe-e2b3-43aa-925a-dc4223a99c92" }  , </v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="46" t="s">
+      <c r="A131" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="B131" s="47" t="str">
+      <c r="B131" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>mstilo</v>
       </c>
-      <c r="C131" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D131" s="44" t="s">
+      <c r="C131" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D131" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="E131" s="45" t="str">
+      <c r="E131" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>rmurphy</v>
       </c>
-      <c r="F131" s="45"/>
-      <c r="G131" s="44" t="str">
+      <c r="F131" s="44"/>
+      <c r="G131" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H131" s="45" t="str">
+      <c r="H131" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A132)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://1a1bb32e-3a44-4ce1-be6f-6095ff8306dc",  "trgt" : "agent://93a381ad-c00d-4ee3-9a5a-fa47308efe64" }  , </v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="46" t="s">
+      <c r="A132" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="B132" s="47" t="str">
+      <c r="B132" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>iungaro</v>
       </c>
-      <c r="C132" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D132" s="44" t="s">
+      <c r="C132" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D132" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="E132" s="45" t="str">
+      <c r="E132" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>iliao</v>
       </c>
-      <c r="F132" s="45"/>
-      <c r="G132" s="44" t="str">
+      <c r="F132" s="44"/>
+      <c r="G132" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H132" s="45" t="str">
+      <c r="H132" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A133)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://4c97d00a-f9b7-4073-93bc-968c29f4e86a",  "trgt" : "agent://a4ebdfba-9bc3-4d91-98cc-7f652d849c3a" }  , </v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="46" t="s">
+      <c r="A133" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="B133" s="47" t="str">
+      <c r="B133" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>famador</v>
       </c>
-      <c r="C133" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D133" s="44" t="s">
+      <c r="C133" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D133" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="E133" s="45" t="str">
+      <c r="E133" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>mlamberti</v>
       </c>
-      <c r="F133" s="45"/>
-      <c r="G133" s="44" t="str">
+      <c r="F133" s="44"/>
+      <c r="G133" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H133" s="45" t="str">
+      <c r="H133" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A134)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://7766a637-23b8-44aa-a043-3ccba9693d98",  "trgt" : "agent://0689abfa-06cc-49a5-adb6-0e53134b0958" }  , </v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="46" t="s">
+      <c r="A134" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="B134" s="47" t="str">
+      <c r="B134" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>mlamberti</v>
       </c>
-      <c r="C134" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D134" s="44" t="s">
+      <c r="C134" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D134" s="43" t="s">
         <v>229</v>
       </c>
-      <c r="E134" s="45" t="str">
+      <c r="E134" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>ymasson</v>
       </c>
-      <c r="F134" s="45"/>
-      <c r="G134" s="44" t="str">
+      <c r="F134" s="44"/>
+      <c r="G134" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H134" s="45" t="str">
+      <c r="H134" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A135)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://0689abfa-06cc-49a5-adb6-0e53134b0958",  "trgt" : "agent://16b3ad7e-8e05-4f35-a81a-4e28b3456f73" }  , </v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="46" t="s">
+      <c r="A135" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="B135" s="47" t="str">
+      <c r="B135" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>tantall</v>
       </c>
-      <c r="C135" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D135" s="44" t="s">
+      <c r="C135" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D135" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="E135" s="45" t="str">
+      <c r="E135" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>mkant</v>
       </c>
-      <c r="F135" s="45"/>
-      <c r="G135" s="44" t="str">
+      <c r="F135" s="44"/>
+      <c r="G135" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H135" s="45" t="str">
+      <c r="H135" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A136)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://476aab86-01a7-4cc8-a80e-b2f36ad6ed0e",  "trgt" : "agent://7c0fc06b-4f02-4bf8-8aea-f0125f397555" }  , </v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="46" t="s">
+      <c r="A136" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="B136" s="47" t="str">
+      <c r="B136" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>mdonalds</v>
       </c>
-      <c r="C136" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D136" s="44" t="s">
+      <c r="C136" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D136" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="E136" s="45" t="str">
+      <c r="E136" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>dmoore</v>
       </c>
-      <c r="F136" s="45"/>
-      <c r="G136" s="44" t="str">
+      <c r="F136" s="44"/>
+      <c r="G136" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H136" s="45" t="str">
+      <c r="H136" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A137)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://9c51c8d1-1948-4d63-9dc1-31e7ffe40865",  "trgt" : "agent://11252d6b-4da4-4fbd-8fe8-d7f36ffbd4c7" }  , </v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="46" t="s">
+      <c r="A137" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="B137" s="47" t="str">
+      <c r="B137" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>svincent</v>
       </c>
-      <c r="C137" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D137" s="44" t="s">
+      <c r="C137" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D137" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="E137" s="45" t="str">
+      <c r="E137" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>anarayan</v>
       </c>
-      <c r="F137" s="45"/>
-      <c r="G137" s="44" t="str">
+      <c r="F137" s="44"/>
+      <c r="G137" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H137" s="45" t="str">
+      <c r="H137" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A138)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://4f773a4e-d1f7-4eb4-9a6f-5f81919bd4c5",  "trgt" : "agent://c6a3c02e-5724-4a35-adc7-ddc37d3c721b" }  , </v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="46" t="s">
+      <c r="A138" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="B138" s="47" t="str">
+      <c r="B138" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>kdragic</v>
       </c>
-      <c r="C138" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D138" s="44" t="s">
+      <c r="C138" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D138" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="E138" s="45" t="str">
+      <c r="E138" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>mrao</v>
       </c>
-      <c r="F138" s="45"/>
-      <c r="G138" s="44" t="str">
+      <c r="F138" s="44"/>
+      <c r="G138" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H138" s="45" t="str">
+      <c r="H138" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A139)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://94a8c78e-a71b-449d-aee7-38590853c242",  "trgt" : "agent://904e5b1e-1314-41da-bdac-f79ff7722e77" }  , </v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="46" t="s">
+      <c r="A139" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="B139" s="47" t="str">
+      <c r="B139" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>rsarkozi</v>
       </c>
-      <c r="C139" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D139" s="44" t="s">
+      <c r="C139" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D139" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="E139" s="45" t="str">
+      <c r="E139" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>aamirmoez</v>
       </c>
-      <c r="F139" s="45"/>
-      <c r="G139" s="44" t="str">
+      <c r="F139" s="44"/>
+      <c r="G139" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H139" s="45" t="str">
+      <c r="H139" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A140)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://23e9ff8a-c0fd-40a3-8849-a1f1579f1179",  "trgt" : "agent://04171b5e-c892-4647-aba2-9eed98b15214" }  , </v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="46" t="s">
+      <c r="A140" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="B140" s="47" t="str">
+      <c r="B140" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>ghall</v>
       </c>
-      <c r="C140" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D140" s="44" t="s">
+      <c r="C140" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D140" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="E140" s="45" t="str">
+      <c r="E140" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>mhakim</v>
       </c>
-      <c r="F140" s="45"/>
-      <c r="G140" s="44" t="str">
+      <c r="F140" s="44"/>
+      <c r="G140" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H140" s="45" t="str">
+      <c r="H140" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A141)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://43a9f1ee-41d1-4181-9360-4415f9624ce2",  "trgt" : "agent://af258f6f-4dea-4f5a-936d-be49c638b262" }  , </v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="46" t="s">
+      <c r="A141" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="B141" s="47" t="str">
+      <c r="B141" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>myap</v>
       </c>
-      <c r="C141" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D141" s="44" t="s">
+      <c r="C141" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D141" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="E141" s="45" t="str">
+      <c r="E141" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>mmachado</v>
       </c>
-      <c r="F141" s="45"/>
-      <c r="G141" s="44" t="str">
+      <c r="F141" s="44"/>
+      <c r="G141" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H141" s="45" t="str">
+      <c r="H141" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A142)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://cb4ac0f8-8d6e-4458-a018-66484ce4dff9",  "trgt" : "agent://dfe045e9-42ad-41e5-a2a0-9890b219e4f7" }  , </v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="46" t="s">
+      <c r="A142" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="B142" s="47" t="str">
+      <c r="B142" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>csalvage</v>
       </c>
-      <c r="C142" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D142" s="44" t="s">
+      <c r="C142" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D142" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="E142" s="45" t="str">
+      <c r="E142" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>livelygig</v>
       </c>
-      <c r="F142" s="45"/>
-      <c r="G142" s="44" t="str">
+      <c r="F142" s="44"/>
+      <c r="G142" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H142" s="45" t="str">
+      <c r="H142" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A143)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://d57e47d9-3ad4-45d3-9dd9-c7898dcfbfbc",  "trgt" : "agent://768fd55e-2295-4511-9e19-04a8f29f9d9e" }  , </v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="46" t="s">
+      <c r="A143" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="B143" s="47" t="str">
+      <c r="B143" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>dnagy</v>
       </c>
-      <c r="C143" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D143" s="44" t="s">
+      <c r="C143" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D143" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="E143" s="45" t="str">
+      <c r="E143" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>livelygig</v>
       </c>
-      <c r="F143" s="45"/>
-      <c r="G143" s="44" t="str">
+      <c r="F143" s="44"/>
+      <c r="G143" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H143" s="45" t="str">
+      <c r="H143" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A144)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://3637b365-f83f-4746-9bad-041537e4ff2c",  "trgt" : "agent://768fd55e-2295-4511-9e19-04a8f29f9d9e" }  , </v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="46" t="s">
+      <c r="A144" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="B144" s="47" t="str">
+      <c r="B144" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>kestévez</v>
       </c>
-      <c r="C144" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D144" s="44" t="s">
+      <c r="C144" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D144" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="E144" s="45" t="str">
+      <c r="E144" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>uchauha</v>
       </c>
-      <c r="F144" s="45"/>
-      <c r="G144" s="44" t="str">
+      <c r="F144" s="44"/>
+      <c r="G144" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H144" s="45" t="str">
+      <c r="H144" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A145)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://9497068c-5c42-48e2-8de9-14a2e44dc651",  "trgt" : "agent://05a543f8-0d75-4a25-9b0f-2ef7c6ac85dc" }  , </v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="46" t="s">
+      <c r="A145" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="B145" s="47" t="str">
+      <c r="B145" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>mmachado</v>
       </c>
-      <c r="C145" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D145" s="44" t="s">
+      <c r="C145" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D145" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="E145" s="45" t="str">
+      <c r="E145" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>kdragic</v>
       </c>
-      <c r="F145" s="45"/>
-      <c r="G145" s="44" t="str">
+      <c r="F145" s="44"/>
+      <c r="G145" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H145" s="45" t="str">
+      <c r="H145" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A146)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://dfe045e9-42ad-41e5-a2a0-9890b219e4f7",  "trgt" : "agent://94a8c78e-a71b-449d-aee7-38590853c242" }  , </v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="46" t="s">
+      <c r="A146" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="B146" s="47" t="str">
+      <c r="B146" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>dbenitez</v>
       </c>
-      <c r="C146" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D146" s="44" t="s">
+      <c r="C146" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D146" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="E146" s="45" t="str">
+      <c r="E146" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>ralfarsi</v>
       </c>
-      <c r="F146" s="45"/>
-      <c r="G146" s="44" t="str">
+      <c r="F146" s="44"/>
+      <c r="G146" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H146" s="45" t="str">
+      <c r="H146" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A147)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://955f3107-fd5f-46bc-a28d-f18f82cc8cf6",  "trgt" : "agent://95580059-5628-403f-81c8-a3c5aa4d91ec" }  , </v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="46" t="s">
+      <c r="A147" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="B147" s="47" t="str">
+      <c r="B147" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>apage</v>
       </c>
-      <c r="C147" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D147" s="44" t="s">
+      <c r="C147" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D147" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="E147" s="45" t="str">
+      <c r="E147" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>jlawson</v>
       </c>
-      <c r="F147" s="45"/>
-      <c r="G147" s="44" t="str">
+      <c r="F147" s="44"/>
+      <c r="G147" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H147" s="45" t="str">
+      <c r="H147" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A148)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://f7fe2ff1-5756-4ff9-a3fd-15961118746b",  "trgt" : "agent://2317c0f4-c75a-4130-9965-c039bc39db62" }  , </v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="46" t="s">
+      <c r="A148" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="B148" s="47" t="str">
+      <c r="B148" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>alim</v>
       </c>
-      <c r="C148" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D148" s="44" t="s">
+      <c r="C148" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D148" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="E148" s="45" t="str">
+      <c r="E148" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>sraina</v>
       </c>
-      <c r="F148" s="45"/>
-      <c r="G148" s="44" t="str">
+      <c r="F148" s="44"/>
+      <c r="G148" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H148" s="45" t="str">
+      <c r="H148" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A149)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://4588b052-b643-4add-ade9-803c3607ffbd",  "trgt" : "agent://e6075665-67ee-49d2-8fde-61d8fc6ec50e" }  , </v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="46" t="s">
+      <c r="A149" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="B149" s="47" t="str">
+      <c r="B149" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>ymasson</v>
       </c>
-      <c r="C149" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D149" s="44" t="s">
+      <c r="C149" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D149" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="E149" s="45" t="str">
+      <c r="E149" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>esheinfeld</v>
       </c>
-      <c r="F149" s="45"/>
-      <c r="G149" s="44" t="str">
+      <c r="F149" s="44"/>
+      <c r="G149" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H149" s="45" t="str">
+      <c r="H149" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A150)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://16b3ad7e-8e05-4f35-a81a-4e28b3456f73",  "trgt" : "agent://1e15d29f-3bfc-4c23-8be7-6f4bb0e19df9" }  , </v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="46" t="s">
+      <c r="A150" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="B150" s="47" t="str">
+      <c r="B150" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>cmendel</v>
       </c>
-      <c r="C150" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D150" s="44" t="s">
+      <c r="C150" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D150" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="E150" s="45" t="str">
+      <c r="E150" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>iperry</v>
       </c>
-      <c r="F150" s="45"/>
-      <c r="G150" s="44" t="str">
+      <c r="F150" s="44"/>
+      <c r="G150" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H150" s="45" t="str">
+      <c r="H150" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A151)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://63653fbb-2f01-4952-a455-a637f46db7ee",  "trgt" : "agent://13421f9e-1bff-4575-820d-1806c8d31190" }  , </v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="46" t="s">
+      <c r="A151" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="B151" s="47" t="str">
+      <c r="B151" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>lchevrolet</v>
       </c>
-      <c r="C151" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D151" s="44" t="s">
+      <c r="C151" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D151" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="E151" s="45" t="str">
+      <c r="E151" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>lfrank</v>
       </c>
-      <c r="F151" s="45"/>
-      <c r="G151" s="44" t="str">
+      <c r="F151" s="44"/>
+      <c r="G151" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H151" s="45" t="str">
+      <c r="H151" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A152)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://d1567958-1d4b-48eb-9613-fbfe7dc352b4",  "trgt" : "agent://ed51310a-b84e-4864-9ada-583139871511" }  , </v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="46" t="s">
+      <c r="A152" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="B152" s="47" t="str">
+      <c r="B152" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>esheinfeld</v>
       </c>
-      <c r="C152" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D152" s="44" t="s">
+      <c r="C152" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D152" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="E152" s="45" t="str">
+      <c r="E152" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>iliao</v>
       </c>
-      <c r="F152" s="45"/>
-      <c r="G152" s="44" t="str">
+      <c r="F152" s="44"/>
+      <c r="G152" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H152" s="45" t="str">
+      <c r="H152" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A153)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://1e15d29f-3bfc-4c23-8be7-6f4bb0e19df9",  "trgt" : "agent://a4ebdfba-9bc3-4d91-98cc-7f652d849c3a" }  , </v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="46" t="s">
+      <c r="A153" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="B153" s="47" t="str">
+      <c r="B153" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>ddaniau</v>
       </c>
-      <c r="C153" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D153" s="44" t="s">
+      <c r="C153" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D153" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="E153" s="45" t="str">
+      <c r="E153" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>kmoore</v>
       </c>
-      <c r="F153" s="45"/>
-      <c r="G153" s="44" t="str">
+      <c r="F153" s="44"/>
+      <c r="G153" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H153" s="45" t="str">
+      <c r="H153" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A154)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://dd8bdf36-fdd1-4046-9fb7-f36848840cdd",  "trgt" : "agent://bc9721c0-6db1-4dd3-a5e2-4e3823ac112b" }  , </v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="46" t="s">
+      <c r="A154" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="B154" s="47" t="str">
+      <c r="B154" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>tzhu</v>
       </c>
-      <c r="C154" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D154" s="44" t="s">
+      <c r="C154" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D154" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="E154" s="45" t="str">
+      <c r="E154" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>esheinfeld</v>
       </c>
-      <c r="F154" s="45"/>
-      <c r="G154" s="44" t="str">
+      <c r="F154" s="44"/>
+      <c r="G154" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H154" s="45" t="str">
+      <c r="H154" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A155)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://b320523a-00e1-4700-bdac-8ff06aad24fc",  "trgt" : "agent://1e15d29f-3bfc-4c23-8be7-6f4bb0e19df9" }  , </v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="46" t="s">
+      <c r="A155" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="B155" s="47" t="str">
+      <c r="B155" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>mhakim</v>
       </c>
-      <c r="C155" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D155" s="44" t="s">
+      <c r="C155" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D155" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="E155" s="45" t="str">
+      <c r="E155" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>jdean</v>
       </c>
-      <c r="F155" s="45"/>
-      <c r="G155" s="44" t="str">
+      <c r="F155" s="44"/>
+      <c r="G155" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H155" s="45" t="str">
+      <c r="H155" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A156)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://af258f6f-4dea-4f5a-936d-be49c638b262",  "trgt" : "agent://8ae601e0-32dd-49d0-8c34-76196ad59861" }  , </v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="46" t="s">
+      <c r="A156" s="45" t="s">
         <v>236</v>
       </c>
-      <c r="B156" s="47" t="str">
+      <c r="B156" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>aamirmoez</v>
       </c>
-      <c r="C156" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D156" s="44" t="s">
+      <c r="C156" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D156" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="E156" s="45" t="str">
+      <c r="E156" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>jhart</v>
       </c>
-      <c r="F156" s="45"/>
-      <c r="G156" s="44" t="str">
+      <c r="F156" s="44"/>
+      <c r="G156" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H156" s="45" t="str">
+      <c r="H156" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A157)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://04171b5e-c892-4647-aba2-9eed98b15214",  "trgt" : "agent://af4ffdd5-8e19-425f-9ff0-2be6fe96c244" }  , </v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="46" t="s">
+      <c r="A157" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="B157" s="47" t="str">
+      <c r="B157" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>tel-mofty</v>
       </c>
-      <c r="C157" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D157" s="44" t="s">
+      <c r="C157" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D157" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="E157" s="45" t="str">
+      <c r="E157" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>jdean</v>
       </c>
-      <c r="F157" s="45"/>
-      <c r="G157" s="44" t="str">
+      <c r="F157" s="44"/>
+      <c r="G157" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H157" s="45" t="str">
+      <c r="H157" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A158)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://0063a81d-a4ec-4588-bc34-d261c64a76d9",  "trgt" : "agent://8ae601e0-32dd-49d0-8c34-76196ad59861" }  , </v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="46" t="s">
+      <c r="A158" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="B158" s="47" t="str">
+      <c r="B158" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>zhakim</v>
       </c>
-      <c r="C158" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D158" s="44" t="s">
+      <c r="C158" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D158" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="E158" s="45" t="str">
+      <c r="E158" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>danderson</v>
       </c>
-      <c r="F158" s="45"/>
-      <c r="G158" s="44" t="str">
+      <c r="F158" s="44"/>
+      <c r="G158" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H158" s="45" t="str">
+      <c r="H158" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A159)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://c1835ecc-f9ea-4449-af7b-2fcea845763c",  "trgt" : "agent://622eae32-5c48-4c2f-8b93-dc655380e0e5" }  , </v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="46" t="s">
+      <c r="A159" s="45" t="s">
         <v>239</v>
       </c>
-      <c r="B159" s="47" t="str">
+      <c r="B159" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>sxun</v>
       </c>
-      <c r="C159" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D159" s="44" t="s">
+      <c r="C159" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D159" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="E159" s="45" t="str">
+      <c r="E159" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>mkant</v>
       </c>
-      <c r="F159" s="45"/>
-      <c r="G159" s="44" t="str">
+      <c r="F159" s="44"/>
+      <c r="G159" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H159" s="45" t="str">
+      <c r="H159" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A160)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://7107881c-c5c3-4939-8886-5c7fd5a87b8c",  "trgt" : "agent://7c0fc06b-4f02-4bf8-8aea-f0125f397555" }  , </v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="46" t="s">
+      <c r="A160" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="B160" s="47" t="str">
+      <c r="B160" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>kabdulrashid</v>
       </c>
-      <c r="C160" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D160" s="44" t="s">
+      <c r="C160" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D160" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E160" s="45" t="str">
+      <c r="E160" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>erice</v>
       </c>
-      <c r="F160" s="45"/>
-      <c r="G160" s="44" t="str">
+      <c r="F160" s="44"/>
+      <c r="G160" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H160" s="45" t="str">
+      <c r="H160" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A161)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://5a452f49-bb74-4f96-8656-65f6df9856be",  "trgt" : "agent://90139a7b-12bc-4ca1-b8c1-05f15f8baeb3" }  , </v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="46" t="s">
+      <c r="A161" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="B161" s="47" t="str">
+      <c r="B161" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>iliao</v>
       </c>
-      <c r="C161" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D161" s="44" t="s">
+      <c r="C161" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D161" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="E161" s="45" t="str">
+      <c r="E161" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>hdreesens</v>
       </c>
-      <c r="F161" s="45"/>
-      <c r="G161" s="44" t="str">
+      <c r="F161" s="44"/>
+      <c r="G161" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H161" s="45" t="str">
+      <c r="H161" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A162)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://a4ebdfba-9bc3-4d91-98cc-7f652d849c3a",  "trgt" : "agent://dbcc610b-ab0e-4a82-9aba-af849ffb6b6b" }  , </v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="46" t="s">
+      <c r="A162" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="B162" s="47" t="str">
+      <c r="B162" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>bsaqqaf</v>
       </c>
-      <c r="C162" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D162" s="44" t="s">
+      <c r="C162" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D162" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="E162" s="45" t="str">
+      <c r="E162" s="44" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>ybadal</v>
       </c>
-      <c r="F162" s="45"/>
-      <c r="G162" s="44" t="str">
+      <c r="F162" s="44"/>
+      <c r="G162" s="43" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H162" s="45" t="str">
+      <c r="H162" s="44" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A163)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://5da946b7-7b4e-4e7b-8cfd-4eb5c020b0c0",  "trgt" : "agent://502a7e29-40bb-4ebd-9666-a0651a920b9a" }  , </v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="46" t="s">
+      <c r="A163" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="B163" s="47" t="str">
+      <c r="B163" s="46" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>ralfarsi</v>
       </c>
-      <c r="C163" s="42" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D163" s="44" t="s">
+      <c r="C163" s="41" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D163" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="E163" s="43" t="str">
+      <c r="E163" s="42" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>bbhattacharya</v>
       </c>
-      <c r="F163" s="43"/>
-      <c r="G163" s="42" t="str">
+      <c r="F163" s="42"/>
+      <c r="G163" s="41" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H163" s="43" t="str">
+      <c r="H163" s="42" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A164)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://95580059-5628-403f-81c8-a3c5aa4d91ec",  "trgt" : "agent://4461f860-d367-4cb0-af03-332ea72e9053" }  , </v>
       </c>
@@ -13940,26 +13955,26 @@
       <c r="A164" s="1" t="s">
         <v>2238</v>
       </c>
-      <c r="B164" s="59" t="str">
+      <c r="B164" s="51" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>anadir</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>2315</v>
-      </c>
-      <c r="D164" s="40" t="s">
+        <v>2314</v>
+      </c>
+      <c r="D164" s="39" t="s">
         <v>2240</v>
       </c>
-      <c r="E164" s="60" t="str">
+      <c r="E164" s="52" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>aeddison</v>
       </c>
-      <c r="F164" s="45"/>
-      <c r="G164" s="60" t="str">
+      <c r="F164" s="44"/>
+      <c r="G164" s="52" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H164" s="60" t="str">
+      <c r="H164" s="52" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A165)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://8ce7d7d3-4c83-48a5-b3b5-1eb0400f0408",  "trgt" : "agent://0aa85ff5-d572-400b-acd0-497c17641601" }  , </v>
       </c>
@@ -13968,26 +13983,26 @@
       <c r="A165" s="1" t="s">
         <v>2239</v>
       </c>
-      <c r="B165" s="59" t="str">
+      <c r="B165" s="51" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>tbarnes</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>2315</v>
-      </c>
-      <c r="D165" s="41" t="s">
+        <v>2314</v>
+      </c>
+      <c r="D165" s="40" t="s">
         <v>2241</v>
       </c>
-      <c r="E165" s="60" t="str">
+      <c r="E165" s="52" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>bperry</v>
       </c>
-      <c r="F165" s="45"/>
-      <c r="G165" s="60" t="str">
+      <c r="F165" s="44"/>
+      <c r="G165" s="52" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H165" s="60" t="str">
+      <c r="H165" s="52" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A166)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://97c8738f-a95b-4e35-a8b2-bac9cb0e14d1",  "trgt" : "agent://2e1b5dfe-feb3-46ed-abc8-f7342f1d5d61" }  , </v>
       </c>
@@ -13996,26 +14011,26 @@
       <c r="A166" s="1" t="s">
         <v>2240</v>
       </c>
-      <c r="B166" s="59" t="str">
+      <c r="B166" s="51" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>aeddison</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>2315</v>
-      </c>
-      <c r="D166" s="40" t="s">
+        <v>2314</v>
+      </c>
+      <c r="D166" s="39" t="s">
         <v>2244</v>
       </c>
-      <c r="E166" s="60" t="str">
+      <c r="E166" s="52" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>phawthorn</v>
       </c>
-      <c r="F166" s="45"/>
-      <c r="G166" s="60" t="str">
+      <c r="F166" s="44"/>
+      <c r="G166" s="52" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H166" s="60" t="str">
+      <c r="H166" s="52" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A167)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://0aa85ff5-d572-400b-acd0-497c17641601",  "trgt" : "agent://5f172d03-3a60-4e59-94fa-a4190d416260" }  , </v>
       </c>
@@ -14024,26 +14039,26 @@
       <c r="A167" s="1" t="s">
         <v>2241</v>
       </c>
-      <c r="B167" s="59" t="str">
+      <c r="B167" s="51" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>bperry</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>2315</v>
-      </c>
-      <c r="D167" s="40" t="s">
+        <v>2314</v>
+      </c>
+      <c r="D167" s="39" t="s">
         <v>2242</v>
       </c>
-      <c r="E167" s="60" t="str">
+      <c r="E167" s="52" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>sbennett</v>
       </c>
-      <c r="F167" s="45"/>
-      <c r="G167" s="60" t="str">
+      <c r="F167" s="44"/>
+      <c r="G167" s="52" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H167" s="60" t="str">
+      <c r="H167" s="52" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A168)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://2e1b5dfe-feb3-46ed-abc8-f7342f1d5d61",  "trgt" : "agent://96af8409-0805-4b62-84fe-f434572e6c9f" }  , </v>
       </c>
@@ -14052,26 +14067,26 @@
       <c r="A168" s="1" t="s">
         <v>2242</v>
       </c>
-      <c r="B168" s="59" t="str">
+      <c r="B168" s="51" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>sbennett</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>2315</v>
-      </c>
-      <c r="D168" s="41" t="s">
+        <v>2314</v>
+      </c>
+      <c r="D168" s="40" t="s">
         <v>2243</v>
       </c>
-      <c r="E168" s="60" t="str">
+      <c r="E168" s="52" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>jwinger</v>
       </c>
-      <c r="F168" s="45"/>
-      <c r="G168" s="60" t="str">
+      <c r="F168" s="44"/>
+      <c r="G168" s="52" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H168" s="60" t="str">
+      <c r="H168" s="52" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A169)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://96af8409-0805-4b62-84fe-f434572e6c9f",  "trgt" : "agent://96d82e92-a79f-454d-bf2b-fe27b3b36871" }  , </v>
       </c>
@@ -14080,26 +14095,26 @@
       <c r="A169" s="1" t="s">
         <v>2243</v>
       </c>
-      <c r="B169" s="59" t="str">
+      <c r="B169" s="51" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>jwinger</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>2315</v>
-      </c>
-      <c r="D169" s="41" t="s">
+        <v>2314</v>
+      </c>
+      <c r="D169" s="40" t="s">
         <v>2239</v>
       </c>
-      <c r="E169" s="60" t="str">
+      <c r="E169" s="52" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>tbarnes</v>
       </c>
-      <c r="F169" s="45"/>
-      <c r="G169" s="60" t="str">
+      <c r="F169" s="44"/>
+      <c r="G169" s="52" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H169" s="60" t="str">
+      <c r="H169" s="52" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A170)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://96d82e92-a79f-454d-bf2b-fe27b3b36871",  "trgt" : "agent://97c8738f-a95b-4e35-a8b2-bac9cb0e14d1" }  , </v>
       </c>
@@ -14108,26 +14123,26 @@
       <c r="A170" s="1" t="s">
         <v>2244</v>
       </c>
-      <c r="B170" s="59" t="str">
+      <c r="B170" s="51" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>phawthorn</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>2315</v>
-      </c>
-      <c r="D170" s="40" t="s">
+        <v>2314</v>
+      </c>
+      <c r="D170" s="39" t="s">
         <v>2238</v>
       </c>
-      <c r="E170" s="58" t="str">
+      <c r="E170" s="50" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>anadir</v>
       </c>
-      <c r="F170" s="43"/>
-      <c r="G170" s="58" t="str">
+      <c r="F170" s="42"/>
+      <c r="G170" s="50" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H170" s="58" t="str">
+      <c r="H170" s="50" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A171)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://5f172d03-3a60-4e59-94fa-a4190d416260",  "trgt" : "agent://8ce7d7d3-4c83-48a5-b3b5-1eb0400f0408" }  , </v>
       </c>
@@ -14136,26 +14151,26 @@
       <c r="A171" s="1" t="s">
         <v>2238</v>
       </c>
-      <c r="B171" s="59" t="str">
+      <c r="B171" s="51" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>anadir</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>2315</v>
-      </c>
-      <c r="D171" s="40" t="s">
+        <v>2314</v>
+      </c>
+      <c r="D171" s="39" t="s">
         <v>2238</v>
       </c>
-      <c r="E171" s="58" t="str">
+      <c r="E171" s="50" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>anadir</v>
       </c>
-      <c r="F171" s="43"/>
-      <c r="G171" s="58" t="str">
+      <c r="F171" s="42"/>
+      <c r="G171" s="50" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H171" s="58" t="str">
+      <c r="H171" s="50" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A172)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://8ce7d7d3-4c83-48a5-b3b5-1eb0400f0408",  "trgt" : "agent://8ce7d7d3-4c83-48a5-b3b5-1eb0400f0408" }  , </v>
       </c>
@@ -14164,26 +14179,26 @@
       <c r="A172" s="1" t="s">
         <v>2245</v>
       </c>
-      <c r="B172" s="59" t="str">
+      <c r="B172" s="51" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>dthomas</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="D172" s="6" t="s">
         <v>2250</v>
       </c>
-      <c r="E172" s="60" t="str">
+      <c r="E172" s="52" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>slee</v>
       </c>
-      <c r="F172" s="45"/>
-      <c r="G172" s="60" t="str">
+      <c r="F172" s="44"/>
+      <c r="G172" s="52" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H172" s="60" t="str">
+      <c r="H172" s="52" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A173)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://60582911-c2cd-4c14-8513-d13b9cc8cbff",  "trgt" : "agent://09f536f2-99d5-4c6d-bee8-6209e4fa650b" }  , </v>
       </c>
@@ -14192,26 +14207,26 @@
       <c r="A173" s="1" t="s">
         <v>2246</v>
       </c>
-      <c r="B173" s="59" t="str">
+      <c r="B173" s="51" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>bdylan</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="D173" s="6" t="s">
         <v>2250</v>
       </c>
-      <c r="E173" s="60" t="str">
+      <c r="E173" s="52" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>slee</v>
       </c>
-      <c r="F173" s="45"/>
-      <c r="G173" s="60" t="str">
+      <c r="F173" s="44"/>
+      <c r="G173" s="52" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H173" s="60" t="str">
+      <c r="H173" s="52" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A174)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://d2dd3995-b195-49ad-9e21-d1b90f9edc29",  "trgt" : "agent://09f536f2-99d5-4c6d-bee8-6209e4fa650b" }  , </v>
       </c>
@@ -14220,26 +14235,26 @@
       <c r="A174" s="1" t="s">
         <v>2245</v>
       </c>
-      <c r="B174" s="59" t="str">
+      <c r="B174" s="51" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>dthomas</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="D174" s="6" t="s">
         <v>2251</v>
       </c>
-      <c r="E174" s="60" t="str">
+      <c r="E174" s="52" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>rbrooks</v>
       </c>
-      <c r="F174" s="45"/>
-      <c r="G174" s="60" t="str">
+      <c r="F174" s="44"/>
+      <c r="G174" s="52" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H174" s="60" t="str">
+      <c r="H174" s="52" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A175)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://60582911-c2cd-4c14-8513-d13b9cc8cbff",  "trgt" : "agent://727f1d78-d9e6-4d17-b36b-d30485942d02" }  , </v>
       </c>
@@ -14248,26 +14263,26 @@
       <c r="A175" s="1" t="s">
         <v>2246</v>
       </c>
-      <c r="B175" s="59" t="str">
+      <c r="B175" s="51" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>bdylan</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="D175" s="6" t="s">
         <v>2251</v>
       </c>
-      <c r="E175" s="60" t="str">
+      <c r="E175" s="52" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>rbrooks</v>
       </c>
-      <c r="F175" s="45"/>
-      <c r="G175" s="60" t="str">
+      <c r="F175" s="44"/>
+      <c r="G175" s="52" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H175" s="60" t="str">
+      <c r="H175" s="52" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A176)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://d2dd3995-b195-49ad-9e21-d1b90f9edc29",  "trgt" : "agent://727f1d78-d9e6-4d17-b36b-d30485942d02" }  , </v>
       </c>
@@ -14276,26 +14291,26 @@
       <c r="A176" s="1" t="s">
         <v>2247</v>
       </c>
-      <c r="B176" s="59" t="str">
+      <c r="B176" s="51" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>lcohen</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="D176" s="6" t="s">
         <v>2250</v>
       </c>
-      <c r="E176" s="60" t="str">
+      <c r="E176" s="52" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>slee</v>
       </c>
-      <c r="F176" s="45"/>
-      <c r="G176" s="60" t="str">
+      <c r="F176" s="44"/>
+      <c r="G176" s="52" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H176" s="60" t="str">
+      <c r="H176" s="52" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A177)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://95204302-2882-4c94-8631-5c494efeb2c2",  "trgt" : "agent://09f536f2-99d5-4c6d-bee8-6209e4fa650b" }  , </v>
       </c>
@@ -14304,26 +14319,26 @@
       <c r="A177" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="B177" s="59" t="str">
+      <c r="B177" s="51" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>moliver</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="D177" s="6" t="s">
         <v>2250</v>
       </c>
-      <c r="E177" s="60" t="str">
+      <c r="E177" s="52" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>slee</v>
       </c>
-      <c r="F177" s="45"/>
-      <c r="G177" s="60" t="str">
+      <c r="F177" s="44"/>
+      <c r="G177" s="52" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H177" s="60" t="str">
+      <c r="H177" s="52" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A178)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://98e22eea-4bc7-4ea6-9196-ec995ff038f7",  "trgt" : "agent://09f536f2-99d5-4c6d-bee8-6209e4fa650b" }  , </v>
       </c>
@@ -14332,26 +14347,26 @@
       <c r="A178" s="1" t="s">
         <v>2249</v>
       </c>
-      <c r="B178" s="59" t="str">
+      <c r="B178" s="51" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>psmith</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="D178" s="6" t="s">
         <v>2250</v>
       </c>
-      <c r="E178" s="60" t="str">
+      <c r="E178" s="52" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>slee</v>
       </c>
-      <c r="F178" s="45"/>
-      <c r="G178" s="60" t="str">
+      <c r="F178" s="44"/>
+      <c r="G178" s="52" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H178" s="60" t="str">
+      <c r="H178" s="52" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A179)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://a2a73d30-274a-4173-b405-50a99eac3e2f",  "trgt" : "agent://09f536f2-99d5-4c6d-bee8-6209e4fa650b" }  , </v>
       </c>
@@ -14360,26 +14375,26 @@
       <c r="A179" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="B179" s="59" t="str">
+      <c r="B179" s="51" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>slee</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="D179" s="6" t="s">
         <v>2246</v>
       </c>
-      <c r="E179" s="60" t="str">
+      <c r="E179" s="52" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>bdylan</v>
       </c>
-      <c r="F179" s="45"/>
-      <c r="G179" s="60" t="str">
+      <c r="F179" s="44"/>
+      <c r="G179" s="52" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H179" s="60" t="str">
+      <c r="H179" s="52" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A180)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://09f536f2-99d5-4c6d-bee8-6209e4fa650b",  "trgt" : "agent://d2dd3995-b195-49ad-9e21-d1b90f9edc29" }  , </v>
       </c>
@@ -14388,26 +14403,26 @@
       <c r="A180" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="B180" s="59" t="str">
+      <c r="B180" s="51" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>slee</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="D180" s="6" t="s">
         <v>2252</v>
       </c>
-      <c r="E180" s="60" t="str">
+      <c r="E180" s="52" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>sphan</v>
       </c>
-      <c r="F180" s="45"/>
-      <c r="G180" s="60" t="str">
+      <c r="F180" s="44"/>
+      <c r="G180" s="52" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H180" s="60" t="str">
+      <c r="H180" s="52" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A181)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://09f536f2-99d5-4c6d-bee8-6209e4fa650b",  "trgt" : "agent://aedaead9-fba3-4e87-a628-646e0064ca54" }  , </v>
       </c>
@@ -14416,26 +14431,26 @@
       <c r="A181" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="B181" s="59" t="str">
+      <c r="B181" s="51" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>slee</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="D181" s="6" t="s">
         <v>2246</v>
       </c>
-      <c r="E181" s="60" t="str">
+      <c r="E181" s="52" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>bdylan</v>
       </c>
-      <c r="F181" s="45"/>
-      <c r="G181" s="60" t="str">
+      <c r="F181" s="44"/>
+      <c r="G181" s="52" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H181" s="60" t="str">
+      <c r="H181" s="52" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A182)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://09f536f2-99d5-4c6d-bee8-6209e4fa650b",  "trgt" : "agent://d2dd3995-b195-49ad-9e21-d1b90f9edc29" }  , </v>
       </c>
@@ -14444,26 +14459,26 @@
       <c r="A182" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="B182" s="59" t="str">
+      <c r="B182" s="51" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>slee</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="D182" s="6" t="s">
         <v>2247</v>
       </c>
-      <c r="E182" s="60" t="str">
+      <c r="E182" s="52" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>lcohen</v>
       </c>
-      <c r="F182" s="45"/>
-      <c r="G182" s="60" t="str">
+      <c r="F182" s="44"/>
+      <c r="G182" s="52" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H182" s="60" t="str">
+      <c r="H182" s="52" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A183)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://09f536f2-99d5-4c6d-bee8-6209e4fa650b",  "trgt" : "agent://95204302-2882-4c94-8631-5c494efeb2c2" }  , </v>
       </c>
@@ -14472,26 +14487,26 @@
       <c r="A183" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="B183" s="59" t="str">
+      <c r="B183" s="51" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>slee</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="D183" s="6" t="s">
         <v>2248</v>
       </c>
-      <c r="E183" s="60" t="str">
+      <c r="E183" s="52" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>moliver</v>
       </c>
-      <c r="F183" s="45"/>
-      <c r="G183" s="60" t="str">
+      <c r="F183" s="44"/>
+      <c r="G183" s="52" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H183" s="60" t="str">
+      <c r="H183" s="52" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A184)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://09f536f2-99d5-4c6d-bee8-6209e4fa650b",  "trgt" : "agent://98e22eea-4bc7-4ea6-9196-ec995ff038f7" }  , </v>
       </c>
@@ -14500,26 +14515,26 @@
       <c r="A184" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="B184" s="59" t="str">
+      <c r="B184" s="51" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>slee</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="D184" s="6" t="s">
         <v>2249</v>
       </c>
-      <c r="E184" s="60" t="str">
+      <c r="E184" s="52" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>psmith</v>
       </c>
-      <c r="F184" s="45"/>
-      <c r="G184" s="60" t="str">
+      <c r="F184" s="44"/>
+      <c r="G184" s="52" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H184" s="60" t="str">
+      <c r="H184" s="52" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A185)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://09f536f2-99d5-4c6d-bee8-6209e4fa650b",  "trgt" : "agent://a2a73d30-274a-4173-b405-50a99eac3e2f" }  , </v>
       </c>
@@ -14528,26 +14543,26 @@
       <c r="A185" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="B185" s="59" t="str">
+      <c r="B185" s="51" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>slee</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="D185" s="6" t="s">
         <v>2253</v>
       </c>
-      <c r="E185" s="60" t="str">
+      <c r="E185" s="52" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>unitedfan</v>
       </c>
-      <c r="F185" s="45"/>
-      <c r="G185" s="60" t="str">
+      <c r="F185" s="44"/>
+      <c r="G185" s="52" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H185" s="60" t="str">
+      <c r="H185" s="52" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A186)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://09f536f2-99d5-4c6d-bee8-6209e4fa650b",  "trgt" : "agent://179ee405-aa43-4b8a-9e94-a49dc3b3d07d" }  , </v>
       </c>
@@ -14556,26 +14571,26 @@
       <c r="A186" s="1" t="s">
         <v>2251</v>
       </c>
-      <c r="B186" s="59" t="str">
+      <c r="B186" s="51" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>rbrooks</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="D186" s="6" t="s">
         <v>2246</v>
       </c>
-      <c r="E186" s="60" t="str">
+      <c r="E186" s="52" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>bdylan</v>
       </c>
-      <c r="F186" s="45"/>
-      <c r="G186" s="60" t="str">
+      <c r="F186" s="44"/>
+      <c r="G186" s="52" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H186" s="60" t="str">
+      <c r="H186" s="52" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A187)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://727f1d78-d9e6-4d17-b36b-d30485942d02",  "trgt" : "agent://d2dd3995-b195-49ad-9e21-d1b90f9edc29" }  , </v>
       </c>
@@ -14584,26 +14599,26 @@
       <c r="A187" s="1" t="s">
         <v>2251</v>
       </c>
-      <c r="B187" s="59" t="str">
+      <c r="B187" s="51" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>rbrooks</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="D187" s="6" t="s">
         <v>2252</v>
       </c>
-      <c r="E187" s="60" t="str">
+      <c r="E187" s="52" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>sphan</v>
       </c>
-      <c r="F187" s="45"/>
-      <c r="G187" s="60" t="str">
+      <c r="F187" s="44"/>
+      <c r="G187" s="52" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H187" s="60" t="str">
+      <c r="H187" s="52" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A188)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://727f1d78-d9e6-4d17-b36b-d30485942d02",  "trgt" : "agent://aedaead9-fba3-4e87-a628-646e0064ca54" }  , </v>
       </c>
@@ -14612,26 +14627,26 @@
       <c r="A188" s="1" t="s">
         <v>2252</v>
       </c>
-      <c r="B188" s="59" t="str">
+      <c r="B188" s="51" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>sphan</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="D188" s="6" t="s">
         <v>2250</v>
       </c>
-      <c r="E188" s="60" t="str">
+      <c r="E188" s="52" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>slee</v>
       </c>
-      <c r="F188" s="45"/>
-      <c r="G188" s="60" t="str">
+      <c r="F188" s="44"/>
+      <c r="G188" s="52" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H188" s="60" t="str">
+      <c r="H188" s="52" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A189)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://aedaead9-fba3-4e87-a628-646e0064ca54",  "trgt" : "agent://09f536f2-99d5-4c6d-bee8-6209e4fa650b" }  , </v>
       </c>
@@ -14640,26 +14655,26 @@
       <c r="A189" s="1" t="s">
         <v>2252</v>
       </c>
-      <c r="B189" s="59" t="str">
+      <c r="B189" s="51" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>sphan</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="D189" s="6" t="s">
         <v>2251</v>
       </c>
-      <c r="E189" s="60" t="str">
+      <c r="E189" s="52" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>rbrooks</v>
       </c>
-      <c r="F189" s="45"/>
-      <c r="G189" s="60" t="str">
+      <c r="F189" s="44"/>
+      <c r="G189" s="52" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H189" s="60" t="str">
+      <c r="H189" s="52" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A190)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://aedaead9-fba3-4e87-a628-646e0064ca54",  "trgt" : "agent://727f1d78-d9e6-4d17-b36b-d30485942d02" }  , </v>
       </c>
@@ -14668,166 +14683,166 @@
       <c r="A190" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="B190" s="59" t="str">
+      <c r="B190" s="51" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>unitedfan</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>2250</v>
       </c>
-      <c r="E190" s="58" t="str">
+      <c r="E190" s="50" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>slee</v>
       </c>
-      <c r="F190" s="43"/>
-      <c r="G190" s="58" t="str">
+      <c r="F190" s="42"/>
+      <c r="G190" s="50" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H190" s="58" t="str">
+      <c r="H190" s="50" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A191)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://179ee405-aa43-4b8a-9e94-a49dc3b3d07d",  "trgt" : "agent://09f536f2-99d5-4c6d-bee8-6209e4fa650b" }  , </v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="67" t="s">
+      <c r="A191" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="B191" s="62" t="str">
+      <c r="B191" s="54" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>pbennett</v>
       </c>
-      <c r="C191" s="61" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D191" s="61" t="s">
+      <c r="C191" s="53" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D191" s="53" t="s">
         <v>2241</v>
       </c>
-      <c r="E191" s="63" t="str">
+      <c r="E191" s="55" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>bperry</v>
       </c>
-      <c r="F191" s="64"/>
-      <c r="G191" s="63" t="str">
+      <c r="F191" s="56"/>
+      <c r="G191" s="55" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H191" s="63" t="str">
+      <c r="H191" s="55" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A192)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://89cbeaaf-bb58-48a4-8bdf-2917d6ae110d",  "trgt" : "agent://2e1b5dfe-feb3-46ed-abc8-f7342f1d5d61" }  , </v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="67" t="s">
+      <c r="A192" s="59" t="s">
         <v>2241</v>
       </c>
-      <c r="B192" s="62" t="str">
+      <c r="B192" s="54" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>bperry</v>
       </c>
-      <c r="C192" s="61" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D192" s="61" t="s">
+      <c r="C192" s="53" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D192" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="E192" s="63" t="str">
+      <c r="E192" s="55" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>livelygig</v>
       </c>
-      <c r="F192" s="64"/>
-      <c r="G192" s="63" t="str">
+      <c r="F192" s="56"/>
+      <c r="G192" s="55" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H192" s="63" t="str">
+      <c r="H192" s="55" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A193)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://2e1b5dfe-feb3-46ed-abc8-f7342f1d5d61",  "trgt" : "agent://768fd55e-2295-4511-9e19-04a8f29f9d9e" }  , </v>
       </c>
     </row>
     <row r="193" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="70" t="s">
+      <c r="A193" s="62" t="s">
         <v>2238</v>
       </c>
-      <c r="B193" s="59" t="str">
+      <c r="B193" s="51" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>anadir</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E193" s="60" t="str">
+      <c r="E193" s="52" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>livelygig</v>
       </c>
-      <c r="F193" s="45"/>
-      <c r="G193" s="60" t="str">
+      <c r="F193" s="44"/>
+      <c r="G193" s="52" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H193" s="63" t="str">
+      <c r="H193" s="55" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A194)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://8ce7d7d3-4c83-48a5-b3b5-1eb0400f0408",  "trgt" : "agent://768fd55e-2295-4511-9e19-04a8f29f9d9e" }  , </v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="67" t="s">
+      <c r="A194" s="59" t="s">
         <v>2238</v>
       </c>
-      <c r="B194" s="62" t="str">
+      <c r="B194" s="54" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>anadir</v>
       </c>
-      <c r="C194" s="61" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D194" s="61" t="s">
+      <c r="C194" s="53" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D194" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="E194" s="65" t="str">
+      <c r="E194" s="57" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>livelygig</v>
       </c>
-      <c r="F194" s="66"/>
-      <c r="G194" s="65" t="str">
+      <c r="F194" s="58"/>
+      <c r="G194" s="57" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H194" s="65" t="str">
+      <c r="H194" s="57" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A195)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://8ce7d7d3-4c83-48a5-b3b5-1eb0400f0408",  "trgt" : "agent://768fd55e-2295-4511-9e19-04a8f29f9d9e" }  , </v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="67" t="s">
+      <c r="A195" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="B195" s="62" t="str">
+      <c r="B195" s="54" t="str">
         <f>VLOOKUP(Table134[[#This Row],[src]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>livelygig</v>
       </c>
-      <c r="C195" s="61" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D195" s="61" t="s">
+      <c r="C195" s="53" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D195" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="E195" s="65" t="str">
+      <c r="E195" s="57" t="str">
         <f>VLOOKUP(Table134[[#This Row],[trgt]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>pbennett</v>
       </c>
-      <c r="F195" s="66"/>
-      <c r="G195" s="65" t="str">
+      <c r="F195" s="58"/>
+      <c r="G195" s="57" t="str">
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H195" s="65" t="str">
+      <c r="H195" s="57" t="str">
         <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A196)&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://768fd55e-2295-4511-9e19-04a8f29f9d9e",  "trgt" : "agent://89cbeaaf-bb58-48a4-8bdf-2917d6ae110d" } </v>
       </c>
@@ -14848,8 +14863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W186"/>
   <sheetViews>
-    <sheetView topLeftCell="R74" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:W99"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14920,7 +14935,7 @@
         <v>259</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="R1" s="12" t="s">
         <v>263</v>
@@ -14953,8 +14968,8 @@
         <v>livelygig</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="68" t="s">
-        <v>2312</v>
+      <c r="E2" s="60" t="s">
+        <v>2311</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>246</v>
@@ -15036,8 +15051,8 @@
         <f>LOWER(LEFT(Table1[[#This Row],[firstName]],1)&amp;Table1[[#This Row],[lastName]])</f>
         <v>pbennett</v>
       </c>
-      <c r="D3" s="68" t="s">
-        <v>2383</v>
+      <c r="D3" s="60" t="s">
+        <v>2381</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
@@ -15084,7 +15099,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_pbennett@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R3" s="3" t="str">
         <f t="shared" si="0"/>
@@ -15169,7 +15184,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_mnori@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -15254,7 +15269,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_anarayan@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -15339,7 +15354,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_ibabu@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -15424,7 +15439,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_mrao@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -15509,7 +15524,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_nuppal@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -15594,7 +15609,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_ateja@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -15679,7 +15694,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_sbalan@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -15764,7 +15779,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_bbhattacharya@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -15849,7 +15864,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_mpawar@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -15934,7 +15949,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_uchauha@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -16019,7 +16034,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_sraina@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -16104,7 +16119,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_atipnis@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -16189,7 +16204,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_gsami@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -16274,7 +16289,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_mkant@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -16359,7 +16374,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_dbhardwaj@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -16444,7 +16459,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_mnarula@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -16529,7 +16544,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_aviswanathan@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -16614,7 +16629,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_ybadal@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -16699,7 +16714,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_mthakur@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -16784,7 +16799,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_vdey@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -16817,7 +16832,7 @@
       <c r="B24" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C24" s="59" t="str">
+      <c r="C24" s="51" t="str">
         <f>LOWER(LEFT(Table1[[#This Row],[firstName]],1)&amp;Table1[[#This Row],[lastName]])</f>
         <v>mharrison</v>
       </c>
@@ -16869,7 +16884,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_mharrison@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -16896,13 +16911,13 @@
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="55">
+      <c r="A25" s="47">
         <v>24</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="C25" s="59" t="str">
+      <c r="C25" s="51" t="str">
         <f>LOWER(LEFT(Table1[[#This Row],[firstName]],1)&amp;Table1[[#This Row],[lastName]])</f>
         <v>erice</v>
       </c>
@@ -16954,7 +16969,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_erice@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -16987,7 +17002,7 @@
       <c r="B26" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C26" s="59" t="str">
+      <c r="C26" s="51" t="str">
         <f>LOWER(LEFT(Table1[[#This Row],[firstName]],1)&amp;Table1[[#This Row],[lastName]])</f>
         <v>jhart</v>
       </c>
@@ -17039,7 +17054,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_jhart@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R26" s="3" t="str">
         <f t="shared" si="0"/>
@@ -17072,7 +17087,7 @@
       <c r="B27" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C27" s="59" t="str">
+      <c r="C27" s="51" t="str">
         <f>LOWER(LEFT(Table1[[#This Row],[firstName]],1)&amp;Table1[[#This Row],[lastName]])</f>
         <v>jlawson</v>
       </c>
@@ -17124,7 +17139,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_jlawson@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R27" s="3" t="str">
         <f t="shared" si="0"/>
@@ -17157,7 +17172,7 @@
       <c r="B28" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C28" s="59" t="str">
+      <c r="C28" s="51" t="str">
         <f>LOWER(LEFT(Table1[[#This Row],[firstName]],1)&amp;Table1[[#This Row],[lastName]])</f>
         <v>jdean</v>
       </c>
@@ -17209,7 +17224,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_jdean@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R28" s="3" t="str">
         <f t="shared" si="0"/>
@@ -17236,13 +17251,13 @@
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="55">
+      <c r="A29" s="47">
         <v>28</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="C29" s="59" t="str">
+      <c r="C29" s="51" t="str">
         <f>LOWER(LEFT(Table1[[#This Row],[firstName]],1)&amp;Table1[[#This Row],[lastName]])</f>
         <v>hhorton</v>
       </c>
@@ -17294,7 +17309,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_hhorton@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R29" s="3" t="str">
         <f t="shared" si="0"/>
@@ -17327,7 +17342,7 @@
       <c r="B30" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C30" s="59" t="str">
+      <c r="C30" s="51" t="str">
         <f>LOWER(LEFT(Table1[[#This Row],[firstName]],1)&amp;Table1[[#This Row],[lastName]])</f>
         <v>lfrank</v>
       </c>
@@ -17379,7 +17394,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_lfrank@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R30" s="3" t="str">
         <f t="shared" si="0"/>
@@ -17412,7 +17427,7 @@
       <c r="B31" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C31" s="59" t="str">
+      <c r="C31" s="51" t="str">
         <f>LOWER(LEFT(Table1[[#This Row],[firstName]],1)&amp;Table1[[#This Row],[lastName]])</f>
         <v>mhill</v>
       </c>
@@ -17464,7 +17479,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_mhill@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R31" s="3" t="str">
         <f t="shared" si="0"/>
@@ -17497,7 +17512,7 @@
       <c r="B32" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C32" s="59" t="str">
+      <c r="C32" s="51" t="str">
         <f>LOWER(LEFT(Table1[[#This Row],[firstName]],1)&amp;Table1[[#This Row],[lastName]])</f>
         <v>nmendez</v>
       </c>
@@ -17549,7 +17564,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_nmendez@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R32" s="3" t="str">
         <f t="shared" si="0"/>
@@ -17576,13 +17591,13 @@
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="55">
+      <c r="A33" s="47">
         <v>32</v>
       </c>
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C33" s="59" t="str">
+      <c r="C33" s="51" t="str">
         <f>LOWER(LEFT(Table1[[#This Row],[firstName]],1)&amp;Table1[[#This Row],[lastName]])</f>
         <v>gmiller</v>
       </c>
@@ -17634,7 +17649,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_gmiller@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R33" s="3" t="str">
         <f t="shared" si="0"/>
@@ -17667,7 +17682,7 @@
       <c r="B34" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C34" s="59" t="str">
+      <c r="C34" s="51" t="str">
         <f>LOWER(LEFT(Table1[[#This Row],[firstName]],1)&amp;Table1[[#This Row],[lastName]])</f>
         <v>jreed</v>
       </c>
@@ -17719,7 +17734,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_jreed@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R34" s="3" t="str">
         <f t="shared" ref="R34:R65" si="2">"Yata! "&amp;ROW()</f>
@@ -17752,7 +17767,7 @@
       <c r="B35" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C35" s="59" t="str">
+      <c r="C35" s="51" t="str">
         <f>LOWER(LEFT(Table1[[#This Row],[firstName]],1)&amp;Table1[[#This Row],[lastName]])</f>
         <v>danderson</v>
       </c>
@@ -17804,7 +17819,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_danderson@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R35" s="3" t="str">
         <f t="shared" si="2"/>
@@ -17837,7 +17852,7 @@
       <c r="B36" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C36" s="59" t="str">
+      <c r="C36" s="51" t="str">
         <f>LOWER(LEFT(Table1[[#This Row],[firstName]],1)&amp;Table1[[#This Row],[lastName]])</f>
         <v>wcoleman</v>
       </c>
@@ -17889,7 +17904,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_wcoleman@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R36" s="3" t="str">
         <f t="shared" si="2"/>
@@ -17916,13 +17931,13 @@
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="55">
+      <c r="A37" s="47">
         <v>36</v>
       </c>
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="C37" s="59" t="str">
+      <c r="C37" s="51" t="str">
         <f>LOWER(LEFT(Table1[[#This Row],[firstName]],1)&amp;Table1[[#This Row],[lastName]])</f>
         <v>mmartin</v>
       </c>
@@ -17974,7 +17989,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_mmartin@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R37" s="3" t="str">
         <f t="shared" si="2"/>
@@ -18059,7 +18074,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_iperry@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R38" s="3" t="str">
         <f t="shared" si="2"/>
@@ -18144,7 +18159,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_rperez@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R39" s="3" t="str">
         <f t="shared" si="2"/>
@@ -18229,7 +18244,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_mmorris@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R40" s="3" t="str">
         <f t="shared" si="2"/>
@@ -18314,7 +18329,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_rmurphy@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R41" s="3" t="str">
         <f t="shared" si="2"/>
@@ -18399,7 +18414,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_ethomas@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R42" s="3" t="str">
         <f t="shared" si="2"/>
@@ -18484,7 +18499,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_kmoore@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R43" s="3" t="str">
         <f t="shared" si="2"/>
@@ -18569,7 +18584,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_dmoore@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R44" s="3" t="str">
         <f t="shared" si="2"/>
@@ -18654,7 +18669,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_hdreesens@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R45" s="3" t="str">
         <f t="shared" si="2"/>
@@ -18739,7 +18754,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_lborde@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R46" s="3" t="str">
         <f t="shared" si="2"/>
@@ -18824,7 +18839,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_mdragomirov@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R47" s="3" t="str">
         <f t="shared" si="2"/>
@@ -18909,7 +18924,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_dcastro@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R48" s="3" t="str">
         <f t="shared" si="2"/>
@@ -18994,7 +19009,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_rvogts@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R49" s="3" t="str">
         <f t="shared" si="2"/>
@@ -19079,7 +19094,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_sseward@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R50" s="3" t="str">
         <f t="shared" si="2"/>
@@ -19164,7 +19179,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_mstilo@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R51" s="3" t="str">
         <f t="shared" si="2"/>
@@ -19249,7 +19264,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_iungaro@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R52" s="3" t="str">
         <f t="shared" si="2"/>
@@ -19334,7 +19349,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_famador@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R53" s="3" t="str">
         <f t="shared" si="2"/>
@@ -19419,7 +19434,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_mlamberti@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R54" s="3" t="str">
         <f t="shared" si="2"/>
@@ -19504,7 +19519,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_tantall@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R55" s="3" t="str">
         <f t="shared" si="2"/>
@@ -19589,7 +19604,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_mdonalds@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R56" s="3" t="str">
         <f t="shared" si="2"/>
@@ -19674,7 +19689,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_svincent@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R57" s="3" t="str">
         <f t="shared" si="2"/>
@@ -19759,7 +19774,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_kdragic@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R58" s="3" t="str">
         <f t="shared" si="2"/>
@@ -19844,7 +19859,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_rsarkozi@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R59" s="3" t="str">
         <f t="shared" si="2"/>
@@ -19929,7 +19944,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_ghall@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R60" s="3" t="str">
         <f t="shared" si="2"/>
@@ -20014,7 +20029,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_myap@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R61" s="3" t="str">
         <f t="shared" si="2"/>
@@ -20099,7 +20114,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_csalvage@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R62" s="3" t="str">
         <f t="shared" si="2"/>
@@ -20184,7 +20199,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_dnagy@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R63" s="3" t="str">
         <f t="shared" si="2"/>
@@ -20269,7 +20284,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_kestévez@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R64" s="3" t="str">
         <f t="shared" si="2"/>
@@ -20354,7 +20369,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_mmachado@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R65" s="3" t="str">
         <f t="shared" si="2"/>
@@ -20439,7 +20454,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_dbenitez@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R66" s="3" t="str">
         <f t="shared" ref="R66:R99" si="4">"Yata! "&amp;ROW()</f>
@@ -20524,7 +20539,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_apage@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R67" s="3" t="str">
         <f t="shared" si="4"/>
@@ -20609,7 +20624,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_alim@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R68" s="3" t="str">
         <f t="shared" si="4"/>
@@ -20694,7 +20709,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_ymasson@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R69" s="3" t="str">
         <f t="shared" si="4"/>
@@ -20779,7 +20794,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_cmendel@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R70" s="3" t="str">
         <f t="shared" si="4"/>
@@ -20864,7 +20879,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_lchevrolet@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R71" s="3" t="str">
         <f t="shared" si="4"/>
@@ -20949,7 +20964,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_esheinfeld@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R72" s="3" t="str">
         <f t="shared" si="4"/>
@@ -21034,7 +21049,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_ddaniau@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R73" s="3" t="str">
         <f t="shared" si="4"/>
@@ -21119,7 +21134,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_tzhu@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R74" s="3" t="str">
         <f t="shared" si="4"/>
@@ -21204,7 +21219,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_mhakim@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R75" s="3" t="str">
         <f t="shared" si="4"/>
@@ -21289,7 +21304,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_aamirmoez@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R76" s="3" t="str">
         <f t="shared" si="4"/>
@@ -21374,7 +21389,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_tel-mofty@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R77" s="3" t="str">
         <f t="shared" si="4"/>
@@ -21459,7 +21474,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_zhakim@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R78" s="3" t="str">
         <f t="shared" si="4"/>
@@ -21544,7 +21559,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_sxun@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R79" s="3" t="str">
         <f t="shared" si="4"/>
@@ -21629,7 +21644,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_kabdulrashid@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R80" s="3" t="str">
         <f t="shared" si="4"/>
@@ -21714,7 +21729,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_iliao@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R81" s="3" t="str">
         <f t="shared" si="4"/>
@@ -21799,7 +21814,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_bsaqqaf@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R82" s="3" t="str">
         <f t="shared" si="4"/>
@@ -21837,7 +21852,7 @@
         <v>ralfarsi</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>160</v>
@@ -21884,7 +21899,7 @@
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_ralfarsi@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q83" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R83" s="3" t="str">
         <f t="shared" si="4"/>
@@ -21921,14 +21936,14 @@
         <f>LOWER(LEFT(Table1[[#This Row],[firstName]],1)&amp;Table1[[#This Row],[lastName]])</f>
         <v>anadir</v>
       </c>
-      <c r="D84" s="69" t="s">
-        <v>2360</v>
-      </c>
-      <c r="E84" s="57" t="s">
-        <v>2355</v>
+      <c r="D84" s="61" t="s">
+        <v>2358</v>
+      </c>
+      <c r="E84" s="49" t="s">
+        <v>2353</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="G84" s="3" t="str">
         <f>"mailto:livelygig_"&amp;Table1[[#This Row],[loginId]]&amp;"@mailinator.com"</f>
@@ -21940,31 +21955,31 @@
       <c r="I84" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="J84" s="58" t="str">
+      <c r="J84" s="50" t="str">
         <f>"""id"" : """&amp;Table1[[#This Row],[UUID]]&amp;""", "</f>
         <v xml:space="preserve">"id" : "8ce7d7d3-4c83-48a5-b3b5-1eb0400f0408", </v>
       </c>
-      <c r="K84" s="58" t="str">
+      <c r="K84" s="50" t="str">
         <f>"""loginId"" : """&amp;Table1[[#This Row],[loginId]]&amp;""", "</f>
         <v xml:space="preserve">"loginId" : "anadir", </v>
       </c>
-      <c r="L84" s="58" t="str">
+      <c r="L84" s="50" t="str">
         <f>"""pwd"" : """&amp;Table1[[#This Row],[pwd]]&amp;""", "</f>
         <v xml:space="preserve">"pwd" : "community", </v>
       </c>
-      <c r="M84" s="58" t="str">
+      <c r="M84" s="50" t="str">
         <f>"""firstName""  : """&amp;Table1[[#This Row],[firstName]]&amp;""", "</f>
         <v xml:space="preserve">"firstName"  : "Abed", </v>
       </c>
-      <c r="N84" s="58" t="str">
+      <c r="N84" s="50" t="str">
         <f>"""lastName"" : """&amp;Table1[[#This Row],[lastName]]&amp;""", "</f>
         <v xml:space="preserve">"lastName" : "Nadir", </v>
       </c>
-      <c r="O84" s="58" t="str">
+      <c r="O84" s="50" t="str">
         <f>"""profilePic"" : """&amp;Table1[[#This Row],[profilePic]]&amp;""", "</f>
         <v xml:space="preserve">"profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", </v>
       </c>
-      <c r="P84" s="58" t="str">
+      <c r="P84" s="50" t="str">
         <f>"""contacts"" : { ""channels"": [ {""url"" : """&amp;Table1[[#This Row],[contact1]]&amp;""", ""channelType"" : """&amp;Table1[[#This Row],[contact1 type]]&amp;""" } ] },"</f>
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_anadir@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
@@ -21983,7 +21998,7 @@
       <c r="T84" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="U84" s="58" t="str">
+      <c r="U84" s="50" t="str">
         <f>"{ ""content"" : """&amp;Table1[[#This Row],[PostContent1]]&amp;""" , ""contentType"" : ""message"", ""labels"" : [ """&amp;Table1[[#This Row],[PostLabel1GUID]]&amp;""" ] , ""src"" : """&amp;Table1[[#This Row],[UUID]]&amp;""" , ""trgts"" : [ """&amp;Table1[[#This Row],[PostTarget1-1]]&amp;""" ] }"</f>
         <v>{ "content" : "Yata! 84" , "contentType" : "message", "labels" : [ "ef6a7b08-beaf-4c8a-994f-dcbed4a37909" ] , "src" : "8ce7d7d3-4c83-48a5-b3b5-1eb0400f0408" , "trgts" : [ "768fd55e-2295-4511-9e19-04a8f29f9d9e" ] }</v>
       </c>
@@ -21997,7 +22012,7 @@
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A85" s="55">
+      <c r="A85" s="47">
         <v>84</v>
       </c>
       <c r="B85" t="s">
@@ -22007,14 +22022,14 @@
         <f>LOWER(LEFT(Table1[[#This Row],[firstName]],1)&amp;Table1[[#This Row],[lastName]])</f>
         <v>tbarnes</v>
       </c>
-      <c r="D85" s="57" t="s">
-        <v>2361</v>
-      </c>
-      <c r="E85" s="57" t="s">
-        <v>2356</v>
+      <c r="D85" s="49" t="s">
+        <v>2359</v>
+      </c>
+      <c r="E85" s="49" t="s">
+        <v>2354</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="G85" s="3" t="str">
         <f>"mailto:livelygig_"&amp;Table1[[#This Row],[loginId]]&amp;"@mailinator.com"</f>
@@ -22026,36 +22041,36 @@
       <c r="I85" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="J85" s="59" t="str">
+      <c r="J85" s="51" t="str">
         <f>"""id"" : """&amp;Table1[[#This Row],[UUID]]&amp;""", "</f>
         <v xml:space="preserve">"id" : "97c8738f-a95b-4e35-a8b2-bac9cb0e14d1", </v>
       </c>
-      <c r="K85" s="59" t="str">
+      <c r="K85" s="51" t="str">
         <f>"""loginId"" : """&amp;Table1[[#This Row],[loginId]]&amp;""", "</f>
         <v xml:space="preserve">"loginId" : "tbarnes", </v>
       </c>
-      <c r="L85" s="59" t="str">
+      <c r="L85" s="51" t="str">
         <f>"""pwd"" : """&amp;Table1[[#This Row],[pwd]]&amp;""", "</f>
         <v xml:space="preserve">"pwd" : "community", </v>
       </c>
-      <c r="M85" s="59" t="str">
+      <c r="M85" s="51" t="str">
         <f>"""firstName""  : """&amp;Table1[[#This Row],[firstName]]&amp;""", "</f>
         <v xml:space="preserve">"firstName"  : "Troy", </v>
       </c>
-      <c r="N85" s="59" t="str">
+      <c r="N85" s="51" t="str">
         <f>"""lastName"" : """&amp;Table1[[#This Row],[lastName]]&amp;""", "</f>
         <v xml:space="preserve">"lastName" : "Barnes", </v>
       </c>
-      <c r="O85" s="59" t="str">
+      <c r="O85" s="51" t="str">
         <f>"""profilePic"" : """&amp;Table1[[#This Row],[profilePic]]&amp;""", "</f>
         <v xml:space="preserve">"profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", </v>
       </c>
-      <c r="P85" s="59" t="str">
+      <c r="P85" s="51" t="str">
         <f>"""contacts"" : { ""channels"": [ {""url"" : """&amp;Table1[[#This Row],[contact1]]&amp;""", ""channelType"" : """&amp;Table1[[#This Row],[contact1 type]]&amp;""" } ] },"</f>
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_tbarnes@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q85" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R85" s="3" t="str">
         <f t="shared" si="4"/>
@@ -22068,7 +22083,7 @@
       <c r="T85" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="U85" s="58" t="str">
+      <c r="U85" s="50" t="str">
         <f>"{ ""content"" : """&amp;Table1[[#This Row],[PostContent1]]&amp;""" , ""contentType"" : ""message"", ""labels"" : [ """&amp;Table1[[#This Row],[PostLabel1GUID]]&amp;""" ] , ""src"" : """&amp;Table1[[#This Row],[UUID]]&amp;""" , ""trgts"" : [ """&amp;Table1[[#This Row],[PostTarget1-1]]&amp;""" ] }"</f>
         <v>{ "content" : "Yata! 85" , "contentType" : "message", "labels" : [ "ef6a7b08-beaf-4c8a-994f-dcbed4a37909" ] , "src" : "97c8738f-a95b-4e35-a8b2-bac9cb0e14d1" , "trgts" : [ "768fd55e-2295-4511-9e19-04a8f29f9d9e" ] }</v>
       </c>
@@ -22082,7 +22097,7 @@
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A86" s="55">
+      <c r="A86" s="47">
         <v>85</v>
       </c>
       <c r="B86" t="s">
@@ -22092,14 +22107,14 @@
         <f>LOWER(LEFT(Table1[[#This Row],[firstName]],1)&amp;Table1[[#This Row],[lastName]])</f>
         <v>aeddison</v>
       </c>
-      <c r="D86" s="57" t="s">
-        <v>2362</v>
-      </c>
-      <c r="E86" s="57" t="s">
-        <v>2357</v>
+      <c r="D86" s="49" t="s">
+        <v>2360</v>
+      </c>
+      <c r="E86" s="49" t="s">
+        <v>2355</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="G86" s="3" t="str">
         <f>"mailto:livelygig_"&amp;Table1[[#This Row],[loginId]]&amp;"@mailinator.com"</f>
@@ -22111,36 +22126,36 @@
       <c r="I86" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="J86" s="59" t="str">
+      <c r="J86" s="51" t="str">
         <f>"""id"" : """&amp;Table1[[#This Row],[UUID]]&amp;""", "</f>
         <v xml:space="preserve">"id" : "0aa85ff5-d572-400b-acd0-497c17641601", </v>
       </c>
-      <c r="K86" s="59" t="str">
+      <c r="K86" s="51" t="str">
         <f>"""loginId"" : """&amp;Table1[[#This Row],[loginId]]&amp;""", "</f>
         <v xml:space="preserve">"loginId" : "aeddison", </v>
       </c>
-      <c r="L86" s="59" t="str">
+      <c r="L86" s="51" t="str">
         <f>"""pwd"" : """&amp;Table1[[#This Row],[pwd]]&amp;""", "</f>
         <v xml:space="preserve">"pwd" : "community", </v>
       </c>
-      <c r="M86" s="59" t="str">
+      <c r="M86" s="51" t="str">
         <f>"""firstName""  : """&amp;Table1[[#This Row],[firstName]]&amp;""", "</f>
         <v xml:space="preserve">"firstName"  : "Annie", </v>
       </c>
-      <c r="N86" s="59" t="str">
+      <c r="N86" s="51" t="str">
         <f>"""lastName"" : """&amp;Table1[[#This Row],[lastName]]&amp;""", "</f>
         <v xml:space="preserve">"lastName" : "Eddison", </v>
       </c>
-      <c r="O86" s="59" t="str">
+      <c r="O86" s="51" t="str">
         <f>"""profilePic"" : """&amp;Table1[[#This Row],[profilePic]]&amp;""", "</f>
         <v xml:space="preserve">"profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", </v>
       </c>
-      <c r="P86" s="59" t="str">
+      <c r="P86" s="51" t="str">
         <f>"""contacts"" : { ""channels"": [ {""url"" : """&amp;Table1[[#This Row],[contact1]]&amp;""", ""channelType"" : """&amp;Table1[[#This Row],[contact1 type]]&amp;""" } ] },"</f>
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_aeddison@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q86" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R86" s="3" t="str">
         <f t="shared" si="4"/>
@@ -22153,7 +22168,7 @@
       <c r="T86" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="U86" s="58" t="str">
+      <c r="U86" s="50" t="str">
         <f>"{ ""content"" : """&amp;Table1[[#This Row],[PostContent1]]&amp;""" , ""contentType"" : ""message"", ""labels"" : [ """&amp;Table1[[#This Row],[PostLabel1GUID]]&amp;""" ] , ""src"" : """&amp;Table1[[#This Row],[UUID]]&amp;""" , ""trgts"" : [ """&amp;Table1[[#This Row],[PostTarget1-1]]&amp;""" ] }"</f>
         <v>{ "content" : "Yata! 86" , "contentType" : "message", "labels" : [ "ef6a7b08-beaf-4c8a-994f-dcbed4a37909" ] , "src" : "0aa85ff5-d572-400b-acd0-497c17641601" , "trgts" : [ "768fd55e-2295-4511-9e19-04a8f29f9d9e" ] }</v>
       </c>
@@ -22167,7 +22182,7 @@
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A87" s="55">
+      <c r="A87" s="47">
         <v>86</v>
       </c>
       <c r="B87" t="s">
@@ -22177,14 +22192,14 @@
         <f>LOWER(LEFT(Table1[[#This Row],[firstName]],1)&amp;Table1[[#This Row],[lastName]])</f>
         <v>bperry</v>
       </c>
-      <c r="D87" s="69" t="s">
-        <v>2363</v>
-      </c>
-      <c r="E87" s="57" t="s">
+      <c r="D87" s="61" t="s">
+        <v>2361</v>
+      </c>
+      <c r="E87" s="49" t="s">
         <v>74</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="G87" s="3" t="str">
         <f>"mailto:livelygig_"&amp;Table1[[#This Row],[loginId]]&amp;"@mailinator.com"</f>
@@ -22196,36 +22211,36 @@
       <c r="I87" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="J87" s="59" t="str">
+      <c r="J87" s="51" t="str">
         <f>"""id"" : """&amp;Table1[[#This Row],[UUID]]&amp;""", "</f>
         <v xml:space="preserve">"id" : "2e1b5dfe-feb3-46ed-abc8-f7342f1d5d61", </v>
       </c>
-      <c r="K87" s="59" t="str">
+      <c r="K87" s="51" t="str">
         <f>"""loginId"" : """&amp;Table1[[#This Row],[loginId]]&amp;""", "</f>
         <v xml:space="preserve">"loginId" : "bperry", </v>
       </c>
-      <c r="L87" s="59" t="str">
+      <c r="L87" s="51" t="str">
         <f>"""pwd"" : """&amp;Table1[[#This Row],[pwd]]&amp;""", "</f>
         <v xml:space="preserve">"pwd" : "community", </v>
       </c>
-      <c r="M87" s="59" t="str">
+      <c r="M87" s="51" t="str">
         <f>"""firstName""  : """&amp;Table1[[#This Row],[firstName]]&amp;""", "</f>
         <v xml:space="preserve">"firstName"  : "Britta", </v>
       </c>
-      <c r="N87" s="59" t="str">
+      <c r="N87" s="51" t="str">
         <f>"""lastName"" : """&amp;Table1[[#This Row],[lastName]]&amp;""", "</f>
         <v xml:space="preserve">"lastName" : "Perry", </v>
       </c>
-      <c r="O87" s="59" t="str">
+      <c r="O87" s="51" t="str">
         <f>"""profilePic"" : """&amp;Table1[[#This Row],[profilePic]]&amp;""", "</f>
         <v xml:space="preserve">"profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", </v>
       </c>
-      <c r="P87" s="59" t="str">
+      <c r="P87" s="51" t="str">
         <f>"""contacts"" : { ""channels"": [ {""url"" : """&amp;Table1[[#This Row],[contact1]]&amp;""", ""channelType"" : """&amp;Table1[[#This Row],[contact1 type]]&amp;""" } ] },"</f>
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_bperry@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q87" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R87" s="3" t="str">
         <f t="shared" si="4"/>
@@ -22238,7 +22253,7 @@
       <c r="T87" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="U87" s="58" t="str">
+      <c r="U87" s="50" t="str">
         <f>"{ ""content"" : """&amp;Table1[[#This Row],[PostContent1]]&amp;""" , ""contentType"" : ""message"", ""labels"" : [ """&amp;Table1[[#This Row],[PostLabel1GUID]]&amp;""" ] , ""src"" : """&amp;Table1[[#This Row],[UUID]]&amp;""" , ""trgts"" : [ """&amp;Table1[[#This Row],[PostTarget1-1]]&amp;""" ] }"</f>
         <v>{ "content" : "Yata! 87" , "contentType" : "message", "labels" : [ "ef6a7b08-beaf-4c8a-994f-dcbed4a37909" ] , "src" : "2e1b5dfe-feb3-46ed-abc8-f7342f1d5d61" , "trgts" : [ "768fd55e-2295-4511-9e19-04a8f29f9d9e" ] }</v>
       </c>
@@ -22252,7 +22267,7 @@
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A88" s="55">
+      <c r="A88" s="47">
         <v>87</v>
       </c>
       <c r="B88" t="s">
@@ -22262,14 +22277,14 @@
         <f>LOWER(LEFT(Table1[[#This Row],[firstName]],1)&amp;Table1[[#This Row],[lastName]])</f>
         <v>sbennett</v>
       </c>
-      <c r="D88" s="57" t="s">
-        <v>2364</v>
-      </c>
-      <c r="E88" s="57" t="s">
+      <c r="D88" s="49" t="s">
+        <v>2362</v>
+      </c>
+      <c r="E88" s="49" t="s">
         <v>3</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="G88" s="3" t="str">
         <f>"mailto:livelygig_"&amp;Table1[[#This Row],[loginId]]&amp;"@mailinator.com"</f>
@@ -22281,36 +22296,36 @@
       <c r="I88" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="J88" s="59" t="str">
+      <c r="J88" s="51" t="str">
         <f>"""id"" : """&amp;Table1[[#This Row],[UUID]]&amp;""", "</f>
         <v xml:space="preserve">"id" : "96af8409-0805-4b62-84fe-f434572e6c9f", </v>
       </c>
-      <c r="K88" s="59" t="str">
+      <c r="K88" s="51" t="str">
         <f>"""loginId"" : """&amp;Table1[[#This Row],[loginId]]&amp;""", "</f>
         <v xml:space="preserve">"loginId" : "sbennett", </v>
       </c>
-      <c r="L88" s="59" t="str">
+      <c r="L88" s="51" t="str">
         <f>"""pwd"" : """&amp;Table1[[#This Row],[pwd]]&amp;""", "</f>
         <v xml:space="preserve">"pwd" : "community", </v>
       </c>
-      <c r="M88" s="59" t="str">
+      <c r="M88" s="51" t="str">
         <f>"""firstName""  : """&amp;Table1[[#This Row],[firstName]]&amp;""", "</f>
         <v xml:space="preserve">"firstName"  : "Shirley", </v>
       </c>
-      <c r="N88" s="59" t="str">
+      <c r="N88" s="51" t="str">
         <f>"""lastName"" : """&amp;Table1[[#This Row],[lastName]]&amp;""", "</f>
         <v xml:space="preserve">"lastName" : "Bennett", </v>
       </c>
-      <c r="O88" s="59" t="str">
+      <c r="O88" s="51" t="str">
         <f>"""profilePic"" : """&amp;Table1[[#This Row],[profilePic]]&amp;""", "</f>
         <v xml:space="preserve">"profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", </v>
       </c>
-      <c r="P88" s="59" t="str">
+      <c r="P88" s="51" t="str">
         <f>"""contacts"" : { ""channels"": [ {""url"" : """&amp;Table1[[#This Row],[contact1]]&amp;""", ""channelType"" : """&amp;Table1[[#This Row],[contact1 type]]&amp;""" } ] },"</f>
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_sbennett@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q88" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R88" s="3" t="str">
         <f t="shared" si="4"/>
@@ -22323,7 +22338,7 @@
       <c r="T88" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="U88" s="58" t="str">
+      <c r="U88" s="50" t="str">
         <f>"{ ""content"" : """&amp;Table1[[#This Row],[PostContent1]]&amp;""" , ""contentType"" : ""message"", ""labels"" : [ """&amp;Table1[[#This Row],[PostLabel1GUID]]&amp;""" ] , ""src"" : """&amp;Table1[[#This Row],[UUID]]&amp;""" , ""trgts"" : [ """&amp;Table1[[#This Row],[PostTarget1-1]]&amp;""" ] }"</f>
         <v>{ "content" : "Yata! 88" , "contentType" : "message", "labels" : [ "ef6a7b08-beaf-4c8a-994f-dcbed4a37909" ] , "src" : "96af8409-0805-4b62-84fe-f434572e6c9f" , "trgts" : [ "768fd55e-2295-4511-9e19-04a8f29f9d9e" ] }</v>
       </c>
@@ -22337,7 +22352,7 @@
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A89" s="55">
+      <c r="A89" s="47">
         <v>88</v>
       </c>
       <c r="B89" t="s">
@@ -22347,14 +22362,14 @@
         <f>LOWER(LEFT(Table1[[#This Row],[firstName]],1)&amp;Table1[[#This Row],[lastName]])</f>
         <v>jwinger</v>
       </c>
-      <c r="D89" s="57" t="s">
-        <v>2365</v>
-      </c>
-      <c r="E89" s="57" t="s">
-        <v>2358</v>
+      <c r="D89" s="49" t="s">
+        <v>2363</v>
+      </c>
+      <c r="E89" s="49" t="s">
+        <v>2356</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="G89" s="3" t="str">
         <f>"mailto:livelygig_"&amp;Table1[[#This Row],[loginId]]&amp;"@mailinator.com"</f>
@@ -22366,36 +22381,36 @@
       <c r="I89" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="J89" s="59" t="str">
+      <c r="J89" s="51" t="str">
         <f>"""id"" : """&amp;Table1[[#This Row],[UUID]]&amp;""", "</f>
         <v xml:space="preserve">"id" : "96d82e92-a79f-454d-bf2b-fe27b3b36871", </v>
       </c>
-      <c r="K89" s="59" t="str">
+      <c r="K89" s="51" t="str">
         <f>"""loginId"" : """&amp;Table1[[#This Row],[loginId]]&amp;""", "</f>
         <v xml:space="preserve">"loginId" : "jwinger", </v>
       </c>
-      <c r="L89" s="59" t="str">
+      <c r="L89" s="51" t="str">
         <f>"""pwd"" : """&amp;Table1[[#This Row],[pwd]]&amp;""", "</f>
         <v xml:space="preserve">"pwd" : "community", </v>
       </c>
-      <c r="M89" s="59" t="str">
+      <c r="M89" s="51" t="str">
         <f>"""firstName""  : """&amp;Table1[[#This Row],[firstName]]&amp;""", "</f>
         <v xml:space="preserve">"firstName"  : "Jeff", </v>
       </c>
-      <c r="N89" s="59" t="str">
+      <c r="N89" s="51" t="str">
         <f>"""lastName"" : """&amp;Table1[[#This Row],[lastName]]&amp;""", "</f>
         <v xml:space="preserve">"lastName" : "Winger", </v>
       </c>
-      <c r="O89" s="59" t="str">
+      <c r="O89" s="51" t="str">
         <f>"""profilePic"" : """&amp;Table1[[#This Row],[profilePic]]&amp;""", "</f>
         <v xml:space="preserve">"profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", </v>
       </c>
-      <c r="P89" s="59" t="str">
+      <c r="P89" s="51" t="str">
         <f>"""contacts"" : { ""channels"": [ {""url"" : """&amp;Table1[[#This Row],[contact1]]&amp;""", ""channelType"" : """&amp;Table1[[#This Row],[contact1 type]]&amp;""" } ] },"</f>
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_jwinger@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q89" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R89" s="3" t="str">
         <f t="shared" si="4"/>
@@ -22408,7 +22423,7 @@
       <c r="T89" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="U89" s="58" t="str">
+      <c r="U89" s="50" t="str">
         <f>"{ ""content"" : """&amp;Table1[[#This Row],[PostContent1]]&amp;""" , ""contentType"" : ""message"", ""labels"" : [ """&amp;Table1[[#This Row],[PostLabel1GUID]]&amp;""" ] , ""src"" : """&amp;Table1[[#This Row],[UUID]]&amp;""" , ""trgts"" : [ """&amp;Table1[[#This Row],[PostTarget1-1]]&amp;""" ] }"</f>
         <v>{ "content" : "Yata! 89" , "contentType" : "message", "labels" : [ "ef6a7b08-beaf-4c8a-994f-dcbed4a37909" ] , "src" : "96d82e92-a79f-454d-bf2b-fe27b3b36871" , "trgts" : [ "768fd55e-2295-4511-9e19-04a8f29f9d9e" ] }</v>
       </c>
@@ -22422,7 +22437,7 @@
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A90" s="55">
+      <c r="A90" s="47">
         <v>89</v>
       </c>
       <c r="B90" t="s">
@@ -22432,14 +22447,14 @@
         <f>LOWER(LEFT(Table1[[#This Row],[firstName]],1)&amp;Table1[[#This Row],[lastName]])</f>
         <v>phawthorn</v>
       </c>
-      <c r="D90" s="57" t="s">
-        <v>2366</v>
-      </c>
-      <c r="E90" s="57" t="s">
-        <v>2359</v>
+      <c r="D90" s="49" t="s">
+        <v>2364</v>
+      </c>
+      <c r="E90" s="49" t="s">
+        <v>2357</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="G90" s="3" t="str">
         <f>"mailto:livelygig_"&amp;Table1[[#This Row],[loginId]]&amp;"@mailinator.com"</f>
@@ -22451,36 +22466,36 @@
       <c r="I90" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="J90" s="59" t="str">
+      <c r="J90" s="51" t="str">
         <f>"""id"" : """&amp;Table1[[#This Row],[UUID]]&amp;""", "</f>
         <v xml:space="preserve">"id" : "5f172d03-3a60-4e59-94fa-a4190d416260", </v>
       </c>
-      <c r="K90" s="59" t="str">
+      <c r="K90" s="51" t="str">
         <f>"""loginId"" : """&amp;Table1[[#This Row],[loginId]]&amp;""", "</f>
         <v xml:space="preserve">"loginId" : "phawthorn", </v>
       </c>
-      <c r="L90" s="59" t="str">
+      <c r="L90" s="51" t="str">
         <f>"""pwd"" : """&amp;Table1[[#This Row],[pwd]]&amp;""", "</f>
         <v xml:space="preserve">"pwd" : "community", </v>
       </c>
-      <c r="M90" s="59" t="str">
+      <c r="M90" s="51" t="str">
         <f>"""firstName""  : """&amp;Table1[[#This Row],[firstName]]&amp;""", "</f>
         <v xml:space="preserve">"firstName"  : "Pierce", </v>
       </c>
-      <c r="N90" s="59" t="str">
+      <c r="N90" s="51" t="str">
         <f>"""lastName"" : """&amp;Table1[[#This Row],[lastName]]&amp;""", "</f>
         <v xml:space="preserve">"lastName" : "Hawthorn", </v>
       </c>
-      <c r="O90" s="59" t="str">
+      <c r="O90" s="51" t="str">
         <f>"""profilePic"" : """&amp;Table1[[#This Row],[profilePic]]&amp;""", "</f>
         <v xml:space="preserve">"profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", </v>
       </c>
-      <c r="P90" s="59" t="str">
+      <c r="P90" s="51" t="str">
         <f>"""contacts"" : { ""channels"": [ {""url"" : """&amp;Table1[[#This Row],[contact1]]&amp;""", ""channelType"" : """&amp;Table1[[#This Row],[contact1 type]]&amp;""" } ] },"</f>
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_phawthorn@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q90" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R90" s="3" t="str">
         <f t="shared" si="4"/>
@@ -22493,7 +22508,7 @@
       <c r="T90" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="U90" s="58" t="str">
+      <c r="U90" s="50" t="str">
         <f>"{ ""content"" : """&amp;Table1[[#This Row],[PostContent1]]&amp;""" , ""contentType"" : ""message"", ""labels"" : [ """&amp;Table1[[#This Row],[PostLabel1GUID]]&amp;""" ] , ""src"" : """&amp;Table1[[#This Row],[UUID]]&amp;""" , ""trgts"" : [ """&amp;Table1[[#This Row],[PostTarget1-1]]&amp;""" ] }"</f>
         <v>{ "content" : "Yata! 90" , "contentType" : "message", "labels" : [ "ef6a7b08-beaf-4c8a-994f-dcbed4a37909" ] , "src" : "5f172d03-3a60-4e59-94fa-a4190d416260" , "trgts" : [ "768fd55e-2295-4511-9e19-04a8f29f9d9e" ] }</v>
       </c>
@@ -22513,18 +22528,18 @@
       <c r="B91" t="s">
         <v>2245</v>
       </c>
-      <c r="C91" s="59" t="str">
+      <c r="C91" s="51" t="str">
         <f>LOWER(LEFT(Table1[[#This Row],[firstName]],1)&amp;Table1[[#This Row],[lastName]])</f>
         <v>dthomas</v>
       </c>
       <c r="D91" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="E91" t="s">
         <v>82</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="G91" s="3" t="str">
         <f>"mailto:livelygig_"&amp;Table1[[#This Row],[loginId]]&amp;"@mailinator.com"</f>
@@ -22536,36 +22551,36 @@
       <c r="I91" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="J91" s="58" t="str">
+      <c r="J91" s="50" t="str">
         <f>"""id"" : """&amp;Table1[[#This Row],[UUID]]&amp;""", "</f>
         <v xml:space="preserve">"id" : "60582911-c2cd-4c14-8513-d13b9cc8cbff", </v>
       </c>
-      <c r="K91" s="58" t="str">
+      <c r="K91" s="50" t="str">
         <f>"""loginId"" : """&amp;Table1[[#This Row],[loginId]]&amp;""", "</f>
         <v xml:space="preserve">"loginId" : "dthomas", </v>
       </c>
-      <c r="L91" s="58" t="str">
+      <c r="L91" s="50" t="str">
         <f>"""pwd"" : """&amp;Table1[[#This Row],[pwd]]&amp;""", "</f>
         <v xml:space="preserve">"pwd" : "united", </v>
       </c>
-      <c r="M91" s="58" t="str">
+      <c r="M91" s="50" t="str">
         <f>"""firstName""  : """&amp;Table1[[#This Row],[firstName]]&amp;""", "</f>
         <v xml:space="preserve">"firstName"  : "Dylan", </v>
       </c>
-      <c r="N91" s="58" t="str">
+      <c r="N91" s="50" t="str">
         <f>"""lastName"" : """&amp;Table1[[#This Row],[lastName]]&amp;""", "</f>
         <v xml:space="preserve">"lastName" : "Thomas", </v>
       </c>
-      <c r="O91" s="58" t="str">
+      <c r="O91" s="50" t="str">
         <f>"""profilePic"" : """&amp;Table1[[#This Row],[profilePic]]&amp;""", "</f>
         <v xml:space="preserve">"profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", </v>
       </c>
-      <c r="P91" s="58" t="str">
+      <c r="P91" s="50" t="str">
         <f>"""contacts"" : { ""channels"": [ {""url"" : """&amp;Table1[[#This Row],[contact1]]&amp;""", ""channelType"" : """&amp;Table1[[#This Row],[contact1 type]]&amp;""" } ] },"</f>
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_dthomas@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q91" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R91" s="3" t="str">
         <f t="shared" si="4"/>
@@ -22578,7 +22593,7 @@
       <c r="T91" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="U91" s="58" t="str">
+      <c r="U91" s="50" t="str">
         <f>"{ ""content"" : """&amp;Table1[[#This Row],[PostContent1]]&amp;""" , ""contentType"" : ""message"", ""labels"" : [ """&amp;Table1[[#This Row],[PostLabel1GUID]]&amp;""" ] , ""src"" : """&amp;Table1[[#This Row],[UUID]]&amp;""" , ""trgts"" : [ """&amp;Table1[[#This Row],[PostTarget1-1]]&amp;""" ] }"</f>
         <v>{ "content" : "Yata! 91" , "contentType" : "message", "labels" : [ "ef6a7b08-beaf-4c8a-994f-dcbed4a37909" ] , "src" : "60582911-c2cd-4c14-8513-d13b9cc8cbff" , "trgts" : [ "768fd55e-2295-4511-9e19-04a8f29f9d9e" ] }</v>
       </c>
@@ -22592,24 +22607,24 @@
       </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A92" s="55">
+      <c r="A92" s="47">
         <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>2246</v>
       </c>
-      <c r="C92" s="59" t="str">
+      <c r="C92" s="51" t="str">
         <f>LOWER(LEFT(Table1[[#This Row],[firstName]],1)&amp;Table1[[#This Row],[lastName]])</f>
         <v>bdylan</v>
       </c>
       <c r="D92" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
       <c r="E92" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="G92" s="3" t="str">
         <f>"mailto:livelygig_"&amp;Table1[[#This Row],[loginId]]&amp;"@mailinator.com"</f>
@@ -22621,36 +22636,36 @@
       <c r="I92" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="J92" s="59" t="str">
+      <c r="J92" s="51" t="str">
         <f>"""id"" : """&amp;Table1[[#This Row],[UUID]]&amp;""", "</f>
         <v xml:space="preserve">"id" : "d2dd3995-b195-49ad-9e21-d1b90f9edc29", </v>
       </c>
-      <c r="K92" s="59" t="str">
+      <c r="K92" s="51" t="str">
         <f>"""loginId"" : """&amp;Table1[[#This Row],[loginId]]&amp;""", "</f>
         <v xml:space="preserve">"loginId" : "bdylan", </v>
       </c>
-      <c r="L92" s="59" t="str">
+      <c r="L92" s="51" t="str">
         <f>"""pwd"" : """&amp;Table1[[#This Row],[pwd]]&amp;""", "</f>
         <v xml:space="preserve">"pwd" : "united", </v>
       </c>
-      <c r="M92" s="59" t="str">
+      <c r="M92" s="51" t="str">
         <f>"""firstName""  : """&amp;Table1[[#This Row],[firstName]]&amp;""", "</f>
         <v xml:space="preserve">"firstName"  : "Bob", </v>
       </c>
-      <c r="N92" s="59" t="str">
+      <c r="N92" s="51" t="str">
         <f>"""lastName"" : """&amp;Table1[[#This Row],[lastName]]&amp;""", "</f>
         <v xml:space="preserve">"lastName" : "Dylan", </v>
       </c>
-      <c r="O92" s="59" t="str">
+      <c r="O92" s="51" t="str">
         <f>"""profilePic"" : """&amp;Table1[[#This Row],[profilePic]]&amp;""", "</f>
         <v xml:space="preserve">"profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", </v>
       </c>
-      <c r="P92" s="59" t="str">
+      <c r="P92" s="51" t="str">
         <f>"""contacts"" : { ""channels"": [ {""url"" : """&amp;Table1[[#This Row],[contact1]]&amp;""", ""channelType"" : """&amp;Table1[[#This Row],[contact1 type]]&amp;""" } ] },"</f>
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_bdylan@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q92" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R92" s="3" t="str">
         <f t="shared" si="4"/>
@@ -22663,7 +22678,7 @@
       <c r="T92" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="U92" s="58" t="str">
+      <c r="U92" s="50" t="str">
         <f>"{ ""content"" : """&amp;Table1[[#This Row],[PostContent1]]&amp;""" , ""contentType"" : ""message"", ""labels"" : [ """&amp;Table1[[#This Row],[PostLabel1GUID]]&amp;""" ] , ""src"" : """&amp;Table1[[#This Row],[UUID]]&amp;""" , ""trgts"" : [ """&amp;Table1[[#This Row],[PostTarget1-1]]&amp;""" ] }"</f>
         <v>{ "content" : "Yata! 92" , "contentType" : "message", "labels" : [ "ef6a7b08-beaf-4c8a-994f-dcbed4a37909" ] , "src" : "d2dd3995-b195-49ad-9e21-d1b90f9edc29" , "trgts" : [ "768fd55e-2295-4511-9e19-04a8f29f9d9e" ] }</v>
       </c>
@@ -22677,24 +22692,24 @@
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A93" s="55">
+      <c r="A93" s="47">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>2247</v>
       </c>
-      <c r="C93" s="59" t="str">
+      <c r="C93" s="51" t="str">
         <f>LOWER(LEFT(Table1[[#This Row],[firstName]],1)&amp;Table1[[#This Row],[lastName]])</f>
         <v>lcohen</v>
       </c>
       <c r="D93" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="E93" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="G93" s="3" t="str">
         <f>"mailto:livelygig_"&amp;Table1[[#This Row],[loginId]]&amp;"@mailinator.com"</f>
@@ -22706,36 +22721,36 @@
       <c r="I93" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="J93" s="59" t="str">
+      <c r="J93" s="51" t="str">
         <f>"""id"" : """&amp;Table1[[#This Row],[UUID]]&amp;""", "</f>
         <v xml:space="preserve">"id" : "95204302-2882-4c94-8631-5c494efeb2c2", </v>
       </c>
-      <c r="K93" s="59" t="str">
+      <c r="K93" s="51" t="str">
         <f>"""loginId"" : """&amp;Table1[[#This Row],[loginId]]&amp;""", "</f>
         <v xml:space="preserve">"loginId" : "lcohen", </v>
       </c>
-      <c r="L93" s="59" t="str">
+      <c r="L93" s="51" t="str">
         <f>"""pwd"" : """&amp;Table1[[#This Row],[pwd]]&amp;""", "</f>
         <v xml:space="preserve">"pwd" : "united", </v>
       </c>
-      <c r="M93" s="59" t="str">
+      <c r="M93" s="51" t="str">
         <f>"""firstName""  : """&amp;Table1[[#This Row],[firstName]]&amp;""", "</f>
         <v xml:space="preserve">"firstName"  : "Leonard", </v>
       </c>
-      <c r="N93" s="59" t="str">
+      <c r="N93" s="51" t="str">
         <f>"""lastName"" : """&amp;Table1[[#This Row],[lastName]]&amp;""", "</f>
         <v xml:space="preserve">"lastName" : "Cohen", </v>
       </c>
-      <c r="O93" s="59" t="str">
+      <c r="O93" s="51" t="str">
         <f>"""profilePic"" : """&amp;Table1[[#This Row],[profilePic]]&amp;""", "</f>
         <v xml:space="preserve">"profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", </v>
       </c>
-      <c r="P93" s="59" t="str">
+      <c r="P93" s="51" t="str">
         <f>"""contacts"" : { ""channels"": [ {""url"" : """&amp;Table1[[#This Row],[contact1]]&amp;""", ""channelType"" : """&amp;Table1[[#This Row],[contact1 type]]&amp;""" } ] },"</f>
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_lcohen@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q93" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R93" s="3" t="str">
         <f t="shared" si="4"/>
@@ -22748,7 +22763,7 @@
       <c r="T93" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="U93" s="58" t="str">
+      <c r="U93" s="50" t="str">
         <f>"{ ""content"" : """&amp;Table1[[#This Row],[PostContent1]]&amp;""" , ""contentType"" : ""message"", ""labels"" : [ """&amp;Table1[[#This Row],[PostLabel1GUID]]&amp;""" ] , ""src"" : """&amp;Table1[[#This Row],[UUID]]&amp;""" , ""trgts"" : [ """&amp;Table1[[#This Row],[PostTarget1-1]]&amp;""" ] }"</f>
         <v>{ "content" : "Yata! 93" , "contentType" : "message", "labels" : [ "ef6a7b08-beaf-4c8a-994f-dcbed4a37909" ] , "src" : "95204302-2882-4c94-8631-5c494efeb2c2" , "trgts" : [ "768fd55e-2295-4511-9e19-04a8f29f9d9e" ] }</v>
       </c>
@@ -22762,24 +22777,24 @@
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A94" s="55">
+      <c r="A94" s="47">
         <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>2248</v>
       </c>
-      <c r="C94" s="59" t="str">
+      <c r="C94" s="51" t="str">
         <f>LOWER(LEFT(Table1[[#This Row],[firstName]],1)&amp;Table1[[#This Row],[lastName]])</f>
         <v>moliver</v>
       </c>
       <c r="D94" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="E94" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="G94" s="3" t="str">
         <f>"mailto:livelygig_"&amp;Table1[[#This Row],[loginId]]&amp;"@mailinator.com"</f>
@@ -22791,36 +22806,36 @@
       <c r="I94" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="J94" s="59" t="str">
+      <c r="J94" s="51" t="str">
         <f>"""id"" : """&amp;Table1[[#This Row],[UUID]]&amp;""", "</f>
         <v xml:space="preserve">"id" : "98e22eea-4bc7-4ea6-9196-ec995ff038f7", </v>
       </c>
-      <c r="K94" s="59" t="str">
+      <c r="K94" s="51" t="str">
         <f>"""loginId"" : """&amp;Table1[[#This Row],[loginId]]&amp;""", "</f>
         <v xml:space="preserve">"loginId" : "moliver", </v>
       </c>
-      <c r="L94" s="59" t="str">
+      <c r="L94" s="51" t="str">
         <f>"""pwd"" : """&amp;Table1[[#This Row],[pwd]]&amp;""", "</f>
         <v xml:space="preserve">"pwd" : "united", </v>
       </c>
-      <c r="M94" s="59" t="str">
+      <c r="M94" s="51" t="str">
         <f>"""firstName""  : """&amp;Table1[[#This Row],[firstName]]&amp;""", "</f>
         <v xml:space="preserve">"firstName"  : "Mary", </v>
       </c>
-      <c r="N94" s="59" t="str">
+      <c r="N94" s="51" t="str">
         <f>"""lastName"" : """&amp;Table1[[#This Row],[lastName]]&amp;""", "</f>
         <v xml:space="preserve">"lastName" : "Oliver", </v>
       </c>
-      <c r="O94" s="59" t="str">
+      <c r="O94" s="51" t="str">
         <f>"""profilePic"" : """&amp;Table1[[#This Row],[profilePic]]&amp;""", "</f>
         <v xml:space="preserve">"profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", </v>
       </c>
-      <c r="P94" s="59" t="str">
+      <c r="P94" s="51" t="str">
         <f>"""contacts"" : { ""channels"": [ {""url"" : """&amp;Table1[[#This Row],[contact1]]&amp;""", ""channelType"" : """&amp;Table1[[#This Row],[contact1 type]]&amp;""" } ] },"</f>
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_moliver@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q94" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R94" s="3" t="str">
         <f t="shared" si="4"/>
@@ -22833,7 +22848,7 @@
       <c r="T94" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="U94" s="58" t="str">
+      <c r="U94" s="50" t="str">
         <f>"{ ""content"" : """&amp;Table1[[#This Row],[PostContent1]]&amp;""" , ""contentType"" : ""message"", ""labels"" : [ """&amp;Table1[[#This Row],[PostLabel1GUID]]&amp;""" ] , ""src"" : """&amp;Table1[[#This Row],[UUID]]&amp;""" , ""trgts"" : [ """&amp;Table1[[#This Row],[PostTarget1-1]]&amp;""" ] }"</f>
         <v>{ "content" : "Yata! 94" , "contentType" : "message", "labels" : [ "ef6a7b08-beaf-4c8a-994f-dcbed4a37909" ] , "src" : "98e22eea-4bc7-4ea6-9196-ec995ff038f7" , "trgts" : [ "768fd55e-2295-4511-9e19-04a8f29f9d9e" ] }</v>
       </c>
@@ -22847,24 +22862,24 @@
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A95" s="55">
+      <c r="A95" s="47">
         <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>2249</v>
       </c>
-      <c r="C95" s="59" t="str">
+      <c r="C95" s="51" t="str">
         <f>LOWER(LEFT(Table1[[#This Row],[firstName]],1)&amp;Table1[[#This Row],[lastName]])</f>
         <v>psmith</v>
       </c>
       <c r="D95" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="E95" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="G95" s="3" t="str">
         <f>"mailto:livelygig_"&amp;Table1[[#This Row],[loginId]]&amp;"@mailinator.com"</f>
@@ -22876,36 +22891,36 @@
       <c r="I95" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="J95" s="59" t="str">
+      <c r="J95" s="51" t="str">
         <f>"""id"" : """&amp;Table1[[#This Row],[UUID]]&amp;""", "</f>
         <v xml:space="preserve">"id" : "a2a73d30-274a-4173-b405-50a99eac3e2f", </v>
       </c>
-      <c r="K95" s="59" t="str">
+      <c r="K95" s="51" t="str">
         <f>"""loginId"" : """&amp;Table1[[#This Row],[loginId]]&amp;""", "</f>
         <v xml:space="preserve">"loginId" : "psmith", </v>
       </c>
-      <c r="L95" s="59" t="str">
+      <c r="L95" s="51" t="str">
         <f>"""pwd"" : """&amp;Table1[[#This Row],[pwd]]&amp;""", "</f>
         <v xml:space="preserve">"pwd" : "united", </v>
       </c>
-      <c r="M95" s="59" t="str">
+      <c r="M95" s="51" t="str">
         <f>"""firstName""  : """&amp;Table1[[#This Row],[firstName]]&amp;""", "</f>
         <v xml:space="preserve">"firstName"  : "Patti", </v>
       </c>
-      <c r="N95" s="59" t="str">
+      <c r="N95" s="51" t="str">
         <f>"""lastName"" : """&amp;Table1[[#This Row],[lastName]]&amp;""", "</f>
         <v xml:space="preserve">"lastName" : "Smith", </v>
       </c>
-      <c r="O95" s="59" t="str">
+      <c r="O95" s="51" t="str">
         <f>"""profilePic"" : """&amp;Table1[[#This Row],[profilePic]]&amp;""", "</f>
         <v xml:space="preserve">"profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", </v>
       </c>
-      <c r="P95" s="59" t="str">
+      <c r="P95" s="51" t="str">
         <f>"""contacts"" : { ""channels"": [ {""url"" : """&amp;Table1[[#This Row],[contact1]]&amp;""", ""channelType"" : """&amp;Table1[[#This Row],[contact1 type]]&amp;""" } ] },"</f>
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_psmith@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q95" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R95" s="3" t="str">
         <f t="shared" si="4"/>
@@ -22918,7 +22933,7 @@
       <c r="T95" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="U95" s="58" t="str">
+      <c r="U95" s="50" t="str">
         <f>"{ ""content"" : """&amp;Table1[[#This Row],[PostContent1]]&amp;""" , ""contentType"" : ""message"", ""labels"" : [ """&amp;Table1[[#This Row],[PostLabel1GUID]]&amp;""" ] , ""src"" : """&amp;Table1[[#This Row],[UUID]]&amp;""" , ""trgts"" : [ """&amp;Table1[[#This Row],[PostTarget1-1]]&amp;""" ] }"</f>
         <v>{ "content" : "Yata! 95" , "contentType" : "message", "labels" : [ "ef6a7b08-beaf-4c8a-994f-dcbed4a37909" ] , "src" : "a2a73d30-274a-4173-b405-50a99eac3e2f" , "trgts" : [ "768fd55e-2295-4511-9e19-04a8f29f9d9e" ] }</v>
       </c>
@@ -22932,24 +22947,24 @@
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A96" s="55">
+      <c r="A96" s="47">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>2250</v>
       </c>
-      <c r="C96" s="59" t="str">
+      <c r="C96" s="51" t="str">
         <f>LOWER(LEFT(Table1[[#This Row],[firstName]],1)&amp;Table1[[#This Row],[lastName]])</f>
         <v>slee</v>
       </c>
       <c r="D96" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="E96" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="G96" s="3" t="str">
         <f>"mailto:livelygig_"&amp;Table1[[#This Row],[loginId]]&amp;"@mailinator.com"</f>
@@ -22961,36 +22976,36 @@
       <c r="I96" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="J96" s="59" t="str">
+      <c r="J96" s="51" t="str">
         <f>"""id"" : """&amp;Table1[[#This Row],[UUID]]&amp;""", "</f>
         <v xml:space="preserve">"id" : "09f536f2-99d5-4c6d-bee8-6209e4fa650b", </v>
       </c>
-      <c r="K96" s="59" t="str">
+      <c r="K96" s="51" t="str">
         <f>"""loginId"" : """&amp;Table1[[#This Row],[loginId]]&amp;""", "</f>
         <v xml:space="preserve">"loginId" : "slee", </v>
       </c>
-      <c r="L96" s="59" t="str">
+      <c r="L96" s="51" t="str">
         <f>"""pwd"" : """&amp;Table1[[#This Row],[pwd]]&amp;""", "</f>
         <v xml:space="preserve">"pwd" : "united", </v>
       </c>
-      <c r="M96" s="59" t="str">
+      <c r="M96" s="51" t="str">
         <f>"""firstName""  : """&amp;Table1[[#This Row],[firstName]]&amp;""", "</f>
         <v xml:space="preserve">"firstName"  : "Stan", </v>
       </c>
-      <c r="N96" s="59" t="str">
+      <c r="N96" s="51" t="str">
         <f>"""lastName"" : """&amp;Table1[[#This Row],[lastName]]&amp;""", "</f>
         <v xml:space="preserve">"lastName" : "Lee", </v>
       </c>
-      <c r="O96" s="59" t="str">
+      <c r="O96" s="51" t="str">
         <f>"""profilePic"" : """&amp;Table1[[#This Row],[profilePic]]&amp;""", "</f>
         <v xml:space="preserve">"profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", </v>
       </c>
-      <c r="P96" s="59" t="str">
+      <c r="P96" s="51" t="str">
         <f>"""contacts"" : { ""channels"": [ {""url"" : """&amp;Table1[[#This Row],[contact1]]&amp;""", ""channelType"" : """&amp;Table1[[#This Row],[contact1 type]]&amp;""" } ] },"</f>
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_slee@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q96" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R96" s="3" t="str">
         <f t="shared" si="4"/>
@@ -23003,7 +23018,7 @@
       <c r="T96" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="U96" s="58" t="str">
+      <c r="U96" s="50" t="str">
         <f>"{ ""content"" : """&amp;Table1[[#This Row],[PostContent1]]&amp;""" , ""contentType"" : ""message"", ""labels"" : [ """&amp;Table1[[#This Row],[PostLabel1GUID]]&amp;""" ] , ""src"" : """&amp;Table1[[#This Row],[UUID]]&amp;""" , ""trgts"" : [ """&amp;Table1[[#This Row],[PostTarget1-1]]&amp;""" ] }"</f>
         <v>{ "content" : "Yata! 96" , "contentType" : "message", "labels" : [ "ef6a7b08-beaf-4c8a-994f-dcbed4a37909" ] , "src" : "09f536f2-99d5-4c6d-bee8-6209e4fa650b" , "trgts" : [ "768fd55e-2295-4511-9e19-04a8f29f9d9e" ] }</v>
       </c>
@@ -23017,24 +23032,24 @@
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A97" s="55">
+      <c r="A97" s="47">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>2251</v>
       </c>
-      <c r="C97" s="59" t="str">
+      <c r="C97" s="51" t="str">
         <f>LOWER(LEFT(Table1[[#This Row],[firstName]],1)&amp;Table1[[#This Row],[lastName]])</f>
         <v>rbrooks</v>
       </c>
       <c r="D97" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
       <c r="E97" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="G97" s="3" t="str">
         <f>"mailto:livelygig_"&amp;Table1[[#This Row],[loginId]]&amp;"@mailinator.com"</f>
@@ -23046,36 +23061,36 @@
       <c r="I97" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="J97" s="59" t="str">
+      <c r="J97" s="51" t="str">
         <f>"""id"" : """&amp;Table1[[#This Row],[UUID]]&amp;""", "</f>
         <v xml:space="preserve">"id" : "727f1d78-d9e6-4d17-b36b-d30485942d02", </v>
       </c>
-      <c r="K97" s="59" t="str">
+      <c r="K97" s="51" t="str">
         <f>"""loginId"" : """&amp;Table1[[#This Row],[loginId]]&amp;""", "</f>
         <v xml:space="preserve">"loginId" : "rbrooks", </v>
       </c>
-      <c r="L97" s="59" t="str">
+      <c r="L97" s="51" t="str">
         <f>"""pwd"" : """&amp;Table1[[#This Row],[pwd]]&amp;""", "</f>
         <v xml:space="preserve">"pwd" : "united", </v>
       </c>
-      <c r="M97" s="59" t="str">
+      <c r="M97" s="51" t="str">
         <f>"""firstName""  : """&amp;Table1[[#This Row],[firstName]]&amp;""", "</f>
         <v xml:space="preserve">"firstName"  : "Rebekah", </v>
       </c>
-      <c r="N97" s="59" t="str">
+      <c r="N97" s="51" t="str">
         <f>"""lastName"" : """&amp;Table1[[#This Row],[lastName]]&amp;""", "</f>
         <v xml:space="preserve">"lastName" : "Brooks", </v>
       </c>
-      <c r="O97" s="59" t="str">
+      <c r="O97" s="51" t="str">
         <f>"""profilePic"" : """&amp;Table1[[#This Row],[profilePic]]&amp;""", "</f>
         <v xml:space="preserve">"profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", </v>
       </c>
-      <c r="P97" s="59" t="str">
+      <c r="P97" s="51" t="str">
         <f>"""contacts"" : { ""channels"": [ {""url"" : """&amp;Table1[[#This Row],[contact1]]&amp;""", ""channelType"" : """&amp;Table1[[#This Row],[contact1 type]]&amp;""" } ] },"</f>
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_rbrooks@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q97" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R97" s="3" t="str">
         <f t="shared" si="4"/>
@@ -23088,7 +23103,7 @@
       <c r="T97" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="U97" s="58" t="str">
+      <c r="U97" s="50" t="str">
         <f>"{ ""content"" : """&amp;Table1[[#This Row],[PostContent1]]&amp;""" , ""contentType"" : ""message"", ""labels"" : [ """&amp;Table1[[#This Row],[PostLabel1GUID]]&amp;""" ] , ""src"" : """&amp;Table1[[#This Row],[UUID]]&amp;""" , ""trgts"" : [ """&amp;Table1[[#This Row],[PostTarget1-1]]&amp;""" ] }"</f>
         <v>{ "content" : "Yata! 97" , "contentType" : "message", "labels" : [ "ef6a7b08-beaf-4c8a-994f-dcbed4a37909" ] , "src" : "727f1d78-d9e6-4d17-b36b-d30485942d02" , "trgts" : [ "768fd55e-2295-4511-9e19-04a8f29f9d9e" ] }</v>
       </c>
@@ -23102,24 +23117,24 @@
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A98" s="55">
+      <c r="A98" s="47">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>2252</v>
       </c>
-      <c r="C98" s="59" t="str">
+      <c r="C98" s="51" t="str">
         <f>LOWER(LEFT(Table1[[#This Row],[firstName]],1)&amp;Table1[[#This Row],[lastName]])</f>
         <v>sphan</v>
       </c>
       <c r="D98" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="E98" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="G98" s="3" t="str">
         <f>"mailto:livelygig_"&amp;Table1[[#This Row],[loginId]]&amp;"@mailinator.com"</f>
@@ -23131,36 +23146,36 @@
       <c r="I98" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="J98" s="59" t="str">
+      <c r="J98" s="51" t="str">
         <f>"""id"" : """&amp;Table1[[#This Row],[UUID]]&amp;""", "</f>
         <v xml:space="preserve">"id" : "aedaead9-fba3-4e87-a628-646e0064ca54", </v>
       </c>
-      <c r="K98" s="59" t="str">
+      <c r="K98" s="51" t="str">
         <f>"""loginId"" : """&amp;Table1[[#This Row],[loginId]]&amp;""", "</f>
         <v xml:space="preserve">"loginId" : "sphan", </v>
       </c>
-      <c r="L98" s="59" t="str">
+      <c r="L98" s="51" t="str">
         <f>"""pwd"" : """&amp;Table1[[#This Row],[pwd]]&amp;""", "</f>
         <v xml:space="preserve">"pwd" : "united", </v>
       </c>
-      <c r="M98" s="59" t="str">
+      <c r="M98" s="51" t="str">
         <f>"""firstName""  : """&amp;Table1[[#This Row],[firstName]]&amp;""", "</f>
         <v xml:space="preserve">"firstName"  : "Sum", </v>
       </c>
-      <c r="N98" s="59" t="str">
+      <c r="N98" s="51" t="str">
         <f>"""lastName"" : """&amp;Table1[[#This Row],[lastName]]&amp;""", "</f>
         <v xml:space="preserve">"lastName" : "Phan", </v>
       </c>
-      <c r="O98" s="59" t="str">
+      <c r="O98" s="51" t="str">
         <f>"""profilePic"" : """&amp;Table1[[#This Row],[profilePic]]&amp;""", "</f>
         <v xml:space="preserve">"profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", </v>
       </c>
-      <c r="P98" s="59" t="str">
+      <c r="P98" s="51" t="str">
         <f>"""contacts"" : { ""channels"": [ {""url"" : """&amp;Table1[[#This Row],[contact1]]&amp;""", ""channelType"" : """&amp;Table1[[#This Row],[contact1 type]]&amp;""" } ] },"</f>
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_sphan@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q98" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R98" s="3" t="str">
         <f t="shared" si="4"/>
@@ -23173,7 +23188,7 @@
       <c r="T98" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="U98" s="58" t="str">
+      <c r="U98" s="50" t="str">
         <f>"{ ""content"" : """&amp;Table1[[#This Row],[PostContent1]]&amp;""" , ""contentType"" : ""message"", ""labels"" : [ """&amp;Table1[[#This Row],[PostLabel1GUID]]&amp;""" ] , ""src"" : """&amp;Table1[[#This Row],[UUID]]&amp;""" , ""trgts"" : [ """&amp;Table1[[#This Row],[PostTarget1-1]]&amp;""" ] }"</f>
         <v>{ "content" : "Yata! 98" , "contentType" : "message", "labels" : [ "ef6a7b08-beaf-4c8a-994f-dcbed4a37909" ] , "src" : "aedaead9-fba3-4e87-a628-646e0064ca54" , "trgts" : [ "768fd55e-2295-4511-9e19-04a8f29f9d9e" ] }</v>
       </c>
@@ -23187,21 +23202,21 @@
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A99" s="55">
+      <c r="A99" s="47">
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>2253</v>
       </c>
-      <c r="C99" s="59" t="str">
+      <c r="C99" s="51" t="str">
         <f>LOWER(LEFT(Table1[[#This Row],[firstName]],1)&amp;Table1[[#This Row],[lastName]])</f>
         <v>unitedfan</v>
       </c>
       <c r="E99" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="G99" s="3" t="str">
         <f>"mailto:livelygig_"&amp;Table1[[#This Row],[loginId]]&amp;"@mailinator.com"</f>
@@ -23213,36 +23228,36 @@
       <c r="I99" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="J99" s="59" t="str">
+      <c r="J99" s="51" t="str">
         <f>"""id"" : """&amp;Table1[[#This Row],[UUID]]&amp;""", "</f>
         <v xml:space="preserve">"id" : "179ee405-aa43-4b8a-9e94-a49dc3b3d07d", </v>
       </c>
-      <c r="K99" s="59" t="str">
+      <c r="K99" s="51" t="str">
         <f>"""loginId"" : """&amp;Table1[[#This Row],[loginId]]&amp;""", "</f>
         <v xml:space="preserve">"loginId" : "unitedfan", </v>
       </c>
-      <c r="L99" s="59" t="str">
+      <c r="L99" s="51" t="str">
         <f>"""pwd"" : """&amp;Table1[[#This Row],[pwd]]&amp;""", "</f>
         <v xml:space="preserve">"pwd" : "united", </v>
       </c>
-      <c r="M99" s="59" t="str">
+      <c r="M99" s="51" t="str">
         <f>"""firstName""  : """&amp;Table1[[#This Row],[firstName]]&amp;""", "</f>
         <v xml:space="preserve">"firstName"  : "", </v>
       </c>
-      <c r="N99" s="59" t="str">
+      <c r="N99" s="51" t="str">
         <f>"""lastName"" : """&amp;Table1[[#This Row],[lastName]]&amp;""", "</f>
         <v xml:space="preserve">"lastName" : "UnitedFan", </v>
       </c>
-      <c r="O99" s="59" t="str">
+      <c r="O99" s="51" t="str">
         <f>"""profilePic"" : """&amp;Table1[[#This Row],[profilePic]]&amp;""", "</f>
         <v xml:space="preserve">"profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", </v>
       </c>
-      <c r="P99" s="59" t="str">
+      <c r="P99" s="51" t="str">
         <f>"""contacts"" : { ""channels"": [ {""url"" : """&amp;Table1[[#This Row],[contact1]]&amp;""", ""channelType"" : """&amp;Table1[[#This Row],[contact1 type]]&amp;""" } ] },"</f>
         <v>"contacts" : { "channels": [ {"url" : "mailto:livelygig_unitedfan@mailinator.com", "channelType" : "email" } ] },</v>
       </c>
       <c r="Q99" s="3" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R99" s="3" t="str">
         <f t="shared" si="4"/>
@@ -23255,7 +23270,7 @@
       <c r="T99" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="U99" s="58" t="str">
+      <c r="U99" s="50" t="str">
         <f>"{ ""content"" : """&amp;Table1[[#This Row],[PostContent1]]&amp;""" , ""contentType"" : ""message"", ""labels"" : [ """&amp;Table1[[#This Row],[PostLabel1GUID]]&amp;""" ] , ""src"" : """&amp;Table1[[#This Row],[UUID]]&amp;""" , ""trgts"" : [ """&amp;Table1[[#This Row],[PostTarget1-1]]&amp;""" ] }"</f>
         <v>{ "content" : "Yata! 99" , "contentType" : "message", "labels" : [ "ef6a7b08-beaf-4c8a-994f-dcbed4a37909" ] , "src" : "179ee405-aa43-4b8a-9e94-a49dc3b3d07d" , "trgts" : [ "768fd55e-2295-4511-9e19-04a8f29f9d9e" ] }</v>
       </c>
@@ -23306,48 +23321,48 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2394</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2392</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2395</v>
+      </c>
+      <c r="E3" t="s">
         <v>2393</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F3" t="s">
         <v>2396</v>
       </c>
-      <c r="C3" t="s">
-        <v>2394</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2397</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2395</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2398</v>
-      </c>
       <c r="G3" t="s">
+        <v>2401</v>
+      </c>
+      <c r="H3" t="s">
         <v>2403</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>2404</v>
+      </c>
+      <c r="J3" t="s">
         <v>2405</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>2406</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>2407</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>2408</v>
-      </c>
-      <c r="L3" t="s">
-        <v>2409</v>
-      </c>
-      <c r="M3" t="s">
-        <v>2410</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -23366,14 +23381,14 @@
         <v>anadir</v>
       </c>
       <c r="E4" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="F4" t="str">
         <f>IF(Table2[[#This Row],[Message Type]]="buyer profile","eb0c7fee-e815-4590-97cc-7be8251f68b6",IF(Table2[[#This Row],[Message Type]]="project post","3b5d7868-38ff-4404-9ea9-13cd2541924a",IF(Table2[[#This Row],[Message Type]]="project post","333",IF(Table2[[#This Row],[Message Type]]="seller profile","574d0bd0-c372-4f1b-830e-f4df44ca11b7",IF(Table2[[#This Row],[Message Type]]="direct message","4b0f0e1b-136c-469e-8de3-a69d7e34da5d",IF(Table2[[#This Row],[Message Type]]="contract","49607b66-5642-4f96-ab5b-864f44697ea8",IF(Table2[[#This Row],[Message Type]]="offering","4b4a042b-03b4-4e38-8676-f6fef430ae2f","ERROR")))))))</f>
         <v>eb0c7fee-e815-4590-97cc-7be8251f68b6</v>
       </c>
-      <c r="G4" s="72" t="s">
-        <v>2404</v>
+      <c r="G4" s="64" t="s">
+        <v>2402</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -23392,14 +23407,14 @@
         <v>bperry</v>
       </c>
       <c r="E5" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="F5" t="str">
         <f>IF(Table2[[#This Row],[Message Type]]="buyer profile","eb0c7fee-e815-4590-97cc-7be8251f68b6",IF(Table2[[#This Row],[Message Type]]="project post","3b5d7868-38ff-4404-9ea9-13cd2541924a",IF(Table2[[#This Row],[Message Type]]="project post","333",IF(Table2[[#This Row],[Message Type]]="seller profile","574d0bd0-c372-4f1b-830e-f4df44ca11b7",IF(Table2[[#This Row],[Message Type]]="direct message","4b0f0e1b-136c-469e-8de3-a69d7e34da5d",IF(Table2[[#This Row],[Message Type]]="contract","49607b66-5642-4f96-ab5b-864f44697ea8",IF(Table2[[#This Row],[Message Type]]="offering","4b4a042b-03b4-4e38-8676-f6fef430ae2f","ERROR")))))))</f>
         <v>eb0c7fee-e815-4590-97cc-7be8251f68b6</v>
       </c>
-      <c r="G5" s="72" t="s">
-        <v>2404</v>
+      <c r="G5" s="64" t="s">
+        <v>2402</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -23418,14 +23433,14 @@
         <v>pbennett</v>
       </c>
       <c r="E6" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="F6" t="str">
         <f>IF(Table2[[#This Row],[Message Type]]="buyer profile","eb0c7fee-e815-4590-97cc-7be8251f68b6",IF(Table2[[#This Row],[Message Type]]="project post","3b5d7868-38ff-4404-9ea9-13cd2541924a",IF(Table2[[#This Row],[Message Type]]="project post","333",IF(Table2[[#This Row],[Message Type]]="seller profile","574d0bd0-c372-4f1b-830e-f4df44ca11b7",IF(Table2[[#This Row],[Message Type]]="direct message","4b0f0e1b-136c-469e-8de3-a69d7e34da5d",IF(Table2[[#This Row],[Message Type]]="contract","49607b66-5642-4f96-ab5b-864f44697ea8",IF(Table2[[#This Row],[Message Type]]="offering","4b4a042b-03b4-4e38-8676-f6fef430ae2f","ERROR")))))))</f>
         <v>eb0c7fee-e815-4590-97cc-7be8251f68b6</v>
       </c>
-      <c r="G6" s="72" t="s">
-        <v>2404</v>
+      <c r="G6" s="64" t="s">
+        <v>2402</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -23444,14 +23459,14 @@
         <v>livelygig</v>
       </c>
       <c r="E7" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="F7" t="str">
         <f>IF(Table2[[#This Row],[Message Type]]="buyer profile","eb0c7fee-e815-4590-97cc-7be8251f68b6",IF(Table2[[#This Row],[Message Type]]="project post","3b5d7868-38ff-4404-9ea9-13cd2541924a",IF(Table2[[#This Row],[Message Type]]="project post","333",IF(Table2[[#This Row],[Message Type]]="seller profile","574d0bd0-c372-4f1b-830e-f4df44ca11b7",IF(Table2[[#This Row],[Message Type]]="direct message","4b0f0e1b-136c-469e-8de3-a69d7e34da5d",IF(Table2[[#This Row],[Message Type]]="contract","49607b66-5642-4f96-ab5b-864f44697ea8",IF(Table2[[#This Row],[Message Type]]="offering","4b4a042b-03b4-4e38-8676-f6fef430ae2f","ERROR")))))))</f>
         <v>3b5d7868-38ff-4404-9ea9-13cd2541924a</v>
       </c>
-      <c r="G7" s="72" t="s">
-        <v>2404</v>
+      <c r="G7" s="64" t="s">
+        <v>2402</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -23470,14 +23485,14 @@
         <v>livelygig</v>
       </c>
       <c r="E8" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="F8" t="str">
         <f>IF(Table2[[#This Row],[Message Type]]="buyer profile","eb0c7fee-e815-4590-97cc-7be8251f68b6",IF(Table2[[#This Row],[Message Type]]="project post","3b5d7868-38ff-4404-9ea9-13cd2541924a",IF(Table2[[#This Row],[Message Type]]="project post","333",IF(Table2[[#This Row],[Message Type]]="seller profile","574d0bd0-c372-4f1b-830e-f4df44ca11b7",IF(Table2[[#This Row],[Message Type]]="direct message","4b0f0e1b-136c-469e-8de3-a69d7e34da5d",IF(Table2[[#This Row],[Message Type]]="contract","49607b66-5642-4f96-ab5b-864f44697ea8",IF(Table2[[#This Row],[Message Type]]="offering","4b4a042b-03b4-4e38-8676-f6fef430ae2f","ERROR")))))))</f>
         <v>574d0bd0-c372-4f1b-830e-f4df44ca11b7</v>
       </c>
-      <c r="G8" s="72" t="s">
-        <v>2404</v>
+      <c r="G8" s="64" t="s">
+        <v>2402</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -23496,66 +23511,66 @@
         <v>livelygig</v>
       </c>
       <c r="E9" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
       <c r="F9" t="str">
         <f>IF(Table2[[#This Row],[Message Type]]="buyer profile","eb0c7fee-e815-4590-97cc-7be8251f68b6",IF(Table2[[#This Row],[Message Type]]="project post","3b5d7868-38ff-4404-9ea9-13cd2541924a",IF(Table2[[#This Row],[Message Type]]="project post","333",IF(Table2[[#This Row],[Message Type]]="seller profile","574d0bd0-c372-4f1b-830e-f4df44ca11b7",IF(Table2[[#This Row],[Message Type]]="direct message","4b0f0e1b-136c-469e-8de3-a69d7e34da5d",IF(Table2[[#This Row],[Message Type]]="contract","49607b66-5642-4f96-ab5b-864f44697ea8",IF(Table2[[#This Row],[Message Type]]="offering","4b4a042b-03b4-4e38-8676-f6fef430ae2f","ERROR")))))))</f>
         <v>4b0f0e1b-136c-469e-8de3-a69d7e34da5d</v>
       </c>
-      <c r="G9" s="72" t="s">
-        <v>2404</v>
+      <c r="G9" s="64" t="s">
+        <v>2402</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="73" t="str">
+      <c r="B10" s="65" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Sender]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>livelygig</v>
       </c>
       <c r="C10" t="s">
         <v>2241</v>
       </c>
-      <c r="D10" s="73" t="str">
+      <c r="D10" s="65" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Recipient]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>bperry</v>
       </c>
       <c r="E10" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
       <c r="F10" t="str">
         <f>IF(Table2[[#This Row],[Message Type]]="buyer profile","eb0c7fee-e815-4590-97cc-7be8251f68b6",IF(Table2[[#This Row],[Message Type]]="project post","3b5d7868-38ff-4404-9ea9-13cd2541924a",IF(Table2[[#This Row],[Message Type]]="project post","333",IF(Table2[[#This Row],[Message Type]]="seller profile","574d0bd0-c372-4f1b-830e-f4df44ca11b7",IF(Table2[[#This Row],[Message Type]]="direct message","4b0f0e1b-136c-469e-8de3-a69d7e34da5d",IF(Table2[[#This Row],[Message Type]]="contract","49607b66-5642-4f96-ab5b-864f44697ea8",IF(Table2[[#This Row],[Message Type]]="offering","4b4a042b-03b4-4e38-8676-f6fef430ae2f","ERROR")))))))</f>
         <v>49607b66-5642-4f96-ab5b-864f44697ea8</v>
       </c>
-      <c r="G10" s="72" t="s">
-        <v>2404</v>
+      <c r="G10" s="64" t="s">
+        <v>2402</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="73" t="str">
+      <c r="B11" s="65" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Sender]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>livelygig</v>
       </c>
       <c r="C11" t="s">
         <v>2241</v>
       </c>
-      <c r="D11" s="73" t="str">
+      <c r="D11" s="65" t="str">
         <f>VLOOKUP(Table2[[#This Row],[Recipient]],Table1[[UUID]:[loginId]],2,FALSE)</f>
         <v>bperry</v>
       </c>
       <c r="E11" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="F11" t="str">
         <f>IF(Table2[[#This Row],[Message Type]]="buyer profile","eb0c7fee-e815-4590-97cc-7be8251f68b6",IF(Table2[[#This Row],[Message Type]]="project post","3b5d7868-38ff-4404-9ea9-13cd2541924a",IF(Table2[[#This Row],[Message Type]]="project post","333",IF(Table2[[#This Row],[Message Type]]="seller profile","574d0bd0-c372-4f1b-830e-f4df44ca11b7",IF(Table2[[#This Row],[Message Type]]="direct message","4b0f0e1b-136c-469e-8de3-a69d7e34da5d",IF(Table2[[#This Row],[Message Type]]="contract","49607b66-5642-4f96-ab5b-864f44697ea8",IF(Table2[[#This Row],[Message Type]]="offering","4b4a042b-03b4-4e38-8676-f6fef430ae2f","ERROR")))))))</f>
         <v>4b4a042b-03b4-4e38-8676-f6fef430ae2f</v>
       </c>
-      <c r="G11" s="72" t="s">
-        <v>2404</v>
+      <c r="G11" s="64" t="s">
+        <v>2402</v>
       </c>
     </row>
   </sheetData>
@@ -23769,7 +23784,7 @@
       <c r="B11" s="22" t="s">
         <v>2293</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="38" t="s">
         <v>2292</v>
       </c>
       <c r="F11" s="24" t="str">
@@ -23781,7 +23796,7 @@
       <c r="A12" t="s">
         <v>370</v>
       </c>
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="73" t="s">
         <v>2260</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -24050,7 +24065,7 @@
         <v>471</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>2279</v>
@@ -24065,7 +24080,7 @@
         <v>362</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>2290</v>
@@ -24109,8 +24124,8 @@
       <c r="A33" t="s">
         <v>386</v>
       </c>
-      <c r="B33" s="75" t="s">
-        <v>2413</v>
+      <c r="B33" s="67" t="s">
+        <v>2411</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>2279</v>
@@ -24124,8 +24139,8 @@
       <c r="A34" t="s">
         <v>387</v>
       </c>
-      <c r="B34" s="84" t="s">
-        <v>2420</v>
+      <c r="B34" s="76" t="s">
+        <v>2418</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>2279</v>
@@ -24140,7 +24155,7 @@
         <v>384</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>2279</v>
@@ -24212,7 +24227,7 @@
         <v>579</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>2292</v>
@@ -24227,7 +24242,7 @@
         <v>580</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>2279</v>
@@ -24263,7 +24278,7 @@
         <v>268</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
       <c r="F42" s="24" t="str">
         <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C43="]}",$C43="]},"),""," , ")))))</f>
@@ -24275,7 +24290,7 @@
         <v>581</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>2292</v>
@@ -24290,7 +24305,7 @@
         <v>582</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>2279</v>
@@ -24326,7 +24341,7 @@
         <v>268</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
       <c r="F46" s="24" t="str">
         <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C47="]}",$C47="]},"),""," , ")))))</f>
@@ -24338,7 +24353,7 @@
         <v>583</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>2292</v>
@@ -24353,7 +24368,7 @@
         <v>584</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>2279</v>
@@ -24389,7 +24404,7 @@
         <v>268</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
       <c r="F50" s="24" t="str">
         <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C51="]}",$C51="]},"),""," , ")))))</f>
@@ -24401,7 +24416,7 @@
         <v>585</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>2292</v>
@@ -24416,7 +24431,7 @@
         <v>586</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>2279</v>
@@ -24461,7 +24476,7 @@
         <v>587</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>2292</v>
@@ -24476,7 +24491,7 @@
         <v>588</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>2279</v>
@@ -24521,7 +24536,7 @@
         <v>589</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>2290</v>
@@ -24536,7 +24551,7 @@
         <v>590</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>2292</v>
@@ -24551,7 +24566,7 @@
         <v>484</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>2279</v>
@@ -24565,8 +24580,8 @@
       <c r="A62" t="s">
         <v>485</v>
       </c>
-      <c r="B62" s="82" t="s">
-        <v>2422</v>
+      <c r="B62" s="74" t="s">
+        <v>2420</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>2279</v>
@@ -24580,8 +24595,8 @@
       <c r="A63" t="s">
         <v>486</v>
       </c>
-      <c r="B63" s="74" t="s">
-        <v>2415</v>
+      <c r="B63" s="66" t="s">
+        <v>2413</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>2279</v>
@@ -24595,8 +24610,8 @@
       <c r="A64" t="s">
         <v>487</v>
       </c>
-      <c r="B64" s="76" t="s">
-        <v>2419</v>
+      <c r="B64" s="68" t="s">
+        <v>2417</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>268</v>
@@ -24619,12 +24634,12 @@
       <c r="B65" s="25" t="s">
         <v>2271</v>
       </c>
-      <c r="C65" s="39" t="s">
+      <c r="C65" s="38" t="s">
         <v>2279</v>
       </c>
-      <c r="D65" s="78"/>
+      <c r="D65" s="70"/>
       <c r="E65" s="5" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="F65" s="24" t="str">
         <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C66="]}",$C66="]},"),""," , ")))))</f>
@@ -24635,13 +24650,13 @@
       <c r="A66" t="s">
         <v>489</v>
       </c>
-      <c r="B66" s="77" t="s">
+      <c r="B66" s="69" t="s">
         <v>2272</v>
       </c>
-      <c r="C66" s="39" t="s">
+      <c r="C66" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="D66" s="79" t="s">
+      <c r="D66" s="71" t="s">
         <v>393</v>
       </c>
       <c r="E66" s="5" t="s">
@@ -24656,13 +24671,13 @@
       <c r="A67" t="s">
         <v>490</v>
       </c>
-      <c r="B67" s="77" t="s">
+      <c r="B67" s="69" t="s">
         <v>2272</v>
       </c>
-      <c r="C67" s="39" t="s">
+      <c r="C67" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="D67" s="79" t="s">
+      <c r="D67" s="71" t="s">
         <v>395</v>
       </c>
       <c r="E67" s="5" t="s">
@@ -24677,7 +24692,7 @@
       <c r="A68" t="s">
         <v>491</v>
       </c>
-      <c r="B68" s="76" t="s">
+      <c r="B68" s="68" t="s">
         <v>2298</v>
       </c>
       <c r="C68" s="29" t="s">
@@ -24692,8 +24707,8 @@
       <c r="A69" t="s">
         <v>492</v>
       </c>
-      <c r="B69" s="74" t="s">
-        <v>2417</v>
+      <c r="B69" s="66" t="s">
+        <v>2415</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>2292</v>
@@ -24707,8 +24722,8 @@
       <c r="A70" t="s">
         <v>493</v>
       </c>
-      <c r="B70" s="74" t="s">
-        <v>2416</v>
+      <c r="B70" s="66" t="s">
+        <v>2414</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>2279</v>
@@ -24722,8 +24737,8 @@
       <c r="A71" t="s">
         <v>494</v>
       </c>
-      <c r="B71" s="74" t="s">
-        <v>2418</v>
+      <c r="B71" s="66" t="s">
+        <v>2416</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>2290</v>
@@ -24738,7 +24753,7 @@
         <v>495</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>2292</v>
@@ -24752,8 +24767,8 @@
       <c r="A73" t="s">
         <v>496</v>
       </c>
-      <c r="B73" s="82" t="s">
-        <v>2424</v>
+      <c r="B73" s="74" t="s">
+        <v>2422</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>2279</v>
@@ -24768,7 +24783,7 @@
         <v>497</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>2292</v>
@@ -24782,8 +24797,8 @@
       <c r="A75" t="s">
         <v>498</v>
       </c>
-      <c r="B75" s="82" t="s">
-        <v>2425</v>
+      <c r="B75" s="74" t="s">
+        <v>2423</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>2279</v>
@@ -24798,7 +24813,7 @@
         <v>499</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>2292</v>
@@ -24812,8 +24827,8 @@
       <c r="A77" t="s">
         <v>513</v>
       </c>
-      <c r="B77" s="82" t="s">
-        <v>2446</v>
+      <c r="B77" s="74" t="s">
+        <v>2444</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>2279</v>
@@ -24828,7 +24843,7 @@
         <v>514</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>2290</v>
@@ -24843,7 +24858,7 @@
         <v>500</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>2290</v>
@@ -24858,7 +24873,7 @@
         <v>501</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>2292</v>
@@ -24872,8 +24887,8 @@
       <c r="A81" t="s">
         <v>515</v>
       </c>
-      <c r="B81" s="83" t="s">
-        <v>2450</v>
+      <c r="B81" s="75" t="s">
+        <v>2448</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>2279</v>
@@ -24888,7 +24903,7 @@
         <v>516</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>2279</v>
@@ -24903,7 +24918,7 @@
         <v>517</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>2279</v>
@@ -24918,7 +24933,7 @@
         <v>518</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>2292</v>
@@ -24933,7 +24948,7 @@
         <v>519</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>2279</v>
@@ -24948,7 +24963,7 @@
         <v>520</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>2292</v>
@@ -24963,7 +24978,7 @@
         <v>521</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>2279</v>
@@ -24978,7 +24993,7 @@
         <v>522</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>2292</v>
@@ -24993,7 +25008,7 @@
         <v>523</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>2279</v>
@@ -25008,7 +25023,7 @@
         <v>524</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>2290</v>
@@ -25023,7 +25038,7 @@
         <v>525</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>2290</v>
@@ -25038,7 +25053,7 @@
         <v>526</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>2292</v>
@@ -25052,8 +25067,8 @@
       <c r="A93" t="s">
         <v>527</v>
       </c>
-      <c r="B93" s="83" t="s">
-        <v>2456</v>
+      <c r="B93" s="75" t="s">
+        <v>2454</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>2279</v>
@@ -25068,7 +25083,7 @@
         <v>528</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>2279</v>
@@ -25083,7 +25098,7 @@
         <v>529</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>2279</v>
@@ -25098,7 +25113,7 @@
         <v>530</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>2292</v>
@@ -25113,7 +25128,7 @@
         <v>531</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>2279</v>
@@ -25128,7 +25143,7 @@
         <v>532</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>2292</v>
@@ -25143,7 +25158,7 @@
         <v>533</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>2279</v>
@@ -25158,7 +25173,7 @@
         <v>534</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>2290</v>
@@ -25173,7 +25188,7 @@
         <v>535</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>2290</v>
@@ -25188,7 +25203,7 @@
         <v>536</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>2292</v>
@@ -25202,8 +25217,8 @@
       <c r="A103" t="s">
         <v>537</v>
       </c>
-      <c r="B103" s="83" t="s">
-        <v>2459</v>
+      <c r="B103" s="75" t="s">
+        <v>2457</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>2279</v>
@@ -25218,7 +25233,7 @@
         <v>538</v>
       </c>
       <c r="B104" s="21" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>2279</v>
@@ -25233,7 +25248,7 @@
         <v>539</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>2279</v>
@@ -25248,7 +25263,7 @@
         <v>540</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>2292</v>
@@ -25263,7 +25278,7 @@
         <v>541</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>2279</v>
@@ -25278,7 +25293,7 @@
         <v>542</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>2290</v>
@@ -25293,7 +25308,7 @@
         <v>543</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>2290</v>
@@ -25308,7 +25323,7 @@
         <v>544</v>
       </c>
       <c r="B110" s="22" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>2292</v>
@@ -25322,8 +25337,8 @@
       <c r="A111" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="B111" s="83" t="s">
-        <v>2461</v>
+      <c r="B111" s="75" t="s">
+        <v>2459</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>2279</v>
@@ -25338,7 +25353,7 @@
         <v>546</v>
       </c>
       <c r="B112" s="21" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>2279</v>
@@ -25353,7 +25368,7 @@
         <v>547</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>2279</v>
@@ -25368,7 +25383,7 @@
         <v>548</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>2292</v>
@@ -25383,7 +25398,7 @@
         <v>549</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>2279</v>
@@ -25398,7 +25413,7 @@
         <v>550</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>2292</v>
@@ -25413,7 +25428,7 @@
         <v>551</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>2279</v>
@@ -25428,7 +25443,7 @@
         <v>552</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>2292</v>
@@ -25443,7 +25458,7 @@
         <v>553</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>2279</v>
@@ -25458,7 +25473,7 @@
         <v>554</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>2290</v>
@@ -25473,7 +25488,7 @@
         <v>555</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>2290</v>
@@ -25488,7 +25503,7 @@
         <v>556</v>
       </c>
       <c r="B122" s="22" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>2292</v>
@@ -25502,8 +25517,8 @@
       <c r="A123" t="s">
         <v>558</v>
       </c>
-      <c r="B123" s="83" t="s">
-        <v>2465</v>
+      <c r="B123" s="75" t="s">
+        <v>2463</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>2279</v>
@@ -25518,7 +25533,7 @@
         <v>559</v>
       </c>
       <c r="B124" s="21" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>2279</v>
@@ -25533,7 +25548,7 @@
         <v>560</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>2279</v>
@@ -25548,7 +25563,7 @@
         <v>561</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>2292</v>
@@ -25563,7 +25578,7 @@
         <v>562</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>2279</v>
@@ -25578,7 +25593,7 @@
         <v>563</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>2292</v>
@@ -25593,7 +25608,7 @@
         <v>564</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>2279</v>
@@ -25608,7 +25623,7 @@
         <v>565</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>2292</v>
@@ -25623,7 +25638,7 @@
         <v>566</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>2279</v>
@@ -25638,7 +25653,7 @@
         <v>567</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>2290</v>
@@ -25653,7 +25668,7 @@
         <v>568</v>
       </c>
       <c r="B133" s="21" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>2290</v>
@@ -25668,7 +25683,7 @@
         <v>569</v>
       </c>
       <c r="B134" s="22" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>2290</v>
@@ -25683,7 +25698,7 @@
         <v>502</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>2292</v>
@@ -27185,8 +27200,8 @@
       <c r="A219" t="s">
         <v>505</v>
       </c>
-      <c r="B219" s="80" t="s">
-        <v>2439</v>
+      <c r="B219" s="72" t="s">
+        <v>2437</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>2279</v>
@@ -27231,7 +27246,7 @@
         <v>508</v>
       </c>
       <c r="B222" s="15" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
       <c r="C222" s="7" t="s">
         <v>268</v>
@@ -27246,7 +27261,7 @@
         <v>509</v>
       </c>
       <c r="B223" s="15" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>268</v>
@@ -27261,7 +27276,7 @@
         <v>510</v>
       </c>
       <c r="B224" s="19" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>2292</v>
@@ -27276,7 +27291,7 @@
         <v>472</v>
       </c>
       <c r="B225" s="28" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>2279</v>
@@ -27291,13 +27306,13 @@
         <v>473</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>2279</v>
       </c>
       <c r="E226" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
       <c r="F226" s="24" t="str">
         <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C227="]}",$C227="]},"),""," , ")))))</f>
@@ -27309,7 +27324,7 @@
         <v>474</v>
       </c>
       <c r="B227" s="22" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>2292</v>
@@ -27324,7 +27339,7 @@
         <v>476</v>
       </c>
       <c r="B228" s="22" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>2279</v>
@@ -27339,7 +27354,7 @@
         <v>477</v>
       </c>
       <c r="B229" s="22" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>2292</v>
@@ -27354,7 +27369,7 @@
         <v>478</v>
       </c>
       <c r="B230" s="22" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>2279</v>
@@ -27369,7 +27384,7 @@
         <v>479</v>
       </c>
       <c r="B231" s="22" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>2292</v>
@@ -27384,7 +27399,7 @@
         <v>480</v>
       </c>
       <c r="B232" s="22" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>2279</v>
@@ -27399,7 +27414,7 @@
         <v>481</v>
       </c>
       <c r="B233" s="22" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>2292</v>
@@ -27414,7 +27429,7 @@
         <v>511</v>
       </c>
       <c r="B234" s="22" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>2279</v>
@@ -27429,7 +27444,7 @@
         <v>512</v>
       </c>
       <c r="B235" s="22" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>2292</v>
@@ -27444,13 +27459,13 @@
         <v>503</v>
       </c>
       <c r="B236" s="22" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
       <c r="C236" s="7" t="s">
         <v>2279</v>
       </c>
       <c r="E236" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
       <c r="F236" s="24" t="str">
         <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C237="]}",$C237="]},"),""," , ")))))</f>
@@ -27462,7 +27477,7 @@
         <v>504</v>
       </c>
       <c r="B237" s="22" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>2290</v>
@@ -27477,7 +27492,7 @@
         <v>475</v>
       </c>
       <c r="B238" s="19" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>2292</v>
@@ -27491,14 +27506,14 @@
       <c r="A239" t="s">
         <v>570</v>
       </c>
-      <c r="B239" s="75" t="s">
-        <v>2470</v>
+      <c r="B239" s="67" t="s">
+        <v>2468</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>2279</v>
       </c>
       <c r="E239" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
       <c r="F239" s="24" t="str">
         <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C240="]}",$C240="]},"),""," , ")))))</f>
@@ -27509,8 +27524,8 @@
       <c r="A240" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="B240" s="85" t="s">
-        <v>2472</v>
+      <c r="B240" s="77" t="s">
+        <v>2470</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>268</v>
@@ -27524,8 +27539,8 @@
       <c r="A241" t="s">
         <v>572</v>
       </c>
-      <c r="B241" s="85" t="s">
-        <v>2473</v>
+      <c r="B241" s="77" t="s">
+        <v>2471</v>
       </c>
       <c r="C241" s="7" t="s">
         <v>268</v>
@@ -27539,8 +27554,8 @@
       <c r="A242" t="s">
         <v>573</v>
       </c>
-      <c r="B242" s="85" t="s">
-        <v>2474</v>
+      <c r="B242" s="77" t="s">
+        <v>2472</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>268</v>
@@ -27554,8 +27569,8 @@
       <c r="A243" t="s">
         <v>574</v>
       </c>
-      <c r="B243" s="85" t="s">
-        <v>2475</v>
+      <c r="B243" s="77" t="s">
+        <v>2473</v>
       </c>
       <c r="C243" s="7" t="s">
         <v>268</v>
@@ -27569,8 +27584,8 @@
       <c r="A244" t="s">
         <v>575</v>
       </c>
-      <c r="B244" s="85" t="s">
-        <v>2476</v>
+      <c r="B244" s="77" t="s">
+        <v>2474</v>
       </c>
       <c r="C244" s="7" t="s">
         <v>268</v>
@@ -27584,8 +27599,8 @@
       <c r="A245" t="s">
         <v>576</v>
       </c>
-      <c r="B245" s="85" t="s">
-        <v>2477</v>
+      <c r="B245" s="77" t="s">
+        <v>2475</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>268</v>
@@ -27600,7 +27615,7 @@
         <v>577</v>
       </c>
       <c r="B246" s="19" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>2290</v>
@@ -35878,10 +35893,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD25"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35893,12 +35908,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="63" t="s">
         <v>2336</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
-        <v>2337</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -35913,63 +35928,63 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B8" t="s">
         <v>2317</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2318</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B9" t="s">
         <v>2319</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2320</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="B10" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="B11" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="B12" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="B13" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="B14" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -35977,95 +35992,100 @@
         <v>294</v>
       </c>
       <c r="B15" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="B16" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B17" t="s">
         <v>2327</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2328</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="B19" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="B20" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B21" t="s">
         <v>2332</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2333</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="B22" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>2478</v>
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2485</v>
       </c>
     </row>
   </sheetData>
@@ -36079,80 +36099,124 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A2:A9"/>
+      <selection activeCell="A18" sqref="A18:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="75.85546875" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="5"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="78" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="79" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="79" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="79" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="79" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="79" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="80" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="79" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="79" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="80" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="79" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="79" t="s">
         <v>2350</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
-        <v>2382</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
-        <v>2354</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
-        <v>2339</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="78"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="78" t="s">
         <v>2351</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
-        <v>2352</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-    </row>
-    <row r="11" spans="1:1" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
-        <v>2353</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
-        <v>2338</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
-        <v>2309</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="52" t="s">
-        <v>2290</v>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="81" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="82" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="81" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="81" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="81" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="81" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="81" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="81" t="s">
+        <v>2350</v>
       </c>
     </row>
   </sheetData>

--- a/jvm/src/main/resources/sample-data-demo.xlsx
+++ b/jvm/src/main/resources/sample-data-demo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11280" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11280" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="demoCnxs" sheetId="10" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3761" uniqueCount="2323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3774" uniqueCount="2331">
   <si>
     <t>firstName</t>
   </si>
@@ -7029,6 +7029,30 @@
   </si>
   <si>
     <t>the sheet probably has a problem with quoting e.g. Thomas O'Leary.  Haven't tried that.</t>
+  </si>
+  <si>
+    <t>add connection date, so a user can sort by recent connections</t>
+  </si>
+  <si>
+    <t>Synereo whitepaper calls this rebroadcast.</t>
+  </si>
+  <si>
+    <t>mini-blockchain with hashes and signatures</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>connectionTypeSpec</t>
+  </si>
+  <si>
+    <t>canIntroduce</t>
+  </si>
+  <si>
+    <t>allow venues like LivelyGig to introduce connections so flagged</t>
   </si>
 </sst>
 </file>
@@ -7223,7 +7247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -7383,6 +7407,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8442,8 +8469,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:F329" totalsRowShown="0">
-  <autoFilter ref="A1:F329"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:F332" totalsRowShown="0">
+  <autoFilter ref="A1:F332"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="3"/>
     <tableColumn id="3" name="L1"/>
@@ -8451,7 +8478,7 @@
     <tableColumn id="5" name="Value" dataDxfId="1"/>
     <tableColumn id="6" name="Comment"/>
     <tableColumn id="2" name="Data" dataDxfId="0">
-      <calculatedColumnFormula>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C3="]}",$C3="]},"),""," , ")))))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C3="]}",$C3="]},"),""," , ")))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -14240,7 +14267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
@@ -21792,10 +21819,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F329"/>
+  <dimension ref="A1:F332"/>
   <sheetViews>
-    <sheetView topLeftCell="A315" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B321" sqref="B321:B328"/>
+    <sheetView topLeftCell="A311" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21839,7 +21866,7 @@
         <v>2088</v>
       </c>
       <c r="F2" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C3="]}",$C3="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C3="]}",$C3="]},"),""," , ")))))</f>
         <v>{"id" : "0683a16f-f16d-4af2-aa48-290dbdaf3af0", "functor" : "configuration",  "components" : [</v>
       </c>
     </row>
@@ -21857,7 +21884,7 @@
         <v>2280</v>
       </c>
       <c r="F3" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C4="]}",$C4="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C4="]}",$C4="]},"),""," , ")))))</f>
         <v>{"id" : "e74a2f7d-2f0a-47f3-874f-83a8bab0fe9c", "functor" : "venueAgentTypeSpec",  "components" : [</v>
       </c>
     </row>
@@ -21875,7 +21902,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C5="]}",$C5="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C5="]}",$C5="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "b61dbdc2-e017-441d-872c-1de6d21bac03" , "functor" : "specVersion" , "components": [ { "value": "1", "type" : "integer" } ] } </v>
       </c>
     </row>
@@ -21890,7 +21917,7 @@
         <v>2094</v>
       </c>
       <c r="F5" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C6="]}",$C6="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C6="]}",$C6="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -21906,7 +21933,7 @@
       </c>
       <c r="D6" s="28"/>
       <c r="F6" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C7="]}",$C7="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C7="]}",$C7="]},"),""," , ")))))</f>
         <v>{"id" : "701e68b7-a7da-4d1e-a6a2-51407b553bb4", "functor" : "postTypeSpec",  "components" : [</v>
       </c>
     </row>
@@ -21924,7 +21951,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C8="]}",$C8="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C8="]}",$C8="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "2c605e3d-41ec-4a4c-9331-032371d8837a" , "functor" : "specVersion" , "components": [ { "value": "1", "type" : "integer" } ] }  , </v>
       </c>
     </row>
@@ -21942,7 +21969,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C9="]}",$C9="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C9="]}",$C9="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "e8e3173b-1c42-4a29-b026-699e9992dd1a" , "functor" : "promotedAmount" , "components": [ { "value": "0", "type" : "float" } ] }  , </v>
       </c>
     </row>
@@ -21960,7 +21987,7 @@
         <v>2286</v>
       </c>
       <c r="F9" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C10="]}",$C10="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C10="]}",$C10="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "adb03f06-b212-4b14-9ed9-e2ba33fba78e" , "functor" : "promoteStartTimestamp" , "components": [ { "value": "2002-05-30T09:30:10Z", "type" : "date" } ] }  , </v>
       </c>
     </row>
@@ -21978,7 +22005,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C11="]}",$C11="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C11="]}",$C11="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "fff72f12-4a31-43f0-878a-9024871b0cc4" , "functor" : "promoteDurationInDays" , "components": [ { "value": "1", "type" : "float" } ] }  , </v>
       </c>
     </row>
@@ -21990,14 +22017,17 @@
         <v>2247</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>2078</v>
-      </c>
-      <c r="D11" s="23">
-        <v>0</v>
+        <v>2326</v>
+      </c>
+      <c r="D11" s="88" t="s">
+        <v>2327</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2324</v>
       </c>
       <c r="F11" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C12="]}",$C12="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "92fc2b73-c99d-4102-b259-f5e88a1797f9" , "functor" : "canForward" , "components": [ { "value": "0", "type" : "integer" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C12="]}",$C12="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "92fc2b73-c99d-4102-b259-f5e88a1797f9" , "functor" : "canForward" , "components": [ { "value": "false", "type" : "boolean" } ] }  , </v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -22011,7 +22041,7 @@
         <v>2088</v>
       </c>
       <c r="F12" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C13="]}",$C13="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C13="]}",$C13="]},"),""," , ")))))</f>
         <v>{"id" : "6e239309-ebe1-4b46-9f8c-914101b5821e", "functor" : "posters",  "components" : [</v>
       </c>
     </row>
@@ -22032,7 +22062,7 @@
         <v>2091</v>
       </c>
       <c r="F13" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C14="]}",$C14="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C14="]}",$C14="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "edeef568-67a6-425d-b942-f569f4136e9f" , "functor" : "posterId" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -22047,7 +22077,7 @@
         <v>2092</v>
       </c>
       <c r="F14" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C15="]}",$C15="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C15="]}",$C15="]},"),""," , ")))))</f>
         <v>]}</v>
       </c>
     </row>
@@ -22062,7 +22092,7 @@
         <v>2094</v>
       </c>
       <c r="F15" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C16="]}",$C16="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C16="]}",$C16="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -22077,7 +22107,7 @@
         <v>2088</v>
       </c>
       <c r="F16" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C17="]}",$C17="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C17="]}",$C17="]},"),""," , ")))))</f>
         <v>{"id" : "dd8bfdc6-ab31-4a9f-ba57-23c6dcd73c2d", "functor" : "versionedPostTypeSpec",  "components" : [</v>
       </c>
     </row>
@@ -22095,7 +22125,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C18="]}",$C18="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C18="]}",$C18="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "641febfe-4149-48f5-b109-6861bdd19e5d" , "functor" : "specVersion" , "components": [ { "value": "1", "type" : "integer" } ] }  , </v>
       </c>
     </row>
@@ -22113,7 +22143,7 @@
         <v>2093</v>
       </c>
       <c r="F18" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C19="]}",$C19="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C19="]}",$C19="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "a302b09f-9283-4080-89e2-6e267498620a" , "functor" : "id" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -22134,7 +22164,7 @@
         <v>2281</v>
       </c>
       <c r="F19" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C20="]}",$C20="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C20="]}",$C20="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "6795c7c6-fc72-4b5c-8c00-5b17e2a9eae8" , "functor" : "predecessorID" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -22155,7 +22185,7 @@
         <v>2282</v>
       </c>
       <c r="F20" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C21="]}",$C21="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C21="]}",$C21="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "f66fbe5b-bb39-433c-b72c-e77e733a6ae7" , "functor" : "publishedDate" , "components": [ { "value": "2002-05-30T09:30:10Z", "type" : "date" } ] }  , </v>
       </c>
     </row>
@@ -22167,17 +22197,17 @@
         <v>2309</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>2078</v>
-      </c>
-      <c r="D21" s="23">
-        <v>0</v>
+        <v>2326</v>
+      </c>
+      <c r="D21" s="88" t="s">
+        <v>2327</v>
       </c>
       <c r="E21" s="84" t="s">
         <v>2283</v>
       </c>
       <c r="F21" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C22="]}",$C22="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "49ee0022-ddb3-4938-9e7b-cb80b4ec20c7" , "functor" : "isCompleted" , "components": [ { "value": "0", "type" : "integer" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C22="]}",$C22="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "49ee0022-ddb3-4938-9e7b-cb80b4ec20c7" , "functor" : "isCompleted" , "components": [ { "value": "false", "type" : "boolean" } ] } </v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -22191,7 +22221,7 @@
         <v>2094</v>
       </c>
       <c r="F22" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C23="]}",$C23="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C23="]}",$C23="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -22206,7 +22236,7 @@
         <v>2088</v>
       </c>
       <c r="F23" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C24="]}",$C24="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C24="]}",$C24="]},"),""," , ")))))</f>
         <v>{"id" : "8b77dd88-c65b-4806-969f-fd7436959634", "functor" : "messagePostTypeSpec",  "components" : [</v>
       </c>
     </row>
@@ -22224,7 +22254,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C25="]}",$C25="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C25="]}",$C25="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "70bd1311-b53d-47b9-a384-2494ede1b0a4" , "functor" : "specVersion" , "components": [ { "value": "1", "type" : "integer" } ] } </v>
       </c>
     </row>
@@ -22239,7 +22269,7 @@
         <v>2094</v>
       </c>
       <c r="F25" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C26="]}",$C26="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C26="]}",$C26="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -22254,7 +22284,7 @@
         <v>2088</v>
       </c>
       <c r="F26" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C27="]}",$C27="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C27="]}",$C27="]},"),""," , ")))))</f>
         <v>{"id" : "cba62260-f2ec-4bfc-86fb-49c180c3987d", "functor" : "projectPostTypeSpec",  "components" : [</v>
       </c>
     </row>
@@ -22272,7 +22302,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C28="]}",$C28="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C28="]}",$C28="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "d160e8ad-6138-4b69-8a38-91470080dfc8" , "functor" : "specVersion" , "components": [ { "value": "1", "type" : "integer" } ] }  , </v>
       </c>
     </row>
@@ -22290,7 +22320,7 @@
         <v>2286</v>
       </c>
       <c r="F28" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C29="]}",$C29="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C29="]}",$C29="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "8fbec6c7-eef7-46ae-a85c-b2f403b05d23" , "functor" : "startDate" , "components": [ { "value": "2002-05-30T09:30:10Z", "type" : "date" } ] }  , </v>
       </c>
     </row>
@@ -22308,7 +22338,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C30="]}",$C30="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C30="]}",$C30="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "2474f683-092c-490b-87e9-abf1ee4d772b" , "functor" : "budget" , "components": [ { "value": "0", "type" : "float" } ] }  , </v>
       </c>
     </row>
@@ -22326,7 +22356,7 @@
         <v>2080</v>
       </c>
       <c r="F30" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C31="]}",$C31="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C31="]}",$C31="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "3b8a6eba-7771-4faf-8ece-85d960d1b9f3" , "functor" : "budgetCurrency" , "components": [ { "value": "USD", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -22342,7 +22372,7 @@
       </c>
       <c r="D31" s="30"/>
       <c r="F31" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C32="]}",$C32="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C32="]}",$C32="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -22357,7 +22387,7 @@
         <v>2088</v>
       </c>
       <c r="F32" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C33="]}",$C33="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C33="]}",$C33="]},"),""," , ")))))</f>
         <v>{"id" : "fa445724-06ec-49f7-92fe-6932dd1dc27e", "functor" : "sellerProfilePostTypeSpec",  "components" : [</v>
       </c>
     </row>
@@ -22375,7 +22405,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C34="]}",$C34="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C34="]}",$C34="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "629b8953-5e84-4599-a835-3939f7e0a087" , "functor" : "specVersion" , "components": [ { "value": "1", "type" : "integer" } ] }  , </v>
       </c>
     </row>
@@ -22393,7 +22423,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C35="]}",$C35="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C35="]}",$C35="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "6a25cb81-cfba-47de-92b0-6880a8bc8b5e" , "functor" : "numberProjectsCompleted" , "components": [ { "value": "0", "type" : "integer" } ] }  , </v>
       </c>
     </row>
@@ -22408,7 +22438,7 @@
         <v>263</v>
       </c>
       <c r="F35" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C36="]}",$C36="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C36="]}",$C36="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "87e88589-992c-43b3-8c91-4d9e5d3947b5" , "functor" : "firstName" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -22423,7 +22453,7 @@
         <v>263</v>
       </c>
       <c r="F36" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C37="]}",$C37="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C37="]}",$C37="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "17284f2b-b8cd-496b-8fc7-c05738b6166e" , "functor" : "middleName" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -22438,7 +22468,7 @@
         <v>263</v>
       </c>
       <c r="F37" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C38="]}",$C38="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C38="]}",$C38="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "8ad94bfa-21a9-439c-9b45-b373abfba093" , "functor" : "lastName" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -22453,7 +22483,7 @@
         <v>263</v>
       </c>
       <c r="F38" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C39="]}",$C39="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C39="]}",$C39="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "88fea945-36cc-45b1-a033-003a9e062db5" , "functor" : "address" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -22468,7 +22498,7 @@
         <v>263</v>
       </c>
       <c r="F39" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C40="]}",$C40="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C40="]}",$C40="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "d79221e4-2cbc-471c-9dc4-97277426785b" , "functor" : "website" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -22483,7 +22513,7 @@
         <v>263</v>
       </c>
       <c r="F40" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C41="]}",$C41="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C41="]}",$C41="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "cec2d206-6f9b-4ca2-bfd0-bac97fc93f72" , "functor" : "phone" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -22498,7 +22528,7 @@
         <v>263</v>
       </c>
       <c r="F41" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C42="]}",$C42="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C42="]}",$C42="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "ab9f63ad-840e-4770-8b39-ae0d031569d6" , "functor" : "phoneType" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -22513,7 +22543,7 @@
         <v>263</v>
       </c>
       <c r="F42" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C43="]}",$C43="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C43="]}",$C43="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "92617b39-8a66-4ab2-bf19-ae32c1f400da" , "functor" : "xbtWalletAddress" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -22528,7 +22558,7 @@
         <v>263</v>
       </c>
       <c r="F43" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C44="]}",$C44="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C44="]}",$C44="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "228967f7-8e8e-401c-91f4-e126e9e5d3d5" , "functor" : "dibsAddress" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -22543,7 +22573,7 @@
         <v>263</v>
       </c>
       <c r="F44" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C45="]}",$C45="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C45="]}",$C45="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "9d2e0c89-9f55-4efc-a9ba-ea7e65116093" , "functor" : "currencyPreference" , "components": [ { "value": "", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -22558,7 +22588,7 @@
         <v>2094</v>
       </c>
       <c r="F45" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C46="]}",$C46="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C46="]}",$C46="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -22573,7 +22603,7 @@
         <v>2088</v>
       </c>
       <c r="F46" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C47="]}",$C47="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C47="]}",$C47="]},"),""," , ")))))</f>
         <v>{"id" : "bd6ddc6b-dc2e-4d9e-9d9a-cb6160d71460", "functor" : "buyerProfilePostTypeSpec",  "components" : [</v>
       </c>
     </row>
@@ -22591,7 +22621,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C48="]}",$C48="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C48="]}",$C48="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "42409b39-88dc-4552-87c4-e544f2480bf5" , "functor" : "specVersion" , "components": [ { "value": "1", "type" : "integer" } ] } </v>
       </c>
     </row>
@@ -22606,7 +22636,7 @@
         <v>2094</v>
       </c>
       <c r="F48" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C49="]}",$C49="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C49="]}",$C49="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -22621,7 +22651,7 @@
         <v>2088</v>
       </c>
       <c r="F49" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C50="]}",$C50="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C50="]}",$C50="]},"),""," , ")))))</f>
         <v>{"id" : "4fcd333e-0d33-45b1-9ffa-d536a2b05180", "functor" : "moderatorProfilePostTypeSpec",  "components" : [</v>
       </c>
     </row>
@@ -22639,7 +22669,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C51="]}",$C51="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C51="]}",$C51="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "1438dd6d-dfdf-4e69-a094-03ec091b6945" , "functor" : "specVersion" , "components": [ { "value": "1", "type" : "integer" } ] } </v>
       </c>
     </row>
@@ -22654,7 +22684,7 @@
         <v>2094</v>
       </c>
       <c r="F51" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C52="]}",$C52="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C52="]}",$C52="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -22668,8 +22698,11 @@
       <c r="C52" s="7" t="s">
         <v>2088</v>
       </c>
+      <c r="E52" t="s">
+        <v>2325</v>
+      </c>
       <c r="F52" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C53="]}",$C53="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C53="]}",$C53="]},"),""," , ")))))</f>
         <v>{"id" : "5d11a852-8a6b-477f-b009-c0a1028ddc99", "functor" : "contractPostTypeSpec",  "components" : [</v>
       </c>
     </row>
@@ -22687,7 +22720,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C54="]}",$C54="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C54="]}",$C54="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "f2e5da87-d4a5-4580-8cc8-12a0f8189df2" , "functor" : "specVersion" , "components": [ { "value": "1", "type" : "integer" } ] }  , </v>
       </c>
     </row>
@@ -22702,7 +22735,7 @@
         <v>263</v>
       </c>
       <c r="F54" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C55="]}",$C55="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C55="]}",$C55="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "a6549d56-2c60-4809-aae5-c956944ff60e" , "functor" : "state" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -22717,7 +22750,7 @@
         <v>263</v>
       </c>
       <c r="F55" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C56="]}",$C56="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C56="]}",$C56="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "277ebd60-99fd-47d1-ba0b-ea627be18c52" , "functor" : "originatingPostID" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -22732,7 +22765,7 @@
         <v>263</v>
       </c>
       <c r="F56" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C57="]}",$C57="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C57="]}",$C57="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "a6dcf980-95ce-478e-b9d8-556a1d8bbcf1" , "functor" : "buyerID" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -22747,7 +22780,7 @@
         <v>263</v>
       </c>
       <c r="F57" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C58="]}",$C58="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C58="]}",$C58="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "d6323627-1bfb-4ee6-b947-c878d2edc032" , "functor" : "sellerID" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -22762,7 +22795,7 @@
         <v>263</v>
       </c>
       <c r="F58" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C59="]}",$C59="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C59="]}",$C59="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "64ed1756-fef3-4e8c-abc5-d4c220193d2e" , "functor" : "moderatorID" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -22777,7 +22810,7 @@
         <v>263</v>
       </c>
       <c r="F59" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C60="]}",$C60="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C60="]}",$C60="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "82dfdb60-b608-4866-aca1-94cb23fe3475" , "functor" : "feedbackBuyerToSeller" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -22792,7 +22825,7 @@
         <v>263</v>
       </c>
       <c r="F60" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C61="]}",$C61="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C61="]}",$C61="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "7a55d001-aacf-4477-9875-010f7d42f81d" , "functor" : "feedbackSellerToBuyer" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -22807,7 +22840,7 @@
         <v>263</v>
       </c>
       <c r="F61" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C62="]}",$C62="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C62="]}",$C62="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "7ad0d813-3d05-4c9b-b777-2de3b8ebba44" , "functor" : "feedbackBuyerToModerator" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -22822,7 +22855,7 @@
         <v>263</v>
       </c>
       <c r="F62" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C63="]}",$C63="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C63="]}",$C63="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "4ce74909-13f4-4c7c-a9b4-919ce36665b9" , "functor" : "feedbackSellerToModerator" , "components": [ { "value": "", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -22837,7 +22870,7 @@
         <v>2094</v>
       </c>
       <c r="F63" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C64="]}",$C64="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C64="]}",$C64="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -22852,7 +22885,7 @@
         <v>2088</v>
       </c>
       <c r="F64" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C65="]}",$C65="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C65="]}",$C65="]},"),""," , ")))))</f>
         <v>{"id" : "8700ce7b-cc9b-4f3a-92be-1d0af7c25e0d", "functor" : "offeringPostTypeSpec",  "components" : [</v>
       </c>
     </row>
@@ -22870,7 +22903,7 @@
         <v>1</v>
       </c>
       <c r="F65" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C66="]}",$C66="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C66="]}",$C66="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "25eed948-59f6-40f5-b75c-af9decf3587b" , "functor" : "specVersion" , "components": [ { "value": "1", "type" : "integer" } ] } </v>
       </c>
     </row>
@@ -22885,127 +22918,130 @@
         <v>2094</v>
       </c>
       <c r="F66" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C67="]}",$C67="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C70="]}",$C70="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
-        <v>514</v>
-      </c>
-      <c r="B67" s="61" t="s">
-        <v>2161</v>
+      <c r="A67" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B67" s="77" t="s">
+        <v>2328</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>2088</v>
       </c>
-      <c r="E67" t="s">
-        <v>2279</v>
-      </c>
       <c r="F67" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C68="]}",$C68="]},"),""," , ")))))</f>
-        <v>{"id" : "0a7a197d-9542-464a-9e35-955a69803c62", "functor" : "tabs",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C70="]}",$C70="]},"),""," , ")))))</f>
+        <v>{"id" : "7953f11e-1f0e-4bcd-bae3-56f400d1866c", "functor" : "connectionTypeSpec",  "components" : [</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
-        <v>515</v>
-      </c>
-      <c r="B68" s="67" t="s">
-        <v>2266</v>
+      <c r="A68" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>2329</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>2088</v>
+        <v>2326</v>
+      </c>
+      <c r="D68" s="88" t="s">
+        <v>2327</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2330</v>
       </c>
       <c r="F68" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C69="]}",$C69="]},"),""," , ")))))</f>
-        <v>{"id" : "09cd1ae9-18a5-4e1d-993d-182329ad491e", "functor" : "tab",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C69="]}",$C69="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "1aeb3264-65a1-4968-a555-257dc744325f" , "functor" : "canIntroduce" , "components": [ { "value": "false", "type" : "boolean" } ] } </v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="B69" s="83" t="s">
-        <v>2259</v>
+      <c r="A69" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>2149</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D69" s="23" t="s">
-        <v>2175</v>
+        <v>2094</v>
       </c>
       <c r="F69" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C70="]}",$C70="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "21bdcd7f-1da7-4481-88bf-4dbd227798ab" , "functor" : "tabName" , "components": [ { "value": "Messages", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(#REF!="]}",#REF!="]},"),""," , ")))))</f>
+        <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>2212</v>
+        <v>514</v>
+      </c>
+      <c r="B70" s="61" t="s">
+        <v>2161</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>2088</v>
       </c>
+      <c r="E70" t="s">
+        <v>2279</v>
+      </c>
       <c r="F70" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C71="]}",$C71="]},"),""," , ")))))</f>
-        <v>{"id" : "c42f23b6-f238-487d-8482-acb2121a4ca9", "functor" : "views",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C71="]}",$C71="]},"),""," , ")))))</f>
+        <v>{"id" : "0a7a197d-9542-464a-9e35-955a69803c62", "functor" : "tabs",  "components" : [</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="B71" s="19" t="s">
-        <v>2268</v>
+        <v>515</v>
+      </c>
+      <c r="B71" s="67" t="s">
+        <v>2266</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>2088</v>
       </c>
       <c r="F71" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C72="]}",$C72="]},"),""," , ")))))</f>
-        <v>{"id" : "2c1a9407-d81c-44a2-83c3-f88471de66ac", "functor" : "view",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C72="]}",$C72="]},"),""," , ")))))</f>
+        <v>{"id" : "09cd1ae9-18a5-4e1d-993d-182329ad491e", "functor" : "tab",  "components" : [</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="B72" s="60" t="s">
-        <v>2261</v>
+        <v>516</v>
+      </c>
+      <c r="B72" s="83" t="s">
+        <v>2259</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="F72" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C73="]}",$C73="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "81022f09-fd7f-44f2-a388-8b0e06497a68" , "functor" : "viewName" , "components": [ { "value": "Active", "type" : "string" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C73="]}",$C73="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "21bdcd7f-1da7-4481-88bf-4dbd227798ab" , "functor" : "tabName" , "components": [ { "value": "Messages", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>520</v>
-      </c>
-      <c r="B73" s="19" t="s">
-        <v>2149</v>
+        <v>517</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>2212</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>2094</v>
+        <v>2088</v>
       </c>
       <c r="F73" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C74="]}",$C74="]},"),""," , ")))))</f>
-        <v xml:space="preserve">]}, </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C74="]}",$C74="]},"),""," , ")))))</f>
+        <v>{"id" : "c42f23b6-f238-487d-8482-acb2121a4ca9", "functor" : "views",  "components" : [</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B74" s="19" t="s">
         <v>2268</v>
@@ -23014,13 +23050,13 @@
         <v>2088</v>
       </c>
       <c r="F74" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C75="]}",$C75="]},"),""," , ")))))</f>
-        <v>{"id" : "e1016a5a-1ae0-4136-8e22-a15117835dd4", "functor" : "view",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C75="]}",$C75="]},"),""," , ")))))</f>
+        <v>{"id" : "2c1a9407-d81c-44a2-83c3-f88471de66ac", "functor" : "view",  "components" : [</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B75" s="60" t="s">
         <v>2261</v>
@@ -23029,16 +23065,16 @@
         <v>263</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="F75" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C76="]}",$C76="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "f6de4ab7-9907-4a82-a339-652b4a116fff" , "functor" : "viewName" , "components": [ { "value": "Unread", "type" : "string" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C76="]}",$C76="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "81022f09-fd7f-44f2-a388-8b0e06497a68" , "functor" : "viewName" , "components": [ { "value": "Active", "type" : "string" } ] } </v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B76" s="19" t="s">
         <v>2149</v>
@@ -23047,13 +23083,13 @@
         <v>2094</v>
       </c>
       <c r="F76" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C77="]}",$C77="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C77="]}",$C77="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B77" s="19" t="s">
         <v>2268</v>
@@ -23062,13 +23098,13 @@
         <v>2088</v>
       </c>
       <c r="F77" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C78="]}",$C78="]},"),""," , ")))))</f>
-        <v>{"id" : "9b0d3ccc-e67b-4324-8d59-f7f575d2e2d8", "functor" : "view",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C78="]}",$C78="]},"),""," , ")))))</f>
+        <v>{"id" : "e1016a5a-1ae0-4136-8e22-a15117835dd4", "functor" : "view",  "components" : [</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B78" s="60" t="s">
         <v>2261</v>
@@ -23077,16 +23113,16 @@
         <v>263</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="F78" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C79="]}",$C79="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "eeeaa8f1-2430-426e-8fce-e44d0c1bc0f7" , "functor" : "viewName" , "components": [ { "value": "Archive", "type" : "string" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C79="]}",$C79="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "f6de4ab7-9907-4a82-a339-652b4a116fff" , "functor" : "viewName" , "components": [ { "value": "Unread", "type" : "string" } ] } </v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B79" s="19" t="s">
         <v>2149</v>
@@ -23095,13 +23131,13 @@
         <v>2094</v>
       </c>
       <c r="F79" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C80="]}",$C80="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C80="]}",$C80="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B80" s="19" t="s">
         <v>2268</v>
@@ -23110,13 +23146,13 @@
         <v>2088</v>
       </c>
       <c r="F80" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C81="]}",$C81="]},"),""," , ")))))</f>
-        <v>{"id" : "c270d147-aea9-41bb-b917-e51f8b574b1f", "functor" : "view",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C81="]}",$C81="]},"),""," , ")))))</f>
+        <v>{"id" : "9b0d3ccc-e67b-4324-8d59-f7f575d2e2d8", "functor" : "view",  "components" : [</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B81" s="60" t="s">
         <v>2261</v>
@@ -23125,157 +23161,157 @@
         <v>263</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F81" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C82="]}",$C82="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "23f32e72-39b8-4980-8c48-35ea580d88ae" , "functor" : "viewName" , "components": [ { "value": "Sent", "type" : "string" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C82="]}",$C82="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "eeeaa8f1-2430-426e-8fce-e44d0c1bc0f7" , "functor" : "viewName" , "components": [ { "value": "Archive", "type" : "string" } ] } </v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B82" s="19" t="s">
         <v>2149</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>2092</v>
+        <v>2094</v>
       </c>
       <c r="F82" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C83="]}",$C83="]},"),""," , ")))))</f>
-        <v>]}</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C83="]}",$C83="]},"),""," , ")))))</f>
+        <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="B83" s="20" t="s">
-        <v>2149</v>
+        <v>527</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>2268</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>2092</v>
+        <v>2088</v>
       </c>
       <c r="F83" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C84="]}",$C84="]},"),""," , ")))))</f>
-        <v>]}</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C84="]}",$C84="]},"),""," , ")))))</f>
+        <v>{"id" : "c270d147-aea9-41bb-b917-e51f8b574b1f", "functor" : "view",  "components" : [</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="B84" s="21" t="s">
-        <v>2149</v>
+        <v>528</v>
+      </c>
+      <c r="B84" s="60" t="s">
+        <v>2261</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>2094</v>
+        <v>263</v>
+      </c>
+      <c r="D84" s="23" t="s">
+        <v>2179</v>
       </c>
       <c r="F84" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C85="]}",$C85="]},"),""," , ")))))</f>
-        <v xml:space="preserve">]}, </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C85="]}",$C85="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "23f32e72-39b8-4980-8c48-35ea580d88ae" , "functor" : "viewName" , "components": [ { "value": "Sent", "type" : "string" } ] } </v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>532</v>
-      </c>
-      <c r="B85" s="67" t="s">
-        <v>2266</v>
+        <v>529</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>2149</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>2088</v>
+        <v>2092</v>
       </c>
       <c r="F85" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C86="]}",$C86="]},"),""," , ")))))</f>
-        <v>{"id" : "2154be4c-f494-47de-b2c5-7662fe8503eb", "functor" : "tab",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C86="]}",$C86="]},"),""," , ")))))</f>
+        <v>]}</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>533</v>
-      </c>
-      <c r="B86" s="83" t="s">
-        <v>2259</v>
+        <v>530</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>2149</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D86" s="23" t="s">
-        <v>2180</v>
+        <v>2092</v>
       </c>
       <c r="F86" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C87="]}",$C87="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "e8862908-41be-48f9-86ee-4540715ad44b" , "functor" : "tabName" , "components": [ { "value": "Projects", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C87="]}",$C87="]},"),""," , ")))))</f>
+        <v>]}</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>534</v>
-      </c>
-      <c r="B87" s="20" t="s">
-        <v>2212</v>
+        <v>531</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>2149</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>2088</v>
+        <v>2094</v>
       </c>
       <c r="F87" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C88="]}",$C88="]},"),""," , ")))))</f>
-        <v>{"id" : "26754332-e1eb-4441-9480-87bc0c3137bf", "functor" : "views",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C88="]}",$C88="]},"),""," , ")))))</f>
+        <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>535</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>2268</v>
+        <v>532</v>
+      </c>
+      <c r="B88" s="67" t="s">
+        <v>2266</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>2088</v>
       </c>
       <c r="F88" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C89="]}",$C89="]},"),""," , ")))))</f>
-        <v>{"id" : "5b3a3b4c-9b88-4036-9a4a-f3ba2f2198ca", "functor" : "view",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C89="]}",$C89="]},"),""," , ")))))</f>
+        <v>{"id" : "2154be4c-f494-47de-b2c5-7662fe8503eb", "functor" : "tab",  "components" : [</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="B89" s="60" t="s">
-        <v>2261</v>
+        <v>533</v>
+      </c>
+      <c r="B89" s="83" t="s">
+        <v>2259</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>2163</v>
+        <v>2180</v>
       </c>
       <c r="F89" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C90="]}",$C90="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "6472c6e5-ecef-4cef-be8d-448960da7b2c" , "functor" : "viewName" , "components": [ { "value": "Suggested Matches", "type" : "string" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C90="]}",$C90="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "e8862908-41be-48f9-86ee-4540715ad44b" , "functor" : "tabName" , "components": [ { "value": "Projects", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="B90" s="19" t="s">
-        <v>2149</v>
+        <v>534</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>2212</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>2094</v>
+        <v>2088</v>
       </c>
       <c r="F90" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C91="]}",$C91="]},"),""," , ")))))</f>
-        <v xml:space="preserve">]}, </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C91="]}",$C91="]},"),""," , ")))))</f>
+        <v>{"id" : "26754332-e1eb-4441-9480-87bc0c3137bf", "functor" : "views",  "components" : [</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B91" s="19" t="s">
         <v>2268</v>
@@ -23284,13 +23320,13 @@
         <v>2088</v>
       </c>
       <c r="F91" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C92="]}",$C92="]},"),""," , ")))))</f>
-        <v>{"id" : "c21ac556-3531-482e-836d-81f838f3ceae", "functor" : "view",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C92="]}",$C92="]},"),""," , ")))))</f>
+        <v>{"id" : "5b3a3b4c-9b88-4036-9a4a-f3ba2f2198ca", "functor" : "view",  "components" : [</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B92" s="60" t="s">
         <v>2261</v>
@@ -23299,16 +23335,16 @@
         <v>263</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>2176</v>
+        <v>2163</v>
       </c>
       <c r="F92" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C93="]}",$C93="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "95217d15-346f-4a9d-beb1-6e6d6a1a1188" , "functor" : "viewName" , "components": [ { "value": "Active", "type" : "string" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C93="]}",$C93="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "6472c6e5-ecef-4cef-be8d-448960da7b2c" , "functor" : "viewName" , "components": [ { "value": "Suggested Matches", "type" : "string" } ] } </v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B93" s="19" t="s">
         <v>2149</v>
@@ -23317,13 +23353,13 @@
         <v>2094</v>
       </c>
       <c r="F93" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C94="]}",$C94="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C94="]}",$C94="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B94" s="19" t="s">
         <v>2268</v>
@@ -23332,13 +23368,13 @@
         <v>2088</v>
       </c>
       <c r="F94" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C95="]}",$C95="]},"),""," , ")))))</f>
-        <v>{"id" : "bd79a624-10da-4378-85a0-94de6ae16511", "functor" : "view",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C95="]}",$C95="]},"),""," , ")))))</f>
+        <v>{"id" : "c21ac556-3531-482e-836d-81f838f3ceae", "functor" : "view",  "components" : [</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B95" s="60" t="s">
         <v>2261</v>
@@ -23347,157 +23383,157 @@
         <v>263</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="F95" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C96="]}",$C96="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "a619c7fe-5b34-4788-ab47-0611cf2fe03a" , "functor" : "viewName" , "components": [ { "value": "Closed", "type" : "string" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C96="]}",$C96="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "95217d15-346f-4a9d-beb1-6e6d6a1a1188" , "functor" : "viewName" , "components": [ { "value": "Active", "type" : "string" } ] } </v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B96" s="19" t="s">
         <v>2149</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>2092</v>
+        <v>2094</v>
       </c>
       <c r="F96" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C97="]}",$C97="]},"),""," , ")))))</f>
-        <v>]}</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C97="]}",$C97="]},"),""," , ")))))</f>
+        <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>544</v>
-      </c>
-      <c r="B97" s="20" t="s">
-        <v>2149</v>
+        <v>541</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>2268</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>2092</v>
+        <v>2088</v>
       </c>
       <c r="F97" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C98="]}",$C98="]},"),""," , ")))))</f>
-        <v>]}</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C98="]}",$C98="]},"),""," , ")))))</f>
+        <v>{"id" : "bd79a624-10da-4378-85a0-94de6ae16511", "functor" : "view",  "components" : [</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
-        <v>545</v>
-      </c>
-      <c r="B98" s="21" t="s">
-        <v>2149</v>
+        <v>542</v>
+      </c>
+      <c r="B98" s="60" t="s">
+        <v>2261</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>2094</v>
+        <v>263</v>
+      </c>
+      <c r="D98" s="23" t="s">
+        <v>2181</v>
       </c>
       <c r="F98" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C99="]}",$C99="]},"),""," , ")))))</f>
-        <v xml:space="preserve">]}, </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C99="]}",$C99="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "a619c7fe-5b34-4788-ab47-0611cf2fe03a" , "functor" : "viewName" , "components": [ { "value": "Closed", "type" : "string" } ] } </v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>546</v>
-      </c>
-      <c r="B99" s="67" t="s">
-        <v>2266</v>
+        <v>543</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>2149</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>2088</v>
+        <v>2092</v>
       </c>
       <c r="F99" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C100="]}",$C100="]},"),""," , ")))))</f>
-        <v>{"id" : "f634e5cb-0fb4-44bb-8e70-0287a698fe02", "functor" : "tab",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C100="]}",$C100="]},"),""," , ")))))</f>
+        <v>]}</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>547</v>
-      </c>
-      <c r="B100" s="83" t="s">
-        <v>2259</v>
+        <v>544</v>
+      </c>
+      <c r="B100" s="20" t="s">
+        <v>2149</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D100" s="23" t="s">
-        <v>2182</v>
+        <v>2092</v>
       </c>
       <c r="F100" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C101="]}",$C101="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "b782b57a-065f-4226-9d11-85390f91eb59" , "functor" : "tabName" , "components": [ { "value": "Offerings", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C101="]}",$C101="]},"),""," , ")))))</f>
+        <v>]}</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
-        <v>548</v>
-      </c>
-      <c r="B101" s="20" t="s">
-        <v>2212</v>
+        <v>545</v>
+      </c>
+      <c r="B101" s="21" t="s">
+        <v>2149</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>2088</v>
+        <v>2094</v>
       </c>
       <c r="F101" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C102="]}",$C102="]},"),""," , ")))))</f>
-        <v>{"id" : "7c1174df-7309-4cbd-8c19-968771d12679", "functor" : "views",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C102="]}",$C102="]},"),""," , ")))))</f>
+        <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
-        <v>549</v>
-      </c>
-      <c r="B102" s="19" t="s">
-        <v>2268</v>
+        <v>546</v>
+      </c>
+      <c r="B102" s="67" t="s">
+        <v>2266</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>2088</v>
       </c>
       <c r="F102" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C103="]}",$C103="]},"),""," , ")))))</f>
-        <v>{"id" : "6c52aade-d767-4ddb-ad14-5e1030cf537a", "functor" : "view",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C103="]}",$C103="]},"),""," , ")))))</f>
+        <v>{"id" : "f634e5cb-0fb4-44bb-8e70-0287a698fe02", "functor" : "tab",  "components" : [</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>550</v>
-      </c>
-      <c r="B103" s="60" t="s">
-        <v>2261</v>
+        <v>547</v>
+      </c>
+      <c r="B103" s="83" t="s">
+        <v>2259</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>2163</v>
+        <v>2182</v>
       </c>
       <c r="F103" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C104="]}",$C104="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "9a7f6fc3-b501-4b8b-9f7f-36bc3dbae00b" , "functor" : "viewName" , "components": [ { "value": "Suggested Matches", "type" : "string" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C104="]}",$C104="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "b782b57a-065f-4226-9d11-85390f91eb59" , "functor" : "tabName" , "components": [ { "value": "Offerings", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
-        <v>551</v>
-      </c>
-      <c r="B104" s="19" t="s">
-        <v>2149</v>
+        <v>548</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>2212</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>2094</v>
+        <v>2088</v>
       </c>
       <c r="F104" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C105="]}",$C105="]},"),""," , ")))))</f>
-        <v xml:space="preserve">]}, </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C105="]}",$C105="]},"),""," , ")))))</f>
+        <v>{"id" : "7c1174df-7309-4cbd-8c19-968771d12679", "functor" : "views",  "components" : [</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B105" s="19" t="s">
         <v>2268</v>
@@ -23506,13 +23542,13 @@
         <v>2088</v>
       </c>
       <c r="F105" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C106="]}",$C106="]},"),""," , ")))))</f>
-        <v>{"id" : "d20858e0-35a7-43a2-a32f-a2320c45135e", "functor" : "view",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C106="]}",$C106="]},"),""," , ")))))</f>
+        <v>{"id" : "6c52aade-d767-4ddb-ad14-5e1030cf537a", "functor" : "view",  "components" : [</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B106" s="60" t="s">
         <v>2261</v>
@@ -23521,857 +23557,857 @@
         <v>263</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="F106" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C107="]}",$C107="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "2913465b-13db-4518-bc8b-df39c39d512c" , "functor" : "viewName" , "components": [ { "value": "Inactive", "type" : "string" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C107="]}",$C107="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "9a7f6fc3-b501-4b8b-9f7f-36bc3dbae00b" , "functor" : "viewName" , "components": [ { "value": "Suggested Matches", "type" : "string" } ] } </v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B107" s="19" t="s">
         <v>2149</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>2092</v>
+        <v>2094</v>
       </c>
       <c r="F107" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C108="]}",$C108="]},"),""," , ")))))</f>
-        <v>]}</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C108="]}",$C108="]},"),""," , ")))))</f>
+        <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
-        <v>555</v>
-      </c>
-      <c r="B108" s="20" t="s">
-        <v>2149</v>
+        <v>552</v>
+      </c>
+      <c r="B108" s="19" t="s">
+        <v>2268</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>2092</v>
+        <v>2088</v>
       </c>
       <c r="F108" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C109="]}",$C109="]},"),""," , ")))))</f>
-        <v>]}</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C109="]}",$C109="]},"),""," , ")))))</f>
+        <v>{"id" : "d20858e0-35a7-43a2-a32f-a2320c45135e", "functor" : "view",  "components" : [</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
-        <v>556</v>
-      </c>
-      <c r="B109" s="21" t="s">
-        <v>2149</v>
+        <v>553</v>
+      </c>
+      <c r="B109" s="60" t="s">
+        <v>2261</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>2094</v>
+        <v>263</v>
+      </c>
+      <c r="D109" s="23" t="s">
+        <v>2165</v>
       </c>
       <c r="F109" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C110="]}",$C110="]},"),""," , ")))))</f>
-        <v xml:space="preserve">]}, </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C110="]}",$C110="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "2913465b-13db-4518-bc8b-df39c39d512c" , "functor" : "viewName" , "components": [ { "value": "Inactive", "type" : "string" } ] } </v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
-        <v>557</v>
-      </c>
-      <c r="B110" s="67" t="s">
-        <v>2266</v>
+        <v>554</v>
+      </c>
+      <c r="B110" s="19" t="s">
+        <v>2149</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>2088</v>
+        <v>2092</v>
       </c>
       <c r="F110" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C111="]}",$C111="]},"),""," , ")))))</f>
-        <v>{"id" : "db74019c-8ddd-4d25-a724-b58c01508ea0", "functor" : "tab",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C111="]}",$C111="]},"),""," , ")))))</f>
+        <v>]}</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
-        <v>558</v>
-      </c>
-      <c r="B111" s="15" t="s">
-        <v>2259</v>
+        <v>555</v>
+      </c>
+      <c r="B111" s="20" t="s">
+        <v>2149</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D111" s="23" t="s">
-        <v>2162</v>
+        <v>2092</v>
       </c>
       <c r="F111" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C112="]}",$C112="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "52ed8f50-eafb-47e6-9c57-fa1b5dfb265b" , "functor" : "tabName" , "components": [ { "value": "Talent", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C112="]}",$C112="]},"),""," , ")))))</f>
+        <v>]}</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>559</v>
-      </c>
-      <c r="B112" s="15" t="s">
-        <v>2210</v>
+        <v>556</v>
+      </c>
+      <c r="B112" s="21" t="s">
+        <v>2149</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>2088</v>
+        <v>2094</v>
       </c>
       <c r="F112" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C113="]}",$C113="]},"),""," , ")))))</f>
-        <v>{"id" : "990acf27-580e-4038-822f-d3bc7147bccf", "functor" : "queryLabelViews",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C113="]}",$C113="]},"),""," , ")))))</f>
+        <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
-        <v>560</v>
-      </c>
-      <c r="B113" s="16" t="s">
-        <v>2267</v>
+        <v>557</v>
+      </c>
+      <c r="B113" s="67" t="s">
+        <v>2266</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>2088</v>
       </c>
       <c r="F113" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C114="]}",$C114="]},"),""," , ")))))</f>
-        <v>{"id" : "0107cf16-e88e-4c83-a08e-e309496c0dfa", "functor" : "queryLabelView",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C114="]}",$C114="]},"),""," , ")))))</f>
+        <v>{"id" : "db74019c-8ddd-4d25-a724-b58c01508ea0", "functor" : "tab",  "components" : [</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
-        <v>561</v>
-      </c>
-      <c r="B114" s="17" t="s">
-        <v>2260</v>
+        <v>558</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>2259</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D114" s="23" t="s">
-        <v>2096</v>
+        <v>2162</v>
       </c>
       <c r="F114" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C115="]}",$C115="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "bcfb695c-bc3b-4680-a08c-42923ea7d953" , "functor" : "labelName" , "components": [ { "value": "Skills", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C115="]}",$C115="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "52ed8f50-eafb-47e6-9c57-fa1b5dfb265b" , "functor" : "tabName" , "components": [ { "value": "Talent", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
-        <v>562</v>
-      </c>
-      <c r="B115" s="17" t="s">
-        <v>2228</v>
+        <v>559</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>2210</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D115" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="E115" t="s">
-        <v>2097</v>
+        <v>2088</v>
       </c>
       <c r="F115" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C116="]}",$C116="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "5197a5f7-e0c1-40ad-a403-35b8067f4c66" , "functor" : "labelPointer" , "components": [ { "value": "9a36211f-8b6e-4d88-8f25-a85b1d2e22b6", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C116="]}",$C116="]},"),""," , ")))))</f>
+        <v>{"id" : "990acf27-580e-4038-822f-d3bc7147bccf", "functor" : "queryLabelViews",  "components" : [</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
-        <v>563</v>
-      </c>
-      <c r="B116" s="17" t="s">
-        <v>2229</v>
+        <v>560</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>2267</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D116" s="23" t="s">
-        <v>2085</v>
-      </c>
-      <c r="E116" t="s">
-        <v>2084</v>
+        <v>2088</v>
       </c>
       <c r="F116" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C117="]}",$C117="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "4273be14-141e-482c-8827-782ec65a4509" , "functor" : "controlType" , "components": [ { "value": "autotype label", "type" : "string" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C117="]}",$C117="]},"),""," , ")))))</f>
+        <v>{"id" : "0107cf16-e88e-4c83-a08e-e309496c0dfa", "functor" : "queryLabelView",  "components" : [</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
-        <v>564</v>
-      </c>
-      <c r="B117" s="19" t="s">
-        <v>2149</v>
+        <v>561</v>
+      </c>
+      <c r="B117" s="17" t="s">
+        <v>2260</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>2094</v>
+        <v>263</v>
+      </c>
+      <c r="D117" s="23" t="s">
+        <v>2096</v>
       </c>
       <c r="F117" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C118="]}",$C118="]},"),""," , ")))))</f>
-        <v xml:space="preserve">]}, </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C118="]}",$C118="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "bcfb695c-bc3b-4680-a08c-42923ea7d953" , "functor" : "labelName" , "components": [ { "value": "Skills", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
-        <v>565</v>
-      </c>
-      <c r="B118" s="16" t="s">
-        <v>2267</v>
+        <v>562</v>
+      </c>
+      <c r="B118" s="17" t="s">
+        <v>2228</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>2088</v>
+        <v>263</v>
+      </c>
+      <c r="D118" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="E118" t="s">
+        <v>2097</v>
       </c>
       <c r="F118" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C119="]}",$C119="]},"),""," , ")))))</f>
-        <v>{"id" : "41fa535d-1ebc-4460-bc99-ca8e3c3bb32c", "functor" : "queryLabelView",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C119="]}",$C119="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "5197a5f7-e0c1-40ad-a403-35b8067f4c66" , "functor" : "labelPointer" , "components": [ { "value": "9a36211f-8b6e-4d88-8f25-a85b1d2e22b6", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>2260</v>
+        <v>2229</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D119" s="23" t="s">
-        <v>2167</v>
+        <v>2085</v>
+      </c>
+      <c r="E119" t="s">
+        <v>2084</v>
       </c>
       <c r="F119" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C120="]}",$C120="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "9e52538b-6c67-479e-b364-a66af17faf59" , "functor" : "labelName" , "components": [ { "value": "Categories", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C120="]}",$C120="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "4273be14-141e-482c-8827-782ec65a4509" , "functor" : "controlType" , "components": [ { "value": "autotype label", "type" : "string" } ] } </v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
-        <v>567</v>
-      </c>
-      <c r="B120" s="17" t="s">
-        <v>2228</v>
+        <v>564</v>
+      </c>
+      <c r="B120" s="19" t="s">
+        <v>2149</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D120" s="23" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="F120" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C121="]}",$C121="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "a6fa29fb-527d-4c8f-9fcc-8be982a7bc9b" , "functor" : "labelPointer" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C121="]}",$C121="]},"),""," , ")))))</f>
+        <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
-        <v>568</v>
-      </c>
-      <c r="B121" s="17" t="s">
-        <v>2229</v>
+        <v>565</v>
+      </c>
+      <c r="B121" s="16" t="s">
+        <v>2267</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D121" s="23" t="s">
-        <v>2168</v>
+        <v>2088</v>
       </c>
       <c r="F121" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C122="]}",$C122="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "c0ebce2f-a550-40d7-bc18-c25decb4fc91" , "functor" : "controlType" , "components": [ { "value": "checkbox tree", "type" : "string" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C122="]}",$C122="]},"),""," , ")))))</f>
+        <v>{"id" : "41fa535d-1ebc-4460-bc99-ca8e3c3bb32c", "functor" : "queryLabelView",  "components" : [</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
-        <v>569</v>
-      </c>
-      <c r="B122" s="19" t="s">
-        <v>2149</v>
+        <v>566</v>
+      </c>
+      <c r="B122" s="17" t="s">
+        <v>2260</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>2094</v>
+        <v>263</v>
+      </c>
+      <c r="D122" s="23" t="s">
+        <v>2167</v>
       </c>
       <c r="F122" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C123="]}",$C123="]},"),""," , ")))))</f>
-        <v xml:space="preserve">]}, </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C123="]}",$C123="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "9e52538b-6c67-479e-b364-a66af17faf59" , "functor" : "labelName" , "components": [ { "value": "Categories", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
-        <v>570</v>
-      </c>
-      <c r="B123" s="16" t="s">
-        <v>2267</v>
+        <v>567</v>
+      </c>
+      <c r="B123" s="17" t="s">
+        <v>2228</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>2088</v>
+        <v>263</v>
+      </c>
+      <c r="D123" s="23" t="s">
+        <v>2093</v>
       </c>
       <c r="F123" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C124="]}",$C124="]},"),""," , ")))))</f>
-        <v>{"id" : "611156e8-5dda-4be8-bbfb-53a02ac1d273", "functor" : "queryLabelView",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C124="]}",$C124="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "a6fa29fb-527d-4c8f-9fcc-8be982a7bc9b" , "functor" : "labelPointer" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>2260</v>
+        <v>2229</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D124" s="23" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="F124" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C125="]}",$C125="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "91f375be-71f0-46e2-9f29-0ad17b702f53" , "functor" : "labelName" , "components": [ { "value": "Price Range", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C125="]}",$C125="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "c0ebce2f-a550-40d7-bc18-c25decb4fc91" , "functor" : "controlType" , "components": [ { "value": "checkbox tree", "type" : "string" } ] } </v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="B125" s="17" t="s">
-        <v>2228</v>
+        <v>569</v>
+      </c>
+      <c r="B125" s="19" t="s">
+        <v>2149</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D125" s="23" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="F125" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C126="]}",$C126="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "b7b7a17d-ecde-4a14-9040-6e315548ded9" , "functor" : "labelPointer" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C126="]}",$C126="]},"),""," , ")))))</f>
+        <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
-        <v>573</v>
-      </c>
-      <c r="B126" s="17" t="s">
-        <v>2229</v>
+        <v>570</v>
+      </c>
+      <c r="B126" s="16" t="s">
+        <v>2267</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D126" s="23" t="s">
-        <v>2199</v>
+        <v>2088</v>
       </c>
       <c r="F126" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C127="]}",$C127="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "9429e5da-72f1-4182-b88d-853f665699b5" , "functor" : "controlType" , "components": [ { "value": "checkbox basic filters", "type" : "string" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C127="]}",$C127="]},"),""," , ")))))</f>
+        <v>{"id" : "611156e8-5dda-4be8-bbfb-53a02ac1d273", "functor" : "queryLabelView",  "components" : [</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
-        <v>574</v>
-      </c>
-      <c r="B127" s="19" t="s">
-        <v>2149</v>
+        <v>571</v>
+      </c>
+      <c r="B127" s="17" t="s">
+        <v>2260</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>2094</v>
+        <v>263</v>
+      </c>
+      <c r="D127" s="23" t="s">
+        <v>2169</v>
       </c>
       <c r="F127" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C128="]}",$C128="]},"),""," , ")))))</f>
-        <v xml:space="preserve">]}, </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C128="]}",$C128="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "91f375be-71f0-46e2-9f29-0ad17b702f53" , "functor" : "labelName" , "components": [ { "value": "Price Range", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
-        <v>575</v>
-      </c>
-      <c r="B128" s="16" t="s">
-        <v>2267</v>
+        <v>572</v>
+      </c>
+      <c r="B128" s="17" t="s">
+        <v>2228</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>2088</v>
+        <v>263</v>
+      </c>
+      <c r="D128" s="23" t="s">
+        <v>2093</v>
       </c>
       <c r="F128" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C129="]}",$C129="]},"),""," , ")))))</f>
-        <v>{"id" : "b8999b5a-0a22-4d88-8c73-2ea0e1b3083d", "functor" : "queryLabelView",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C129="]}",$C129="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "b7b7a17d-ecde-4a14-9040-6e315548ded9" , "functor" : "labelPointer" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>2260</v>
+        <v>2229</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D129" s="23" t="s">
-        <v>2170</v>
+        <v>2199</v>
       </c>
       <c r="F129" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C130="]}",$C130="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "c88c9fb6-5659-4bf0-804f-0b24902bbbfd" , "functor" : "labelName" , "components": [ { "value": "Posted Date", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C130="]}",$C130="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "9429e5da-72f1-4182-b88d-853f665699b5" , "functor" : "controlType" , "components": [ { "value": "checkbox basic filters", "type" : "string" } ] } </v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
-        <v>577</v>
-      </c>
-      <c r="B130" s="17" t="s">
-        <v>2228</v>
+        <v>574</v>
+      </c>
+      <c r="B130" s="19" t="s">
+        <v>2149</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D130" s="23" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="F130" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C131="]}",$C131="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "2408d5d1-a95d-4ed8-b1c0-2bff7ec3067f" , "functor" : "labelPointer" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C131="]}",$C131="]},"),""," , ")))))</f>
+        <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
-        <v>578</v>
-      </c>
-      <c r="B131" s="17" t="s">
-        <v>2229</v>
+        <v>575</v>
+      </c>
+      <c r="B131" s="16" t="s">
+        <v>2267</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D131" s="23" t="s">
-        <v>2171</v>
+        <v>2088</v>
       </c>
       <c r="F131" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C132="]}",$C132="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "65f3e278-c1b4-478c-840a-484ca75703e6" , "functor" : "controlType" , "components": [ { "value": "checkbox date picker", "type" : "string" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C132="]}",$C132="]},"),""," , ")))))</f>
+        <v>{"id" : "b8999b5a-0a22-4d88-8c73-2ea0e1b3083d", "functor" : "queryLabelView",  "components" : [</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
-        <v>579</v>
-      </c>
-      <c r="B132" s="19" t="s">
-        <v>2149</v>
+        <v>576</v>
+      </c>
+      <c r="B132" s="17" t="s">
+        <v>2260</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>2094</v>
+        <v>263</v>
+      </c>
+      <c r="D132" s="23" t="s">
+        <v>2170</v>
       </c>
       <c r="F132" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C133="]}",$C133="]},"),""," , ")))))</f>
-        <v xml:space="preserve">]}, </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C133="]}",$C133="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "c88c9fb6-5659-4bf0-804f-0b24902bbbfd" , "functor" : "labelName" , "components": [ { "value": "Posted Date", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
-        <v>580</v>
-      </c>
-      <c r="B133" s="16" t="s">
-        <v>2267</v>
+        <v>577</v>
+      </c>
+      <c r="B133" s="17" t="s">
+        <v>2228</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>2088</v>
+        <v>263</v>
+      </c>
+      <c r="D133" s="23" t="s">
+        <v>2093</v>
       </c>
       <c r="F133" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C134="]}",$C134="]},"),""," , ")))))</f>
-        <v>{"id" : "ba8ffd77-1b70-4ff0-a4d0-0bcbf13a0909", "functor" : "queryLabelView",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C134="]}",$C134="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "2408d5d1-a95d-4ed8-b1c0-2bff7ec3067f" , "functor" : "labelPointer" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B134" s="17" t="s">
-        <v>2260</v>
+        <v>2229</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D134" s="23" t="s">
-        <v>2197</v>
+        <v>2171</v>
       </c>
       <c r="F134" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C135="]}",$C135="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "ffc0d35b-9e1f-4408-bd9b-a634a23e7eec" , "functor" : "labelName" , "components": [ { "value": "Interests", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C135="]}",$C135="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "65f3e278-c1b4-478c-840a-484ca75703e6" , "functor" : "controlType" , "components": [ { "value": "checkbox date picker", "type" : "string" } ] } </v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
-        <v>582</v>
-      </c>
-      <c r="B135" s="17" t="s">
-        <v>2228</v>
+        <v>579</v>
+      </c>
+      <c r="B135" s="19" t="s">
+        <v>2149</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D135" s="23" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="F135" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C136="]}",$C136="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "054b36d8-43a8-488a-8d4e-13966088de31" , "functor" : "labelPointer" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C136="]}",$C136="]},"),""," , ")))))</f>
+        <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
-        <v>583</v>
-      </c>
-      <c r="B136" s="17" t="s">
-        <v>2229</v>
+        <v>580</v>
+      </c>
+      <c r="B136" s="16" t="s">
+        <v>2267</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D136" s="23" t="s">
-        <v>2085</v>
+        <v>2088</v>
       </c>
       <c r="F136" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C137="]}",$C137="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "c46ad357-7145-47e0-b85f-ba3b93211d8a" , "functor" : "controlType" , "components": [ { "value": "autotype label", "type" : "string" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C137="]}",$C137="]},"),""," , ")))))</f>
+        <v>{"id" : "ba8ffd77-1b70-4ff0-a4d0-0bcbf13a0909", "functor" : "queryLabelView",  "components" : [</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
-        <v>584</v>
-      </c>
-      <c r="B137" s="19" t="s">
-        <v>2149</v>
+        <v>581</v>
+      </c>
+      <c r="B137" s="17" t="s">
+        <v>2260</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>2094</v>
+        <v>263</v>
+      </c>
+      <c r="D137" s="23" t="s">
+        <v>2197</v>
       </c>
       <c r="F137" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C138="]}",$C138="]},"),""," , ")))))</f>
-        <v xml:space="preserve">]}, </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C138="]}",$C138="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "ffc0d35b-9e1f-4408-bd9b-a634a23e7eec" , "functor" : "labelName" , "components": [ { "value": "Interests", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
-        <v>585</v>
-      </c>
-      <c r="B138" s="16" t="s">
-        <v>2267</v>
+        <v>582</v>
+      </c>
+      <c r="B138" s="17" t="s">
+        <v>2228</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>2088</v>
+        <v>263</v>
+      </c>
+      <c r="D138" s="23" t="s">
+        <v>2093</v>
       </c>
       <c r="F138" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C139="]}",$C139="]},"),""," , ")))))</f>
-        <v>{"id" : "1e5fd992-7577-4c5d-a717-4bdebe083f13", "functor" : "queryLabelView",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C139="]}",$C139="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "054b36d8-43a8-488a-8d4e-13966088de31" , "functor" : "labelPointer" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
-        <v>586</v>
-      </c>
-      <c r="B139" s="60" t="s">
-        <v>2260</v>
+        <v>583</v>
+      </c>
+      <c r="B139" s="17" t="s">
+        <v>2229</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D139" s="23" t="s">
-        <v>2198</v>
+        <v>2085</v>
       </c>
       <c r="F139" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C140="]}",$C140="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "45cdb5c6-e8bc-44bd-9ddc-89c21b1bac7a" , "functor" : "labelName" , "components": [ { "value": "Channels", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C140="]}",$C140="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "c46ad357-7145-47e0-b85f-ba3b93211d8a" , "functor" : "controlType" , "components": [ { "value": "autotype label", "type" : "string" } ] } </v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
-        <v>587</v>
-      </c>
-      <c r="B140" s="17" t="s">
-        <v>2228</v>
+        <v>584</v>
+      </c>
+      <c r="B140" s="19" t="s">
+        <v>2149</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D140" s="23" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="F140" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C141="]}",$C141="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "384b4518-41fb-41dd-929d-cd587b7c54c6" , "functor" : "labelPointer" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C141="]}",$C141="]},"),""," , ")))))</f>
+        <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
-        <v>588</v>
-      </c>
-      <c r="B141" s="17" t="s">
-        <v>2229</v>
+        <v>585</v>
+      </c>
+      <c r="B141" s="16" t="s">
+        <v>2267</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D141" s="23" t="s">
-        <v>2085</v>
+        <v>2088</v>
       </c>
       <c r="F141" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C142="]}",$C142="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "e84c8b23-c473-45c6-ad70-c3e5af3d8c63" , "functor" : "controlType" , "components": [ { "value": "autotype label", "type" : "string" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C142="]}",$C142="]},"),""," , ")))))</f>
+        <v>{"id" : "1e5fd992-7577-4c5d-a717-4bdebe083f13", "functor" : "queryLabelView",  "components" : [</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
-        <v>589</v>
-      </c>
-      <c r="B142" s="19" t="s">
-        <v>2149</v>
+        <v>586</v>
+      </c>
+      <c r="B142" s="60" t="s">
+        <v>2260</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>2092</v>
+        <v>263</v>
+      </c>
+      <c r="D142" s="23" t="s">
+        <v>2198</v>
       </c>
       <c r="F142" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C143="]}",$C143="]},"),""," , ")))))</f>
-        <v>]}</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C143="]}",$C143="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "45cdb5c6-e8bc-44bd-9ddc-89c21b1bac7a" , "functor" : "labelName" , "components": [ { "value": "Channels", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
-        <v>590</v>
-      </c>
-      <c r="B143" s="20" t="s">
-        <v>2149</v>
+        <v>587</v>
+      </c>
+      <c r="B143" s="17" t="s">
+        <v>2228</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>2094</v>
+        <v>263</v>
+      </c>
+      <c r="D143" s="23" t="s">
+        <v>2093</v>
       </c>
       <c r="F143" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C144="]}",$C144="]},"),""," , ")))))</f>
-        <v xml:space="preserve">]}, </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C144="]}",$C144="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "384b4518-41fb-41dd-929d-cd587b7c54c6" , "functor" : "labelPointer" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="B144" s="87" t="s">
-        <v>2212</v>
+        <v>588</v>
+      </c>
+      <c r="B144" s="17" t="s">
+        <v>2229</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>2088</v>
+        <v>263</v>
+      </c>
+      <c r="D144" s="23" t="s">
+        <v>2085</v>
       </c>
       <c r="F144" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C145="]}",$C145="]},"),""," , ")))))</f>
-        <v>{"id" : "aa084a50-44ce-45d9-9c37-968473269349", "functor" : "views",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C145="]}",$C145="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "e84c8b23-c473-45c6-ad70-c3e5af3d8c63" , "functor" : "controlType" , "components": [ { "value": "autotype label", "type" : "string" } ] } </v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
-        <v>592</v>
-      </c>
-      <c r="B145" s="82" t="s">
-        <v>2268</v>
+        <v>589</v>
+      </c>
+      <c r="B145" s="19" t="s">
+        <v>2149</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>2088</v>
+        <v>2092</v>
       </c>
       <c r="F145" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C146="]}",$C146="]},"),""," , ")))))</f>
-        <v>{"id" : "d1b0588c-fad8-4202-bd60-cb24f4a80b56", "functor" : "view",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C146="]}",$C146="]},"),""," , ")))))</f>
+        <v>]}</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
-        <v>593</v>
-      </c>
-      <c r="B146" s="81" t="s">
-        <v>2261</v>
+        <v>590</v>
+      </c>
+      <c r="B146" s="20" t="s">
+        <v>2149</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D146" s="23" t="s">
-        <v>2262</v>
+        <v>2094</v>
       </c>
       <c r="F146" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C147="]}",$C147="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "ed4b0b1d-506b-406a-a077-6dd500caf179" , "functor" : "viewName" , "components": [ { "value": "Suggesed Matches", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C147="]}",$C147="]},"),""," , ")))))</f>
+        <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
-        <v>594</v>
-      </c>
-      <c r="B147" s="60" t="s">
-        <v>2211</v>
+        <v>591</v>
+      </c>
+      <c r="B147" s="87" t="s">
+        <v>2212</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>2088</v>
       </c>
       <c r="F147" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C148="]}",$C148="]},"),""," , ")))))</f>
-        <v>{"id" : "2fe6e725-e102-4bdb-bff3-0ee48777545e", "functor" : "prefillInControl",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C148="]}",$C148="]},"),""," , ")))))</f>
+        <v>{"id" : "aa084a50-44ce-45d9-9c37-968473269349", "functor" : "views",  "components" : [</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
-        <v>595</v>
-      </c>
-      <c r="B148" s="62" t="s">
-        <v>2269</v>
+        <v>592</v>
+      </c>
+      <c r="B148" s="82" t="s">
+        <v>2268</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D148" t="s">
-        <v>348</v>
-      </c>
-      <c r="E148" t="s">
-        <v>2096</v>
+        <v>2088</v>
       </c>
       <c r="F148" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C149="]}",$C149="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "af511031-4593-47ec-be6d-4eed10c1ce33" , "functor" : "labelViewId" , "components": [ { "value": "61017577-5864-425e-b009-d4be2cb7701a", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C149="]}",$C149="]},"),""," , ")))))</f>
+        <v>{"id" : "d1b0588c-fad8-4202-bd60-cb24f4a80b56", "functor" : "view",  "components" : [</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
-        <v>596</v>
-      </c>
-      <c r="B149" s="24" t="s">
-        <v>2081</v>
-      </c>
-      <c r="C149" s="32" t="s">
-        <v>2088</v>
-      </c>
-      <c r="D149" s="64"/>
-      <c r="E149" s="5" t="s">
-        <v>2099</v>
+        <v>593</v>
+      </c>
+      <c r="B149" s="81" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D149" s="23" t="s">
+        <v>2262</v>
       </c>
       <c r="F149" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C150="]}",$C150="]},"),""," , ")))))</f>
-        <v>{"id" : "7705e700-2402-4818-88ad-3343dc1cbe5b", "functor" : "defaults",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C150="]}",$C150="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "ed4b0b1d-506b-406a-a077-6dd500caf179" , "functor" : "viewName" , "components": [ { "value": "Suggesed Matches", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="s">
-        <v>597</v>
-      </c>
-      <c r="B150" s="63" t="s">
-        <v>2082</v>
-      </c>
-      <c r="C150" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="D150" s="65" t="s">
-        <v>354</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>268</v>
+        <v>594</v>
+      </c>
+      <c r="B150" s="60" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>2088</v>
       </c>
       <c r="F150" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C151="]}",$C151="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "bb843769-aa47-407f-9a32-2e94214fbdd1" , "functor" : "value" , "components": [ { "value": "b48bfe5a-15fa-4d8e-b253-752b51c2b94b", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C151="]}",$C151="]},"),""," , ")))))</f>
+        <v>{"id" : "2fe6e725-e102-4bdb-bff3-0ee48777545e", "functor" : "prefillInControl",  "components" : [</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
-        <v>598</v>
-      </c>
-      <c r="B151" s="63" t="s">
-        <v>2082</v>
-      </c>
-      <c r="C151" s="32" t="s">
+        <v>595</v>
+      </c>
+      <c r="B151" s="62" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C151" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="D151" s="65" t="s">
-        <v>356</v>
-      </c>
-      <c r="E151" s="5" t="s">
-        <v>270</v>
+      <c r="D151" t="s">
+        <v>348</v>
+      </c>
+      <c r="E151" t="s">
+        <v>2096</v>
       </c>
       <c r="F151" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C152="]}",$C152="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "575577a4-28bc-447c-8334-1aafdd6c2aa6" , "functor" : "value" , "components": [ { "value": "ef6a7b08-beaf-4c8a-994f-dcbed4a37909", "type" : "string" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C152="]}",$C152="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "af511031-4593-47ec-be6d-4eed10c1ce33" , "functor" : "labelViewId" , "components": [ { "value": "61017577-5864-425e-b009-d4be2cb7701a", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
-        <v>599</v>
-      </c>
-      <c r="B152" s="62" t="s">
-        <v>2149</v>
-      </c>
-      <c r="C152" s="26" t="s">
-        <v>2092</v>
+        <v>596</v>
+      </c>
+      <c r="B152" s="24" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C152" s="32" t="s">
+        <v>2088</v>
+      </c>
+      <c r="D152" s="64"/>
+      <c r="E152" s="5" t="s">
+        <v>2099</v>
       </c>
       <c r="F152" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C153="]}",$C153="]},"),""," , ")))))</f>
-        <v>]}</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C153="]}",$C153="]},"),""," , ")))))</f>
+        <v>{"id" : "7705e700-2402-4818-88ad-3343dc1cbe5b", "functor" : "defaults",  "components" : [</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
-        <v>600</v>
-      </c>
-      <c r="B153" s="60" t="s">
-        <v>2149</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>2092</v>
+        <v>597</v>
+      </c>
+      <c r="B153" s="63" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C153" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="D153" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>268</v>
       </c>
       <c r="F153" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C154="]}",$C154="]},"),""," , ")))))</f>
-        <v>]}</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C154="]}",$C154="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "bb843769-aa47-407f-9a32-2e94214fbdd1" , "functor" : "value" , "components": [ { "value": "b48bfe5a-15fa-4d8e-b253-752b51c2b94b", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
-        <v>601</v>
-      </c>
-      <c r="B154" s="19" t="s">
-        <v>2149</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>2094</v>
+        <v>598</v>
+      </c>
+      <c r="B154" s="63" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C154" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="D154" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>270</v>
       </c>
       <c r="F154" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C155="]}",$C155="]},"),""," , ")))))</f>
-        <v xml:space="preserve">]}, </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C155="]}",$C155="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "575577a4-28bc-447c-8334-1aafdd6c2aa6" , "functor" : "value" , "components": [ { "value": "ef6a7b08-beaf-4c8a-994f-dcbed4a37909", "type" : "string" } ] } </v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="13" t="s">
-        <v>602</v>
-      </c>
-      <c r="B155" s="19" t="s">
-        <v>2268</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>2088</v>
+        <v>599</v>
+      </c>
+      <c r="B155" s="62" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C155" s="26" t="s">
+        <v>2092</v>
       </c>
       <c r="F155" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C156="]}",$C156="]},"),""," , ")))))</f>
-        <v>{"id" : "5b387f0d-c845-4701-a571-03e49fd2d4d0", "functor" : "view",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C156="]}",$C156="]},"),""," , ")))))</f>
+        <v>]}</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="13" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B156" s="60" t="s">
-        <v>2261</v>
+        <v>2149</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D156" s="23" t="s">
-        <v>2263</v>
+        <v>2092</v>
       </c>
       <c r="F156" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C157="]}",$C157="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "1de45d24-52e0-4bce-b666-19a5697133a0" , "functor" : "viewName" , "components": [ { "value": "Invisible", "type" : "string" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C157="]}",$C157="]},"),""," , ")))))</f>
+        <v>]}</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="13" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B157" s="19" t="s">
         <v>2149</v>
@@ -24380,61 +24416,61 @@
         <v>2094</v>
       </c>
       <c r="F157" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C158="]}",$C158="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C158="]}",$C158="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="s">
-        <v>605</v>
-      </c>
-      <c r="B158" s="82" t="s">
+        <v>602</v>
+      </c>
+      <c r="B158" s="19" t="s">
         <v>2268</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>2088</v>
       </c>
       <c r="F158" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C159="]}",$C159="]},"),""," , ")))))</f>
-        <v>{"id" : "bc40fd83-04db-47ef-9e96-eee9e37e534b", "functor" : "view",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C159="]}",$C159="]},"),""," , ")))))</f>
+        <v>{"id" : "5b387f0d-c845-4701-a571-03e49fd2d4d0", "functor" : "view",  "components" : [</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
-        <v>606</v>
-      </c>
-      <c r="B159" s="81" t="s">
+        <v>603</v>
+      </c>
+      <c r="B159" s="60" t="s">
         <v>2261</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D159" s="23" t="s">
-        <v>2164</v>
+        <v>2263</v>
       </c>
       <c r="F159" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C160="]}",$C160="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "42d9420c-ea6f-41d8-bd9a-e35bc78059cf" , "functor" : "viewName" , "components": [ { "value": "Available", "type" : "string" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C160="]}",$C160="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "1de45d24-52e0-4bce-b666-19a5697133a0" , "functor" : "viewName" , "components": [ { "value": "Invisible", "type" : "string" } ] } </v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
-        <v>607</v>
-      </c>
-      <c r="B160" s="82" t="s">
+        <v>604</v>
+      </c>
+      <c r="B160" s="19" t="s">
         <v>2149</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>2094</v>
       </c>
       <c r="F160" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C161="]}",$C161="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C161="]}",$C161="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B161" s="82" t="s">
         <v>2268</v>
@@ -24443,13 +24479,13 @@
         <v>2088</v>
       </c>
       <c r="F161" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C162="]}",$C162="]},"),""," , ")))))</f>
-        <v>{"id" : "12658918-e010-4e75-9e37-e566927cb9f1", "functor" : "view",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C162="]}",$C162="]},"),""," , ")))))</f>
+        <v>{"id" : "bc40fd83-04db-47ef-9e96-eee9e37e534b", "functor" : "view",  "components" : [</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>609</v>
+      <c r="A162" s="13" t="s">
+        <v>606</v>
       </c>
       <c r="B162" s="81" t="s">
         <v>2261</v>
@@ -24458,16 +24494,16 @@
         <v>263</v>
       </c>
       <c r="D162" s="23" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="F162" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C163="]}",$C163="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "3b668e68-fc39-4831-a297-b8686c77abe0" , "functor" : "viewName" , "components": [ { "value": "Inactive", "type" : "string" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C163="]}",$C163="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "42d9420c-ea6f-41d8-bd9a-e35bc78059cf" , "functor" : "viewName" , "components": [ { "value": "Available", "type" : "string" } ] } </v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>610</v>
+      <c r="A163" s="13" t="s">
+        <v>607</v>
       </c>
       <c r="B163" s="82" t="s">
         <v>2149</v>
@@ -24476,13 +24512,13 @@
         <v>2094</v>
       </c>
       <c r="F163" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C164="]}",$C164="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C164="]}",$C164="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>611</v>
+      <c r="A164" s="13" t="s">
+        <v>608</v>
       </c>
       <c r="B164" s="82" t="s">
         <v>2268</v>
@@ -24491,13 +24527,13 @@
         <v>2088</v>
       </c>
       <c r="F164" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C165="]}",$C165="]},"),""," , ")))))</f>
-        <v>{"id" : "cccb31c4-f74d-427e-8c3e-543850b3dcf8", "functor" : "view",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C165="]}",$C165="]},"),""," , ")))))</f>
+        <v>{"id" : "12658918-e010-4e75-9e37-e566927cb9f1", "functor" : "view",  "components" : [</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B165" s="81" t="s">
         <v>2261</v>
@@ -24506,157 +24542,157 @@
         <v>263</v>
       </c>
       <c r="D165" s="23" t="s">
-        <v>2174</v>
+        <v>2165</v>
       </c>
       <c r="F165" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C166="]}",$C166="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "f4b81f39-8390-4679-b4f1-8c8a2d85e1b4" , "functor" : "viewName" , "components": [ { "value": "Suppressed", "type" : "string" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C166="]}",$C166="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "3b668e68-fc39-4831-a297-b8686c77abe0" , "functor" : "viewName" , "components": [ { "value": "Inactive", "type" : "string" } ] } </v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>613</v>
-      </c>
-      <c r="B166" s="19" t="s">
+        <v>610</v>
+      </c>
+      <c r="B166" s="82" t="s">
         <v>2149</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>2092</v>
+        <v>2094</v>
       </c>
       <c r="F166" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C167="]}",$C167="]},"),""," , ")))))</f>
-        <v>]}</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C167="]}",$C167="]},"),""," , ")))))</f>
+        <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>614</v>
-      </c>
-      <c r="B167" s="20" t="s">
-        <v>2149</v>
+        <v>611</v>
+      </c>
+      <c r="B167" s="82" t="s">
+        <v>2268</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>2092</v>
+        <v>2088</v>
       </c>
       <c r="F167" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C168="]}",$C168="]},"),""," , ")))))</f>
-        <v>]}</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C168="]}",$C168="]},"),""," , ")))))</f>
+        <v>{"id" : "cccb31c4-f74d-427e-8c3e-543850b3dcf8", "functor" : "view",  "components" : [</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>615</v>
-      </c>
-      <c r="B168" s="21" t="s">
-        <v>2149</v>
+        <v>612</v>
+      </c>
+      <c r="B168" s="81" t="s">
+        <v>2261</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>2094</v>
+        <v>263</v>
+      </c>
+      <c r="D168" s="23" t="s">
+        <v>2174</v>
       </c>
       <c r="F168" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C169="]}",$C169="]},"),""," , ")))))</f>
-        <v xml:space="preserve">]}, </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C169="]}",$C169="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "f4b81f39-8390-4679-b4f1-8c8a2d85e1b4" , "functor" : "viewName" , "components": [ { "value": "Suppressed", "type" : "string" } ] } </v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>616</v>
-      </c>
-      <c r="B169" s="67" t="s">
-        <v>2266</v>
+        <v>613</v>
+      </c>
+      <c r="B169" s="19" t="s">
+        <v>2149</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>2088</v>
+        <v>2092</v>
       </c>
       <c r="F169" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C170="]}",$C170="]},"),""," , ")))))</f>
-        <v>{"id" : "a4a3ec35-811b-4c4b-ac03-ef9119b45282", "functor" : "tab",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C170="]}",$C170="]},"),""," , ")))))</f>
+        <v>]}</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>617</v>
-      </c>
-      <c r="B170" s="83" t="s">
-        <v>2259</v>
+        <v>614</v>
+      </c>
+      <c r="B170" s="20" t="s">
+        <v>2149</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D170" s="23" t="s">
-        <v>2183</v>
+        <v>2092</v>
       </c>
       <c r="F170" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C171="]}",$C171="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "5666d7dd-7dfe-4dc7-925e-d2e14a1d0040" , "functor" : "tabName" , "components": [ { "value": "Connections", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C171="]}",$C171="]},"),""," , ")))))</f>
+        <v>]}</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>618</v>
-      </c>
-      <c r="B171" s="20" t="s">
-        <v>2212</v>
+        <v>615</v>
+      </c>
+      <c r="B171" s="21" t="s">
+        <v>2149</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>2088</v>
+        <v>2094</v>
       </c>
       <c r="F171" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C172="]}",$C172="]},"),""," , ")))))</f>
-        <v>{"id" : "c1cc8da9-83f2-4b3d-a54e-f5d23eb84f07", "functor" : "views",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C172="]}",$C172="]},"),""," , ")))))</f>
+        <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>619</v>
-      </c>
-      <c r="B172" s="19" t="s">
-        <v>2268</v>
+        <v>616</v>
+      </c>
+      <c r="B172" s="67" t="s">
+        <v>2266</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>2088</v>
       </c>
       <c r="F172" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C173="]}",$C173="]},"),""," , ")))))</f>
-        <v>{"id" : "7c5f91fd-c613-4c93-a055-a17243f959f5", "functor" : "view",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C173="]}",$C173="]},"),""," , ")))))</f>
+        <v>{"id" : "a4a3ec35-811b-4c4b-ac03-ef9119b45282", "functor" : "tab",  "components" : [</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>620</v>
-      </c>
-      <c r="B173" s="60" t="s">
-        <v>2261</v>
+        <v>617</v>
+      </c>
+      <c r="B173" s="83" t="s">
+        <v>2259</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D173" s="23" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="F173" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C174="]}",$C174="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "2e6c3257-33df-409c-9c56-dda455e0b0a7" , "functor" : "viewName" , "components": [ { "value": "All", "type" : "string" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C174="]}",$C174="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "5666d7dd-7dfe-4dc7-925e-d2e14a1d0040" , "functor" : "tabName" , "components": [ { "value": "Connections", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>621</v>
-      </c>
-      <c r="B174" s="19" t="s">
-        <v>2149</v>
+        <v>618</v>
+      </c>
+      <c r="B174" s="20" t="s">
+        <v>2212</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>2094</v>
+        <v>2088</v>
       </c>
       <c r="F174" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C175="]}",$C175="]},"),""," , ")))))</f>
-        <v xml:space="preserve">]}, </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C175="]}",$C175="]},"),""," , ")))))</f>
+        <v>{"id" : "c1cc8da9-83f2-4b3d-a54e-f5d23eb84f07", "functor" : "views",  "components" : [</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B175" s="19" t="s">
         <v>2268</v>
@@ -24665,13 +24701,13 @@
         <v>2088</v>
       </c>
       <c r="F175" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C176="]}",$C176="]},"),""," , ")))))</f>
-        <v>{"id" : "4e5ce069-b6d7-446c-bf65-d7e036488530", "functor" : "view",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C176="]}",$C176="]},"),""," , ")))))</f>
+        <v>{"id" : "7c5f91fd-c613-4c93-a055-a17243f959f5", "functor" : "view",  "components" : [</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B176" s="60" t="s">
         <v>2261</v>
@@ -24680,16 +24716,16 @@
         <v>263</v>
       </c>
       <c r="D176" s="23" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="F176" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C177="]}",$C177="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "af431d7c-ff5b-44ac-b4b5-dcfa0411ebca" , "functor" : "viewName" , "components": [ { "value": "Favorites", "type" : "string" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C177="]}",$C177="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "2e6c3257-33df-409c-9c56-dda455e0b0a7" , "functor" : "viewName" , "components": [ { "value": "All", "type" : "string" } ] } </v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B177" s="19" t="s">
         <v>2149</v>
@@ -24698,13 +24734,13 @@
         <v>2094</v>
       </c>
       <c r="F177" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C178="]}",$C178="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C178="]}",$C178="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B178" s="19" t="s">
         <v>2268</v>
@@ -24713,13 +24749,13 @@
         <v>2088</v>
       </c>
       <c r="F178" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C179="]}",$C179="]},"),""," , ")))))</f>
-        <v>{"id" : "fb4ee6cb-a239-4511-846b-2ffb3bbfec28", "functor" : "view",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C179="]}",$C179="]},"),""," , ")))))</f>
+        <v>{"id" : "4e5ce069-b6d7-446c-bf65-d7e036488530", "functor" : "view",  "components" : [</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B179" s="60" t="s">
         <v>2261</v>
@@ -24728,16 +24764,16 @@
         <v>263</v>
       </c>
       <c r="D179" s="23" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="F179" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C180="]}",$C180="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "044a5d9e-478d-4bd0-af7d-36151f66f878" , "functor" : "viewName" , "components": [ { "value": "Frequent Posters", "type" : "string" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C180="]}",$C180="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "af431d7c-ff5b-44ac-b4b5-dcfa0411ebca" , "functor" : "viewName" , "components": [ { "value": "Favorites", "type" : "string" } ] } </v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B180" s="19" t="s">
         <v>2149</v>
@@ -24746,13 +24782,13 @@
         <v>2094</v>
       </c>
       <c r="F180" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C181="]}",$C181="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C181="]}",$C181="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B181" s="19" t="s">
         <v>2268</v>
@@ -24761,13 +24797,13 @@
         <v>2088</v>
       </c>
       <c r="F181" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C182="]}",$C182="]},"),""," , ")))))</f>
-        <v>{"id" : "27488afb-b0ed-4e1a-b47d-28380f1dc706", "functor" : "view",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C182="]}",$C182="]},"),""," , ")))))</f>
+        <v>{"id" : "fb4ee6cb-a239-4511-846b-2ffb3bbfec28", "functor" : "view",  "components" : [</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B182" s="60" t="s">
         <v>2261</v>
@@ -24776,94 +24812,94 @@
         <v>263</v>
       </c>
       <c r="D182" s="23" t="s">
-        <v>2174</v>
+        <v>2186</v>
       </c>
       <c r="F182" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C183="]}",$C183="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "c6cbc037-9d83-4f49-84f9-fbb4091cb6ec" , "functor" : "viewName" , "components": [ { "value": "Suppressed", "type" : "string" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C183="]}",$C183="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "044a5d9e-478d-4bd0-af7d-36151f66f878" , "functor" : "viewName" , "components": [ { "value": "Frequent Posters", "type" : "string" } ] } </v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B183" s="19" t="s">
         <v>2149</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>2092</v>
+        <v>2094</v>
       </c>
       <c r="F183" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C184="]}",$C184="]},"),""," , ")))))</f>
-        <v>]}</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C184="]}",$C184="]},"),""," , ")))))</f>
+        <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>631</v>
-      </c>
-      <c r="B184" s="20" t="s">
-        <v>2149</v>
+        <v>628</v>
+      </c>
+      <c r="B184" s="19" t="s">
+        <v>2268</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>2092</v>
+        <v>2088</v>
       </c>
       <c r="F184" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C185="]}",$C185="]},"),""," , ")))))</f>
-        <v>]}</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C185="]}",$C185="]},"),""," , ")))))</f>
+        <v>{"id" : "27488afb-b0ed-4e1a-b47d-28380f1dc706", "functor" : "view",  "components" : [</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>632</v>
-      </c>
-      <c r="B185" s="21" t="s">
-        <v>2149</v>
+        <v>629</v>
+      </c>
+      <c r="B185" s="60" t="s">
+        <v>2261</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>2094</v>
+        <v>263</v>
+      </c>
+      <c r="D185" s="23" t="s">
+        <v>2174</v>
       </c>
       <c r="F185" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C186="]}",$C186="]},"),""," , ")))))</f>
-        <v xml:space="preserve">]}, </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C186="]}",$C186="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "c6cbc037-9d83-4f49-84f9-fbb4091cb6ec" , "functor" : "viewName" , "components": [ { "value": "Suppressed", "type" : "string" } ] } </v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>633</v>
-      </c>
-      <c r="B186" s="67" t="s">
-        <v>2266</v>
+        <v>630</v>
+      </c>
+      <c r="B186" s="19" t="s">
+        <v>2149</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>2088</v>
+        <v>2092</v>
       </c>
       <c r="F186" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C187="]}",$C187="]},"),""," , ")))))</f>
-        <v>{"id" : "8c6ae4e2-6ced-498b-9df6-ae4164c4f44b", "functor" : "tab",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C187="]}",$C187="]},"),""," , ")))))</f>
+        <v>]}</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>634</v>
-      </c>
-      <c r="B187" s="83" t="s">
-        <v>2259</v>
+        <v>631</v>
+      </c>
+      <c r="B187" s="20" t="s">
+        <v>2149</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D187" s="23" t="s">
-        <v>2264</v>
+        <v>2092</v>
       </c>
       <c r="F187" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C188="]}",$C188="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "8efc6124-acf4-4c30-acac-886df546a27b" , "functor" : "tabName" , "components": [ { "value": "Moderators", "type" : "string" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C188="]}",$C188="]},"),""," , ")))))</f>
+        <v>]}</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B188" s="21" t="s">
         <v>2149</v>
@@ -24872,13 +24908,13 @@
         <v>2094</v>
       </c>
       <c r="F188" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C189="]}",$C189="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C189="]}",$C189="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B189" s="67" t="s">
         <v>2266</v>
@@ -24887,13 +24923,13 @@
         <v>2088</v>
       </c>
       <c r="F189" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C190="]}",$C190="]},"),""," , ")))))</f>
-        <v>{"id" : "5ad0747b-9989-4851-ba5b-b9e5cf29ca38", "functor" : "tab",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C190="]}",$C190="]},"),""," , ")))))</f>
+        <v>{"id" : "8c6ae4e2-6ced-498b-9df6-ae4164c4f44b", "functor" : "tab",  "components" : [</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B190" s="83" t="s">
         <v>2259</v>
@@ -24902,79 +24938,79 @@
         <v>263</v>
       </c>
       <c r="D190" s="23" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="F190" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C191="]}",$C191="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "410f258c-f290-4bbb-bf20-c18fe1accece" , "functor" : "tabName" , "components": [ { "value": "Contacts", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C191="]}",$C191="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "8efc6124-acf4-4c30-acac-886df546a27b" , "functor" : "tabName" , "components": [ { "value": "Moderators", "type" : "string" } ] } </v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>638</v>
-      </c>
-      <c r="B191" s="20" t="s">
-        <v>2212</v>
+        <v>635</v>
+      </c>
+      <c r="B191" s="21" t="s">
+        <v>2149</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>2088</v>
+        <v>2094</v>
       </c>
       <c r="F191" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C192="]}",$C192="]},"),""," , ")))))</f>
-        <v>{"id" : "c0dcbe0f-780d-4489-ab9d-a5b97eb72c09", "functor" : "views",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C192="]}",$C192="]},"),""," , ")))))</f>
+        <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>639</v>
-      </c>
-      <c r="B192" s="19" t="s">
-        <v>2268</v>
+        <v>636</v>
+      </c>
+      <c r="B192" s="67" t="s">
+        <v>2266</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>2088</v>
       </c>
       <c r="F192" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C193="]}",$C193="]},"),""," , ")))))</f>
-        <v>{"id" : "e5c82d1e-a616-41dc-8d75-41bea0d3ce10", "functor" : "view",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C193="]}",$C193="]},"),""," , ")))))</f>
+        <v>{"id" : "5ad0747b-9989-4851-ba5b-b9e5cf29ca38", "functor" : "tab",  "components" : [</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>640</v>
-      </c>
-      <c r="B193" s="60" t="s">
-        <v>2261</v>
+        <v>637</v>
+      </c>
+      <c r="B193" s="83" t="s">
+        <v>2259</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D193" s="23" t="s">
-        <v>2184</v>
+        <v>2265</v>
       </c>
       <c r="F193" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C194="]}",$C194="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "e7bacbda-8726-4479-b5cf-5ab407cf9c0d" , "functor" : "viewName" , "components": [ { "value": "All", "type" : "string" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C194="]}",$C194="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "410f258c-f290-4bbb-bf20-c18fe1accece" , "functor" : "tabName" , "components": [ { "value": "Contacts", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>641</v>
-      </c>
-      <c r="B194" s="19" t="s">
-        <v>2149</v>
+        <v>638</v>
+      </c>
+      <c r="B194" s="20" t="s">
+        <v>2212</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>2094</v>
+        <v>2088</v>
       </c>
       <c r="F194" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C195="]}",$C195="]},"),""," , ")))))</f>
-        <v xml:space="preserve">]}, </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C195="]}",$C195="]},"),""," , ")))))</f>
+        <v>{"id" : "c0dcbe0f-780d-4489-ab9d-a5b97eb72c09", "functor" : "views",  "components" : [</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B195" s="19" t="s">
         <v>2268</v>
@@ -24983,13 +25019,13 @@
         <v>2088</v>
       </c>
       <c r="F195" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C196="]}",$C196="]},"),""," , ")))))</f>
-        <v>{"id" : "d5d523f6-01b1-442b-a78a-b0ccd7b3daf0", "functor" : "view",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C196="]}",$C196="]},"),""," , ")))))</f>
+        <v>{"id" : "e5c82d1e-a616-41dc-8d75-41bea0d3ce10", "functor" : "view",  "components" : [</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B196" s="60" t="s">
         <v>2261</v>
@@ -24998,16 +25034,16 @@
         <v>263</v>
       </c>
       <c r="D196" s="23" t="s">
-        <v>2187</v>
+        <v>2184</v>
       </c>
       <c r="F196" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C197="]}",$C197="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "b54cccf6-42c2-4c23-b626-f6dc25c9fdcd" , "functor" : "viewName" , "components": [ { "value": "Current", "type" : "string" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C197="]}",$C197="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "e7bacbda-8726-4479-b5cf-5ab407cf9c0d" , "functor" : "viewName" , "components": [ { "value": "All", "type" : "string" } ] } </v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B197" s="19" t="s">
         <v>2149</v>
@@ -25016,13 +25052,13 @@
         <v>2094</v>
       </c>
       <c r="F197" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C198="]}",$C198="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C198="]}",$C198="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B198" s="19" t="s">
         <v>2268</v>
@@ -25031,13 +25067,13 @@
         <v>2088</v>
       </c>
       <c r="F198" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C199="]}",$C199="]},"),""," , ")))))</f>
-        <v>{"id" : "4c165732-0f1e-496e-b2b2-54564ebed3b3", "functor" : "view",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C199="]}",$C199="]},"),""," , ")))))</f>
+        <v>{"id" : "d5d523f6-01b1-442b-a78a-b0ccd7b3daf0", "functor" : "view",  "components" : [</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B199" s="60" t="s">
         <v>2261</v>
@@ -25046,16 +25082,16 @@
         <v>263</v>
       </c>
       <c r="D199" s="23" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="F199" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C200="]}",$C200="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "0c6d3ffe-6f40-4a5e-a113-965fcbbdd094" , "functor" : "viewName" , "components": [ { "value": "Bidding", "type" : "string" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C200="]}",$C200="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "b54cccf6-42c2-4c23-b626-f6dc25c9fdcd" , "functor" : "viewName" , "components": [ { "value": "Current", "type" : "string" } ] } </v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B200" s="19" t="s">
         <v>2149</v>
@@ -25064,13 +25100,13 @@
         <v>2094</v>
       </c>
       <c r="F200" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C201="]}",$C201="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C201="]}",$C201="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B201" s="19" t="s">
         <v>2268</v>
@@ -25079,13 +25115,13 @@
         <v>2088</v>
       </c>
       <c r="F201" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C202="]}",$C202="]},"),""," , ")))))</f>
-        <v>{"id" : "b0f04694-5347-4a02-a5ec-c4872b397c03", "functor" : "view",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C202="]}",$C202="]},"),""," , ")))))</f>
+        <v>{"id" : "4c165732-0f1e-496e-b2b2-54564ebed3b3", "functor" : "view",  "components" : [</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B202" s="60" t="s">
         <v>2261</v>
@@ -25094,1747 +25130,1747 @@
         <v>263</v>
       </c>
       <c r="D202" s="23" t="s">
-        <v>2181</v>
+        <v>2188</v>
       </c>
       <c r="F202" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C203="]}",$C203="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "5ad05e45-fdbc-4afe-9ed5-1eea5cc3f6d0" , "functor" : "viewName" , "components": [ { "value": "Closed", "type" : "string" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C203="]}",$C203="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "0c6d3ffe-6f40-4a5e-a113-965fcbbdd094" , "functor" : "viewName" , "components": [ { "value": "Bidding", "type" : "string" } ] } </v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B203" s="19" t="s">
         <v>2149</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>2092</v>
+        <v>2094</v>
       </c>
       <c r="F203" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C204="]}",$C204="]},"),""," , ")))))</f>
-        <v>]}</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C204="]}",$C204="]},"),""," , ")))))</f>
+        <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>651</v>
-      </c>
-      <c r="B204" s="20" t="s">
-        <v>2149</v>
+        <v>648</v>
+      </c>
+      <c r="B204" s="19" t="s">
+        <v>2268</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>2092</v>
+        <v>2088</v>
       </c>
       <c r="F204" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C205="]}",$C205="]},"),""," , ")))))</f>
-        <v>]}</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C205="]}",$C205="]},"),""," , ")))))</f>
+        <v>{"id" : "b0f04694-5347-4a02-a5ec-c4872b397c03", "functor" : "view",  "components" : [</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>649</v>
+      </c>
+      <c r="B205" s="60" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D205" s="23" t="s">
+        <v>2181</v>
+      </c>
+      <c r="F205" s="23" t="str">
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C206="]}",$C206="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "5ad05e45-fdbc-4afe-9ed5-1eea5cc3f6d0" , "functor" : "viewName" , "components": [ { "value": "Closed", "type" : "string" } ] } </v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>650</v>
+      </c>
+      <c r="B206" s="19" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>2092</v>
+      </c>
+      <c r="F206" s="23" t="str">
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C207="]}",$C207="]},"),""," , ")))))</f>
+        <v>]}</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>651</v>
+      </c>
+      <c r="B207" s="20" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>2092</v>
+      </c>
+      <c r="F207" s="23" t="str">
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C208="]}",$C208="]},"),""," , ")))))</f>
+        <v>]}</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>652</v>
       </c>
-      <c r="B205" s="21" t="s">
+      <c r="B208" s="21" t="s">
         <v>2149</v>
       </c>
-      <c r="C205" s="7" t="s">
+      <c r="C208" s="7" t="s">
         <v>2092</v>
       </c>
-      <c r="F205" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C206="]}",$C206="]},"),""," , ")))))</f>
+      <c r="F208" s="23" t="str">
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C209="]}",$C209="]},"),""," , ")))))</f>
         <v>]}</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="B206" s="18" t="s">
-        <v>2149</v>
-      </c>
-      <c r="C206" s="7" t="s">
-        <v>2094</v>
-      </c>
-      <c r="F206" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C207="]}",$C207="]},"),""," , ")))))</f>
-        <v xml:space="preserve">]}, </v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="B207" s="25" t="s">
-        <v>347</v>
-      </c>
-      <c r="C207" s="7" t="s">
-        <v>2088</v>
-      </c>
-      <c r="F207" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C208="]}",$C208="]},"),""," , ")))))</f>
-        <v>{"id" : "9a36211f-8b6e-4d88-8f25-a85b1d2e22b6", "functor" : "skills",  "components" : [</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="B208" s="14">
-        <v>1</v>
-      </c>
-      <c r="C208" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D208" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="F208" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C209="]}",$C209="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "f68fbdc6-f684-4e71-b4df-bd0b373c957a" , "functor" : "1" , "components": [ { "value": "Adobe Illustrator", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B209" s="14">
-        <v>2</v>
+        <v>433</v>
+      </c>
+      <c r="B209" s="18" t="s">
+        <v>2149</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D209" s="23" t="s">
-        <v>265</v>
+        <v>2094</v>
       </c>
       <c r="F209" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C210="]}",$C210="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "154f5fef-a523-4aab-a3f9-6dced4fdee21" , "functor" : "2" , "components": [ { "value": "Adobe InDesign", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C210="]}",$C210="]},"),""," , ")))))</f>
+        <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B210" s="14">
-        <v>3</v>
+      <c r="A210" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="B210" s="25" t="s">
+        <v>347</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D210" s="23" t="s">
-        <v>266</v>
+        <v>2088</v>
       </c>
       <c r="F210" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C211="]}",$C211="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "4416192b-9dec-49b0-9d13-fb0815af6c3f" , "functor" : "3" , "components": [ { "value": "Adobe Photoshop", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C211="]}",$C211="]},"),""," , ")))))</f>
+        <v>{"id" : "9a36211f-8b6e-4d88-8f25-a85b1d2e22b6", "functor" : "skills",  "components" : [</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B211" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D211" s="23" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F211" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C212="]}",$C212="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "3c91c578-2d39-42d4-adb0-9071d9eb116a" , "functor" : "4" , "components": [ { "value": "Analytics", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C212="]}",$C212="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "f68fbdc6-f684-4e71-b4df-bd0b373c957a" , "functor" : "1" , "components": [ { "value": "Adobe Illustrator", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="13" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B212" s="14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D212" s="23" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F212" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C213="]}",$C213="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "b48bfe5a-15fa-4d8e-b253-752b51c2b94b" , "functor" : "5" , "components": [ { "value": "Android", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C213="]}",$C213="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "154f5fef-a523-4aab-a3f9-6dced4fdee21" , "functor" : "2" , "components": [ { "value": "Adobe InDesign", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="13" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B213" s="14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D213" s="23" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F213" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C214="]}",$C214="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "3c855583-2871-4a44-9cb5-87d066d0cfb0" , "functor" : "6" , "components": [ { "value": "APIs", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C214="]}",$C214="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "4416192b-9dec-49b0-9d13-fb0815af6c3f" , "functor" : "3" , "components": [ { "value": "Adobe Photoshop", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B214" s="14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D214" s="23" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F214" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C215="]}",$C215="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "ef6a7b08-beaf-4c8a-994f-dcbed4a37909" , "functor" : "7" , "components": [ { "value": "Art Design", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C215="]}",$C215="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "3c91c578-2d39-42d4-adb0-9071d9eb116a" , "functor" : "4" , "components": [ { "value": "Analytics", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="13" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B215" s="14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D215" s="23" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F215" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C216="]}",$C216="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "133d68b1-590b-43f6-a8f3-5d71df21b832" , "functor" : "8" , "components": [ { "value": "AutoCAD", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C216="]}",$C216="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "b48bfe5a-15fa-4d8e-b253-752b51c2b94b" , "functor" : "5" , "components": [ { "value": "Android", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="13" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B216" s="14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D216" s="23" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F216" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C217="]}",$C217="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "dabec9ba-3b44-4fc8-a012-0fb44329bce8" , "functor" : "9" , "components": [ { "value": "Backup Management", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C217="]}",$C217="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "3c855583-2871-4a44-9cb5-87d066d0cfb0" , "functor" : "6" , "components": [ { "value": "APIs", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="13" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B217" s="14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D217" s="23" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F217" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C218="]}",$C218="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "9b5454de-c111-41d1-a461-2eba1165499f" , "functor" : "10" , "components": [ { "value": "C", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C218="]}",$C218="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "ef6a7b08-beaf-4c8a-994f-dcbed4a37909" , "functor" : "7" , "components": [ { "value": "Art Design", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="13" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B218" s="14">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D218" s="23" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F218" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C219="]}",$C219="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "da1fd939-817f-4e4c-8579-109b387fecd4" , "functor" : "11" , "components": [ { "value": "C++", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C219="]}",$C219="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "133d68b1-590b-43f6-a8f3-5d71df21b832" , "functor" : "8" , "components": [ { "value": "AutoCAD", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="74" t="s">
-        <v>440</v>
+      <c r="A219" s="13" t="s">
+        <v>358</v>
       </c>
       <c r="B219" s="14">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D219" s="23" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F219" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C220="]}",$C220="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "424e3129-edff-4646-aa99-b393495284a5" , "functor" : "12" , "components": [ { "value": "Certifications", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C220="]}",$C220="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "dabec9ba-3b44-4fc8-a012-0fb44329bce8" , "functor" : "9" , "components": [ { "value": "Backup Management", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B220" s="14">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D220" s="23" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F220" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C221="]}",$C221="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "75c9eaa6-31e5-4487-9bc7-50ecfd5e305e" , "functor" : "13" , "components": [ { "value": "Client Server", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C221="]}",$C221="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "9b5454de-c111-41d1-a461-2eba1165499f" , "functor" : "10" , "components": [ { "value": "C", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="13" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B221" s="14">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D221" s="23" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F221" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C222="]}",$C222="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "0aaf6951-0fdf-4849-a4e1-545a9e1686c4" , "functor" : "14" , "components": [ { "value": "Client Support", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C222="]}",$C222="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "da1fd939-817f-4e4c-8579-109b387fecd4" , "functor" : "11" , "components": [ { "value": "C++", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="13" t="s">
-        <v>363</v>
+      <c r="A222" s="74" t="s">
+        <v>440</v>
       </c>
       <c r="B222" s="14">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C222" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D222" s="23" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F222" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C223="]}",$C223="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "42a0860c-21e8-4634-a4a4-c4e73bf62062" , "functor" : "15" , "components": [ { "value": "Configuration", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C223="]}",$C223="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "424e3129-edff-4646-aa99-b393495284a5" , "functor" : "12" , "components": [ { "value": "Certifications", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="13" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B223" s="14">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D223" s="23" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F223" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C224="]}",$C224="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "131e93e9-0065-4bdd-82ab-13b776412e09" , "functor" : "16" , "components": [ { "value": "Content Management Systems (CMS)", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C224="]}",$C224="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "75c9eaa6-31e5-4487-9bc7-50ecfd5e305e" , "functor" : "13" , "components": [ { "value": "Client Server", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="13" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B224" s="14">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D224" s="23" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F224" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C225="]}",$C225="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "1361d3d5-ff58-42ec-b545-cd1f8adc5072" , "functor" : "17" , "components": [ { "value": "Content Managment", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C225="]}",$C225="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "0aaf6951-0fdf-4849-a4e1-545a9e1686c4" , "functor" : "14" , "components": [ { "value": "Client Support", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="13" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B225" s="14">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D225" s="23" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F225" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C226="]}",$C226="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "d5d446db-f750-4f97-b7b3-5e1a8eb469cd" , "functor" : "18" , "components": [ { "value": "Corel Draw", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C226="]}",$C226="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "42a0860c-21e8-4634-a4a4-c4e73bf62062" , "functor" : "15" , "components": [ { "value": "Configuration", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="13" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B226" s="14">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D226" s="23" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F226" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C227="]}",$C227="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "6a1e742c-f083-41bc-9bcc-ea4ee5c5138c" , "functor" : "19" , "components": [ { "value": "Corel Word Perfect", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C227="]}",$C227="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "131e93e9-0065-4bdd-82ab-13b776412e09" , "functor" : "16" , "components": [ { "value": "Content Management Systems (CMS)", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="13" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B227" s="14">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D227" s="23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F227" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C228="]}",$C228="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "2be8fe9b-1d6b-4a52-9255-ff2e7fd93b38" , "functor" : "20" , "components": [ { "value": "CSS", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C228="]}",$C228="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "1361d3d5-ff58-42ec-b545-cd1f8adc5072" , "functor" : "17" , "components": [ { "value": "Content Managment", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="13" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B228" s="14">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D228" s="23" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F228" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C229="]}",$C229="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "aa570712-a85f-4d11-9ef7-fd6ffcd88e35" , "functor" : "21" , "components": [ { "value": "Data Analytics", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C229="]}",$C229="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "d5d446db-f750-4f97-b7b3-5e1a8eb469cd" , "functor" : "18" , "components": [ { "value": "Corel Draw", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="13" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B229" s="14">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D229" s="23" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F229" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C230="]}",$C230="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "b8960ddc-0f18-4d9f-99b1-3b714e649e09" , "functor" : "22" , "components": [ { "value": "Design", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C230="]}",$C230="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "6a1e742c-f083-41bc-9bcc-ea4ee5c5138c" , "functor" : "19" , "components": [ { "value": "Corel Word Perfect", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="13" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B230" s="14">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D230" s="23" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F230" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C231="]}",$C231="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "908206b9-0db2-4d7d-b6a2-6832a8b1f1f0" , "functor" : "23" , "components": [ { "value": "Desktop Publishing", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C231="]}",$C231="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "2be8fe9b-1d6b-4a52-9255-ff2e7fd93b38" , "functor" : "20" , "components": [ { "value": "CSS", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="13" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B231" s="14">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D231" s="23" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F231" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C232="]}",$C232="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "73c04b1d-8711-404b-b7d4-02d94bcc79f1" , "functor" : "24" , "components": [ { "value": "Diagnostics", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C232="]}",$C232="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "aa570712-a85f-4d11-9ef7-fd6ffcd88e35" , "functor" : "21" , "components": [ { "value": "Data Analytics", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="13" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B232" s="14">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D232" s="23" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F232" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C233="]}",$C233="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "40bec80f-1aeb-431f-a060-c531ec285d1e" , "functor" : "25" , "components": [ { "value": "Documentation", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C233="]}",$C233="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "b8960ddc-0f18-4d9f-99b1-3b714e649e09" , "functor" : "22" , "components": [ { "value": "Design", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="13" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B233" s="14">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D233" s="23" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F233" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C234="]}",$C234="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "2c4bb5ca-1197-4b3f-be11-933eb89657c4" , "functor" : "26" , "components": [ { "value": "Email", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C234="]}",$C234="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "908206b9-0db2-4d7d-b6a2-6832a8b1f1f0" , "functor" : "23" , "components": [ { "value": "Desktop Publishing", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="13" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B234" s="14">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D234" s="23" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F234" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C235="]}",$C235="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "bdf6edbf-08f6-41ac-a60b-7683c5116400" , "functor" : "27" , "components": [ { "value": "End User Support", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C235="]}",$C235="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "73c04b1d-8711-404b-b7d4-02d94bcc79f1" , "functor" : "24" , "components": [ { "value": "Diagnostics", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="13" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B235" s="14">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D235" s="23" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F235" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C236="]}",$C236="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "7943b084-f83a-43b7-8775-cfb384f7da20" , "functor" : "28" , "components": [ { "value": "Engineering", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C236="]}",$C236="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "40bec80f-1aeb-431f-a060-c531ec285d1e" , "functor" : "25" , "components": [ { "value": "Documentation", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="13" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B236" s="14">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C236" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D236" s="23" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F236" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C237="]}",$C237="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "6a6dde8e-55d8-4986-b1b1-8ffc4de76194" , "functor" : "29" , "components": [ { "value": "Excel", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C237="]}",$C237="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "2c4bb5ca-1197-4b3f-be11-933eb89657c4" , "functor" : "26" , "components": [ { "value": "Email", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="13" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B237" s="14">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D237" s="23" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F237" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C238="]}",$C238="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "694d0df8-2879-4500-a964-7f3ae79d912e" , "functor" : "30" , "components": [ { "value": "FileMaker Pro", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C238="]}",$C238="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "bdf6edbf-08f6-41ac-a60b-7683c5116400" , "functor" : "27" , "components": [ { "value": "End User Support", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="13" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B238" s="14">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D238" s="23" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F238" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C239="]}",$C239="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "2c737e85-ea19-4e4d-bd12-b4d3e320b0d5" , "functor" : "31" , "components": [ { "value": "Fortran", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C239="]}",$C239="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "7943b084-f83a-43b7-8775-cfb384f7da20" , "functor" : "28" , "components": [ { "value": "Engineering", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="13" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B239" s="14">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D239" s="23" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F239" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C240="]}",$C240="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "2fe89cd1-5a44-46bc-ad33-d90255cb5dc8" , "functor" : "32" , "components": [ { "value": "Graphic Design", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C240="]}",$C240="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "6a6dde8e-55d8-4986-b1b1-8ffc4de76194" , "functor" : "29" , "components": [ { "value": "Excel", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="13" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B240" s="14">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D240" s="23" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F240" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C241="]}",$C241="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "565b2696-b9da-4291-8626-227e0494e26b" , "functor" : "33" , "components": [ { "value": "Hardware", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C241="]}",$C241="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "694d0df8-2879-4500-a964-7f3ae79d912e" , "functor" : "30" , "components": [ { "value": "FileMaker Pro", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="13" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B241" s="14">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C241" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D241" s="23" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F241" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C242="]}",$C242="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "fe6db36b-f241-4b5d-9d04-5d17a3d7e5ec" , "functor" : "34" , "components": [ { "value": "Help Desk", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C242="]}",$C242="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "2c737e85-ea19-4e4d-bd12-b4d3e320b0d5" , "functor" : "31" , "components": [ { "value": "Fortran", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="13" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B242" s="14">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D242" s="23" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F242" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C243="]}",$C243="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "a3438181-d947-418b-af93-4a0dad89d726" , "functor" : "35" , "components": [ { "value": "HTML", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C243="]}",$C243="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "2fe89cd1-5a44-46bc-ad33-d90255cb5dc8" , "functor" : "32" , "components": [ { "value": "Graphic Design", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="13" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B243" s="14">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C243" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D243" s="23" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F243" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C244="]}",$C244="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "5b4199c9-de2e-4019-a4e8-66e70151860d" , "functor" : "36" , "components": [ { "value": "Implementation", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C244="]}",$C244="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "565b2696-b9da-4291-8626-227e0494e26b" , "functor" : "33" , "components": [ { "value": "Hardware", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="13" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B244" s="14">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C244" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D244" s="23" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F244" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C245="]}",$C245="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "45562367-7158-4852-8aa1-140064dcb7b4" , "functor" : "37" , "components": [ { "value": "Installation", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C245="]}",$C245="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "fe6db36b-f241-4b5d-9d04-5d17a3d7e5ec" , "functor" : "34" , "components": [ { "value": "Help Desk", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="13" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B245" s="14">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D245" s="23" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F245" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C246="]}",$C246="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "183bb5f5-faa9-44b8-880b-e9d2cc96310f" , "functor" : "38" , "components": [ { "value": "Internet", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C246="]}",$C246="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "a3438181-d947-418b-af93-4a0dad89d726" , "functor" : "35" , "components": [ { "value": "HTML", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="13" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B246" s="14">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D246" s="23" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F246" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C247="]}",$C247="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "30e7d272-3e83-4f15-a3c4-2ce42f7a0ccd" , "functor" : "39" , "components": [ { "value": "iOS", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C247="]}",$C247="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "5b4199c9-de2e-4019-a4e8-66e70151860d" , "functor" : "36" , "components": [ { "value": "Implementation", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="13" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B247" s="14">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C247" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D247" s="23" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F247" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C248="]}",$C248="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "2f491625-40a0-44bf-a594-abf85ed507bf" , "functor" : "40" , "components": [ { "value": "iPhone", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C248="]}",$C248="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "45562367-7158-4852-8aa1-140064dcb7b4" , "functor" : "37" , "components": [ { "value": "Installation", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="13" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B248" s="14">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D248" s="23" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F248" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C249="]}",$C249="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "55e4cf6b-36e7-446a-b2b3-d3f083d94c22" , "functor" : "41" , "components": [ { "value": "Java", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C249="]}",$C249="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "183bb5f5-faa9-44b8-880b-e9d2cc96310f" , "functor" : "38" , "components": [ { "value": "Internet", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="13" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B249" s="14">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D249" s="23" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F249" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C250="]}",$C250="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "e9ed81e1-787b-424f-a1ec-521c84d3a049" , "functor" : "42" , "components": [ { "value": "Javascript", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C250="]}",$C250="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "30e7d272-3e83-4f15-a3c4-2ce42f7a0ccd" , "functor" : "39" , "components": [ { "value": "iOS", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="13" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B250" s="14">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C250" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D250" s="23" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F250" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C251="]}",$C251="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "2b9fa0b4-b3e9-46a2-bc89-0681333b1de2" , "functor" : "43" , "components": [ { "value": "Linux", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C251="]}",$C251="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "2f491625-40a0-44bf-a594-abf85ed507bf" , "functor" : "40" , "components": [ { "value": "iPhone", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="13" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B251" s="14">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D251" s="23" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F251" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C252="]}",$C252="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "33affc26-4ece-4a16-82e7-3543e78e9675" , "functor" : "44" , "components": [ { "value": "Mac", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C252="]}",$C252="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "55e4cf6b-36e7-446a-b2b3-d3f083d94c22" , "functor" : "41" , "components": [ { "value": "Java", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="13" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B252" s="14">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D252" s="23" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F252" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C253="]}",$C253="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "a39dcacc-a71b-458d-82fc-3b038e854468" , "functor" : "45" , "components": [ { "value": "Matlab", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C253="]}",$C253="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "e9ed81e1-787b-424f-a1ec-521c84d3a049" , "functor" : "42" , "components": [ { "value": "Javascript", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="74" t="s">
-        <v>394</v>
+      <c r="A253" s="13" t="s">
+        <v>391</v>
       </c>
       <c r="B253" s="14">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D253" s="23" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F253" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C254="]}",$C254="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "0389e579-be7e-497a-9a03-33437d5de1a8" , "functor" : "46" , "components": [ { "value": "Maya", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C254="]}",$C254="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "2b9fa0b4-b3e9-46a2-bc89-0681333b1de2" , "functor" : "43" , "components": [ { "value": "Linux", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="13" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B254" s="14">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D254" s="23" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F254" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C255="]}",$C255="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "3f30b4f6-62be-4c2f-85fe-4712ce37198a" , "functor" : "47" , "components": [ { "value": "Microsoft Excel", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C255="]}",$C255="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "33affc26-4ece-4a16-82e7-3543e78e9675" , "functor" : "44" , "components": [ { "value": "Mac", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="13" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B255" s="14">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D255" s="23" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F255" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C256="]}",$C256="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "9d514783-a7de-4e9e-a1c7-ec5f2a49e45d" , "functor" : "48" , "components": [ { "value": "Microsoft Office", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C256="]}",$C256="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "a39dcacc-a71b-458d-82fc-3b038e854468" , "functor" : "45" , "components": [ { "value": "Matlab", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="13" t="s">
-        <v>397</v>
+      <c r="A256" s="74" t="s">
+        <v>394</v>
       </c>
       <c r="B256" s="14">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C256" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D256" s="23" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F256" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C257="]}",$C257="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "570f77cc-8ab3-4e2b-ba65-214198ed50ee" , "functor" : "49" , "components": [ { "value": "Microsoft Outlook", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C257="]}",$C257="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "0389e579-be7e-497a-9a03-33437d5de1a8" , "functor" : "46" , "components": [ { "value": "Maya", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="13" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B257" s="14">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D257" s="23" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F257" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C258="]}",$C258="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "578b672c-aacc-485a-8694-ed648572a92d" , "functor" : "50" , "components": [ { "value": "Microsoft Publisher", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C258="]}",$C258="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "3f30b4f6-62be-4c2f-85fe-4712ce37198a" , "functor" : "47" , "components": [ { "value": "Microsoft Excel", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="13" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B258" s="14">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C258" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D258" s="23" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F258" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C259="]}",$C259="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "d898c652-5bba-439b-adc5-7958d406d5f1" , "functor" : "51" , "components": [ { "value": "Microsoft Visual", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C259="]}",$C259="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "9d514783-a7de-4e9e-a1c7-ec5f2a49e45d" , "functor" : "48" , "components": [ { "value": "Microsoft Office", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="13" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B259" s="14">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C259" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D259" s="23" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F259" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C260="]}",$C260="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "0f8dd461-f29b-44ff-82d8-4298278c9dfb" , "functor" : "52" , "components": [ { "value": "Microsoft Word", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C260="]}",$C260="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "570f77cc-8ab3-4e2b-ba65-214198ed50ee" , "functor" : "49" , "components": [ { "value": "Microsoft Outlook", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B260" s="14">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D260" s="23" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F260" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C261="]}",$C261="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "fb161781-ed4f-4ace-9163-256c9c0152ea" , "functor" : "53" , "components": [ { "value": "Mobile", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C261="]}",$C261="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "578b672c-aacc-485a-8694-ed648572a92d" , "functor" : "50" , "components": [ { "value": "Microsoft Publisher", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="13" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B261" s="14">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D261" s="23" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F261" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C262="]}",$C262="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "79d5b3ac-5676-429f-b571-4f80f6e7b40c" , "functor" : "54" , "components": [ { "value": "MySQL", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C262="]}",$C262="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "d898c652-5bba-439b-adc5-7958d406d5f1" , "functor" : "51" , "components": [ { "value": "Microsoft Visual", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="13" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B262" s="14">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C262" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D262" s="23" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F262" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C263="]}",$C263="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "c5cf9a59-fba1-4c7c-a01f-341eeaae2a13" , "functor" : "55" , "components": [ { "value": "Networks", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C263="]}",$C263="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "0f8dd461-f29b-44ff-82d8-4298278c9dfb" , "functor" : "52" , "components": [ { "value": "Microsoft Word", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="13" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B263" s="14">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C263" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D263" s="23" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F263" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C264="]}",$C264="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "3d549721-450d-4a5b-b993-ee7f316a4721" , "functor" : "56" , "components": [ { "value": "Open Source Software", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C264="]}",$C264="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "fb161781-ed4f-4ace-9163-256c9c0152ea" , "functor" : "53" , "components": [ { "value": "Mobile", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="13" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B264" s="14">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D264" s="23" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F264" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C265="]}",$C265="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "27025d62-113b-4af5-a14d-f405ca68d5de" , "functor" : "57" , "components": [ { "value": "Oracle", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C265="]}",$C265="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "79d5b3ac-5676-429f-b571-4f80f6e7b40c" , "functor" : "54" , "components": [ { "value": "MySQL", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="13" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B265" s="14">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C265" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D265" s="23" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F265" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C266="]}",$C266="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "b76690d6-64e5-4bc5-9151-4321b8d854f9" , "functor" : "58" , "components": [ { "value": "Perl", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C266="]}",$C266="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "c5cf9a59-fba1-4c7c-a01f-341eeaae2a13" , "functor" : "55" , "components": [ { "value": "Networks", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="13" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B266" s="14">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C266" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D266" s="23" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F266" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C267="]}",$C267="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "f050957d-983c-41c8-98fa-44833dd29620" , "functor" : "59" , "components": [ { "value": "PHP", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C267="]}",$C267="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "3d549721-450d-4a5b-b993-ee7f316a4721" , "functor" : "56" , "components": [ { "value": "Open Source Software", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="13" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B267" s="14">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C267" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D267" s="23" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F267" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C268="]}",$C268="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "16f207b5-49ee-42ea-84d1-8b40e8ee6788" , "functor" : "60" , "components": [ { "value": "Presentations", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C268="]}",$C268="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "27025d62-113b-4af5-a14d-f405ca68d5de" , "functor" : "57" , "components": [ { "value": "Oracle", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="13" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B268" s="14">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C268" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D268" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F268" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C269="]}",$C269="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "a0c07e61-2d03-4d97-9ebe-e92e827c0e29" , "functor" : "61" , "components": [ { "value": "Processing", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C269="]}",$C269="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "b76690d6-64e5-4bc5-9151-4321b8d854f9" , "functor" : "58" , "components": [ { "value": "Perl", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="13" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B269" s="14">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C269" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D269" s="23" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F269" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C270="]}",$C270="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "23279b58-ad81-4186-affc-797889a50b9b" , "functor" : "62" , "components": [ { "value": "Programming", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C270="]}",$C270="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "f050957d-983c-41c8-98fa-44833dd29620" , "functor" : "59" , "components": [ { "value": "PHP", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="13" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B270" s="14">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C270" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D270" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F270" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C271="]}",$C271="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "293d0806-57d7-4519-9d60-aa8a8d344862" , "functor" : "63" , "components": [ { "value": "PT Modeler", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C271="]}",$C271="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "16f207b5-49ee-42ea-84d1-8b40e8ee6788" , "functor" : "60" , "components": [ { "value": "Presentations", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="13" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B271" s="14">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C271" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D271" s="23" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F271" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C272="]}",$C272="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "4944b871-87d8-4c86-8b99-77289c52be2c" , "functor" : "64" , "components": [ { "value": "Python", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C272="]}",$C272="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "a0c07e61-2d03-4d97-9ebe-e92e827c0e29" , "functor" : "61" , "components": [ { "value": "Processing", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="13" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B272" s="14">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C272" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D272" s="23" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F272" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C273="]}",$C273="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "8a0c0b38-e1b4-4bfc-83b2-1f641eafdf3e" , "functor" : "65" , "components": [ { "value": "QuickBooks", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C273="]}",$C273="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "23279b58-ad81-4186-affc-797889a50b9b" , "functor" : "62" , "components": [ { "value": "Programming", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="13" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B273" s="14">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C273" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D273" s="23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F273" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C274="]}",$C274="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "7c0a2c8e-3303-4de7-94dc-95ad1edab9da" , "functor" : "66" , "components": [ { "value": "Ruby", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C274="]}",$C274="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "293d0806-57d7-4519-9d60-aa8a8d344862" , "functor" : "63" , "components": [ { "value": "PT Modeler", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="13" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B274" s="14">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C274" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D274" s="23" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F274" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C275="]}",$C275="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "936db0f8-82c3-4788-827b-dba8fc3490e1" , "functor" : "67" , "components": [ { "value": "Shade", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C275="]}",$C275="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "4944b871-87d8-4c86-8b99-77289c52be2c" , "functor" : "64" , "components": [ { "value": "Python", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="13" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B275" s="14">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C275" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D275" s="23" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F275" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C276="]}",$C276="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "97c4a074-847b-4803-945d-5d12de2e33e3" , "functor" : "68" , "components": [ { "value": "Software", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C276="]}",$C276="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "8a0c0b38-e1b4-4bfc-83b2-1f641eafdf3e" , "functor" : "65" , "components": [ { "value": "QuickBooks", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="13" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B276" s="14">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C276" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D276" s="23" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F276" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C277="]}",$C277="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "759ad788-e526-4821-b365-b32767ba852a" , "functor" : "69" , "components": [ { "value": "Spreadsheet", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C277="]}",$C277="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "7c0a2c8e-3303-4de7-94dc-95ad1edab9da" , "functor" : "66" , "components": [ { "value": "Ruby", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="74" t="s">
-        <v>418</v>
+      <c r="A277" s="13" t="s">
+        <v>415</v>
       </c>
       <c r="B277" s="14">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C277" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D277" s="23" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F277" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C278="]}",$C278="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "34e598eb-b232-4ca6-92be-903da6e37d13" , "functor" : "70" , "components": [ { "value": "SQL", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C278="]}",$C278="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "936db0f8-82c3-4788-827b-dba8fc3490e1" , "functor" : "67" , "components": [ { "value": "Shade", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="13" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B278" s="14">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C278" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D278" s="23" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F278" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C279="]}",$C279="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "8ab87f04-b07a-407d-93ec-bb1def7ecd8c" , "functor" : "71" , "components": [ { "value": "Support", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C279="]}",$C279="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "97c4a074-847b-4803-945d-5d12de2e33e3" , "functor" : "68" , "components": [ { "value": "Software", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="13" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B279" s="14">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D279" s="23" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F279" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C280="]}",$C280="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "80032caf-b243-47c7-8d1b-b4bbc740afa0" , "functor" : "72" , "components": [ { "value": "Systems Administration", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C280="]}",$C280="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "759ad788-e526-4821-b365-b32767ba852a" , "functor" : "69" , "components": [ { "value": "Spreadsheet", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" s="13" t="s">
-        <v>421</v>
+      <c r="A280" s="74" t="s">
+        <v>418</v>
       </c>
       <c r="B280" s="14">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C280" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D280" s="23" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F280" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C281="]}",$C281="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "2040fea0-4c71-4834-a91a-23f1963a2808" , "functor" : "73" , "components": [ { "value": "Tech Support", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C281="]}",$C281="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "34e598eb-b232-4ca6-92be-903da6e37d13" , "functor" : "70" , "components": [ { "value": "SQL", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="13" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B281" s="14">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C281" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D281" s="23" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F281" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C282="]}",$C282="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "e7c24dfa-8ea7-483c-8a54-ee937086f242" , "functor" : "74" , "components": [ { "value": "Troubleshooting", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C282="]}",$C282="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "8ab87f04-b07a-407d-93ec-bb1def7ecd8c" , "functor" : "71" , "components": [ { "value": "Support", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="13" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B282" s="14">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C282" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D282" s="23" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F282" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C283="]}",$C283="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "64d7da3d-7b14-4557-9e6f-72922031d3ad" , "functor" : "75" , "components": [ { "value": "UI / UX", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C283="]}",$C283="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "80032caf-b243-47c7-8d1b-b4bbc740afa0" , "functor" : "72" , "components": [ { "value": "Systems Administration", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="13" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B283" s="14">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C283" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D283" s="23" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F283" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C284="]}",$C284="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "100c88b6-4538-4e5c-9eae-bab19e64e225" , "functor" : "76" , "components": [ { "value": "Unix", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C284="]}",$C284="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "2040fea0-4c71-4834-a91a-23f1963a2808" , "functor" : "73" , "components": [ { "value": "Tech Support", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="13" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B284" s="14">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D284" s="23" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F284" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C285="]}",$C285="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "03ac8624-0ada-4354-b1af-bec36f4db486" , "functor" : "77" , "components": [ { "value": "Web Page Design", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C285="]}",$C285="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "e7c24dfa-8ea7-483c-8a54-ee937086f242" , "functor" : "74" , "components": [ { "value": "Troubleshooting", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="13" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B285" s="14">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C285" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D285" s="23" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F285" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C286="]}",$C286="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "b9630bfe-c428-4f68-8850-d418cec23c4a" , "functor" : "78" , "components": [ { "value": "Windows", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C286="]}",$C286="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "64d7da3d-7b14-4557-9e6f-72922031d3ad" , "functor" : "75" , "components": [ { "value": "UI / UX", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="13" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B286" s="14">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C286" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D286" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F286" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C287="]}",$C287="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "41535868-f3a8-4ac9-8c05-0e919f722b0e" , "functor" : "79" , "components": [ { "value": "Word Processing", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C287="]}",$C287="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "100c88b6-4538-4e5c-9eae-bab19e64e225" , "functor" : "76" , "components": [ { "value": "Unix", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="13" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B287" s="14">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C287" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D287" s="23" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F287" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C288="]}",$C288="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "673b1f06-3d4c-4040-a9f0-6aa6abc73cdc" , "functor" : "80" , "components": [ { "value": "XHTML", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C288="]}",$C288="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "03ac8624-0ada-4354-b1af-bec36f4db486" , "functor" : "77" , "components": [ { "value": "Web Page Design", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="13" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B288" s="14">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C288" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D288" s="23" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F288" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C289="]}",$C289="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "a84a856d-f2a2-42ca-87dc-6fed616f99d6" , "functor" : "81" , "components": [ { "value": "XML", "type" : "string" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C289="]}",$C289="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "b9630bfe-c428-4f68-8850-d418cec23c4a" , "functor" : "78" , "components": [ { "value": "Windows", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="B289" s="18" t="s">
-        <v>2149</v>
+        <v>427</v>
+      </c>
+      <c r="B289" s="14">
+        <v>79</v>
       </c>
       <c r="C289" s="7" t="s">
-        <v>2094</v>
+        <v>263</v>
+      </c>
+      <c r="D289" s="23" t="s">
+        <v>342</v>
       </c>
       <c r="F289" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C290="]}",$C290="]},"),""," , ")))))</f>
-        <v xml:space="preserve">]}, </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C290="]}",$C290="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "41535868-f3a8-4ac9-8c05-0e919f722b0e" , "functor" : "79" , "components": [ { "value": "Word Processing", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="B290" s="66" t="s">
-        <v>2258</v>
+      <c r="A290" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="B290" s="14">
+        <v>80</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>2088</v>
+        <v>263</v>
+      </c>
+      <c r="D290" s="23" t="s">
+        <v>343</v>
       </c>
       <c r="F290" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C291="]}",$C291="]},"),""," , ")))))</f>
-        <v>{"id" : "4f6f4c0a-7142-4585-a814-9ba69b08dae4", "functor" : "projectCategories",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C291="]}",$C291="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "673b1f06-3d4c-4040-a9f0-6aa6abc73cdc" , "functor" : "80" , "components": [ { "value": "XHTML", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="13" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B291" s="14">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D291" s="23" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="F291" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C292="]}",$C292="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "18a204b8-d9fb-4b85-badc-6771ee2313dd" , "functor" : "1" , "components": [ { "value": "Software", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C292="]}",$C292="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "a84a856d-f2a2-42ca-87dc-6fed616f99d6" , "functor" : "81" , "components": [ { "value": "XML", "type" : "string" } ] } </v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="B292" s="14">
-        <v>2</v>
+        <v>430</v>
+      </c>
+      <c r="B292" s="18" t="s">
+        <v>2149</v>
       </c>
       <c r="C292" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D292" s="23" t="s">
-        <v>285</v>
+        <v>2094</v>
       </c>
       <c r="F292" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C293="]}",$C293="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "f5261965-e9d8-494f-884f-69c7799c6553" , "functor" : "2" , "components": [ { "value": "Design", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C293="]}",$C293="]},"),""," , ")))))</f>
+        <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A293" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="B293" s="14">
-        <v>3</v>
+      <c r="A293" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="B293" s="66" t="s">
+        <v>2258</v>
       </c>
       <c r="C293" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D293" s="23" t="s">
-        <v>2172</v>
+        <v>2088</v>
       </c>
       <c r="F293" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C294="]}",$C294="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "18a29610-2868-4ad9-a0a7-6de594f45dd2" , "functor" : "3" , "components": [ { "value": "Content Management", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C294="]}",$C294="]},"),""," , ")))))</f>
+        <v>{"id" : "4f6f4c0a-7142-4585-a814-9ba69b08dae4", "functor" : "projectCategories",  "components" : [</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="13" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B294" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C294" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D294" s="23" t="s">
-        <v>2173</v>
+        <v>331</v>
       </c>
       <c r="F294" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C295="]}",$C295="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "8208837f-8eb5-44e8-aa91-3e54973222fd" , "functor" : "4" , "components": [ { "value": "Microtask", "type" : "string" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C295="]}",$C295="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "18a204b8-d9fb-4b85-badc-6771ee2313dd" , "functor" : "1" , "components": [ { "value": "Software", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="B295" s="14">
+        <v>2</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D295" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="F295" s="23" t="str">
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C296="]}",$C296="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "f5261965-e9d8-494f-884f-69c7799c6553" , "functor" : "2" , "components": [ { "value": "Design", "type" : "string" } ] }  , </v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="B296" s="14">
+        <v>3</v>
+      </c>
+      <c r="C296" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D296" s="23" t="s">
+        <v>2172</v>
+      </c>
+      <c r="F296" s="23" t="str">
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C297="]}",$C297="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "18a29610-2868-4ad9-a0a7-6de594f45dd2" , "functor" : "3" , "components": [ { "value": "Content Management", "type" : "string" } ] }  , </v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="B297" s="14">
+        <v>4</v>
+      </c>
+      <c r="C297" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D297" s="23" t="s">
+        <v>2173</v>
+      </c>
+      <c r="F297" s="23" t="str">
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C298="]}",$C298="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "8208837f-8eb5-44e8-aa91-3e54973222fd" , "functor" : "4" , "components": [ { "value": "Microtask", "type" : "string" } ] } </v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="B295" s="18" t="s">
+      <c r="B298" s="18" t="s">
         <v>2149</v>
       </c>
-      <c r="C295" s="7" t="s">
+      <c r="C298" s="7" t="s">
         <v>2094</v>
       </c>
-      <c r="F295" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C296="]}",$C296="]},"),""," , ")))))</f>
+      <c r="F298" s="23" t="str">
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C299="]}",$C299="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" s="11" t="s">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="B296" s="75" t="s">
+      <c r="B299" s="75" t="s">
         <v>2214</v>
       </c>
-      <c r="C296" s="7" t="s">
+      <c r="C299" s="7" t="s">
         <v>2088</v>
       </c>
-      <c r="F296" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C297="]}",$C297="]},"),""," , ")))))</f>
+      <c r="F299" s="23" t="str">
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C300="]}",$C300="]},"),""," , ")))))</f>
         <v>{"id" : "70d14638-c57f-4e68-b213-364379465eb3", "functor" : "userLists",  "components" : [</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>653</v>
-      </c>
-      <c r="B297" s="14" t="s">
-        <v>2215</v>
-      </c>
-      <c r="C297" s="7" t="s">
-        <v>2088</v>
-      </c>
-      <c r="E297" t="s">
-        <v>2150</v>
-      </c>
-      <c r="F297" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C298="]}",$C298="]},"),""," , ")))))</f>
-        <v>{"id" : "04573123-6beb-4d49-a6e2-1acb44ef5027", "functor" : "favoriteAgents",  "components" : [</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>654</v>
-      </c>
-      <c r="B298" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="C298" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D298" s="23" t="s">
-        <v>2093</v>
-      </c>
-      <c r="F298" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C299="]}",$C299="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "66fac0e9-abf4-4b86-aaa0-1fddf65c3bde" , "functor" : "ID" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] } </v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>655</v>
-      </c>
-      <c r="B299" s="21" t="s">
-        <v>2149</v>
-      </c>
-      <c r="C299" s="7" t="s">
-        <v>2094</v>
-      </c>
-      <c r="F299" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C300="]}",$C300="]},"),""," , ")))))</f>
-        <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>656</v>
-      </c>
-      <c r="B300" s="21" t="s">
-        <v>2216</v>
+        <v>653</v>
+      </c>
+      <c r="B300" s="14" t="s">
+        <v>2215</v>
       </c>
       <c r="C300" s="7" t="s">
         <v>2088</v>
       </c>
+      <c r="E300" t="s">
+        <v>2150</v>
+      </c>
       <c r="F300" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C301="]}",$C301="]},"),""," , ")))))</f>
-        <v>{"id" : "4d7790b0-f040-4694-9749-ca309bb176e0", "functor" : "mutedAgents",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C301="]}",$C301="]},"),""," , ")))))</f>
+        <v>{"id" : "04573123-6beb-4d49-a6e2-1acb44ef5027", "functor" : "favoriteAgents",  "components" : [</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B301" s="15" t="s">
         <v>260</v>
@@ -26846,13 +26882,13 @@
         <v>2093</v>
       </c>
       <c r="F301" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C302="]}",$C302="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "9c6d34b7-7f2c-4e65-876a-80b6b86a833c" , "functor" : "ID" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C302="]}",$C302="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "66fac0e9-abf4-4b86-aaa0-1fddf65c3bde" , "functor" : "ID" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] } </v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B302" s="21" t="s">
         <v>2149</v>
@@ -26861,28 +26897,28 @@
         <v>2094</v>
       </c>
       <c r="F302" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C303="]}",$C303="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C303="]}",$C303="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B303" s="21" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="C303" s="7" t="s">
         <v>2088</v>
       </c>
       <c r="F303" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C304="]}",$C304="]},"),""," , ")))))</f>
-        <v>{"id" : "171ec2a7-f325-427a-9e95-9c9e793b65cc", "functor" : "favoriteProjects",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C304="]}",$C304="]},"),""," , ")))))</f>
+        <v>{"id" : "4d7790b0-f040-4694-9749-ca309bb176e0", "functor" : "mutedAgents",  "components" : [</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B304" s="15" t="s">
         <v>260</v>
@@ -26894,13 +26930,13 @@
         <v>2093</v>
       </c>
       <c r="F304" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C305="]}",$C305="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "6ba58b17-fd16-4162-9334-42d4bc14fcae" , "functor" : "ID" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C305="]}",$C305="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "9c6d34b7-7f2c-4e65-876a-80b6b86a833c" , "functor" : "ID" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] } </v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B305" s="21" t="s">
         <v>2149</v>
@@ -26909,28 +26945,28 @@
         <v>2094</v>
       </c>
       <c r="F305" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C306="]}",$C306="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C306="]}",$C306="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B306" s="21" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>2088</v>
       </c>
       <c r="F306" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C307="]}",$C307="]},"),""," , ")))))</f>
-        <v>{"id" : "e402c845-eb17-478a-8560-74ba0c3827ad", "functor" : "ignoredProjects",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C307="]}",$C307="]},"),""," , ")))))</f>
+        <v>{"id" : "171ec2a7-f325-427a-9e95-9c9e793b65cc", "functor" : "favoriteProjects",  "components" : [</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B307" s="15" t="s">
         <v>260</v>
@@ -26942,13 +26978,13 @@
         <v>2093</v>
       </c>
       <c r="F307" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C308="]}",$C308="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "51e87b6d-58e0-40fb-8155-41cf9664ce1b" , "functor" : "ID" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C308="]}",$C308="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "6ba58b17-fd16-4162-9334-42d4bc14fcae" , "functor" : "ID" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] } </v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B308" s="21" t="s">
         <v>2149</v>
@@ -26957,28 +26993,28 @@
         <v>2094</v>
       </c>
       <c r="F308" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C309="]}",$C309="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C309="]}",$C309="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B309" s="21" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>2088</v>
       </c>
       <c r="F309" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C310="]}",$C310="]},"),""," , ")))))</f>
-        <v>{"id" : "45222d4f-4760-4b21-a7ec-f4d5337b5224", "functor" : "favoriteConnections",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C310="]}",$C310="]},"),""," , ")))))</f>
+        <v>{"id" : "e402c845-eb17-478a-8560-74ba0c3827ad", "functor" : "ignoredProjects",  "components" : [</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B310" s="15" t="s">
         <v>260</v>
@@ -26990,13 +27026,13 @@
         <v>2093</v>
       </c>
       <c r="F310" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C311="]}",$C311="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "2a6d4329-3cfc-4aae-b494-c09edc020eab" , "functor" : "ID" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C311="]}",$C311="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "51e87b6d-58e0-40fb-8155-41cf9664ce1b" , "functor" : "ID" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] } </v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B311" s="21" t="s">
         <v>2149</v>
@@ -27005,304 +27041,352 @@
         <v>2094</v>
       </c>
       <c r="F311" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C312="]}",$C312="]},"),""," , ")))))</f>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C312="]}",$C312="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B312" s="21" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="C312" s="7" t="s">
         <v>2088</v>
       </c>
       <c r="F312" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C313="]}",$C313="]},"),""," , ")))))</f>
-        <v>{"id" : "f6a87938-f8a9-49c1-881e-2d35055b5547", "functor" : "connectionGroups",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C313="]}",$C313="]},"),""," , ")))))</f>
+        <v>{"id" : "45222d4f-4760-4b21-a7ec-f4d5337b5224", "functor" : "favoriteConnections",  "components" : [</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>669</v>
-      </c>
-      <c r="B313" s="20" t="s">
-        <v>2270</v>
+        <v>666</v>
+      </c>
+      <c r="B313" s="15" t="s">
+        <v>260</v>
       </c>
       <c r="C313" s="7" t="s">
-        <v>2088</v>
+        <v>263</v>
+      </c>
+      <c r="D313" s="23" t="s">
+        <v>2093</v>
       </c>
       <c r="F313" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C314="]}",$C314="]},"),""," , ")))))</f>
-        <v>{"id" : "2e7181ed-c933-4a9b-b495-1c81445c684d", "functor" : "connectionGroup",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C314="]}",$C314="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "2a6d4329-3cfc-4aae-b494-c09edc020eab" , "functor" : "ID" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] } </v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>670</v>
-      </c>
-      <c r="B314" s="19" t="s">
-        <v>2271</v>
+        <v>667</v>
+      </c>
+      <c r="B314" s="21" t="s">
+        <v>2149</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D314" s="23" t="s">
-        <v>2272</v>
+        <v>2094</v>
       </c>
       <c r="F314" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C315="]}",$C315="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "26a1feb2-a6cb-4fea-a581-a6cca4e8f72e" , "functor" : "GroupName" , "components": [ { "value": "Group1", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C315="]}",$C315="]},"),""," , ")))))</f>
+        <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>671</v>
-      </c>
-      <c r="B315" s="19" t="s">
-        <v>2213</v>
+        <v>668</v>
+      </c>
+      <c r="B315" s="21" t="s">
+        <v>2220</v>
       </c>
       <c r="C315" s="7" t="s">
         <v>2088</v>
       </c>
       <c r="F315" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C316="]}",$C316="]},"),""," , ")))))</f>
-        <v>{"id" : "98c76196-dab3-4cba-abc9-1d8b5e3596c7", "functor" : "connections",  "components" : [</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C316="]}",$C316="]},"),""," , ")))))</f>
+        <v>{"id" : "f6a87938-f8a9-49c1-881e-2d35055b5547", "functor" : "connectionGroups",  "components" : [</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>672</v>
-      </c>
-      <c r="B316" s="60" t="s">
-        <v>260</v>
+        <v>669</v>
+      </c>
+      <c r="B316" s="20" t="s">
+        <v>2270</v>
       </c>
       <c r="C316" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D316" s="23" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
       <c r="F316" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C317="]}",$C317="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "fdd7afe4-cefb-48a7-bf7e-4dbd35c57052" , "functor" : "ID" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C317="]}",$C317="]},"),""," , ")))))</f>
+        <v>{"id" : "2e7181ed-c933-4a9b-b495-1c81445c684d", "functor" : "connectionGroup",  "components" : [</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B317" s="19" t="s">
-        <v>2149</v>
+        <v>2271</v>
       </c>
       <c r="C317" s="7" t="s">
-        <v>2092</v>
+        <v>263</v>
+      </c>
+      <c r="D317" s="23" t="s">
+        <v>2272</v>
       </c>
       <c r="F317" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C318="]}",$C318="]},"),""," , ")))))</f>
-        <v>]}</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C318="]}",$C318="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "26a1feb2-a6cb-4fea-a581-a6cca4e8f72e" , "functor" : "GroupName" , "components": [ { "value": "Group1", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>674</v>
-      </c>
-      <c r="B318" s="20" t="s">
-        <v>2149</v>
+        <v>671</v>
+      </c>
+      <c r="B318" s="19" t="s">
+        <v>2213</v>
       </c>
       <c r="C318" s="7" t="s">
-        <v>2092</v>
+        <v>2088</v>
       </c>
       <c r="F318" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C319="]}",$C319="]},"),""," , ")))))</f>
-        <v>]}</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C319="]}",$C319="]},"),""," , ")))))</f>
+        <v>{"id" : "98c76196-dab3-4cba-abc9-1d8b5e3596c7", "functor" : "connections",  "components" : [</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
+        <v>672</v>
+      </c>
+      <c r="B319" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="C319" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D319" s="23" t="s">
+        <v>2093</v>
+      </c>
+      <c r="F319" s="23" t="str">
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C320="]}",$C320="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "fdd7afe4-cefb-48a7-bf7e-4dbd35c57052" , "functor" : "ID" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] } </v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>673</v>
+      </c>
+      <c r="B320" s="19" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C320" s="7" t="s">
+        <v>2092</v>
+      </c>
+      <c r="F320" s="23" t="str">
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C321="]}",$C321="]},"),""," , ")))))</f>
+        <v>]}</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>674</v>
+      </c>
+      <c r="B321" s="20" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C321" s="7" t="s">
+        <v>2092</v>
+      </c>
+      <c r="F321" s="23" t="str">
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C322="]}",$C322="]},"),""," , ")))))</f>
+        <v>]}</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
         <v>675</v>
       </c>
-      <c r="B319" s="21" t="s">
+      <c r="B322" s="21" t="s">
         <v>2149</v>
       </c>
-      <c r="C319" s="7" t="s">
+      <c r="C322" s="7" t="s">
         <v>2092</v>
       </c>
-      <c r="F319" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C320="]}",$C320="]},"),""," , ")))))</f>
+      <c r="F322" s="23" t="str">
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C323="]}",$C323="]},"),""," , ")))))</f>
         <v>]}</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A320" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="B320" s="18" t="s">
-        <v>2149</v>
-      </c>
-      <c r="C320" s="7" t="s">
-        <v>2094</v>
-      </c>
-      <c r="F320" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C321="]}",$C321="]},"),""," , ")))))</f>
-        <v xml:space="preserve">]}, </v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A321" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="B321" s="61" t="s">
-        <v>2221</v>
-      </c>
-      <c r="C321" s="7" t="s">
-        <v>2088</v>
-      </c>
-      <c r="E321" t="s">
-        <v>2189</v>
-      </c>
-      <c r="F321" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C322="]}",$C322="]},"),""," , ")))))</f>
-        <v>{"id" : "03bf1cae-8c5e-4ac4-9ed9-e00cd10fa5d4", "functor" : "userNetworkStatus",  "components" : [</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A322" s="74" t="s">
-        <v>442</v>
-      </c>
-      <c r="B322" s="21" t="s">
-        <v>2273</v>
-      </c>
-      <c r="C322" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D322" s="23" t="s">
-        <v>2190</v>
-      </c>
-      <c r="F322" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C323="]}",$C323="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "1e4579f9-18c5-4b21-bd64-cfc16e652cb9" , "functor" : "online" , "components": [ { "value": "Online", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="B323" s="21" t="s">
-        <v>2274</v>
+        <v>432</v>
+      </c>
+      <c r="B323" s="18" t="s">
+        <v>2149</v>
       </c>
       <c r="C323" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D323" s="23" t="s">
-        <v>2191</v>
+        <v>2094</v>
       </c>
       <c r="F323" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C324="]}",$C324="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "bb8b59c8-654a-4674-bc9e-1751a5a58e08" , "functor" : "offline" , "components": [ { "value": "Offline", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C324="]}",$C324="]},"),""," , ")))))</f>
+        <v xml:space="preserve">]}, </v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="B324" s="21" t="s">
-        <v>2275</v>
+        <v>441</v>
+      </c>
+      <c r="B324" s="61" t="s">
+        <v>2221</v>
       </c>
       <c r="C324" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D324" s="23" t="s">
-        <v>2192</v>
+        <v>2088</v>
+      </c>
+      <c r="E324" t="s">
+        <v>2189</v>
       </c>
       <c r="F324" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C325="]}",$C325="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "b4f9ba66-e331-4b2d-b4a4-464ab215d66d" , "functor" : "onVacation" , "components": [ { "value": "On vacation", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C325="]}",$C325="]},"),""," , ")))))</f>
+        <v>{"id" : "03bf1cae-8c5e-4ac4-9ed9-e00cd10fa5d4", "functor" : "userNetworkStatus",  "components" : [</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A325" s="13" t="s">
-        <v>445</v>
+      <c r="A325" s="74" t="s">
+        <v>442</v>
       </c>
       <c r="B325" s="21" t="s">
-        <v>2276</v>
+        <v>2273</v>
       </c>
       <c r="C325" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D325" s="23" t="s">
-        <v>2193</v>
+        <v>2190</v>
       </c>
       <c r="F325" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C326="]}",$C326="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "e6b52e2d-8f29-4828-8bf9-7300863cd249" , "functor" : "beRightBack" , "components": [ { "value": "Be right back", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C326="]}",$C326="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "1e4579f9-18c5-4b21-bd64-cfc16e652cb9" , "functor" : "online" , "components": [ { "value": "Online", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="13" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B326" s="21" t="s">
-        <v>2277</v>
+        <v>2274</v>
       </c>
       <c r="C326" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D326" s="23" t="s">
-        <v>2194</v>
+        <v>2191</v>
       </c>
       <c r="F326" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C327="]}",$C327="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "5ec526f0-618d-4659-ac4f-6917fc2bfad0" , "functor" : "away" , "components": [ { "value": "Away", "type" : "string" } ] }  , </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C327="]}",$C327="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "bb8b59c8-654a-4674-bc9e-1751a5a58e08" , "functor" : "offline" , "components": [ { "value": "Offline", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="13" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B327" s="21" t="s">
-        <v>2278</v>
+        <v>2275</v>
       </c>
       <c r="C327" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D327" s="23" t="s">
-        <v>2195</v>
+        <v>2192</v>
       </c>
       <c r="F327" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C328="]}",$C328="]},"),""," , ")))))</f>
-        <v xml:space="preserve">{"id" : "fcd3453f-49a1-4bc8-b13d-af38cc36cea1" , "functor" : "custom" , "components": [ { "value": "Custom", "type" : "string" } ] } </v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C328="]}",$C328="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "b4f9ba66-e331-4b2d-b4a4-464ab215d66d" , "functor" : "onVacation" , "components": [ { "value": "On vacation", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="13" t="s">
-        <v>448</v>
-      </c>
-      <c r="B328" s="18" t="s">
-        <v>2149</v>
+        <v>445</v>
+      </c>
+      <c r="B328" s="21" t="s">
+        <v>2276</v>
       </c>
       <c r="C328" s="7" t="s">
-        <v>2092</v>
+        <v>263</v>
+      </c>
+      <c r="D328" s="23" t="s">
+        <v>2193</v>
       </c>
       <c r="F328" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C329="]}",$C329="]},"),""," , ")))))</f>
-        <v>]}</v>
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C329="]}",$C329="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "e6b52e2d-8f29-4828-8bf9-7300863cd249" , "functor" : "beRightBack" , "components": [ { "value": "Be right back", "type" : "string" } ] }  , </v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="B329" s="21" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C329" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D329" s="23" t="s">
+        <v>2194</v>
+      </c>
+      <c r="F329" s="23" t="str">
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C330="]}",$C330="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "5ec526f0-618d-4659-ac4f-6917fc2bfad0" , "functor" : "away" , "components": [ { "value": "Away", "type" : "string" } ] }  , </v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="B330" s="21" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C330" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D330" s="23" t="s">
+        <v>2195</v>
+      </c>
+      <c r="F330" s="23" t="str">
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C331="]}",$C331="]},"),""," , ")))))</f>
+        <v xml:space="preserve">{"id" : "fcd3453f-49a1-4bc8-b13d-af38cc36cea1" , "functor" : "custom" , "components": [ { "value": "Custom", "type" : "string" } ] } </v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A331" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="B331" s="18" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C331" s="7" t="s">
+        <v>2092</v>
+      </c>
+      <c r="F331" s="23" t="str">
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C332="]}",$C332="]},"),""," , ")))))</f>
+        <v>]}</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A332" s="13" t="s">
         <v>449</v>
       </c>
-      <c r="B329" s="22" t="s">
+      <c r="B332" s="22" t="s">
         <v>2149</v>
       </c>
-      <c r="C329" s="7" t="s">
+      <c r="C332" s="7" t="s">
         <v>2092</v>
       </c>
-      <c r="F329" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C330="]}",$C330="]},"),""," , ")))))</f>
+      <c r="F332" s="23" t="str">
+        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C333="]}",$C333="]},"),""," , ")))))</f>
         <v>]}</v>
       </c>
     </row>
@@ -27317,10 +27401,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1372"/>
+  <dimension ref="A1:A1369"/>
   <sheetViews>
     <sheetView topLeftCell="A1354" workbookViewId="0">
-      <selection activeCell="A1388" sqref="A1373:A1388"/>
+      <selection activeCell="A1372" sqref="A1370:A1372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34173,21 +34257,6 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="1370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1370" t="s">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="1371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1371" t="s">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="1372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1372" t="s">
-        <v>2047</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34195,10 +34264,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34242,6 +34311,11 @@
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2323</v>
       </c>
     </row>
   </sheetData>

--- a/jvm/src/main/resources/sample-data-demo.xlsx
+++ b/jvm/src/main/resources/sample-data-demo.xlsx
@@ -7177,9 +7177,6 @@
     <t>skillsId</t>
   </si>
   <si>
-    <t xml:space="preserve"> true</t>
-  </si>
-  <si>
     <t>referralId</t>
   </si>
   <si>
@@ -7214,6 +7211,9 @@
   </si>
   <si>
     <t>&lt;above&gt;</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
 </sst>
 </file>
@@ -7619,6 +7619,14 @@
   <dxfs count="61">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -7642,14 +7650,6 @@
       <font>
         <b val="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -9007,8 +9007,8 @@
     <tableColumn id="15" name="referralId" dataDxfId="7"/>
     <tableColumn id="16" name="contractType" dataDxfId="6"/>
     <tableColumn id="17" name="budget" dataDxfId="5"/>
-    <tableColumn id="18" name="json" dataDxfId="4">
-      <calculatedColumnFormula>"{"""&amp;Table5[[#Headers],[id]]&amp;""": """&amp;Table5[[#This Row],[id]]&amp;""", """&amp;Table5[[#Headers],[type]]&amp;""": "" "&amp;Table5[[#This Row],[type]]&amp;""", """&amp;Table5[[#Headers],[summary]]&amp;""": """&amp;Table5[[#This Row],[summary]]&amp;""", """&amp;Table5[[#Headers],[description]]&amp;""": """&amp;Table5[[#This Row],[description]]&amp;""", """&amp;Table5[[#Headers],[postedDate]]&amp;""": """&amp;Table5[[#This Row],[postedDate]]&amp;""", """&amp;Table5[[#Headers],[broadcastDate]]&amp;""": """&amp;Table5[[#This Row],[broadcastDate]]&amp;""", """&amp;Table5[[#Headers],[startDate]]&amp;""": """&amp;Table5[[#This Row],[startDate]]&amp;""", """&amp;Table5[[#Headers],[endDate]]&amp;""": """&amp;Table5[[#This Row],[endDate]]&amp;""", """&amp;Table5[[#Headers],[currency]]&amp;""": """&amp;Table5[[#This Row],[currency]]&amp;""", """&amp;Table5[[#Headers],[location]]&amp;""": """&amp;Table5[[#This Row],[location]]&amp;""", """&amp;Table5[[#Headers],[isPayoutInPieces]]&amp;""": """&amp;Table5[[#This Row],[isPayoutInPieces]]&amp;""", """&amp;Table5[[#Headers],[skillsId]]&amp;""": """&amp;Table5[[#This Row],[skillsId]]&amp;""", """&amp;Table5[[#Headers],[posterId]]&amp;""": """&amp;Table5[[#This Row],[posterId]]&amp;""", """&amp;Table5[[#Headers],[canForward]]&amp;""": """&amp;Table5[[#This Row],[canForward]]&amp;""", """&amp;Table5[[#Headers],[referralId]]&amp;""": """&amp;Table5[[#This Row],[referralId]]&amp;""", """&amp;Table5[[#Headers],[contractType]]&amp;""": """&amp;Table5[[#This Row],[contractType]]&amp;""", """&amp;Table5[[#Headers],[budget]]&amp;""": """&amp;Table5[[#This Row],[budget]]&amp;"""},"</calculatedColumnFormula>
+    <tableColumn id="18" name="json" dataDxfId="0">
+      <calculatedColumnFormula>"{"""&amp;Table5[[#Headers],[id]]&amp;""": """&amp;Table5[[#This Row],[id]]&amp;""", """&amp;Table5[[#Headers],[type]]&amp;""": """&amp;Table5[[#This Row],[type]]&amp;""", """&amp;Table5[[#Headers],[summary]]&amp;""": """&amp;Table5[[#This Row],[summary]]&amp;""", """&amp;Table5[[#Headers],[description]]&amp;""": """&amp;Table5[[#This Row],[description]]&amp;""", """&amp;Table5[[#Headers],[postedDate]]&amp;""": """&amp;Table5[[#This Row],[postedDate]]&amp;""", """&amp;Table5[[#Headers],[broadcastDate]]&amp;""": """&amp;Table5[[#This Row],[broadcastDate]]&amp;""", """&amp;Table5[[#Headers],[startDate]]&amp;""": """&amp;Table5[[#This Row],[startDate]]&amp;""", """&amp;Table5[[#Headers],[endDate]]&amp;""": """&amp;Table5[[#This Row],[endDate]]&amp;""", """&amp;Table5[[#Headers],[currency]]&amp;""": """&amp;Table5[[#This Row],[currency]]&amp;""", """&amp;Table5[[#Headers],[location]]&amp;""": """&amp;Table5[[#This Row],[location]]&amp;""", """&amp;Table5[[#Headers],[isPayoutInPieces]]&amp;""": """&amp;Table5[[#This Row],[isPayoutInPieces]]&amp;""", """&amp;Table5[[#Headers],[skillsId]]&amp;""": """&amp;Table5[[#This Row],[skillsId]]&amp;""", """&amp;Table5[[#Headers],[posterId]]&amp;""": """&amp;Table5[[#This Row],[posterId]]&amp;""", """&amp;Table5[[#Headers],[canForward]]&amp;""": """&amp;Table5[[#This Row],[canForward]]&amp;""", """&amp;Table5[[#Headers],[referralId]]&amp;""": """&amp;Table5[[#This Row],[referralId]]&amp;""", """&amp;Table5[[#Headers],[contractType]]&amp;""": """&amp;Table5[[#This Row],[contractType]]&amp;""", """&amp;Table5[[#Headers],[budget]]&amp;""": """&amp;Table5[[#This Row],[budget]]&amp;"""},"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -9019,12 +9019,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:F357" totalsRowShown="0">
   <autoFilter ref="A1:F357"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="3"/>
+    <tableColumn id="1" name="ID" dataDxfId="4"/>
     <tableColumn id="3" name="L1"/>
-    <tableColumn id="4" name="Type" dataDxfId="2"/>
-    <tableColumn id="5" name="Value" dataDxfId="1"/>
+    <tableColumn id="4" name="Type" dataDxfId="3"/>
+    <tableColumn id="5" name="Value" dataDxfId="2"/>
     <tableColumn id="6" name="Comment"/>
-    <tableColumn id="2" name="Data" dataDxfId="0">
+    <tableColumn id="2" name="Data" dataDxfId="1">
       <calculatedColumnFormula>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C3="]}",$C3="]},"),""," , ")))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -22458,8 +22458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22528,16 +22528,16 @@
         <v>2235</v>
       </c>
       <c r="O1" t="s">
+        <v>2363</v>
+      </c>
+      <c r="P1" t="s">
         <v>2364</v>
-      </c>
-      <c r="P1" t="s">
-        <v>2365</v>
       </c>
       <c r="Q1" t="s">
         <v>2069</v>
       </c>
       <c r="R1" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -22548,10 +22548,10 @@
         <v>2354</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="E2" s="96" t="s">
         <v>2272</v>
@@ -22569,22 +22569,22 @@
         <v>2070</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="K2" s="67" t="s">
         <v>2310</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="M2" s="67" t="s">
         <v>2271</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>2363</v>
+      <c r="N2" s="67" t="s">
+        <v>2375</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="P2" s="67" t="s">
         <v>2000</v>
@@ -22593,8 +22593,8 @@
         <v>2350.3000000000002</v>
       </c>
       <c r="R2" s="5" t="str">
-        <f>"{"""&amp;Table5[[#Headers],[id]]&amp;""": """&amp;Table5[[#This Row],[id]]&amp;""", """&amp;Table5[[#Headers],[type]]&amp;""": "" "&amp;Table5[[#This Row],[type]]&amp;""", """&amp;Table5[[#Headers],[summary]]&amp;""": """&amp;Table5[[#This Row],[summary]]&amp;""", """&amp;Table5[[#Headers],[description]]&amp;""": """&amp;Table5[[#This Row],[description]]&amp;""", """&amp;Table5[[#Headers],[postedDate]]&amp;""": """&amp;Table5[[#This Row],[postedDate]]&amp;""", """&amp;Table5[[#Headers],[broadcastDate]]&amp;""": """&amp;Table5[[#This Row],[broadcastDate]]&amp;""", """&amp;Table5[[#Headers],[startDate]]&amp;""": """&amp;Table5[[#This Row],[startDate]]&amp;""", """&amp;Table5[[#Headers],[endDate]]&amp;""": """&amp;Table5[[#This Row],[endDate]]&amp;""", """&amp;Table5[[#Headers],[currency]]&amp;""": """&amp;Table5[[#This Row],[currency]]&amp;""", """&amp;Table5[[#Headers],[location]]&amp;""": """&amp;Table5[[#This Row],[location]]&amp;""", """&amp;Table5[[#Headers],[isPayoutInPieces]]&amp;""": """&amp;Table5[[#This Row],[isPayoutInPieces]]&amp;""", """&amp;Table5[[#Headers],[skillsId]]&amp;""": """&amp;Table5[[#This Row],[skillsId]]&amp;""", """&amp;Table5[[#Headers],[posterId]]&amp;""": """&amp;Table5[[#This Row],[posterId]]&amp;""", """&amp;Table5[[#Headers],[canForward]]&amp;""": """&amp;Table5[[#This Row],[canForward]]&amp;""", """&amp;Table5[[#Headers],[referralId]]&amp;""": """&amp;Table5[[#This Row],[referralId]]&amp;""", """&amp;Table5[[#Headers],[contractType]]&amp;""": """&amp;Table5[[#This Row],[contractType]]&amp;""", """&amp;Table5[[#Headers],[budget]]&amp;""": """&amp;Table5[[#This Row],[budget]]&amp;"""},"</f>
-        <v>{"id": "d2b255ca-dde8-4919-9e5d-a0a62d5d7c12", "type": " PROJECT", "summary": "This is new project", "description": "Need scala developer to implement a centralized repository for a big financial institution. ", "postedDate": "2002-05-30T09:30:10Z", "broadcastDate": "2002-05-30T09:30:10Z", "startDate": "2002-05-30T09:30:10Z", "endDate": "2002-05-30T09:30:10Z", "currency": "USD", "location": "United States", "isPayoutInPieces": "false", "skillsId": "[\"4416192b-9dec-49b0-9d13-fb0815af6c3f\", \"3c91c578-2d39-42d4-adb0-9071d9eb116a\", \"b48bfe5a-15fa-4d8e-b253-752b51c2b94b\"]", "posterId": "eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee", "canForward": " true", "referralId": "[\"40c96981-ca91-4083-9dfc-76826df0f432\",\"c6a3c02e-5724-4a35-adc7-ddc37d3c721b\"]", "contractType": "23940120-4943-4462-9c46-2b23ef94108c", "budget": "2350.3"},</v>
+        <f>"{"""&amp;Table5[[#Headers],[id]]&amp;""": """&amp;Table5[[#This Row],[id]]&amp;""", """&amp;Table5[[#Headers],[type]]&amp;""": """&amp;Table5[[#This Row],[type]]&amp;""", """&amp;Table5[[#Headers],[summary]]&amp;""": """&amp;Table5[[#This Row],[summary]]&amp;""", """&amp;Table5[[#Headers],[description]]&amp;""": """&amp;Table5[[#This Row],[description]]&amp;""", """&amp;Table5[[#Headers],[postedDate]]&amp;""": """&amp;Table5[[#This Row],[postedDate]]&amp;""", """&amp;Table5[[#Headers],[broadcastDate]]&amp;""": """&amp;Table5[[#This Row],[broadcastDate]]&amp;""", """&amp;Table5[[#Headers],[startDate]]&amp;""": """&amp;Table5[[#This Row],[startDate]]&amp;""", """&amp;Table5[[#Headers],[endDate]]&amp;""": """&amp;Table5[[#This Row],[endDate]]&amp;""", """&amp;Table5[[#Headers],[currency]]&amp;""": """&amp;Table5[[#This Row],[currency]]&amp;""", """&amp;Table5[[#Headers],[location]]&amp;""": """&amp;Table5[[#This Row],[location]]&amp;""", """&amp;Table5[[#Headers],[isPayoutInPieces]]&amp;""": """&amp;Table5[[#This Row],[isPayoutInPieces]]&amp;""", """&amp;Table5[[#Headers],[skillsId]]&amp;""": """&amp;Table5[[#This Row],[skillsId]]&amp;""", """&amp;Table5[[#Headers],[posterId]]&amp;""": """&amp;Table5[[#This Row],[posterId]]&amp;""", """&amp;Table5[[#Headers],[canForward]]&amp;""": """&amp;Table5[[#This Row],[canForward]]&amp;""", """&amp;Table5[[#Headers],[referralId]]&amp;""": """&amp;Table5[[#This Row],[referralId]]&amp;""", """&amp;Table5[[#Headers],[contractType]]&amp;""": """&amp;Table5[[#This Row],[contractType]]&amp;""", """&amp;Table5[[#Headers],[budget]]&amp;""": """&amp;Table5[[#This Row],[budget]]&amp;"""},"</f>
+        <v>{"id": "d2b255ca-dde8-4919-9e5d-a0a62d5d7c12", "type": "PROJECT", "summary": "This is new project", "description": "Need scala developer to implement a centralized repository for a big financial institution. ", "postedDate": "2002-05-30T09:30:10Z", "broadcastDate": "2002-05-30T09:30:10Z", "startDate": "2002-05-30T09:30:10Z", "endDate": "2002-05-30T09:30:10Z", "currency": "USD", "location": "United States", "isPayoutInPieces": "false", "skillsId": "[\"4416192b-9dec-49b0-9d13-fb0815af6c3f\", \"3c91c578-2d39-42d4-adb0-9071d9eb116a\", \"b48bfe5a-15fa-4d8e-b253-752b51c2b94b\"]", "posterId": "eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee", "canForward": "true", "referralId": "[\"40c96981-ca91-4083-9dfc-76826df0f432\",\"c6a3c02e-5724-4a35-adc7-ddc37d3c721b\"]", "contractType": "23940120-4943-4462-9c46-2b23ef94108c", "budget": "2350.3"},</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -22605,10 +22605,10 @@
         <v>2354</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>2368</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>2369</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>2370</v>
       </c>
       <c r="E3" s="96" t="s">
         <v>2272</v>
@@ -22626,22 +22626,22 @@
         <v>2070</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="K3" s="67" t="s">
         <v>2310</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="M3" s="67" t="s">
         <v>2271</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>2363</v>
+      <c r="N3" s="67" t="s">
+        <v>2375</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="P3" s="67" t="s">
         <v>2000</v>
@@ -22650,18 +22650,18 @@
         <v>2350.3000000000002</v>
       </c>
       <c r="R3" s="5" t="str">
-        <f>"{"""&amp;Table5[[#Headers],[id]]&amp;""": """&amp;Table5[[#This Row],[id]]&amp;""", """&amp;Table5[[#Headers],[type]]&amp;""": "" "&amp;Table5[[#This Row],[type]]&amp;""", """&amp;Table5[[#Headers],[summary]]&amp;""": """&amp;Table5[[#This Row],[summary]]&amp;""", """&amp;Table5[[#Headers],[description]]&amp;""": """&amp;Table5[[#This Row],[description]]&amp;""", """&amp;Table5[[#Headers],[postedDate]]&amp;""": """&amp;Table5[[#This Row],[postedDate]]&amp;""", """&amp;Table5[[#Headers],[broadcastDate]]&amp;""": """&amp;Table5[[#This Row],[broadcastDate]]&amp;""", """&amp;Table5[[#Headers],[startDate]]&amp;""": """&amp;Table5[[#This Row],[startDate]]&amp;""", """&amp;Table5[[#Headers],[endDate]]&amp;""": """&amp;Table5[[#This Row],[endDate]]&amp;""", """&amp;Table5[[#Headers],[currency]]&amp;""": """&amp;Table5[[#This Row],[currency]]&amp;""", """&amp;Table5[[#Headers],[location]]&amp;""": """&amp;Table5[[#This Row],[location]]&amp;""", """&amp;Table5[[#Headers],[isPayoutInPieces]]&amp;""": """&amp;Table5[[#This Row],[isPayoutInPieces]]&amp;""", """&amp;Table5[[#Headers],[skillsId]]&amp;""": """&amp;Table5[[#This Row],[skillsId]]&amp;""", """&amp;Table5[[#Headers],[posterId]]&amp;""": """&amp;Table5[[#This Row],[posterId]]&amp;""", """&amp;Table5[[#Headers],[canForward]]&amp;""": """&amp;Table5[[#This Row],[canForward]]&amp;""", """&amp;Table5[[#Headers],[referralId]]&amp;""": """&amp;Table5[[#This Row],[referralId]]&amp;""", """&amp;Table5[[#Headers],[contractType]]&amp;""": """&amp;Table5[[#This Row],[contractType]]&amp;""", """&amp;Table5[[#Headers],[budget]]&amp;""": """&amp;Table5[[#This Row],[budget]]&amp;"""},"</f>
-        <v>{"id": "e231791e-2719-4503-ad8f-8dd55a53901e", "type": " PROJECT", "summary": "This is an even newer project", "description": "Need scala developer to implement a small program to replace the Federal Reserve. ", "postedDate": "2002-05-30T09:30:10Z", "broadcastDate": "2002-05-30T09:30:10Z", "startDate": "2002-05-30T09:30:10Z", "endDate": "2002-05-30T09:30:10Z", "currency": "USD", "location": "United States", "isPayoutInPieces": "false", "skillsId": "[\"4416192b-9dec-49b0-9d13-fb0815af6c3f\", \"3c91c578-2d39-42d4-adb0-9071d9eb116a\", \"b48bfe5a-15fa-4d8e-b253-752b51c2b94b\"]", "posterId": "eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee", "canForward": " true", "referralId": "[\"40c96981-ca91-4083-9dfc-76826df0f432\",\"c6a3c02e-5724-4a35-adc7-ddc37d3c721b\"]", "contractType": "23940120-4943-4462-9c46-2b23ef94108c", "budget": "2350.3"},</v>
+        <f>"{"""&amp;Table5[[#Headers],[id]]&amp;""": """&amp;Table5[[#This Row],[id]]&amp;""", """&amp;Table5[[#Headers],[type]]&amp;""": """&amp;Table5[[#This Row],[type]]&amp;""", """&amp;Table5[[#Headers],[summary]]&amp;""": """&amp;Table5[[#This Row],[summary]]&amp;""", """&amp;Table5[[#Headers],[description]]&amp;""": """&amp;Table5[[#This Row],[description]]&amp;""", """&amp;Table5[[#Headers],[postedDate]]&amp;""": """&amp;Table5[[#This Row],[postedDate]]&amp;""", """&amp;Table5[[#Headers],[broadcastDate]]&amp;""": """&amp;Table5[[#This Row],[broadcastDate]]&amp;""", """&amp;Table5[[#Headers],[startDate]]&amp;""": """&amp;Table5[[#This Row],[startDate]]&amp;""", """&amp;Table5[[#Headers],[endDate]]&amp;""": """&amp;Table5[[#This Row],[endDate]]&amp;""", """&amp;Table5[[#Headers],[currency]]&amp;""": """&amp;Table5[[#This Row],[currency]]&amp;""", """&amp;Table5[[#Headers],[location]]&amp;""": """&amp;Table5[[#This Row],[location]]&amp;""", """&amp;Table5[[#Headers],[isPayoutInPieces]]&amp;""": """&amp;Table5[[#This Row],[isPayoutInPieces]]&amp;""", """&amp;Table5[[#Headers],[skillsId]]&amp;""": """&amp;Table5[[#This Row],[skillsId]]&amp;""", """&amp;Table5[[#Headers],[posterId]]&amp;""": """&amp;Table5[[#This Row],[posterId]]&amp;""", """&amp;Table5[[#Headers],[canForward]]&amp;""": """&amp;Table5[[#This Row],[canForward]]&amp;""", """&amp;Table5[[#Headers],[referralId]]&amp;""": """&amp;Table5[[#This Row],[referralId]]&amp;""", """&amp;Table5[[#Headers],[contractType]]&amp;""": """&amp;Table5[[#This Row],[contractType]]&amp;""", """&amp;Table5[[#Headers],[budget]]&amp;""": """&amp;Table5[[#This Row],[budget]]&amp;"""},"</f>
+        <v>{"id": "e231791e-2719-4503-ad8f-8dd55a53901e", "type": "PROJECT", "summary": "This is an even newer project", "description": "Need scala developer to implement a small program to replace the Federal Reserve. ", "postedDate": "2002-05-30T09:30:10Z", "broadcastDate": "2002-05-30T09:30:10Z", "startDate": "2002-05-30T09:30:10Z", "endDate": "2002-05-30T09:30:10Z", "currency": "USD", "location": "United States", "isPayoutInPieces": "false", "skillsId": "[\"4416192b-9dec-49b0-9d13-fb0815af6c3f\", \"3c91c578-2d39-42d4-adb0-9071d9eb116a\", \"b48bfe5a-15fa-4d8e-b253-752b51c2b94b\"]", "posterId": "eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee", "canForward": "true", "referralId": "[\"40c96981-ca91-4083-9dfc-76826df0f432\",\"c6a3c02e-5724-4a35-adc7-ddc37d3c721b\"]", "contractType": "23940120-4943-4462-9c46-2b23ef94108c", "budget": "2350.3"},</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">

--- a/jvm/src/main/resources/sample-data-demo.xlsx
+++ b/jvm/src/main/resources/sample-data-demo.xlsx
@@ -25,7 +25,7 @@
     <sheet name="to do" sheetId="8" r:id="rId11"/>
     <sheet name="export template" sheetId="4" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3990" uniqueCount="2448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3990" uniqueCount="2449">
   <si>
     <t>firstName</t>
   </si>
@@ -7152,9 +7152,6 @@
     <t>updated</t>
   </si>
   <si>
-    <t>PROJECT</t>
-  </si>
-  <si>
     <t>summary</t>
   </si>
   <si>
@@ -7423,16 +7420,22 @@
     <t>Then paste that into the mock file in the pageOfPosts property (in proper syntax).</t>
   </si>
   <si>
-    <t>Need real, real good javascript developer to implement a centralized repository for a big financial institution.</t>
-  </si>
-  <si>
-    <t>Need a scala developer to implement a decentralized repository for a trillion dollar financial use case.</t>
-  </si>
-  <si>
-    <t>This is good project</t>
-  </si>
-  <si>
-    <t>This is an even better project</t>
+    <t>Front-end web page for Blockchain network currently set up on cloud server</t>
+  </si>
+  <si>
+    <t>Developers for a Framework for developing p2p Front-Ends for Blockchain APPs</t>
+  </si>
+  <si>
+    <t>Project-Hourly</t>
+  </si>
+  <si>
+    <t>Part-Time</t>
+  </si>
+  <si>
+    <t>Develop a front-end web interface for a game to be played by employees of the organisation. All back-end data processing is done in a simplified version of Blockchain environment that is currently set up and fully operational on Microsoft Azure cloud server.  Project description: In order to play the game a user must have a fitness sportsband and have it registered under the organisation’s corporate group. ...</t>
+  </si>
+  <si>
+    <t>We invite you to join Fermat, a community building an OS extension able to run p2p mobile APPs  like Uber without Uber Inc., or  Airbnb without Airbnb Inc , or Linkedin, or Tinder, etc,  you name it, all of them without the middle-men.  Each component of the system is owned by whoever writes their code. Later, devs receive a stream of micro-payments from end-users around the globe using APPs built with their components.  Join us and learn bitcoin and blockchain technology and be part of one of the fastest growing open source projects.: https://github.com/Fermat-ORG/fermat ...</t>
   </si>
 </sst>
 </file>
@@ -10134,6 +10137,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -10169,6 +10189,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -30246,7 +30283,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30279,16 +30316,16 @@
         <v>2341</v>
       </c>
       <c r="C1" t="s">
+        <v>2354</v>
+      </c>
+      <c r="D1" t="s">
         <v>2355</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2356</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2357</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2358</v>
       </c>
       <c r="G1" t="s">
         <v>2212</v>
@@ -30297,13 +30334,13 @@
         <v>2320</v>
       </c>
       <c r="I1" t="s">
+        <v>2358</v>
+      </c>
+      <c r="J1" t="s">
         <v>2359</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>2360</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2361</v>
       </c>
       <c r="L1" t="s">
         <v>347</v>
@@ -30315,16 +30352,16 @@
         <v>2235</v>
       </c>
       <c r="O1" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="P1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="Q1" t="s">
         <v>2069</v>
       </c>
       <c r="R1" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30332,13 +30369,13 @@
         <v>2001</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2354</v>
+        <v>2445</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>2446</v>
+        <v>2443</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>2444</v>
+        <v>2447</v>
       </c>
       <c r="E2" s="96" t="s">
         <v>2272</v>
@@ -30356,22 +30393,22 @@
         <v>2070</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="K2" s="67" t="s">
         <v>2310</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="M2" s="67" t="s">
         <v>2271</v>
       </c>
       <c r="N2" s="67" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="P2" s="67" t="s">
         <v>2000</v>
@@ -30381,7 +30418,7 @@
       </c>
       <c r="R2" s="5" t="str">
         <f>"{"""&amp;Table5[[#Headers],[id]]&amp;""": """&amp;Table5[[#This Row],[id]]&amp;""", """&amp;Table5[[#Headers],[type]]&amp;""": """&amp;Table5[[#This Row],[type]]&amp;""", """&amp;Table5[[#Headers],[summary]]&amp;""": """&amp;Table5[[#This Row],[summary]]&amp;""", """&amp;Table5[[#Headers],[description]]&amp;""": """&amp;Table5[[#This Row],[description]]&amp;""", """&amp;Table5[[#Headers],[postedDate]]&amp;""": """&amp;Table5[[#This Row],[postedDate]]&amp;""", """&amp;Table5[[#Headers],[broadcastDate]]&amp;""": """&amp;Table5[[#This Row],[broadcastDate]]&amp;""", """&amp;Table5[[#Headers],[startDate]]&amp;""": """&amp;Table5[[#This Row],[startDate]]&amp;""", """&amp;Table5[[#Headers],[endDate]]&amp;""": """&amp;Table5[[#This Row],[endDate]]&amp;""", """&amp;Table5[[#Headers],[currency]]&amp;""": """&amp;Table5[[#This Row],[currency]]&amp;""", """&amp;Table5[[#Headers],[location]]&amp;""": """&amp;Table5[[#This Row],[location]]&amp;""", """&amp;Table5[[#Headers],[isPayoutInPieces]]&amp;""": """&amp;Table5[[#This Row],[isPayoutInPieces]]&amp;""", """&amp;Table5[[#Headers],[skills]]&amp;""": "&amp;Table5[[#This Row],[skills]]&amp;", """&amp;Table5[[#Headers],[posterId]]&amp;""": """&amp;Table5[[#This Row],[posterId]]&amp;""", """&amp;Table5[[#Headers],[canForward]]&amp;""": """&amp;Table5[[#This Row],[canForward]]&amp;""", """&amp;Table5[[#Headers],[referents]]&amp;""": "&amp;Table5[[#This Row],[referents]]&amp;", """&amp;Table5[[#Headers],[contractType]]&amp;""": """&amp;Table5[[#This Row],[contractType]]&amp;""", """&amp;Table5[[#Headers],[budget]]&amp;""": """&amp;Table5[[#This Row],[budget]]&amp;"""},"</f>
-        <v>{"id": "d2b255ca-dde8-4919-9e5d-a0a62d5d7c12", "type": "PROJECT", "summary": "This is good project", "description": "Need real, real good javascript developer to implement a centralized repository for a big financial institution.", "postedDate": "2002-05-30T09:30:10Z", "broadcastDate": "2002-05-30T09:30:10Z", "startDate": "2002-05-30T09:30:10Z", "endDate": "2002-05-30T09:30:10Z", "currency": "USD", "location": "United States", "isPayoutInPieces": "false", "skills": [{"skillId": "4416192b-9dec-49b0-9d13-fb0815af6c3f", "skillName":"Java"}, {"skillId": "3c91c578-2d39-42d4-adb0-9071d9eb116a", "skillName":"Financial Apps"}, {"skillId": "b48bfe5a-15fa-4d8e-b253-752b51c2b94b", "skillName":"cryptography"}], "posterId": "eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee", "canForward": "true", "referents": [{"referentId":"40c96981-ca91-4083-9dfc-76826df0f432", "referentName":"Britta"},{"referentId":"c6a3c02e-5724-4a35-adc7-ddc37d3c721b","referentName":"Jane Best"}], "contractType": "23940120-4943-4462-9c46-2b23ef94108c", "budget": "2350.3"},</v>
+        <v>{"id": "d2b255ca-dde8-4919-9e5d-a0a62d5d7c12", "type": "Project-Hourly", "summary": "Front-end web page for Blockchain network currently set up on cloud server", "description": "Develop a front-end web interface for a game to be played by employees of the organisation. All back-end data processing is done in a simplified version of Blockchain environment that is currently set up and fully operational on Microsoft Azure cloud server.  Project description: In order to play the game a user must have a fitness sportsband and have it registered under the organisation’s corporate group. ...", "postedDate": "2002-05-30T09:30:10Z", "broadcastDate": "2002-05-30T09:30:10Z", "startDate": "2002-05-30T09:30:10Z", "endDate": "2002-05-30T09:30:10Z", "currency": "USD", "location": "United States", "isPayoutInPieces": "false", "skills": [{"skillId": "4416192b-9dec-49b0-9d13-fb0815af6c3f", "skillName":"Java"}, {"skillId": "3c91c578-2d39-42d4-adb0-9071d9eb116a", "skillName":"Financial Apps"}, {"skillId": "b48bfe5a-15fa-4d8e-b253-752b51c2b94b", "skillName":"cryptography"}], "posterId": "eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee", "canForward": "true", "referents": [{"referentId":"40c96981-ca91-4083-9dfc-76826df0f432", "referentName":"Britta"},{"referentId":"c6a3c02e-5724-4a35-adc7-ddc37d3c721b","referentName":"Jane Best"}], "contractType": "23940120-4943-4462-9c46-2b23ef94108c", "budget": "2350.3"},</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30389,13 +30426,13 @@
         <v>1999</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2354</v>
+        <v>2446</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>2447</v>
+        <v>2444</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>2445</v>
+        <v>2448</v>
       </c>
       <c r="E3" s="96" t="s">
         <v>2272</v>
@@ -30413,22 +30450,22 @@
         <v>2070</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="K3" s="67" t="s">
         <v>2310</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="M3" s="67" t="s">
         <v>2271</v>
       </c>
       <c r="N3" s="67" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="P3" s="67" t="s">
         <v>2000</v>
@@ -30438,17 +30475,17 @@
       </c>
       <c r="R3" s="5" t="str">
         <f>"{"""&amp;Table5[[#Headers],[id]]&amp;""": """&amp;Table5[[#This Row],[id]]&amp;""", """&amp;Table5[[#Headers],[type]]&amp;""": """&amp;Table5[[#This Row],[type]]&amp;""", """&amp;Table5[[#Headers],[summary]]&amp;""": """&amp;Table5[[#This Row],[summary]]&amp;""", """&amp;Table5[[#Headers],[description]]&amp;""": """&amp;Table5[[#This Row],[description]]&amp;""", """&amp;Table5[[#Headers],[postedDate]]&amp;""": """&amp;Table5[[#This Row],[postedDate]]&amp;""", """&amp;Table5[[#Headers],[broadcastDate]]&amp;""": """&amp;Table5[[#This Row],[broadcastDate]]&amp;""", """&amp;Table5[[#Headers],[startDate]]&amp;""": """&amp;Table5[[#This Row],[startDate]]&amp;""", """&amp;Table5[[#Headers],[endDate]]&amp;""": """&amp;Table5[[#This Row],[endDate]]&amp;""", """&amp;Table5[[#Headers],[currency]]&amp;""": """&amp;Table5[[#This Row],[currency]]&amp;""", """&amp;Table5[[#Headers],[location]]&amp;""": """&amp;Table5[[#This Row],[location]]&amp;""", """&amp;Table5[[#Headers],[isPayoutInPieces]]&amp;""": """&amp;Table5[[#This Row],[isPayoutInPieces]]&amp;""", """&amp;Table5[[#Headers],[skills]]&amp;""": "&amp;Table5[[#This Row],[skills]]&amp;", """&amp;Table5[[#Headers],[posterId]]&amp;""": """&amp;Table5[[#This Row],[posterId]]&amp;""", """&amp;Table5[[#Headers],[canForward]]&amp;""": """&amp;Table5[[#This Row],[canForward]]&amp;""", """&amp;Table5[[#Headers],[referents]]&amp;""": "&amp;Table5[[#This Row],[referents]]&amp;", """&amp;Table5[[#Headers],[contractType]]&amp;""": """&amp;Table5[[#This Row],[contractType]]&amp;""", """&amp;Table5[[#Headers],[budget]]&amp;""": """&amp;Table5[[#This Row],[budget]]&amp;"""},"</f>
-        <v>{"id": "e231791e-2719-4503-ad8f-8dd55a53901e", "type": "PROJECT", "summary": "This is an even better project", "description": "Need a scala developer to implement a decentralized repository for a trillion dollar financial use case.", "postedDate": "2002-05-30T09:30:10Z", "broadcastDate": "2002-05-30T09:30:10Z", "startDate": "2002-05-30T09:30:10Z", "endDate": "2002-05-30T09:30:10Z", "currency": "USD", "location": "United States", "isPayoutInPieces": "false", "skills": [{"skillId": "4416192b-9dec-49b0-9d13-fb0815af6c3f", "skillName":"Java"}, {"skillId": "3c91c578-2d39-42d4-adb0-9071d9eb116a", "skillName":"Financial Apps"}, {"skillId": "b48bfe5a-15fa-4d8e-b253-752b51c2b94b", "skillName":"cryptography"}], "posterId": "eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee", "canForward": "true", "referents": [{"referentId":"40c96981-ca91-4083-9dfc-76826df0f432", "referentName":"Britta"},{"referentId":"c6a3c02e-5724-4a35-adc7-ddc37d3c721b","referentName":"Jane Best"}], "contractType": "23940120-4943-4462-9c46-2b23ef94108c", "budget": "2350.3"},</v>
+        <v>{"id": "e231791e-2719-4503-ad8f-8dd55a53901e", "type": "Part-Time", "summary": "Developers for a Framework for developing p2p Front-Ends for Blockchain APPs", "description": "We invite you to join Fermat, a community building an OS extension able to run p2p mobile APPs  like Uber without Uber Inc., or  Airbnb without Airbnb Inc , or Linkedin, or Tinder, etc,  you name it, all of them without the middle-men.  Each component of the system is owned by whoever writes their code. Later, devs receive a stream of micro-payments from end-users around the globe using APPs built with their components.  Join us and learn bitcoin and blockchain technology and be part of one of the fastest growing open source projects.: https://github.com/Fermat-ORG/fermat ...", "postedDate": "2002-05-30T09:30:10Z", "broadcastDate": "2002-05-30T09:30:10Z", "startDate": "2002-05-30T09:30:10Z", "endDate": "2002-05-30T09:30:10Z", "currency": "USD", "location": "United States", "isPayoutInPieces": "false", "skills": [{"skillId": "4416192b-9dec-49b0-9d13-fb0815af6c3f", "skillName":"Java"}, {"skillId": "3c91c578-2d39-42d4-adb0-9071d9eb116a", "skillName":"Financial Apps"}, {"skillId": "b48bfe5a-15fa-4d8e-b253-752b51c2b94b", "skillName":"cryptography"}], "posterId": "eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee", "canForward": "true", "referents": [{"referentId":"40c96981-ca91-4083-9dfc-76826df0f432", "referentName":"Britta"},{"referentId":"c6a3c02e-5724-4a35-adc7-ddc37d3c721b","referentName":"Jane Best"}], "contractType": "23940120-4943-4462-9c46-2b23ef94108c", "budget": "2350.3"},</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -30458,32 +30495,32 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="56" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
   </sheetData>
@@ -30513,103 +30550,103 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="K2" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="G3" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="K3" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="G5" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="G6" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="G7" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="G8" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="G11" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="G12" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="G13" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="G14" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -30619,87 +30656,87 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
@@ -30709,17 +30746,17 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
     </row>
   </sheetData>
@@ -30746,12 +30783,12 @@
   <sheetData>
     <row r="3" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="98" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="4" spans="2:16" s="105" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="103" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="C4" s="104"/>
       <c r="D4" s="104"/>
@@ -30761,12 +30798,12 @@
     </row>
     <row r="5" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="98" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="6" spans="2:16" s="105" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="103" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="C6" s="104"/>
       <c r="D6" s="104"/>
@@ -30776,12 +30813,12 @@
     </row>
     <row r="7" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="98" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="8" spans="2:16" s="105" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="103" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="C8" s="104"/>
       <c r="D8" s="104"/>
@@ -30791,16 +30828,16 @@
     </row>
     <row r="9" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="98" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="10" spans="2:16" s="105" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="103"/>
       <c r="C10" s="113" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="D10" s="115" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="E10" s="116"/>
       <c r="F10" s="116"/>
@@ -30809,146 +30846,146 @@
     </row>
     <row r="11" spans="2:16" s="105" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="106" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="C11" s="114"/>
       <c r="D11" s="109" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="E11" s="109" t="s">
+        <v>2425</v>
+      </c>
+      <c r="F11" s="109" t="s">
         <v>2426</v>
       </c>
-      <c r="F11" s="109" t="s">
+      <c r="G11" s="109" t="s">
         <v>2427</v>
       </c>
-      <c r="G11" s="109" t="s">
+      <c r="H11" s="109" t="s">
         <v>2428</v>
-      </c>
-      <c r="H11" s="109" t="s">
-        <v>2429</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="99" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="C12" s="111" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="D12" s="102" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="E12" s="102" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="F12" s="102" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="G12" s="102" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="H12" s="102" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="13" spans="2:16" s="105" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="107" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="C13" s="112" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="D13" s="108" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="E13" s="108" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="F13" s="108" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="G13" s="108" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="H13" s="108" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="P13" s="105" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="100" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="C14" s="111" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="D14" s="102" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="E14" s="102" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="F14" s="102" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="G14" s="102" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="H14" s="102" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="15" spans="2:16" s="105" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="107" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="C15" s="112" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="D15" s="108" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="E15" s="108" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="F15" s="108" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="G15" s="108" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="H15" s="108" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="100" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="C16" s="111" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="D16" s="102" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="E16" s="102" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="F16" s="102" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="G16" s="102" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="H16" s="102" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="17" spans="2:7" s="105" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="110" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="C17" s="104"/>
       <c r="D17" s="104"/>

--- a/jvm/src/main/resources/sample-data-demo.xlsx
+++ b/jvm/src/main/resources/sample-data-demo.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3990" uniqueCount="2449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4006" uniqueCount="2452">
   <si>
     <t>firstName</t>
   </si>
@@ -7423,19 +7423,28 @@
     <t>Front-end web page for Blockchain network currently set up on cloud server</t>
   </si>
   <si>
-    <t>Developers for a Framework for developing p2p Front-Ends for Blockchain APPs</t>
-  </si>
-  <si>
     <t>Project-Hourly</t>
   </si>
   <si>
-    <t>Part-Time</t>
-  </si>
-  <si>
     <t>Develop a front-end web interface for a game to be played by employees of the organisation. All back-end data processing is done in a simplified version of Blockchain environment that is currently set up and fully operational on Microsoft Azure cloud server.  Project description: In order to play the game a user must have a fitness sportsband and have it registered under the organisation’s corporate group. ...</t>
   </si>
   <si>
-    <t>We invite you to join Fermat, a community building an OS extension able to run p2p mobile APPs  like Uber without Uber Inc., or  Airbnb without Airbnb Inc , or Linkedin, or Tinder, etc,  you name it, all of them without the middle-men.  Each component of the system is owned by whoever writes their code. Later, devs receive a stream of micro-payments from end-users around the globe using APPs built with their components.  Join us and learn bitcoin and blockchain technology and be part of one of the fastest growing open source projects.: https://github.com/Fermat-ORG/fermat ...</t>
+    <t>Contest – online sales team/tools for bitcoin development</t>
+  </si>
+  <si>
+    <t>To join this contest just register at https://www.greatcoincontest.io, click at the product you want to sell and generate your reff link. This reff link also works with other products on the site. Once your id is in buyer’s cookies, you’ll get 10% of every sale from this person on the marketplace.  When? Contest starts 24.2. 2016 0:00 UTC and ends 24.3. 2016 23:59 UTC. Winner will be contacted right after that. ...</t>
+  </si>
+  <si>
+    <t>Contest</t>
+  </si>
+  <si>
+    <t>Help test Bitcoin as payment for my travel-related business</t>
+  </si>
+  <si>
+    <t>e231791e-2719-4503-ad8f-8dd55a53901a</t>
+  </si>
+  <si>
+    <t>This project can be a huge project but same time can easily fail, so please PM with your skills, I will provide you the project details and if you consider it’s a good idea we can start work right away</t>
   </si>
 </sst>
 </file>
@@ -7762,7 +7771,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -8007,38 +8016,13 @@
     <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="61">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -8355,6 +8339,32 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -10016,27 +10026,27 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:R3" totalsRowShown="0" dataDxfId="22">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:R4" totalsRowShown="0" dataDxfId="18">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="id" dataDxfId="21"/>
-    <tableColumn id="2" name="type" dataDxfId="20"/>
-    <tableColumn id="3" name="summary" dataDxfId="19"/>
-    <tableColumn id="4" name="description" dataDxfId="18"/>
-    <tableColumn id="5" name="postedDate" dataDxfId="17"/>
-    <tableColumn id="6" name="broadcastDate" dataDxfId="16"/>
-    <tableColumn id="7" name="startDate" dataDxfId="15"/>
-    <tableColumn id="8" name="endDate" dataDxfId="14"/>
-    <tableColumn id="9" name="currency" dataDxfId="13"/>
-    <tableColumn id="10" name="location" dataDxfId="12"/>
-    <tableColumn id="11" name="isPayoutInPieces" dataDxfId="11"/>
-    <tableColumn id="12" name="skills" dataDxfId="10"/>
-    <tableColumn id="13" name="posterId" dataDxfId="9"/>
-    <tableColumn id="14" name="canForward" dataDxfId="8"/>
-    <tableColumn id="15" name="referents" dataDxfId="7"/>
-    <tableColumn id="16" name="contractType" dataDxfId="6"/>
-    <tableColumn id="17" name="budget" dataDxfId="5"/>
-    <tableColumn id="18" name="json" dataDxfId="4">
+    <tableColumn id="1" name="id" dataDxfId="17"/>
+    <tableColumn id="2" name="type" dataDxfId="16"/>
+    <tableColumn id="3" name="summary" dataDxfId="15"/>
+    <tableColumn id="4" name="description" dataDxfId="14"/>
+    <tableColumn id="5" name="postedDate" dataDxfId="13"/>
+    <tableColumn id="6" name="broadcastDate" dataDxfId="12"/>
+    <tableColumn id="7" name="startDate" dataDxfId="11"/>
+    <tableColumn id="8" name="endDate" dataDxfId="10"/>
+    <tableColumn id="9" name="currency" dataDxfId="9"/>
+    <tableColumn id="10" name="location" dataDxfId="8"/>
+    <tableColumn id="11" name="isPayoutInPieces" dataDxfId="7"/>
+    <tableColumn id="12" name="skills" dataDxfId="6"/>
+    <tableColumn id="13" name="posterId" dataDxfId="5"/>
+    <tableColumn id="14" name="canForward" dataDxfId="4"/>
+    <tableColumn id="15" name="referents" dataDxfId="3"/>
+    <tableColumn id="16" name="contractType" dataDxfId="2"/>
+    <tableColumn id="17" name="budget" dataDxfId="1"/>
+    <tableColumn id="18" name="json" dataDxfId="0">
       <calculatedColumnFormula>"{"""&amp;Table5[[#Headers],[id]]&amp;""": """&amp;Table5[[#This Row],[id]]&amp;""", """&amp;Table5[[#Headers],[type]]&amp;""": """&amp;Table5[[#This Row],[type]]&amp;""", """&amp;Table5[[#Headers],[summary]]&amp;""": """&amp;Table5[[#This Row],[summary]]&amp;""", """&amp;Table5[[#Headers],[description]]&amp;""": """&amp;Table5[[#This Row],[description]]&amp;""", """&amp;Table5[[#Headers],[postedDate]]&amp;""": """&amp;Table5[[#This Row],[postedDate]]&amp;""", """&amp;Table5[[#Headers],[broadcastDate]]&amp;""": """&amp;Table5[[#This Row],[broadcastDate]]&amp;""", """&amp;Table5[[#Headers],[startDate]]&amp;""": """&amp;Table5[[#This Row],[startDate]]&amp;""", """&amp;Table5[[#Headers],[endDate]]&amp;""": """&amp;Table5[[#This Row],[endDate]]&amp;""", """&amp;Table5[[#Headers],[currency]]&amp;""": """&amp;Table5[[#This Row],[currency]]&amp;""", """&amp;Table5[[#Headers],[location]]&amp;""": """&amp;Table5[[#This Row],[location]]&amp;""", """&amp;Table5[[#Headers],[isPayoutInPieces]]&amp;""": """&amp;Table5[[#This Row],[isPayoutInPieces]]&amp;""", """&amp;Table5[[#Headers],[skills]]&amp;""": "&amp;Table5[[#This Row],[skills]]&amp;", """&amp;Table5[[#Headers],[posterId]]&amp;""": """&amp;Table5[[#This Row],[posterId]]&amp;""", """&amp;Table5[[#Headers],[canForward]]&amp;""": """&amp;Table5[[#This Row],[canForward]]&amp;""", """&amp;Table5[[#Headers],[referents]]&amp;""": "&amp;Table5[[#This Row],[referents]]&amp;", """&amp;Table5[[#Headers],[contractType]]&amp;""": """&amp;Table5[[#This Row],[contractType]]&amp;""", """&amp;Table5[[#Headers],[budget]]&amp;""": """&amp;Table5[[#This Row],[budget]]&amp;"""},"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10048,12 +10058,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:F357" totalsRowShown="0">
   <autoFilter ref="A1:F357"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="3"/>
+    <tableColumn id="1" name="ID" dataDxfId="22"/>
     <tableColumn id="3" name="L1"/>
-    <tableColumn id="4" name="Type" dataDxfId="2"/>
-    <tableColumn id="5" name="Value" dataDxfId="1"/>
+    <tableColumn id="4" name="Type" dataDxfId="21"/>
+    <tableColumn id="5" name="Value" dataDxfId="20"/>
     <tableColumn id="6" name="Comment"/>
-    <tableColumn id="2" name="Data" dataDxfId="0">
+    <tableColumn id="2" name="Data" dataDxfId="19">
       <calculatedColumnFormula>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C3="]}",$C3="]},"),""," , ")))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -30369,13 +30379,13 @@
         <v>2001</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>2443</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
       <c r="E2" s="96" t="s">
         <v>2272</v>
@@ -30426,13 +30436,13 @@
         <v>1999</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>2446</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>2444</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="E3" s="96" t="s">
         <v>2272</v>
@@ -30475,7 +30485,64 @@
       </c>
       <c r="R3" s="5" t="str">
         <f>"{"""&amp;Table5[[#Headers],[id]]&amp;""": """&amp;Table5[[#This Row],[id]]&amp;""", """&amp;Table5[[#Headers],[type]]&amp;""": """&amp;Table5[[#This Row],[type]]&amp;""", """&amp;Table5[[#Headers],[summary]]&amp;""": """&amp;Table5[[#This Row],[summary]]&amp;""", """&amp;Table5[[#Headers],[description]]&amp;""": """&amp;Table5[[#This Row],[description]]&amp;""", """&amp;Table5[[#Headers],[postedDate]]&amp;""": """&amp;Table5[[#This Row],[postedDate]]&amp;""", """&amp;Table5[[#Headers],[broadcastDate]]&amp;""": """&amp;Table5[[#This Row],[broadcastDate]]&amp;""", """&amp;Table5[[#Headers],[startDate]]&amp;""": """&amp;Table5[[#This Row],[startDate]]&amp;""", """&amp;Table5[[#Headers],[endDate]]&amp;""": """&amp;Table5[[#This Row],[endDate]]&amp;""", """&amp;Table5[[#Headers],[currency]]&amp;""": """&amp;Table5[[#This Row],[currency]]&amp;""", """&amp;Table5[[#Headers],[location]]&amp;""": """&amp;Table5[[#This Row],[location]]&amp;""", """&amp;Table5[[#Headers],[isPayoutInPieces]]&amp;""": """&amp;Table5[[#This Row],[isPayoutInPieces]]&amp;""", """&amp;Table5[[#Headers],[skills]]&amp;""": "&amp;Table5[[#This Row],[skills]]&amp;", """&amp;Table5[[#Headers],[posterId]]&amp;""": """&amp;Table5[[#This Row],[posterId]]&amp;""", """&amp;Table5[[#Headers],[canForward]]&amp;""": """&amp;Table5[[#This Row],[canForward]]&amp;""", """&amp;Table5[[#Headers],[referents]]&amp;""": "&amp;Table5[[#This Row],[referents]]&amp;", """&amp;Table5[[#Headers],[contractType]]&amp;""": """&amp;Table5[[#This Row],[contractType]]&amp;""", """&amp;Table5[[#Headers],[budget]]&amp;""": """&amp;Table5[[#This Row],[budget]]&amp;"""},"</f>
-        <v>{"id": "e231791e-2719-4503-ad8f-8dd55a53901e", "type": "Part-Time", "summary": "Developers for a Framework for developing p2p Front-Ends for Blockchain APPs", "description": "We invite you to join Fermat, a community building an OS extension able to run p2p mobile APPs  like Uber without Uber Inc., or  Airbnb without Airbnb Inc , or Linkedin, or Tinder, etc,  you name it, all of them without the middle-men.  Each component of the system is owned by whoever writes their code. Later, devs receive a stream of micro-payments from end-users around the globe using APPs built with their components.  Join us and learn bitcoin and blockchain technology and be part of one of the fastest growing open source projects.: https://github.com/Fermat-ORG/fermat ...", "postedDate": "2002-05-30T09:30:10Z", "broadcastDate": "2002-05-30T09:30:10Z", "startDate": "2002-05-30T09:30:10Z", "endDate": "2002-05-30T09:30:10Z", "currency": "USD", "location": "United States", "isPayoutInPieces": "false", "skills": [{"skillId": "4416192b-9dec-49b0-9d13-fb0815af6c3f", "skillName":"Java"}, {"skillId": "3c91c578-2d39-42d4-adb0-9071d9eb116a", "skillName":"Financial Apps"}, {"skillId": "b48bfe5a-15fa-4d8e-b253-752b51c2b94b", "skillName":"cryptography"}], "posterId": "eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee", "canForward": "true", "referents": [{"referentId":"40c96981-ca91-4083-9dfc-76826df0f432", "referentName":"Britta"},{"referentId":"c6a3c02e-5724-4a35-adc7-ddc37d3c721b","referentName":"Jane Best"}], "contractType": "23940120-4943-4462-9c46-2b23ef94108c", "budget": "2350.3"},</v>
+        <v>{"id": "e231791e-2719-4503-ad8f-8dd55a53901e", "type": "Contest", "summary": "Contest – online sales team/tools for bitcoin development", "description": "To join this contest just register at https://www.greatcoincontest.io, click at the product you want to sell and generate your reff link. This reff link also works with other products on the site. Once your id is in buyer’s cookies, you’ll get 10% of every sale from this person on the marketplace.  When? Contest starts 24.2. 2016 0:00 UTC and ends 24.3. 2016 23:59 UTC. Winner will be contacted right after that. ...", "postedDate": "2002-05-30T09:30:10Z", "broadcastDate": "2002-05-30T09:30:10Z", "startDate": "2002-05-30T09:30:10Z", "endDate": "2002-05-30T09:30:10Z", "currency": "USD", "location": "United States", "isPayoutInPieces": "false", "skills": [{"skillId": "4416192b-9dec-49b0-9d13-fb0815af6c3f", "skillName":"Java"}, {"skillId": "3c91c578-2d39-42d4-adb0-9071d9eb116a", "skillName":"Financial Apps"}, {"skillId": "b48bfe5a-15fa-4d8e-b253-752b51c2b94b", "skillName":"cryptography"}], "posterId": "eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee", "canForward": "true", "referents": [{"referentId":"40c96981-ca91-4083-9dfc-76826df0f432", "referentName":"Britta"},{"referentId":"c6a3c02e-5724-4a35-adc7-ddc37d3c721b","referentName":"Jane Best"}], "contractType": "23940120-4943-4462-9c46-2b23ef94108c", "budget": "2350.3"},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2444</v>
+      </c>
+      <c r="C4" s="118" t="s">
+        <v>2449</v>
+      </c>
+      <c r="D4" s="118" t="s">
+        <v>2451</v>
+      </c>
+      <c r="E4" s="96" t="s">
+        <v>2272</v>
+      </c>
+      <c r="F4" s="96" t="s">
+        <v>2272</v>
+      </c>
+      <c r="G4" s="96" t="s">
+        <v>2272</v>
+      </c>
+      <c r="H4" s="96" t="s">
+        <v>2272</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>2070</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>2362</v>
+      </c>
+      <c r="K4" s="67" t="s">
+        <v>2310</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>2436</v>
+      </c>
+      <c r="M4" s="67" t="s">
+        <v>2271</v>
+      </c>
+      <c r="N4" s="67" t="s">
+        <v>2366</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>2441</v>
+      </c>
+      <c r="P4" s="67" t="s">
+        <v>2000</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>2350.3000000000002</v>
+      </c>
+      <c r="R4" s="5" t="str">
+        <f>"{"""&amp;Table5[[#Headers],[id]]&amp;""": """&amp;Table5[[#This Row],[id]]&amp;""", """&amp;Table5[[#Headers],[type]]&amp;""": """&amp;Table5[[#This Row],[type]]&amp;""", """&amp;Table5[[#Headers],[summary]]&amp;""": """&amp;Table5[[#This Row],[summary]]&amp;""", """&amp;Table5[[#Headers],[description]]&amp;""": """&amp;Table5[[#This Row],[description]]&amp;""", """&amp;Table5[[#Headers],[postedDate]]&amp;""": """&amp;Table5[[#This Row],[postedDate]]&amp;""", """&amp;Table5[[#Headers],[broadcastDate]]&amp;""": """&amp;Table5[[#This Row],[broadcastDate]]&amp;""", """&amp;Table5[[#Headers],[startDate]]&amp;""": """&amp;Table5[[#This Row],[startDate]]&amp;""", """&amp;Table5[[#Headers],[endDate]]&amp;""": """&amp;Table5[[#This Row],[endDate]]&amp;""", """&amp;Table5[[#Headers],[currency]]&amp;""": """&amp;Table5[[#This Row],[currency]]&amp;""", """&amp;Table5[[#Headers],[location]]&amp;""": """&amp;Table5[[#This Row],[location]]&amp;""", """&amp;Table5[[#Headers],[isPayoutInPieces]]&amp;""": """&amp;Table5[[#This Row],[isPayoutInPieces]]&amp;""", """&amp;Table5[[#Headers],[skills]]&amp;""": "&amp;Table5[[#This Row],[skills]]&amp;", """&amp;Table5[[#Headers],[posterId]]&amp;""": """&amp;Table5[[#This Row],[posterId]]&amp;""", """&amp;Table5[[#Headers],[canForward]]&amp;""": """&amp;Table5[[#This Row],[canForward]]&amp;""", """&amp;Table5[[#Headers],[referents]]&amp;""": "&amp;Table5[[#This Row],[referents]]&amp;", """&amp;Table5[[#Headers],[contractType]]&amp;""": """&amp;Table5[[#This Row],[contractType]]&amp;""", """&amp;Table5[[#Headers],[budget]]&amp;""": """&amp;Table5[[#This Row],[budget]]&amp;"""},"</f>
+        <v>{"id": "e231791e-2719-4503-ad8f-8dd55a53901a", "type": "Project-Hourly", "summary": "Help test Bitcoin as payment for my travel-related business", "description": "This project can be a huge project but same time can easily fail, so please PM with your skills, I will provide you the project details and if you consider it’s a good idea we can start work right away", "postedDate": "2002-05-30T09:30:10Z", "broadcastDate": "2002-05-30T09:30:10Z", "startDate": "2002-05-30T09:30:10Z", "endDate": "2002-05-30T09:30:10Z", "currency": "USD", "location": "United States", "isPayoutInPieces": "false", "skills": [{"skillId": "4416192b-9dec-49b0-9d13-fb0815af6c3f", "skillName":"Java"}, {"skillId": "3c91c578-2d39-42d4-adb0-9071d9eb116a", "skillName":"Financial Apps"}, {"skillId": "b48bfe5a-15fa-4d8e-b253-752b51c2b94b", "skillName":"cryptography"}], "posterId": "eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee", "canForward": "true", "referents": [{"referentId":"40c96981-ca91-4083-9dfc-76826df0f432", "referentName":"Britta"},{"referentId":"c6a3c02e-5724-4a35-adc7-ddc37d3c721b","referentName":"Jane Best"}], "contractType": "23940120-4943-4462-9c46-2b23ef94108c", "budget": "2350.3"},</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -30528,8 +30595,9 @@
     <hyperlink ref="B16" r:id="rId1" location="ad-output"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/jvm/src/main/resources/sample-data-demo.xlsx
+++ b/jvm/src/main/resources/sample-data-demo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" tabRatio="836" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" tabRatio="836"/>
   </bookViews>
   <sheets>
     <sheet name="demoCnxs" sheetId="10" r:id="rId1"/>
@@ -8007,6 +8007,7 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8016,13 +8017,108 @@
     <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="61">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -8342,32 +8438,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -8416,40 +8486,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -8985,42 +9021,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -9931,8 +9931,8 @@
     <tableColumn id="9" name="label2" dataDxfId="52">
       <calculatedColumnFormula>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="cnxn" dataDxfId="51">
-      <calculatedColumnFormula>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A3)&gt;0," , ","")</calculatedColumnFormula>
+    <tableColumn id="12" name="cnxn" dataDxfId="2">
+      <calculatedColumnFormula>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -9940,51 +9940,51 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:S98" totalsRowShown="0" headerRowDxfId="50" tableBorderDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:S98" totalsRowShown="0" headerRowDxfId="51" tableBorderDxfId="50">
   <autoFilter ref="A1:S98"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="id" dataDxfId="48"/>
-    <tableColumn id="2" name="UUID" dataDxfId="47"/>
-    <tableColumn id="3" name="loginId" dataDxfId="46">
+    <tableColumn id="1" name="id" dataDxfId="49"/>
+    <tableColumn id="2" name="UUID" dataDxfId="48"/>
+    <tableColumn id="3" name="loginId" dataDxfId="47">
       <calculatedColumnFormula>LOWER(LEFT(Table1[[#This Row],[firstName]],1)&amp;Table1[[#This Row],[lastName]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="firstName" dataDxfId="45"/>
-    <tableColumn id="5" name="lastName" dataDxfId="44"/>
-    <tableColumn id="6" name="pwd" dataDxfId="43"/>
-    <tableColumn id="31" name="contact1" dataDxfId="42">
+    <tableColumn id="4" name="firstName" dataDxfId="46"/>
+    <tableColumn id="5" name="lastName" dataDxfId="45"/>
+    <tableColumn id="6" name="pwd" dataDxfId="44"/>
+    <tableColumn id="31" name="contact1" dataDxfId="43">
       <calculatedColumnFormula>"mailto:livelygig_"&amp;Table1[[#This Row],[loginId]]&amp;"@mailinator.com"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" name="contact1 type" dataDxfId="41"/>
-    <tableColumn id="15" name="profilePic" dataDxfId="40"/>
-    <tableColumn id="27" name="id data" dataDxfId="39">
+    <tableColumn id="34" name="contact1 type" dataDxfId="42"/>
+    <tableColumn id="15" name="profilePic" dataDxfId="41"/>
+    <tableColumn id="27" name="id data" dataDxfId="40">
       <calculatedColumnFormula>"""id"" : """&amp;Table1[[#This Row],[UUID]]&amp;""", "</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="loginId data" dataDxfId="38">
+    <tableColumn id="26" name="loginId data" dataDxfId="39">
       <calculatedColumnFormula>"""loginId"" : """&amp;Table1[[#This Row],[loginId]]&amp;""", "</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="pwd data" dataDxfId="37">
+    <tableColumn id="25" name="pwd data" dataDxfId="38">
       <calculatedColumnFormula>"""pwd"" : """&amp;Table1[[#This Row],[pwd]]&amp;""", "</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="firstName data" dataDxfId="36">
+    <tableColumn id="24" name="firstName data" dataDxfId="37">
       <calculatedColumnFormula>"""firstName""  : """&amp;Table1[[#This Row],[firstName]]&amp;""", "</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="lastName2" dataDxfId="35">
+    <tableColumn id="23" name="lastName2" dataDxfId="36">
       <calculatedColumnFormula>"""lastName"" : """&amp;Table1[[#This Row],[lastName]]&amp;""", "</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="profilePic Data" dataDxfId="34">
+    <tableColumn id="22" name="profilePic Data" dataDxfId="35">
       <calculatedColumnFormula>"""profilePic"" : """&amp;Table1[[#This Row],[profilePic]]&amp;""", "</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="contacts" dataDxfId="33">
+    <tableColumn id="30" name="contacts" dataDxfId="34">
       <calculatedColumnFormula>"""contacts"" : { ""channels"": [ {""url"" : """&amp;Table1[[#This Row],[contact1]]&amp;""", ""channelType"" : """&amp;Table1[[#This Row],[contact1 type]]&amp;""" } ] },"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="bindings" dataDxfId="32">
+    <tableColumn id="7" name="bindings" dataDxfId="33">
       <calculatedColumnFormula>""</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="51" name="Posts" dataDxfId="31">
+    <tableColumn id="51" name="Posts" dataDxfId="32">
       <calculatedColumnFormula>"""initialPosts"" : [  ]"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="data" dataDxfId="30">
-      <calculatedColumnFormula>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A3)," ",", ")</calculatedColumnFormula>
+    <tableColumn id="13" name="data" dataDxfId="1">
+      <calculatedColumnFormula>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -9999,23 +9999,23 @@
   </sortState>
   <tableColumns count="14">
     <tableColumn id="1" name="Sender"/>
-    <tableColumn id="2" name="Sender lookup" dataDxfId="29">
+    <tableColumn id="2" name="Sender lookup" dataDxfId="31">
       <calculatedColumnFormula>VLOOKUP(Table2[[#This Row],[Sender]],Table1[[UUID]:[loginId]],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Recipient" dataDxfId="28"/>
-    <tableColumn id="4" name="Recipient lookup" dataDxfId="27">
+    <tableColumn id="3" name="Recipient" dataDxfId="30"/>
+    <tableColumn id="4" name="Recipient lookup" dataDxfId="29">
       <calculatedColumnFormula>VLOOKUP(Table2[[#This Row],[Recipient]],Table1[[UUID]:[loginId]],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="Message Type"/>
-    <tableColumn id="6" name="Message Type GUID" dataDxfId="26">
+    <tableColumn id="6" name="Message Type GUID" dataDxfId="28">
       <calculatedColumnFormula>IF(Table2[[#This Row],[Message Type]]="buyerProfile","eb0c7fee-e815-4590-97cc-7be8251f68b6",IF(Table2[[#This Row],[Message Type]]="project","3b5d7868-38ff-4404-9ea9-13cd2541924a",IF(Table2[[#This Row],[Message Type]]="moderatorProfile","4fcd333e-0d33-45b1-9ffa-d536a2b05180",IF(Table2[[#This Row],[Message Type]]="sellerProfile","574d0bd0-c372-4f1b-830e-f4df44ca11b7",IF(Table2[[#This Row],[Message Type]]="message","4b0f0e1b-136c-469e-8de3-a69d7e34da5d",IF(Table2[[#This Row],[Message Type]]="contract","49607b66-5642-4f96-ab5b-864f44697ea8",IF(Table2[[#This Row],[Message Type]]="offering","4b4a042b-03b4-4e38-8676-f6fef430ae2f","ERROR")))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="MessageTypeLabel" dataDxfId="25">
+    <tableColumn id="14" name="MessageTypeLabel" dataDxfId="27">
       <calculatedColumnFormula>"{""label"" : { ""id"" : """ &amp;Table2[[#This Row],[Message Type GUID]]&amp;"""} , ""blob"" : "" "" }"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Text" dataDxfId="24"/>
+    <tableColumn id="7" name="Text" dataDxfId="26"/>
     <tableColumn id="8" name="versionedPost.id"/>
-    <tableColumn id="9" name="versionedPost.predecessorID" dataDxfId="23"/>
+    <tableColumn id="9" name="versionedPost.predecessorID" dataDxfId="25"/>
     <tableColumn id="10" name="Labels"/>
     <tableColumn id="11" name="Column4"/>
     <tableColumn id="12" name="Column5"/>
@@ -10026,27 +10026,27 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:R4" totalsRowShown="0" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:R4" totalsRowShown="0" dataDxfId="24">
   <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="id" dataDxfId="17"/>
-    <tableColumn id="2" name="type" dataDxfId="16"/>
-    <tableColumn id="3" name="summary" dataDxfId="15"/>
-    <tableColumn id="4" name="description" dataDxfId="14"/>
-    <tableColumn id="5" name="postedDate" dataDxfId="13"/>
-    <tableColumn id="6" name="broadcastDate" dataDxfId="12"/>
-    <tableColumn id="7" name="startDate" dataDxfId="11"/>
-    <tableColumn id="8" name="endDate" dataDxfId="10"/>
-    <tableColumn id="9" name="currency" dataDxfId="9"/>
-    <tableColumn id="10" name="location" dataDxfId="8"/>
-    <tableColumn id="11" name="isPayoutInPieces" dataDxfId="7"/>
-    <tableColumn id="12" name="skills" dataDxfId="6"/>
-    <tableColumn id="13" name="posterId" dataDxfId="5"/>
-    <tableColumn id="14" name="canForward" dataDxfId="4"/>
-    <tableColumn id="15" name="referents" dataDxfId="3"/>
-    <tableColumn id="16" name="contractType" dataDxfId="2"/>
-    <tableColumn id="17" name="budget" dataDxfId="1"/>
-    <tableColumn id="18" name="json" dataDxfId="0">
+    <tableColumn id="1" name="id" dataDxfId="23"/>
+    <tableColumn id="2" name="type" dataDxfId="22"/>
+    <tableColumn id="3" name="summary" dataDxfId="21"/>
+    <tableColumn id="4" name="description" dataDxfId="20"/>
+    <tableColumn id="5" name="postedDate" dataDxfId="19"/>
+    <tableColumn id="6" name="broadcastDate" dataDxfId="18"/>
+    <tableColumn id="7" name="startDate" dataDxfId="17"/>
+    <tableColumn id="8" name="endDate" dataDxfId="16"/>
+    <tableColumn id="9" name="currency" dataDxfId="15"/>
+    <tableColumn id="10" name="location" dataDxfId="14"/>
+    <tableColumn id="11" name="isPayoutInPieces" dataDxfId="13"/>
+    <tableColumn id="12" name="skills" dataDxfId="12"/>
+    <tableColumn id="13" name="posterId" dataDxfId="11"/>
+    <tableColumn id="14" name="canForward" dataDxfId="10"/>
+    <tableColumn id="15" name="referents" dataDxfId="9"/>
+    <tableColumn id="16" name="contractType" dataDxfId="8"/>
+    <tableColumn id="17" name="budget" dataDxfId="7"/>
+    <tableColumn id="18" name="json" dataDxfId="6">
       <calculatedColumnFormula>"{"""&amp;Table5[[#Headers],[id]]&amp;""": """&amp;Table5[[#This Row],[id]]&amp;""", """&amp;Table5[[#Headers],[type]]&amp;""": """&amp;Table5[[#This Row],[type]]&amp;""", """&amp;Table5[[#Headers],[summary]]&amp;""": """&amp;Table5[[#This Row],[summary]]&amp;""", """&amp;Table5[[#Headers],[description]]&amp;""": """&amp;Table5[[#This Row],[description]]&amp;""", """&amp;Table5[[#Headers],[postedDate]]&amp;""": """&amp;Table5[[#This Row],[postedDate]]&amp;""", """&amp;Table5[[#Headers],[broadcastDate]]&amp;""": """&amp;Table5[[#This Row],[broadcastDate]]&amp;""", """&amp;Table5[[#Headers],[startDate]]&amp;""": """&amp;Table5[[#This Row],[startDate]]&amp;""", """&amp;Table5[[#Headers],[endDate]]&amp;""": """&amp;Table5[[#This Row],[endDate]]&amp;""", """&amp;Table5[[#Headers],[currency]]&amp;""": """&amp;Table5[[#This Row],[currency]]&amp;""", """&amp;Table5[[#Headers],[location]]&amp;""": """&amp;Table5[[#This Row],[location]]&amp;""", """&amp;Table5[[#Headers],[isPayoutInPieces]]&amp;""": """&amp;Table5[[#This Row],[isPayoutInPieces]]&amp;""", """&amp;Table5[[#Headers],[skills]]&amp;""": "&amp;Table5[[#This Row],[skills]]&amp;", """&amp;Table5[[#Headers],[posterId]]&amp;""": """&amp;Table5[[#This Row],[posterId]]&amp;""", """&amp;Table5[[#Headers],[canForward]]&amp;""": """&amp;Table5[[#This Row],[canForward]]&amp;""", """&amp;Table5[[#Headers],[referents]]&amp;""": "&amp;Table5[[#This Row],[referents]]&amp;", """&amp;Table5[[#Headers],[contractType]]&amp;""": """&amp;Table5[[#This Row],[contractType]]&amp;""", """&amp;Table5[[#Headers],[budget]]&amp;""": """&amp;Table5[[#This Row],[budget]]&amp;"""},"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10058,13 +10058,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:F357" totalsRowShown="0">
   <autoFilter ref="A1:F357"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="22"/>
+    <tableColumn id="1" name="ID" dataDxfId="5"/>
     <tableColumn id="3" name="L1"/>
-    <tableColumn id="4" name="Type" dataDxfId="21"/>
-    <tableColumn id="5" name="Value" dataDxfId="20"/>
+    <tableColumn id="4" name="Type" dataDxfId="4"/>
+    <tableColumn id="5" name="Value" dataDxfId="3"/>
     <tableColumn id="6" name="Comment"/>
-    <tableColumn id="2" name="Data" dataDxfId="19">
-      <calculatedColumnFormula>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C3="]}",$C3="]},"),""," , ")))))</calculatedColumnFormula>
+    <tableColumn id="2" name="Data" dataDxfId="0">
+      <calculatedColumnFormula>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -10370,7 +10370,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H195"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B177" workbookViewId="0">
+      <selection activeCell="E192" sqref="E192"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10434,8 +10436,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v>"label" : { "id" : "a7311ed0-9ba6-4a6e-8066-caa2a2247991" , "functor" : "tag list" , "components" : [ { value" : "FAVORITE", "type" : "string" } ] },</v>
       </c>
-      <c r="H2" s="3" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A3)&gt;0," , ","")</f>
+      <c r="H2" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://89cbeaaf-bb58-48a4-8bdf-2917d6ae110d",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -10462,8 +10464,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H3" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A4)&gt;0," , ","")</f>
+      <c r="H3" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://40c96981-ca91-4083-9dfc-76826df0f432",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -10490,8 +10492,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H4" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A5)&gt;0," , ","")</f>
+      <c r="H4" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://c6a3c02e-5724-4a35-adc7-ddc37d3c721b",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -10518,8 +10520,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H5" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A6)&gt;0," , ","")</f>
+      <c r="H5" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://23c3669c-de78-4a5d-8c15-4a3792a96f10",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -10546,8 +10548,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H6" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A7)&gt;0," , ","")</f>
+      <c r="H6" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://904e5b1e-1314-41da-bdac-f79ff7722e77",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -10574,8 +10576,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H7" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A8)&gt;0," , ","")</f>
+      <c r="H7" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://f9ad7bb7-1524-4e1a-bf8e-3611859f1875",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -10602,8 +10604,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H8" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A9)&gt;0," , ","")</f>
+      <c r="H8" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://f5f1785b-48a4-4078-b9f8-f2b99f74e608",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -10630,8 +10632,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H9" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A10)&gt;0," , ","")</f>
+      <c r="H9" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://b65fb366-a405-41e9-82c5-f51726fad95b",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -10658,8 +10660,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H10" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A11)&gt;0," , ","")</f>
+      <c r="H10" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://4461f860-d367-4cb0-af03-332ea72e9053",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -10686,8 +10688,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H11" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A12)&gt;0," , ","")</f>
+      <c r="H11" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://2413be6a-7573-454d-a393-1d22e45c993b",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -10714,8 +10716,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H12" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A13)&gt;0," , ","")</f>
+      <c r="H12" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://05a543f8-0d75-4a25-9b0f-2ef7c6ac85dc",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -10742,8 +10744,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H13" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A14)&gt;0," , ","")</f>
+      <c r="H13" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://e6075665-67ee-49d2-8fde-61d8fc6ec50e",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -10770,8 +10772,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H14" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A15)&gt;0," , ","")</f>
+      <c r="H14" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://9d4db68d-d527-4cb5-8a3b-c8d1c3ad3024",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -10798,8 +10800,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H15" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A16)&gt;0," , ","")</f>
+      <c r="H15" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://79effdbf-2779-4049-be0b-d8c0c284046e",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -10826,8 +10828,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H16" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A17)&gt;0," , ","")</f>
+      <c r="H16" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://7c0fc06b-4f02-4bf8-8aea-f0125f397555",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -10854,8 +10856,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H17" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A18)&gt;0," , ","")</f>
+      <c r="H17" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://fd2a800d-5bc8-4083-a2c9-4618900d5045",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -10882,8 +10884,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H18" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A19)&gt;0," , ","")</f>
+      <c r="H18" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://3ccea8b2-c856-40ee-aff5-c19817be4ea6",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -10910,8 +10912,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H19" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A20)&gt;0," , ","")</f>
+      <c r="H19" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://f4b080c7-75ee-40b7-848c-a1824bfaa483",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -10938,8 +10940,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H20" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A21)&gt;0," , ","")</f>
+      <c r="H20" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://502a7e29-40bb-4ebd-9666-a0651a920b9a",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -10966,8 +10968,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H21" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A22)&gt;0," , ","")</f>
+      <c r="H21" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://192a8f61-aac0-4261-918c-b1a31f8f26f6",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -10994,8 +10996,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H22" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A23)&gt;0," , ","")</f>
+      <c r="H22" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://e4b86eaf-25ba-4ad5-a52e-35b5c9c17b70",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -11022,8 +11024,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H23" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A24)&gt;0," , ","")</f>
+      <c r="H23" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://aa1a1b4b-c9b4-4d72-96ac-f45f38802f70",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -11050,8 +11052,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H24" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A25)&gt;0," , ","")</f>
+      <c r="H24" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://90139a7b-12bc-4ca1-b8c1-05f15f8baeb3",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -11078,8 +11080,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H25" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A26)&gt;0," , ","")</f>
+      <c r="H25" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://af4ffdd5-8e19-425f-9ff0-2be6fe96c244",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -11106,8 +11108,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H26" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A27)&gt;0," , ","")</f>
+      <c r="H26" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://2317c0f4-c75a-4130-9965-c039bc39db62",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -11134,8 +11136,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H27" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A28)&gt;0," , ","")</f>
+      <c r="H27" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://8ae601e0-32dd-49d0-8c34-76196ad59861",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -11162,8 +11164,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H28" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A29)&gt;0," , ","")</f>
+      <c r="H28" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://f5cd3cf1-f5d3-4f50-a951-e898b9272eb1",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -11190,8 +11192,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H29" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A30)&gt;0," , ","")</f>
+      <c r="H29" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://ed51310a-b84e-4864-9ada-583139871511",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -11218,8 +11220,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H30" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A31)&gt;0," , ","")</f>
+      <c r="H30" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://9202217f-e525-46e8-b539-8d2206a526d0",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -11246,8 +11248,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H31" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A32)&gt;0," , ","")</f>
+      <c r="H31" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://2e7de2ea-9a33-4fd1-aeff-3ab2abf40adc",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -11274,8 +11276,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H32" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A33)&gt;0," , ","")</f>
+      <c r="H32" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://a0182840-d318-48dc-a2f9-550d9a39b9b5",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -11302,8 +11304,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H33" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A34)&gt;0," , ","")</f>
+      <c r="H33" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://5c06cf2d-4b1d-4ee7-b0ce-64bc5f1fd429",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -11330,8 +11332,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H34" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A35)&gt;0," , ","")</f>
+      <c r="H34" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://622eae32-5c48-4c2f-8b93-dc655380e0e5",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -11358,8 +11360,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H35" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A36)&gt;0," , ","")</f>
+      <c r="H35" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://23843ee2-0209-4809-9929-f33cc315fcc0",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -11386,8 +11388,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H36" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A37)&gt;0," , ","")</f>
+      <c r="H36" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://6300a1bb-906c-4013-82cc-4d30f62dfac5",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -11414,8 +11416,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H37" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A38)&gt;0," , ","")</f>
+      <c r="H37" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://13421f9e-1bff-4575-820d-1806c8d31190",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -11442,8 +11444,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H38" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A39)&gt;0," , ","")</f>
+      <c r="H38" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://a2ecef3f-df23-467a-bfe1-1fa2d331442d",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -11470,8 +11472,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H39" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A40)&gt;0," , ","")</f>
+      <c r="H39" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://ee988673-4459-4630-91c3-6f6d9084641e",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -11498,8 +11500,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H40" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A41)&gt;0," , ","")</f>
+      <c r="H40" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://93a381ad-c00d-4ee3-9a5a-fa47308efe64",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -11526,8 +11528,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H41" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A42)&gt;0," , ","")</f>
+      <c r="H41" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://b8616225-0496-417d-bcb9-be4a8bc54c7d",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -11554,8 +11556,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H42" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A43)&gt;0," , ","")</f>
+      <c r="H42" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://bc9721c0-6db1-4dd3-a5e2-4e3823ac112b",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -11582,8 +11584,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H43" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A44)&gt;0," , ","")</f>
+      <c r="H43" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://11252d6b-4da4-4fbd-8fe8-d7f36ffbd4c7",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -11610,8 +11612,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H44" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A45)&gt;0," , ","")</f>
+      <c r="H44" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://dbcc610b-ab0e-4a82-9aba-af849ffb6b6b",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -11638,8 +11640,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H45" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A46)&gt;0," , ","")</f>
+      <c r="H45" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://cb979e8b-8c81-42fe-a093-455a823f067d",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -11666,8 +11668,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H46" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A47)&gt;0," , ","")</f>
+      <c r="H46" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://770495fe-e2b3-43aa-925a-dc4223a99c92",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -11694,8 +11696,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H47" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A48)&gt;0," , ","")</f>
+      <c r="H47" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://4c6642bc-dfe4-45d6-8077-52210d6dff15",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -11722,8 +11724,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H48" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A49)&gt;0," , ","")</f>
+      <c r="H48" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://b54e7190-040d-469d-8836-dd7afa6aed91",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -11750,8 +11752,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H49" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A50)&gt;0," , ","")</f>
+      <c r="H49" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://2af95444-262e-4d3d-93e4-3e9b09d8cc2f",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -11778,8 +11780,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H50" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A51)&gt;0," , ","")</f>
+      <c r="H50" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://1a1bb32e-3a44-4ce1-be6f-6095ff8306dc",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -11806,8 +11808,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H51" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A52)&gt;0," , ","")</f>
+      <c r="H51" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://4c97d00a-f9b7-4073-93bc-968c29f4e86a",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -11834,8 +11836,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H52" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A53)&gt;0," , ","")</f>
+      <c r="H52" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://7766a637-23b8-44aa-a043-3ccba9693d98",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -11862,8 +11864,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H53" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A54)&gt;0," , ","")</f>
+      <c r="H53" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://0689abfa-06cc-49a5-adb6-0e53134b0958",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -11890,8 +11892,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H54" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A55)&gt;0," , ","")</f>
+      <c r="H54" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://476aab86-01a7-4cc8-a80e-b2f36ad6ed0e",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -11918,8 +11920,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H55" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A56)&gt;0," , ","")</f>
+      <c r="H55" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://9c51c8d1-1948-4d63-9dc1-31e7ffe40865",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -11946,8 +11948,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H56" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A57)&gt;0," , ","")</f>
+      <c r="H56" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://4f773a4e-d1f7-4eb4-9a6f-5f81919bd4c5",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -11974,8 +11976,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H57" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A58)&gt;0," , ","")</f>
+      <c r="H57" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://94a8c78e-a71b-449d-aee7-38590853c242",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -12002,8 +12004,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H58" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A59)&gt;0," , ","")</f>
+      <c r="H58" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://23e9ff8a-c0fd-40a3-8849-a1f1579f1179",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -12030,8 +12032,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H59" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A60)&gt;0," , ","")</f>
+      <c r="H59" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://43a9f1ee-41d1-4181-9360-4415f9624ce2",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -12058,8 +12060,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H60" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A61)&gt;0," , ","")</f>
+      <c r="H60" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://cb4ac0f8-8d6e-4458-a018-66484ce4dff9",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -12086,8 +12088,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H61" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A62)&gt;0," , ","")</f>
+      <c r="H61" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://d57e47d9-3ad4-45d3-9dd9-c7898dcfbfbc",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -12114,8 +12116,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H62" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A63)&gt;0," , ","")</f>
+      <c r="H62" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://3637b365-f83f-4746-9bad-041537e4ff2c",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -12142,8 +12144,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H63" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A64)&gt;0," , ","")</f>
+      <c r="H63" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://9497068c-5c42-48e2-8de9-14a2e44dc651",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -12170,8 +12172,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H64" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A65)&gt;0," , ","")</f>
+      <c r="H64" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://dfe045e9-42ad-41e5-a2a0-9890b219e4f7",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -12198,8 +12200,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H65" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A66)&gt;0," , ","")</f>
+      <c r="H65" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://955f3107-fd5f-46bc-a28d-f18f82cc8cf6",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -12226,8 +12228,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H66" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A67)&gt;0," , ","")</f>
+      <c r="H66" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://f7fe2ff1-5756-4ff9-a3fd-15961118746b",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -12254,8 +12256,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H67" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A68)&gt;0," , ","")</f>
+      <c r="H67" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://4588b052-b643-4add-ade9-803c3607ffbd",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -12282,8 +12284,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H68" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A69)&gt;0," , ","")</f>
+      <c r="H68" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://16b3ad7e-8e05-4f35-a81a-4e28b3456f73",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -12310,8 +12312,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H69" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A70)&gt;0," , ","")</f>
+      <c r="H69" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://63653fbb-2f01-4952-a455-a637f46db7ee",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -12338,8 +12340,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H70" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A71)&gt;0," , ","")</f>
+      <c r="H70" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://d1567958-1d4b-48eb-9613-fbfe7dc352b4",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -12366,8 +12368,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H71" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A72)&gt;0," , ","")</f>
+      <c r="H71" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://1e15d29f-3bfc-4c23-8be7-6f4bb0e19df9",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -12394,8 +12396,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H72" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A73)&gt;0," , ","")</f>
+      <c r="H72" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://dd8bdf36-fdd1-4046-9fb7-f36848840cdd",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -12422,8 +12424,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H73" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A74)&gt;0," , ","")</f>
+      <c r="H73" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://b320523a-00e1-4700-bdac-8ff06aad24fc",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -12450,8 +12452,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H74" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A75)&gt;0," , ","")</f>
+      <c r="H74" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://af258f6f-4dea-4f5a-936d-be49c638b262",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -12478,8 +12480,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H75" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A76)&gt;0," , ","")</f>
+      <c r="H75" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://04171b5e-c892-4647-aba2-9eed98b15214",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -12506,8 +12508,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H76" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A77)&gt;0," , ","")</f>
+      <c r="H76" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://0063a81d-a4ec-4588-bc34-d261c64a76d9",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -12534,8 +12536,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H77" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A78)&gt;0," , ","")</f>
+      <c r="H77" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://c1835ecc-f9ea-4449-af7b-2fcea845763c",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -12562,8 +12564,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H78" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A79)&gt;0," , ","")</f>
+      <c r="H78" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://7107881c-c5c3-4939-8886-5c7fd5a87b8c",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -12590,8 +12592,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H79" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A80)&gt;0," , ","")</f>
+      <c r="H79" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://5a452f49-bb74-4f96-8656-65f6df9856be",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -12618,8 +12620,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H80" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A81)&gt;0," , ","")</f>
+      <c r="H80" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://a4ebdfba-9bc3-4d91-98cc-7f652d849c3a",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -12646,8 +12648,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H81" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A82)&gt;0," , ","")</f>
+      <c r="H81" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://5da946b7-7b4e-4e7b-8cfd-4eb5c020b0c0",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -12674,8 +12676,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H82" s="6" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A83)&gt;0," , ","")</f>
+      <c r="H82" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://95580059-5628-403f-81c8-a3c5aa4d91ec",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -12704,8 +12706,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v>"label" : { "id" : "a7311ed0-9ba6-4a6e-8066-caa2a2247991" , "functor" : "tag list" , "components" : [ { value" : "FAVORITE", "type" : "string" } ] },</v>
       </c>
-      <c r="H83" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A84)&gt;0," , ","")</f>
+      <c r="H83" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://89cbeaaf-bb58-48a4-8bdf-2917d6ae110d",  "trgt" : "agent://40c96981-ca91-4083-9dfc-76826df0f432" }  , </v>
       </c>
     </row>
@@ -12734,8 +12736,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v>"label" : { "id" : "a7311ed0-9ba6-4a6e-8066-caa2a2247991" , "functor" : "tag list" , "components" : [ { value" : "FAVORITE", "type" : "string" } ] },</v>
       </c>
-      <c r="H84" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A85)&gt;0," , ","")</f>
+      <c r="H84" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://40c96981-ca91-4083-9dfc-76826df0f432",  "trgt" : "agent://90139a7b-12bc-4ca1-b8c1-05f15f8baeb3" }  , </v>
       </c>
     </row>
@@ -12764,8 +12766,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v>"label" : { "id" : "a7311ed0-9ba6-4a6e-8066-caa2a2247991" , "functor" : "tag list" , "components" : [ { value" : "FAVORITE", "type" : "string" } ] },</v>
       </c>
-      <c r="H85" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A86)&gt;0," , ","")</f>
+      <c r="H85" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://c6a3c02e-5724-4a35-adc7-ddc37d3c721b",  "trgt" : "agent://fd2a800d-5bc8-4083-a2c9-4618900d5045" }  , </v>
       </c>
     </row>
@@ -12794,8 +12796,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v>"label" : { "id" : "a7311ed0-9ba6-4a6e-8066-caa2a2247991" , "functor" : "tag list" , "components" : [ { value" : "FAVORITE", "type" : "string" } ] },</v>
       </c>
-      <c r="H86" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A87)&gt;0," , ","")</f>
+      <c r="H86" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://23c3669c-de78-4a5d-8c15-4a3792a96f10",  "trgt" : "agent://23843ee2-0209-4809-9929-f33cc315fcc0" }  , </v>
       </c>
     </row>
@@ -12824,8 +12826,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v>"label" : { "id" : "a7311ed0-9ba6-4a6e-8066-caa2a2247991" , "functor" : "tag list" , "components" : [ { value" : "FAVORITE", "type" : "string" } ] },</v>
       </c>
-      <c r="H87" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A88)&gt;0," , ","")</f>
+      <c r="H87" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://904e5b1e-1314-41da-bdac-f79ff7722e77",  "trgt" : "agent://d57e47d9-3ad4-45d3-9dd9-c7898dcfbfbc" }  , </v>
       </c>
     </row>
@@ -12854,8 +12856,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v>"label" : { "id" : "a7311ed0-9ba6-4a6e-8066-caa2a2247991" , "functor" : "tag list" , "components" : [ { value" : "FAVORITE", "type" : "string" } ] },</v>
       </c>
-      <c r="H88" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A89)&gt;0," , ","")</f>
+      <c r="H88" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://f9ad7bb7-1524-4e1a-bf8e-3611859f1875",  "trgt" : "agent://4c97d00a-f9b7-4073-93bc-968c29f4e86a" }  , </v>
       </c>
     </row>
@@ -12884,8 +12886,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v>"label" : { "id" : "a7311ed0-9ba6-4a6e-8066-caa2a2247991" , "functor" : "tag list" , "components" : [ { value" : "FAVORITE", "type" : "string" } ] },</v>
       </c>
-      <c r="H89" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A90)&gt;0," , ","")</f>
+      <c r="H89" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://f5f1785b-48a4-4078-b9f8-f2b99f74e608",  "trgt" : "agent://b8616225-0496-417d-bcb9-be4a8bc54c7d" }  , </v>
       </c>
     </row>
@@ -12914,8 +12916,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v>"label" : { "id" : "a7311ed0-9ba6-4a6e-8066-caa2a2247991" , "functor" : "tag list" , "components" : [ { value" : "FAVORITE", "type" : "string" } ] },</v>
       </c>
-      <c r="H90" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A91)&gt;0," , ","")</f>
+      <c r="H90" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://b65fb366-a405-41e9-82c5-f51726fad95b",  "trgt" : "agent://93a381ad-c00d-4ee3-9a5a-fa47308efe64" }  , </v>
       </c>
     </row>
@@ -12944,8 +12946,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v>"label" : { "id" : "a7311ed0-9ba6-4a6e-8066-caa2a2247991" , "functor" : "tag list" , "components" : [ { value" : "FAVORITE", "type" : "string" } ] },</v>
       </c>
-      <c r="H91" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A92)&gt;0," , ","")</f>
+      <c r="H91" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://4461f860-d367-4cb0-af03-332ea72e9053",  "trgt" : "agent://4c97d00a-f9b7-4073-93bc-968c29f4e86a" }  , </v>
       </c>
     </row>
@@ -12974,8 +12976,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v>"label" : { "id" : "a7311ed0-9ba6-4a6e-8066-caa2a2247991" , "functor" : "tag list" , "components" : [ { value" : "FAVORITE", "type" : "string" } ] },</v>
       </c>
-      <c r="H92" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A93)&gt;0," , ","")</f>
+      <c r="H92" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://2413be6a-7573-454d-a393-1d22e45c993b",  "trgt" : "agent://9202217f-e525-46e8-b539-8d2206a526d0" }  , </v>
       </c>
     </row>
@@ -13004,8 +13006,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v>"label" : { "id" : "a7311ed0-9ba6-4a6e-8066-caa2a2247991" , "functor" : "tag list" , "components" : [ { value" : "FAVORITE", "type" : "string" } ] },</v>
       </c>
-      <c r="H93" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A94)&gt;0," , ","")</f>
+      <c r="H93" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://05a543f8-0d75-4a25-9b0f-2ef7c6ac85dc",  "trgt" : "agent://f9ad7bb7-1524-4e1a-bf8e-3611859f1875" }  , </v>
       </c>
     </row>
@@ -13034,8 +13036,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v>"label" : { "id" : "a7311ed0-9ba6-4a6e-8066-caa2a2247991" , "functor" : "tag list" , "components" : [ { value" : "IGNORE", "type" : "string" } ] },</v>
       </c>
-      <c r="H94" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A95)&gt;0," , ","")</f>
+      <c r="H94" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://e6075665-67ee-49d2-8fde-61d8fc6ec50e",  "trgt" : "agent://f7fe2ff1-5756-4ff9-a3fd-15961118746b" }  , </v>
       </c>
     </row>
@@ -13064,8 +13066,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v>"label" : { "id" : "a7311ed0-9ba6-4a6e-8066-caa2a2247991" , "functor" : "tag list" , "components" : [ { value" : "IGNORE", "type" : "string" } ] },</v>
       </c>
-      <c r="H95" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A96)&gt;0," , ","")</f>
+      <c r="H95" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://9d4db68d-d527-4cb5-8a3b-c8d1c3ad3024",  "trgt" : "agent://b8616225-0496-417d-bcb9-be4a8bc54c7d" }  , </v>
       </c>
     </row>
@@ -13092,8 +13094,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H96" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A97)&gt;0," , ","")</f>
+      <c r="H96" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://79effdbf-2779-4049-be0b-d8c0c284046e",  "trgt" : "agent://8ae601e0-32dd-49d0-8c34-76196ad59861" }  , </v>
       </c>
     </row>
@@ -13120,8 +13122,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H97" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A98)&gt;0," , ","")</f>
+      <c r="H97" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://7c0fc06b-4f02-4bf8-8aea-f0125f397555",  "trgt" : "agent://05a543f8-0d75-4a25-9b0f-2ef7c6ac85dc" }  , </v>
       </c>
     </row>
@@ -13148,8 +13150,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H98" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A99)&gt;0," , ","")</f>
+      <c r="H98" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://fd2a800d-5bc8-4083-a2c9-4618900d5045",  "trgt" : "agent://dfe045e9-42ad-41e5-a2a0-9890b219e4f7" }  , </v>
       </c>
     </row>
@@ -13176,8 +13178,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H99" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A100)&gt;0," , ","")</f>
+      <c r="H99" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://3ccea8b2-c856-40ee-aff5-c19817be4ea6",  "trgt" : "agent://dfe045e9-42ad-41e5-a2a0-9890b219e4f7" }  , </v>
       </c>
     </row>
@@ -13204,8 +13206,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H100" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A101)&gt;0," , ","")</f>
+      <c r="H100" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://f4b080c7-75ee-40b7-848c-a1824bfaa483",  "trgt" : "agent://5c06cf2d-4b1d-4ee7-b0ce-64bc5f1fd429" }  , </v>
       </c>
     </row>
@@ -13232,8 +13234,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H101" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A102)&gt;0," , ","")</f>
+      <c r="H101" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://502a7e29-40bb-4ebd-9666-a0651a920b9a",  "trgt" : "agent://f7fe2ff1-5756-4ff9-a3fd-15961118746b" }  , </v>
       </c>
     </row>
@@ -13260,8 +13262,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H102" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A103)&gt;0," , ","")</f>
+      <c r="H102" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://192a8f61-aac0-4261-918c-b1a31f8f26f6",  "trgt" : "agent://43a9f1ee-41d1-4181-9360-4415f9624ce2" }  , </v>
       </c>
     </row>
@@ -13288,8 +13290,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H103" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A104)&gt;0," , ","")</f>
+      <c r="H103" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://e4b86eaf-25ba-4ad5-a52e-35b5c9c17b70",  "trgt" : "agent://5da946b7-7b4e-4e7b-8cfd-4eb5c020b0c0" }  , </v>
       </c>
     </row>
@@ -13316,8 +13318,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H104" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A105)&gt;0," , ","")</f>
+      <c r="H104" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://aa1a1b4b-c9b4-4d72-96ac-f45f38802f70",  "trgt" : "agent://5da946b7-7b4e-4e7b-8cfd-4eb5c020b0c0" }  , </v>
       </c>
     </row>
@@ -13344,8 +13346,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H105" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A106)&gt;0," , ","")</f>
+      <c r="H105" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://90139a7b-12bc-4ca1-b8c1-05f15f8baeb3",  "trgt" : "agent://476aab86-01a7-4cc8-a80e-b2f36ad6ed0e" }  , </v>
       </c>
     </row>
@@ -13372,8 +13374,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H106" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A107)&gt;0," , ","")</f>
+      <c r="H106" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://af4ffdd5-8e19-425f-9ff0-2be6fe96c244",  "trgt" : "agent://f5cd3cf1-f5d3-4f50-a951-e898b9272eb1" }  , </v>
       </c>
     </row>
@@ -13400,8 +13402,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H107" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A108)&gt;0," , ","")</f>
+      <c r="H107" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://2317c0f4-c75a-4130-9965-c039bc39db62",  "trgt" : "agent://fd2a800d-5bc8-4083-a2c9-4618900d5045" }  , </v>
       </c>
     </row>
@@ -13428,8 +13430,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H108" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A109)&gt;0," , ","")</f>
+      <c r="H108" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://8ae601e0-32dd-49d0-8c34-76196ad59861",  "trgt" : "agent://8ae601e0-32dd-49d0-8c34-76196ad59861" }  , </v>
       </c>
     </row>
@@ -13456,8 +13458,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H109" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A110)&gt;0," , ","")</f>
+      <c r="H109" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://f5cd3cf1-f5d3-4f50-a951-e898b9272eb1",  "trgt" : "agent://a0182840-d318-48dc-a2f9-550d9a39b9b5" }  , </v>
       </c>
     </row>
@@ -13484,8 +13486,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H110" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A111)&gt;0," , ","")</f>
+      <c r="H110" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://ed51310a-b84e-4864-9ada-583139871511",  "trgt" : "agent://af258f6f-4dea-4f5a-936d-be49c638b262" }  , </v>
       </c>
     </row>
@@ -13512,8 +13514,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H111" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A112)&gt;0," , ","")</f>
+      <c r="H111" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://9202217f-e525-46e8-b539-8d2206a526d0",  "trgt" : "agent://904e5b1e-1314-41da-bdac-f79ff7722e77" }  , </v>
       </c>
     </row>
@@ -13540,8 +13542,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H112" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A113)&gt;0," , ","")</f>
+      <c r="H112" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://2e7de2ea-9a33-4fd1-aeff-3ab2abf40adc",  "trgt" : "agent://5a452f49-bb74-4f96-8656-65f6df9856be" }  , </v>
       </c>
     </row>
@@ -13568,8 +13570,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H113" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A114)&gt;0," , ","")</f>
+      <c r="H113" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://a0182840-d318-48dc-a2f9-550d9a39b9b5",  "trgt" : "agent://93a381ad-c00d-4ee3-9a5a-fa47308efe64" }  , </v>
       </c>
     </row>
@@ -13596,8 +13598,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H114" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A115)&gt;0," , ","")</f>
+      <c r="H114" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://5c06cf2d-4b1d-4ee7-b0ce-64bc5f1fd429",  "trgt" : "agent://1e15d29f-3bfc-4c23-8be7-6f4bb0e19df9" }  , </v>
       </c>
     </row>
@@ -13624,8 +13626,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H115" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A116)&gt;0," , ","")</f>
+      <c r="H115" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://622eae32-5c48-4c2f-8b93-dc655380e0e5",  "trgt" : "agent://05a543f8-0d75-4a25-9b0f-2ef7c6ac85dc" }  , </v>
       </c>
     </row>
@@ -13652,8 +13654,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H116" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A117)&gt;0," , ","")</f>
+      <c r="H116" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://23843ee2-0209-4809-9929-f33cc315fcc0",  "trgt" : "agent://c6a3c02e-5724-4a35-adc7-ddc37d3c721b" }  , </v>
       </c>
     </row>
@@ -13680,8 +13682,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H117" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A118)&gt;0," , ","")</f>
+      <c r="H117" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://6300a1bb-906c-4013-82cc-4d30f62dfac5",  "trgt" : "agent://1a1bb32e-3a44-4ce1-be6f-6095ff8306dc" }  , </v>
       </c>
     </row>
@@ -13708,8 +13710,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H118" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A119)&gt;0," , ","")</f>
+      <c r="H118" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://13421f9e-1bff-4575-820d-1806c8d31190",  "trgt" : "agent://dd8bdf36-fdd1-4046-9fb7-f36848840cdd" }  , </v>
       </c>
     </row>
@@ -13736,8 +13738,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H119" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A120)&gt;0," , ","")</f>
+      <c r="H119" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://a2ecef3f-df23-467a-bfe1-1fa2d331442d",  "trgt" : "agent://192a8f61-aac0-4261-918c-b1a31f8f26f6" }  , </v>
       </c>
     </row>
@@ -13764,8 +13766,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H120" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A121)&gt;0," , ","")</f>
+      <c r="H120" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://ee988673-4459-4630-91c3-6f6d9084641e",  "trgt" : "agent://8ae601e0-32dd-49d0-8c34-76196ad59861" }  , </v>
       </c>
     </row>
@@ -13792,8 +13794,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H121" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A122)&gt;0," , ","")</f>
+      <c r="H121" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://93a381ad-c00d-4ee3-9a5a-fa47308efe64",  "trgt" : "agent://2e7de2ea-9a33-4fd1-aeff-3ab2abf40adc" }  , </v>
       </c>
     </row>
@@ -13820,8 +13822,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H122" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A123)&gt;0," , ","")</f>
+      <c r="H122" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://b8616225-0496-417d-bcb9-be4a8bc54c7d",  "trgt" : "agent://bc9721c0-6db1-4dd3-a5e2-4e3823ac112b" }  , </v>
       </c>
     </row>
@@ -13848,8 +13850,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H123" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A124)&gt;0," , ","")</f>
+      <c r="H123" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://bc9721c0-6db1-4dd3-a5e2-4e3823ac112b",  "trgt" : "agent://9497068c-5c42-48e2-8de9-14a2e44dc651" }  , </v>
       </c>
     </row>
@@ -13876,8 +13878,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H124" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A125)&gt;0," , ","")</f>
+      <c r="H124" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://11252d6b-4da4-4fbd-8fe8-d7f36ffbd4c7",  "trgt" : "agent://23c3669c-de78-4a5d-8c15-4a3792a96f10" }  , </v>
       </c>
     </row>
@@ -13904,8 +13906,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H125" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A126)&gt;0," , ","")</f>
+      <c r="H125" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://dbcc610b-ab0e-4a82-9aba-af849ffb6b6b",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -13932,8 +13934,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H126" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A127)&gt;0," , ","")</f>
+      <c r="H126" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://cb979e8b-8c81-42fe-a093-455a823f067d",  "trgt" : "agent://04171b5e-c892-4647-aba2-9eed98b15214" }  , </v>
       </c>
     </row>
@@ -13960,8 +13962,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H127" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A128)&gt;0," , ","")</f>
+      <c r="H127" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://770495fe-e2b3-43aa-925a-dc4223a99c92",  "trgt" : "agent://b54e7190-040d-469d-8836-dd7afa6aed91" }  , </v>
       </c>
     </row>
@@ -13988,8 +13990,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H128" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A129)&gt;0," , ","")</f>
+      <c r="H128" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://4c6642bc-dfe4-45d6-8077-52210d6dff15",  "trgt" : "agent://7766a637-23b8-44aa-a043-3ccba9693d98" }  , </v>
       </c>
     </row>
@@ -14016,8 +14018,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H129" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A130)&gt;0," , ","")</f>
+      <c r="H129" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://b54e7190-040d-469d-8836-dd7afa6aed91",  "trgt" : "agent://13421f9e-1bff-4575-820d-1806c8d31190" }  , </v>
       </c>
     </row>
@@ -14044,8 +14046,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H130" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A131)&gt;0," , ","")</f>
+      <c r="H130" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://2af95444-262e-4d3d-93e4-3e9b09d8cc2f",  "trgt" : "agent://770495fe-e2b3-43aa-925a-dc4223a99c92" }  , </v>
       </c>
     </row>
@@ -14072,8 +14074,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H131" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A132)&gt;0," , ","")</f>
+      <c r="H131" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://1a1bb32e-3a44-4ce1-be6f-6095ff8306dc",  "trgt" : "agent://93a381ad-c00d-4ee3-9a5a-fa47308efe64" }  , </v>
       </c>
     </row>
@@ -14100,8 +14102,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H132" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A133)&gt;0," , ","")</f>
+      <c r="H132" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://4c97d00a-f9b7-4073-93bc-968c29f4e86a",  "trgt" : "agent://a4ebdfba-9bc3-4d91-98cc-7f652d849c3a" }  , </v>
       </c>
     </row>
@@ -14128,8 +14130,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H133" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A134)&gt;0," , ","")</f>
+      <c r="H133" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://7766a637-23b8-44aa-a043-3ccba9693d98",  "trgt" : "agent://0689abfa-06cc-49a5-adb6-0e53134b0958" }  , </v>
       </c>
     </row>
@@ -14156,8 +14158,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H134" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A135)&gt;0," , ","")</f>
+      <c r="H134" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://0689abfa-06cc-49a5-adb6-0e53134b0958",  "trgt" : "agent://16b3ad7e-8e05-4f35-a81a-4e28b3456f73" }  , </v>
       </c>
     </row>
@@ -14184,8 +14186,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H135" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A136)&gt;0," , ","")</f>
+      <c r="H135" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://476aab86-01a7-4cc8-a80e-b2f36ad6ed0e",  "trgt" : "agent://7c0fc06b-4f02-4bf8-8aea-f0125f397555" }  , </v>
       </c>
     </row>
@@ -14212,8 +14214,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H136" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A137)&gt;0," , ","")</f>
+      <c r="H136" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://9c51c8d1-1948-4d63-9dc1-31e7ffe40865",  "trgt" : "agent://11252d6b-4da4-4fbd-8fe8-d7f36ffbd4c7" }  , </v>
       </c>
     </row>
@@ -14240,8 +14242,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H137" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A138)&gt;0," , ","")</f>
+      <c r="H137" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://4f773a4e-d1f7-4eb4-9a6f-5f81919bd4c5",  "trgt" : "agent://c6a3c02e-5724-4a35-adc7-ddc37d3c721b" }  , </v>
       </c>
     </row>
@@ -14268,8 +14270,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H138" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A139)&gt;0," , ","")</f>
+      <c r="H138" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://94a8c78e-a71b-449d-aee7-38590853c242",  "trgt" : "agent://904e5b1e-1314-41da-bdac-f79ff7722e77" }  , </v>
       </c>
     </row>
@@ -14296,8 +14298,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H139" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A140)&gt;0," , ","")</f>
+      <c r="H139" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://23e9ff8a-c0fd-40a3-8849-a1f1579f1179",  "trgt" : "agent://04171b5e-c892-4647-aba2-9eed98b15214" }  , </v>
       </c>
     </row>
@@ -14324,8 +14326,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H140" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A141)&gt;0," , ","")</f>
+      <c r="H140" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://43a9f1ee-41d1-4181-9360-4415f9624ce2",  "trgt" : "agent://af258f6f-4dea-4f5a-936d-be49c638b262" }  , </v>
       </c>
     </row>
@@ -14352,8 +14354,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H141" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A142)&gt;0," , ","")</f>
+      <c r="H141" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://cb4ac0f8-8d6e-4458-a018-66484ce4dff9",  "trgt" : "agent://dfe045e9-42ad-41e5-a2a0-9890b219e4f7" }  , </v>
       </c>
     </row>
@@ -14380,8 +14382,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H142" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A143)&gt;0," , ","")</f>
+      <c r="H142" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://d57e47d9-3ad4-45d3-9dd9-c7898dcfbfbc",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -14408,8 +14410,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H143" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A144)&gt;0," , ","")</f>
+      <c r="H143" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://3637b365-f83f-4746-9bad-041537e4ff2c",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -14436,8 +14438,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H144" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A145)&gt;0," , ","")</f>
+      <c r="H144" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://9497068c-5c42-48e2-8de9-14a2e44dc651",  "trgt" : "agent://05a543f8-0d75-4a25-9b0f-2ef7c6ac85dc" }  , </v>
       </c>
     </row>
@@ -14464,8 +14466,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H145" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A146)&gt;0," , ","")</f>
+      <c r="H145" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://dfe045e9-42ad-41e5-a2a0-9890b219e4f7",  "trgt" : "agent://94a8c78e-a71b-449d-aee7-38590853c242" }  , </v>
       </c>
     </row>
@@ -14492,8 +14494,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H146" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A147)&gt;0," , ","")</f>
+      <c r="H146" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://955f3107-fd5f-46bc-a28d-f18f82cc8cf6",  "trgt" : "agent://95580059-5628-403f-81c8-a3c5aa4d91ec" }  , </v>
       </c>
     </row>
@@ -14520,8 +14522,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H147" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A148)&gt;0," , ","")</f>
+      <c r="H147" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://f7fe2ff1-5756-4ff9-a3fd-15961118746b",  "trgt" : "agent://2317c0f4-c75a-4130-9965-c039bc39db62" }  , </v>
       </c>
     </row>
@@ -14548,8 +14550,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H148" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A149)&gt;0," , ","")</f>
+      <c r="H148" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://4588b052-b643-4add-ade9-803c3607ffbd",  "trgt" : "agent://e6075665-67ee-49d2-8fde-61d8fc6ec50e" }  , </v>
       </c>
     </row>
@@ -14576,8 +14578,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H149" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A150)&gt;0," , ","")</f>
+      <c r="H149" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://16b3ad7e-8e05-4f35-a81a-4e28b3456f73",  "trgt" : "agent://1e15d29f-3bfc-4c23-8be7-6f4bb0e19df9" }  , </v>
       </c>
     </row>
@@ -14604,8 +14606,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H150" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A151)&gt;0," , ","")</f>
+      <c r="H150" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://63653fbb-2f01-4952-a455-a637f46db7ee",  "trgt" : "agent://13421f9e-1bff-4575-820d-1806c8d31190" }  , </v>
       </c>
     </row>
@@ -14632,8 +14634,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H151" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A152)&gt;0," , ","")</f>
+      <c r="H151" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://d1567958-1d4b-48eb-9613-fbfe7dc352b4",  "trgt" : "agent://ed51310a-b84e-4864-9ada-583139871511" }  , </v>
       </c>
     </row>
@@ -14660,8 +14662,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H152" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A153)&gt;0," , ","")</f>
+      <c r="H152" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://1e15d29f-3bfc-4c23-8be7-6f4bb0e19df9",  "trgt" : "agent://a4ebdfba-9bc3-4d91-98cc-7f652d849c3a" }  , </v>
       </c>
     </row>
@@ -14688,8 +14690,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H153" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A154)&gt;0," , ","")</f>
+      <c r="H153" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://dd8bdf36-fdd1-4046-9fb7-f36848840cdd",  "trgt" : "agent://bc9721c0-6db1-4dd3-a5e2-4e3823ac112b" }  , </v>
       </c>
     </row>
@@ -14716,8 +14718,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H154" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A155)&gt;0," , ","")</f>
+      <c r="H154" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://b320523a-00e1-4700-bdac-8ff06aad24fc",  "trgt" : "agent://1e15d29f-3bfc-4c23-8be7-6f4bb0e19df9" }  , </v>
       </c>
     </row>
@@ -14744,8 +14746,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H155" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A156)&gt;0," , ","")</f>
+      <c r="H155" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://af258f6f-4dea-4f5a-936d-be49c638b262",  "trgt" : "agent://8ae601e0-32dd-49d0-8c34-76196ad59861" }  , </v>
       </c>
     </row>
@@ -14772,8 +14774,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H156" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A157)&gt;0," , ","")</f>
+      <c r="H156" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://04171b5e-c892-4647-aba2-9eed98b15214",  "trgt" : "agent://af4ffdd5-8e19-425f-9ff0-2be6fe96c244" }  , </v>
       </c>
     </row>
@@ -14800,8 +14802,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H157" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A158)&gt;0," , ","")</f>
+      <c r="H157" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://0063a81d-a4ec-4588-bc34-d261c64a76d9",  "trgt" : "agent://8ae601e0-32dd-49d0-8c34-76196ad59861" }  , </v>
       </c>
     </row>
@@ -14828,8 +14830,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H158" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A159)&gt;0," , ","")</f>
+      <c r="H158" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://c1835ecc-f9ea-4449-af7b-2fcea845763c",  "trgt" : "agent://622eae32-5c48-4c2f-8b93-dc655380e0e5" }  , </v>
       </c>
     </row>
@@ -14856,8 +14858,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H159" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A160)&gt;0," , ","")</f>
+      <c r="H159" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://7107881c-c5c3-4939-8886-5c7fd5a87b8c",  "trgt" : "agent://7c0fc06b-4f02-4bf8-8aea-f0125f397555" }  , </v>
       </c>
     </row>
@@ -14884,8 +14886,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H160" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A161)&gt;0," , ","")</f>
+      <c r="H160" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://5a452f49-bb74-4f96-8656-65f6df9856be",  "trgt" : "agent://90139a7b-12bc-4ca1-b8c1-05f15f8baeb3" }  , </v>
       </c>
     </row>
@@ -14912,8 +14914,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H161" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A162)&gt;0," , ","")</f>
+      <c r="H161" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://a4ebdfba-9bc3-4d91-98cc-7f652d849c3a",  "trgt" : "agent://dbcc610b-ab0e-4a82-9aba-af849ffb6b6b" }  , </v>
       </c>
     </row>
@@ -14940,8 +14942,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H162" s="37" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A163)&gt;0," , ","")</f>
+      <c r="H162" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://5da946b7-7b4e-4e7b-8cfd-4eb5c020b0c0",  "trgt" : "agent://502a7e29-40bb-4ebd-9666-a0651a920b9a" }  , </v>
       </c>
     </row>
@@ -14968,8 +14970,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H163" s="35" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A164)&gt;0," , ","")</f>
+      <c r="H163" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://95580059-5628-403f-81c8-a3c5aa4d91ec",  "trgt" : "agent://4461f860-d367-4cb0-af03-332ea72e9053" }  , </v>
       </c>
     </row>
@@ -14996,8 +14998,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H164" s="45" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A165)&gt;0," , ","")</f>
+      <c r="H164" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://8ce7d7d3-4c83-48a5-b3b5-1eb0400f0408",  "trgt" : "agent://0aa85ff5-d572-400b-acd0-497c17641601" }  , </v>
       </c>
     </row>
@@ -15024,8 +15026,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H165" s="45" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A166)&gt;0," , ","")</f>
+      <c r="H165" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://97c8738f-a95b-4e35-a8b2-bac9cb0e14d1",  "trgt" : "agent://2e1b5dfe-feb3-46ed-abc8-f7342f1d5d61" }  , </v>
       </c>
     </row>
@@ -15052,8 +15054,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H166" s="45" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A167)&gt;0," , ","")</f>
+      <c r="H166" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://0aa85ff5-d572-400b-acd0-497c17641601",  "trgt" : "agent://5f172d03-3a60-4e59-94fa-a4190d416260" }  , </v>
       </c>
     </row>
@@ -15080,8 +15082,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H167" s="45" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A168)&gt;0," , ","")</f>
+      <c r="H167" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://2e1b5dfe-feb3-46ed-abc8-f7342f1d5d61",  "trgt" : "agent://96af8409-0805-4b62-84fe-f434572e6c9f" }  , </v>
       </c>
     </row>
@@ -15108,8 +15110,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H168" s="45" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A169)&gt;0," , ","")</f>
+      <c r="H168" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://96af8409-0805-4b62-84fe-f434572e6c9f",  "trgt" : "agent://96d82e92-a79f-454d-bf2b-fe27b3b36871" }  , </v>
       </c>
     </row>
@@ -15136,8 +15138,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H169" s="45" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A170)&gt;0," , ","")</f>
+      <c r="H169" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://96d82e92-a79f-454d-bf2b-fe27b3b36871",  "trgt" : "agent://97c8738f-a95b-4e35-a8b2-bac9cb0e14d1" }  , </v>
       </c>
     </row>
@@ -15164,8 +15166,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H170" s="43" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A171)&gt;0," , ","")</f>
+      <c r="H170" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://5f172d03-3a60-4e59-94fa-a4190d416260",  "trgt" : "agent://8ce7d7d3-4c83-48a5-b3b5-1eb0400f0408" }  , </v>
       </c>
     </row>
@@ -15192,8 +15194,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H171" s="43" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A172)&gt;0," , ","")</f>
+      <c r="H171" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://8ce7d7d3-4c83-48a5-b3b5-1eb0400f0408",  "trgt" : "agent://8ce7d7d3-4c83-48a5-b3b5-1eb0400f0408" }  , </v>
       </c>
     </row>
@@ -15220,8 +15222,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H172" s="45" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A173)&gt;0," , ","")</f>
+      <c r="H172" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://60582911-c2cd-4c14-8513-d13b9cc8cbff",  "trgt" : "agent://09f536f2-99d5-4c6d-bee8-6209e4fa650b" }  , </v>
       </c>
     </row>
@@ -15248,8 +15250,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H173" s="45" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A174)&gt;0," , ","")</f>
+      <c r="H173" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://d2dd3995-b195-49ad-9e21-d1b90f9edc29",  "trgt" : "agent://09f536f2-99d5-4c6d-bee8-6209e4fa650b" }  , </v>
       </c>
     </row>
@@ -15276,8 +15278,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H174" s="45" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A175)&gt;0," , ","")</f>
+      <c r="H174" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://60582911-c2cd-4c14-8513-d13b9cc8cbff",  "trgt" : "agent://727f1d78-d9e6-4d17-b36b-d30485942d02" }  , </v>
       </c>
     </row>
@@ -15304,8 +15306,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H175" s="45" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A176)&gt;0," , ","")</f>
+      <c r="H175" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://d2dd3995-b195-49ad-9e21-d1b90f9edc29",  "trgt" : "agent://727f1d78-d9e6-4d17-b36b-d30485942d02" }  , </v>
       </c>
     </row>
@@ -15332,8 +15334,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H176" s="45" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A177)&gt;0," , ","")</f>
+      <c r="H176" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://95204302-2882-4c94-8631-5c494efeb2c2",  "trgt" : "agent://09f536f2-99d5-4c6d-bee8-6209e4fa650b" }  , </v>
       </c>
     </row>
@@ -15360,8 +15362,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H177" s="45" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A178)&gt;0," , ","")</f>
+      <c r="H177" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://98e22eea-4bc7-4ea6-9196-ec995ff038f7",  "trgt" : "agent://09f536f2-99d5-4c6d-bee8-6209e4fa650b" }  , </v>
       </c>
     </row>
@@ -15388,8 +15390,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H178" s="45" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A179)&gt;0," , ","")</f>
+      <c r="H178" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://a2a73d30-274a-4173-b405-50a99eac3e2f",  "trgt" : "agent://09f536f2-99d5-4c6d-bee8-6209e4fa650b" }  , </v>
       </c>
     </row>
@@ -15416,8 +15418,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H179" s="45" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A180)&gt;0," , ","")</f>
+      <c r="H179" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://09f536f2-99d5-4c6d-bee8-6209e4fa650b",  "trgt" : "agent://d2dd3995-b195-49ad-9e21-d1b90f9edc29" }  , </v>
       </c>
     </row>
@@ -15444,8 +15446,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H180" s="45" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A181)&gt;0," , ","")</f>
+      <c r="H180" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://09f536f2-99d5-4c6d-bee8-6209e4fa650b",  "trgt" : "agent://aedaead9-fba3-4e87-a628-646e0064ca54" }  , </v>
       </c>
     </row>
@@ -15472,8 +15474,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H181" s="45" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A182)&gt;0," , ","")</f>
+      <c r="H181" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://09f536f2-99d5-4c6d-bee8-6209e4fa650b",  "trgt" : "agent://d2dd3995-b195-49ad-9e21-d1b90f9edc29" }  , </v>
       </c>
     </row>
@@ -15500,8 +15502,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H182" s="45" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A183)&gt;0," , ","")</f>
+      <c r="H182" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://09f536f2-99d5-4c6d-bee8-6209e4fa650b",  "trgt" : "agent://95204302-2882-4c94-8631-5c494efeb2c2" }  , </v>
       </c>
     </row>
@@ -15528,8 +15530,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H183" s="45" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A184)&gt;0," , ","")</f>
+      <c r="H183" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://09f536f2-99d5-4c6d-bee8-6209e4fa650b",  "trgt" : "agent://98e22eea-4bc7-4ea6-9196-ec995ff038f7" }  , </v>
       </c>
     </row>
@@ -15556,8 +15558,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H184" s="45" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A185)&gt;0," , ","")</f>
+      <c r="H184" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://09f536f2-99d5-4c6d-bee8-6209e4fa650b",  "trgt" : "agent://a2a73d30-274a-4173-b405-50a99eac3e2f" }  , </v>
       </c>
     </row>
@@ -15584,8 +15586,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H185" s="45" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A186)&gt;0," , ","")</f>
+      <c r="H185" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://09f536f2-99d5-4c6d-bee8-6209e4fa650b",  "trgt" : "agent://179ee405-aa43-4b8a-9e94-a49dc3b3d07d" }  , </v>
       </c>
     </row>
@@ -15612,8 +15614,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H186" s="45" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A187)&gt;0," , ","")</f>
+      <c r="H186" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://727f1d78-d9e6-4d17-b36b-d30485942d02",  "trgt" : "agent://d2dd3995-b195-49ad-9e21-d1b90f9edc29" }  , </v>
       </c>
     </row>
@@ -15640,8 +15642,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H187" s="45" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A188)&gt;0," , ","")</f>
+      <c r="H187" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://727f1d78-d9e6-4d17-b36b-d30485942d02",  "trgt" : "agent://aedaead9-fba3-4e87-a628-646e0064ca54" }  , </v>
       </c>
     </row>
@@ -15668,8 +15670,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H188" s="45" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A189)&gt;0," , ","")</f>
+      <c r="H188" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://aedaead9-fba3-4e87-a628-646e0064ca54",  "trgt" : "agent://09f536f2-99d5-4c6d-bee8-6209e4fa650b" }  , </v>
       </c>
     </row>
@@ -15696,8 +15698,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H189" s="45" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A190)&gt;0," , ","")</f>
+      <c r="H189" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://aedaead9-fba3-4e87-a628-646e0064ca54",  "trgt" : "agent://727f1d78-d9e6-4d17-b36b-d30485942d02" }  , </v>
       </c>
     </row>
@@ -15724,8 +15726,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H190" s="43" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A191)&gt;0," , ","")</f>
+      <c r="H190" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://179ee405-aa43-4b8a-9e94-a49dc3b3d07d",  "trgt" : "agent://09f536f2-99d5-4c6d-bee8-6209e4fa650b" }  , </v>
       </c>
     </row>
@@ -15752,8 +15754,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H191" s="48" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A192)&gt;0," , ","")</f>
+      <c r="H191" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://89cbeaaf-bb58-48a4-8bdf-2917d6ae110d",  "trgt" : "agent://2e1b5dfe-feb3-46ed-abc8-f7342f1d5d61" }  , </v>
       </c>
     </row>
@@ -15780,8 +15782,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H192" s="48" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A193)&gt;0," , ","")</f>
+      <c r="H192" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://2e1b5dfe-feb3-46ed-abc8-f7342f1d5d61",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -15808,8 +15810,8 @@
         <f>IF(LEN(Table134[[#This Row],[Label]])&gt;0,"""label"" : { ""id"" : ""a7311ed0-9ba6-4a6e-8066-caa2a2247991"" , ""functor"" : ""tag list"" , ""components"" : [ { value"" : """ &amp; Table134[[#This Row],[Label]] &amp; """, ""type"" : ""string"" } ] },","")</f>
         <v/>
       </c>
-      <c r="H193" s="48" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A194)&gt;0," , ","")</f>
+      <c r="H193" s="50" t="str">
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://8ce7d7d3-4c83-48a5-b3b5-1eb0400f0408",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -15837,7 +15839,7 @@
         <v/>
       </c>
       <c r="H194" s="50" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A195)&gt;0," , ","")</f>
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://8ce7d7d3-4c83-48a5-b3b5-1eb0400f0408",  "trgt" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee" }  , </v>
       </c>
     </row>
@@ -15865,7 +15867,7 @@
         <v/>
       </c>
       <c r="H195" s="50" t="str">
-        <f>"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN($A196)&gt;0," , ","")</f>
+        <f ca="1">"{ ""src"" : ""agent://" &amp; Table134[[#This Row],[src]] &amp; """,  ""trgt"" : ""agent://" &amp; Table134[[#This Row],[trgt]] &amp; """ } " &amp; IF(LEN(OFFSET(Table134[[#This Row],[src]],1,0))&gt;0," , ","")</f>
         <v xml:space="preserve">{ "src" : "agent://eeeeeeee-eeee-eeee-eeee-eeeeeeeeeeee",  "trgt" : "agent://89cbeaaf-bb58-48a4-8bdf-2917d6ae110d" } </v>
       </c>
     </row>
@@ -22646,7 +22648,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -22776,8 +22780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S185"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22921,7 +22925,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S2" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A3)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "89cbeaaf-bb58-48a4-8bdf-2917d6ae110d", "loginId" : "pbennett", "pwd" : "livelygig", "firstName"  : "Pam", "lastName" : "Bennett", "profilePic" : "data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxQTEhUUEhQUFRQUFBUVFBQXFBQUGBYUFBQWFhQUFBcYHCggGBolHBQXITEhJSkrLi4uFx8zODMsNygtLisBCgoKDg0OGhAQGiwkHCQsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLCwsLDgrLCwsLP/AABEIAQMAwgMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAADAAIEBQYBBwj/xAA+EAABBAAEAwUFBgQFBQEAAAABAAIDEQQFITESQVEGImFxgRMykaGxByNCwdHwFBUzUmJygpLhQ4OiwvEl/8QAGQEAAgMBAAAAAAAAAAAAAAAAAAECAwQF/8QAIxEBAQEAAgICAwADAQAAAAAAAAECESEDMQQSEzJBFCJhUf/aAAwDAQACEQMRAD8A9ucxOSSQCpMc1PSQEZ7FEmjVi5qDJGrM6QuVLPAoM0Su52qtniK0Z1yz7yp5goMzbVxNAoMsCsjPqKaZihyRK4mjUORoCkqsVMkdKO9qspgFCkTJGcxCLUdxQnFNAFwQ3BFJQnoAMgQSEdyE4JVOBOCE8I5THNUalER7UEsUxzUF4UUwOFJO4UkB9WJJJLA6hJJJIBIbwiIUhTgR5QFBneAj4l6q8SCtGIo3QMVOFVT4hFxFqunar4ybtDmnUCeVGkUWQKSmo0rlHeU+7vwJ/fzTHBBWAOCG4IyG5qfKPAJQ3IzmoTgmfALghkIzgmlqSQJCa4IxamuCVOI7ggvCkuQXqJgJLtLqA+pEkklz3WJJJJAcKDKUUlAmcpZKqvMX6eaqf4qxRPeG/wCqJnU51DTtf7+qy+Mxb7snWq00Nei1Z6jNtPx+LLdxY8NT8FXfxQeDwnYHe/geihPxpaNbNixbr08iqyfM6JoAcW9AC+vl6aeCf2U/Tkc4s2b3vS9lHxmM0thqhRHO66c1TT4vTQqBNjDe6jdpTxrCXHOa4kGuLatR0/NPwmaAgg70efOlRyYnbwNqP7bWxoaq/wAvyUfvwn+OVr3u4W3ttvZ8D+SHiJuGnUasB1dOqrI8xMkRJ5N4d+p/UqzdLTHD+9oF1zNN+o+SsmulNxxexHO0PyQHIeGPcA6Hh+H/AMRCrJeVOpwaUwpxTCVJEimlOKaUqlAnhR5VKco7wkaPS6u0kgPqRJJctc51nUiVy0yRyfANleqrGYmualYiRZvNMUAaGrvorsZU70iY3G3fd8NRp+9Qs7jcTYINDXavlakZniD4engs/icRvqrbeFXsDGPVPiJTf/KfjscCdNT1VTPOSq7UpHZ5Nd1EkmXHzWgSPULU5DvbIZk5ITimkqPKci0wOI91p2B+tq1xmOo2NaFjppf6lZlkhGykwv4na7aaKeddcK94l7aXAPJa0HnbiPM6D6qa5qrsNKGs4nODRzJ3PgB0Tf5tH+FxPiQa+lrRnUk7ZNYtvSe5DKUWIa4aUfEGwnOCslU2WGLhXSmlBmPQHlHcgvCXBhLidwpI4Ll9OPeme0UOadAOIWSYdK7WLpUySfRV7sQosuK5BSnjRvkAzvNAwcI1cfSh1WVxOLrvOaeEnezfxPNWOekNcX3epb5BrQPnZ+Kz2Lx101xFAEAdCd/Mqz+KreajY3Maut+p5LMZhjCSdaVjjq7xGzRfxNC/UhZqd2pVerU8w2WRRXuUiGEu1O2nzWq7M9l/bU5wpvTr+9VVdSLc5tYpsDnbNJ8h+iN/KZT+B3wK92wORxRtprQBXQKQ7CN6D4Ku+RdPG8Cfkc1XwOrXl0VfNh3N94EL6BlwY6D4KgzzKI3inNafFQ/Kl+F4vafFKRsr3O8gMZJbt0Wfc2lZNc+les8dUSSVztyT4LsAF07i/fgggonGTv6KfKHC1ZhXxD2kb2u5kC9vI7+iv8LiBI0OGlhZGOZzeZo/4qvz5K7yHEd0sPImuvqr/Hrvhm8uLxytXBMKeQm0tDHQ3ITkYhMLEwDaSJ7NJHBPcZ8Qge3UF8+qGZlD68L7vtYmdRpJdfD1UYzJgks0BZ3A61r+SOOi+3NV2Z8T7BOtyOP1OnwWZzw08hv9xqvOv1WlzGVojc8CiSNSBZ4zen+kE14hYnGYvU2dQx3q5wIA+aptX5ivxMhojr+RpFjy6w0/3O6cjzCZlEBlkaKsAtvy4q18LNeq9L/k23d0DBQo6ADUfRU700Yzyw2XZbxOiYBoeEk+g39bC9VyzACNoaBtt6rIYPLzFODXcd3b5A2S2/OuXOuZNeg4ZlgfX9VRq81ozOI5wob4lM4UwBQsSirlZSrMZGr7ERKqxkSrq7LH5pgwQVgc8y2jY3XqGOYsV2gaLU8XtDeWFLdU5ScbHR80ALRGWiwSgHve6dD+oVrJGGFj2Vu262cDs4KiKlYacloZ/iaR8dVZjSnyZ/rZJpTS5K1ujnUnBNcEQBJxTRoHAkncSSCeiGZN9snGk2wkkdZT8O6na0eRvTxP0TOIKLi8eIhxVdWemtaD4/RR16Sx7U/anMSXOj1prjev4iB9BYWJxEpNqyzXF8byRz+WtAfAKsYwueGtHESQ0Dq46D5rLqt2I2/2X5cHvkc5tiq3rnZr4fReoT1DGC4denM8rVR2OyP+Hia3dxAc5229E/orfNso9s4EuIAG1WT63oPBUXmtMnCgxGe4fvMcwkFtnhonu6j1FA2OinYDtPh3U0FwdWxFbc+iluyjDtoua0kDc/vwUSTBQfgLB4fsKu9LJOV1FO1wsfsoUjwFFw3d8Qa1FVZ21G3qlmgLW2o29J5zOUHNM6ZFZdeg5ArE5j28bsyMnzVhji+bVgHDfCHFwaCeYF6u9AVNy/sqxreKVoN69B8XUoyf+pXr1WExXaqSQ+7wqpx+MLxruvR87weHLS1rI2nqHR2vO81ytwdTS03tckY+FuU88Iat4UeMF0oRVjiInAlrwWubo5pFEHoQq6RWxTTHFSspj4pW+d/BRCrbs2y3uPQfVWYnNiry3jNaKk5q4V0LoyOTa65CLketEEt1TR5DtJE4UkcBtvapplUcOTHFRPlIfOqzP5fufW/IeHmR/wCKkOcq7PXfdEeIHqlv9UvHf9madNwg6amqPRp2rxIVn2Kga7Ftc4FzYxx8IGrnjRjB4l5HwvYFUc7TXWz+gHzWi+zbLPbY8RuOjWOJAPQAUfCnLBt1PG9hyixZc4ve9/E4Bxc1p07jeQADaAUDtP2mlj+6wsRkmdzo8LPFxWphy9jAAwcNdCfohvgravOh9VT/ALSNM+vLxHtXhsxaQ50mLkMkQd90ZGtZLx0Yy1jfdDara+vJSuzEeM4We1D3h18TXg8bdTRBOp05FeuSxu2BUeHK9bcT5BQ1beuFmOJ3yqI8EYsPIe8SWOFA8nd3S+et69EzPMvkkwoL5ZOIsstuhdWAQFq3RN4eGtDuPBVue/0z5JWcQ5ea8wwOYPd/BttvEQ6K6oNcyU7jrwvZZ5klWOc5XjsTHK9rpWBoqCJpLHyU4W57h7gc26FitLUPs/ljS5/FdtlDm67HUGvOx8F6C2+GndN9kvtOR9euHiL8kx4e/ibiGNBPCHyl9a90ElxB050oUntPdeO8DXgV7HjMn4/xP/3afMKlx3Z4MosBLrvayf1T/J/wfT/rz3tCwkxVuIIt+oFDz7oaNeizUztVsu1gqUjTutYzTa2Rta6vCwVjJhqrc1RqcBq+7Lj3z5KhWi7KDR/mPor/AA/tGbz3/SrhPaEUxrnD4LouRyaU3hRqC6IkDkCklK9mkgLYvSCQan0oJBlpVbm7bYB0s+tH/hWxKg5o6oz5gfPQfn6Jb/Wp+P8AeM7FEOIHlEwyO21I7jB/vJPktV9k44c0LK1GGku9y8ujLvgbHkFksFKOIGveeB5taP8AkK/+znGE5q2U/wDUMgcfB23zAXP06vje9yHRRN0eV2ihtkVeqvzBSD1ULGZgyOg51kmgOZPgg5zmgijc4nYFZPsphn4h7sVNdk1ENaa0Hf1Vdv8AItxj+1t2P8Kv96qNmUdsKz+e9tIsM72bmyF/QMJ9b2IVPmn2gM9npYJB0IIIPkdkuej475UE00sWMfwU5tWWnmLNjxXoOS4tk0QdG4jTVtnQ9KXiwz0l7nk943vexWh+zrHu9q6idTaVz/UpZbw9Pmc9v4r9As7nk0lUXafvxV5jpu7ayOeY/QqKXHTB56CCbKzM+6us2xHEVSS7rRlm37CK1fZSGoyepWV4bOnNb7IcMRG0EVotXx5zpg+XvjCayK0QYdSWRJ/AtzlofsVwxqWQOqG8ING4F1GsJICbS4UzjSEigmTioWZtuJ3np5nS/mfipheE2Yhwo7HdFnM4GbxeWWOG4HDegxwbytxF7/D1cFoey+VSQzQy8JDS4C6IrS/WyCmiKMTRSzaRNkbxjfu8VuHlQ+S9NxDW0Dxgsb3mnQg6b+N9VzvPLnp2Pi2anK/D7aD1CrpJaUjCvoV6jxB5j5KJNHqVntasxR57AZu6TTb1+Kvcsjaxga0aAUPKlFmiBCo837XR4UBlccjrDW3W2psnYKE9rNXpq5MC157wB9LWcznsxFO9wcwUG1dVrvYKbHhcwxDS720cOjS1rbdo7mT5KNmOQY4dxmL7lEkkEO5aDVTsqM1J/WGzfsmyN54QQL5lTuzUTIXgDclAzTJ8XHfFPfeIFm9ANzfiFE7Kl0mKa1xuhxaa6cilZeOzmpz09EzDEd3dec59iiSVtM3koHw0XnedS24+CWIlu8RQ4h2qhezJNDcqRK5HyjBukeOEXrqeQWjM5rH5LxLaJkWAJlBcNG/VbaJ1IcOCDdAimIrp+Lx/SOJ5/N+TQ3t9EN056oJjK62MqxXBA5MfMiiHS1HkCQN40kPhXUwmuNJcaaVylBIYFccuNCe6MplQJW8Qo7Ks7QYF5ijfG5zQRwOYwuaDqasA66K59iVGxU/Bw3s0kjzND8lX58TWeV/xPJc74ehfZ3jvb5dCSbkhBgfrrcWjCfExlh9VczOXnX2U52G4mWBxFYgF7dQPvYxZAHUs4j/216ViG2LXJ3OK7mKhyHRUOedjMPjI6kBDxfC9poj8iPBX7BZUhg0VcXV5HL9m+JaT7GeRx0HEHvYabfCDR1A5VtfJMl7GZmNX42UV1xGIOnqfBeqY6N4tzD6eKx+azYhxrTXfdS+1SmMX3Hn2KyF4dU2Je/XU8TzrzNuJsre9icuhghL2NHe/EfedQ5nos+Mmc53FK69fdGyuMViuBgYNBslbyXEnqOdp8cANOa8/zGXfxVtn2MLnALOYyS1PMV70hym9BuVtuzWWmGPvaOdqfDosjlFHERg7cQXo4XR+Lifs43z/ACXrB7GWjMwpSi0UkT9FrtYMww4Mc0IxNGydJMoss3ikkfKoZNIU2K6KK6a0yTeMdElX8Z6LqAtAE4NXWDojtZfmkYIjRWNK7wIrWJAx40VDnrXkU0WtC5qr8THoR1RZ9pYM7+mpWHw2PfhZopm6vika8Acw02Wf6hY9V9FR41rmtc03HK1r43ci17Q5vyIXzzLl5knZCD3nyNYOdcTgLPla9o7Au9rloieQX4aSaA/5Y5XcFeAaQP8ASuT5su94dytA0aqQwKgbjjGafqFaYbMo36gi+Y2WeNNS5YgVWz4EHkrH24rdAdIneDzbFHiMsA23WE7VYgNkofhF+uy3naDMmRMJLha8az3MTI9xHM6lGZzRrXSLisVZJVZM9EeosqukZ7UvIGEzs8DfwXoUcqwXZ14Eovc6DzW1a5dH4v6uR8394nB3NDfi6URz75oZeAtDJyM7GoEk9oUkvQKM+VBjPkC42cDkobpEwvSPhZfxKSq+MriBw2boiE+NTZyHbKMWAJCwjIutTEg5MHOcgyC095AaXOc1jQL4nGhp0G59AomLxsccH8QS72TrbES3hMzxyjB14RzcRXSyoa8uc+6sx8ffk9TpMyuNkLjiXtAZCHPe/h5gUweZcWivFX/2Td7LWy33xNO2Q9blLgT/ALvmo2LwxmylwsNe/Csk0AoO/r8NDey1rb30QfsHxAfhsTA7Ue04q/wyMAd9Fh82/wAldP4/i/FPbYY/AB41WPzfJntNscRXxWxy6ckvhk/qwu4Sf721bJPVtHztcx+GsGlhsdCV5ZiM6xMJouJHIkfmgu7Yzgbi+q2WJytj7Dh+qy+a9m2tsttOWHZWazLNJJvfcSqxzVcSZa4cignLXdFZzFdzVLI1cGDJjfJXdBq/FWcuCPRajtnkwweXQREfevPHJ/mPeI9NvRSz2r3088w2mvTX4arXYXOYnAAOo+OiycTfp+SjNKux5bj0o8vgz5PbfGccjajPm6LJw4t7dnH6qwhzbk8eo/RasfJl9sO/han69rVz0MpsM7XDQ/FGpaJZfTNc3PuBLlIhCYUEbSSSSA27XLpcp+FySUs9pJUMdWXyHh068O6pcXnsYeIsFE7Eyk0JHjuX1ZGN/NxVW/NnK7x/H3v+cJ0cTiC7QNF25xDWivE6Ku7SZuzCtDRUk7hYbR4YwdnPB3J5N9TyuXnDv5fCJcW8T454+5i0MWHH9/CNCR5brzQyuke6R5LnOJcXHUknmVm359a6nTb4/iYz3e2t7N4UYhsjsQ8njla17r1LG95w8BqNB0UPt1mftsU1rRwxQtbHFGNmtA2pV2DxbmANvu8Qc4deR+S52gIMxcNnUQfAjRUtT1XIMz//ADMMRq4ubDVE2InvD7PIcDFkuxmdwZXiJeORxYSQGhhLiAaAsd07b2B5K8+zbGccDYgQPZSyOlsA1G/hLaPi818V592qkaJpGBrNJXu4teI8WoF3QaNaArfW0i45egy/aCzF41j8PE9jmxuB4nN4pWt73CGD8QHG7fUA86W6wOZRzsDmkar5swOJfHK2SN3C+NzXsd0c020+Oo9V7Q1hDWYzDi4JxxuDRpE8+83TYWa8wdtFVvP9i7Gv5WgzCIalUWMi4jWvw3R343iamYZjnHZUNMnSOzAtrUKNNgW18ldDLpCdGk+QRDlJ2ea8G94+uoaPjfgpZlvpDWs59qPszkrJMSHPoRwD20hOw4dW8R6WL8mlYr7Re1TMdMDHxCNlhvEKv/Fud1ZdtO2bGxPweD9xxPt5bBMlfhBr3R4DXy97zglaMziM279ryMZAB1KjhdJXAmientTE4IM9ppTcLjy096y35jytQxqutUpqz0jrM11V43FMOzvyPqE8qgIRY53N2NjxWjPyLPbJv4eb+q4SVb/MXdAkrf8AIyp/xNtx2o7QPxDe848BJoA0FY9nsTDgMMcQ5o43j7sfid09FQfwzRhInyaN183UTQCoM7zR8zuJ2gGjWjZregWF0kbO8zkxUznyG3ON+Q5AeAXI20KUfBt3KlAIDt6pmJsgeCcN12TZMLPs9mxglDge64cMg5Fp514bqP2pwpM5lHeZJ3mkeAojzoA+qgw9eq0GBkjdhqcBxsl4RdUWOaXMDwdCOIPAO44ggMyYCxzbFcQsaVY5OHUaHVeqdhO0BhwuDjDhwD25lBF6yYqawR4NDT681gZ8HHw8RD43NaNTrGbJrivawOt6bKX2flPDpsHEfGnf+yV6Ht7tPl2HlAc0NaXCw9nCAfMe6UHDYD2buE6nr18VG7KYCo2WBR1NnXi0qhVdefIddNBjsO48JaaI4teltPC6ttDShrxy9nnyWdfxWY0vI4Y6onbXXWrcengvP/tMz/8Ahojh2Ee3l3Iu2RG7O+hdt5X4X6kWhrRWpNAeZXlHaf7KMXPPJP8AxUL/AGjy7vtkYQD7raHEDQoeis9elcnN5ryIn4pqve13Zs4CUQvmjlk4eJ7WBwDLotBLtyR4KhUUySSpdAQDgnBIBdAQZzEWkJFBTBjjqitCEfeRAdUAwsSRlxBLLOs1dO5orhYxoYxg2a0D6lVmMOgCdhheqHidXUgD4ZvdCMmtGicpEa3ddk2Ka3dPKDChOgRmuq/HdR2aEo7SlCq5yydz2Ojb/UAD2bW4xO4wPOuJWGQ4dgmMdEVJpbhqwgOj7oG/DRJvmNOuagmcxwc005psHxVxgMxDZYnihowPHi0lhLup4aOnXzCZX099yVgEYHRWOKHdrrQ+Kqskk+7adSDW2u5q/IbqzxTvdFE2SSdKFdUr7E9I5BL20NG767aGj48vim4/EBtlxprAXu32aL5a/BSSaHiVjftNx3sctxBBIfJww/iH9Sr4dO9oeWm99EB4Dn+ZHEYiWd28sjn7Vp+EV5Uq9oT5BrSdG1RScDVwBGLUxM3aSpOaFykAqRI01dYgOTcinnZdlbomQu0QR/EupcKSANDso34/VJJMRMXQuJJkY3dEXEkCgndFYkkkZxXWH6fmEkk0X0F2AkLsLGSbPCPotLOfokki+ynooh9F5z9u7yMHEAdDOLHWmmrSSSP+PCD7x8z9UaIJJJJiSIBSSQBGppSSQHSuhJJAFOyjxblcSQB0kkkE/9k=", "contacts" : { "channels": [ {"url" : "mailto:livelygig_pbennett@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -22992,7 +22996,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S3" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A4)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "40c96981-ca91-4083-9dfc-76826df0f432", "loginId" : "mnori", "pwd" : "livelygig", "firstName"  : "Mukul", "lastName" : "Nori", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_mnori@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -23063,7 +23067,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S4" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A5)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "c6a3c02e-5724-4a35-adc7-ddc37d3c721b", "loginId" : "anarayan", "pwd" : "livelygig", "firstName"  : "Aja", "lastName" : "Narayan", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_anarayan@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -23134,7 +23138,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S5" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A6)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "23c3669c-de78-4a5d-8c15-4a3792a96f10", "loginId" : "ibabu", "pwd" : "livelygig", "firstName"  : "Indivar", "lastName" : "Babu", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_ibabu@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -23205,7 +23209,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S6" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A7)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "904e5b1e-1314-41da-bdac-f79ff7722e77", "loginId" : "mrao", "pwd" : "livelygig", "firstName"  : "Mandar", "lastName" : "Rao", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_mrao@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -23276,7 +23280,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S7" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A8)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "f9ad7bb7-1524-4e1a-bf8e-3611859f1875", "loginId" : "nuppal", "pwd" : "livelygig", "firstName"  : "Nara", "lastName" : "Uppal", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_nuppal@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -23347,7 +23351,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S8" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A9)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "f5f1785b-48a4-4078-b9f8-f2b99f74e608", "loginId" : "ateja", "pwd" : "livelygig", "firstName"  : "Avatar", "lastName" : "Teja", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_ateja@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -23418,7 +23422,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S9" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A10)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "b65fb366-a405-41e9-82c5-f51726fad95b", "loginId" : "sbalan", "pwd" : "livelygig", "firstName"  : "Skanda", "lastName" : "Balan", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_sbalan@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -23489,7 +23493,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S10" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A11)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "4461f860-d367-4cb0-af03-332ea72e9053", "loginId" : "bbhattacharya", "pwd" : "livelygig", "firstName"  : "Balin", "lastName" : "Bhattacharya", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_bbhattacharya@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -23560,7 +23564,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S11" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A12)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "2413be6a-7573-454d-a393-1d22e45c993b", "loginId" : "mpawar", "pwd" : "livelygig", "firstName"  : "Mesha", "lastName" : "Pawar", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_mpawar@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -23631,7 +23635,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S12" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A13)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "05a543f8-0d75-4a25-9b0f-2ef7c6ac85dc", "loginId" : "uchauha", "pwd" : "livelygig", "firstName"  : "Uday", "lastName" : "Chauha", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_uchauha@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -23702,7 +23706,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S13" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A14)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "e6075665-67ee-49d2-8fde-61d8fc6ec50e", "loginId" : "sraina", "pwd" : "livelygig", "firstName"  : "Satyavati", "lastName" : "Raina", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_sraina@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -23773,7 +23777,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S14" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A15)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "9d4db68d-d527-4cb5-8a3b-c8d1c3ad3024", "loginId" : "atipnis", "pwd" : "livelygig", "firstName"  : "Anila", "lastName" : "Tipnis", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_atipnis@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -23844,7 +23848,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S15" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A16)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "79effdbf-2779-4049-be0b-d8c0c284046e", "loginId" : "gsami", "pwd" : "livelygig", "firstName"  : "Gatha", "lastName" : "Sami", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_gsami@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -23915,7 +23919,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S16" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A17)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "7c0fc06b-4f02-4bf8-8aea-f0125f397555", "loginId" : "mkant", "pwd" : "livelygig", "firstName"  : "Minti", "lastName" : "Kant", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_mkant@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -23986,7 +23990,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S17" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A18)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "fd2a800d-5bc8-4083-a2c9-4618900d5045", "loginId" : "dbhardwaj", "pwd" : "livelygig", "firstName"  : "Diti", "lastName" : "Bhardwaj", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_dbhardwaj@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -24057,7 +24061,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S18" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A19)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "3ccea8b2-c856-40ee-aff5-c19817be4ea6", "loginId" : "mnarula", "pwd" : "livelygig", "firstName"  : "Maina", "lastName" : "Narula", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_mnarula@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -24128,7 +24132,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S19" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A20)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "f4b080c7-75ee-40b7-848c-a1824bfaa483", "loginId" : "aviswanathan", "pwd" : "livelygig", "firstName"  : "Ambrosia", "lastName" : "Viswanathan", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_aviswanathan@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -24199,7 +24203,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S20" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A21)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "502a7e29-40bb-4ebd-9666-a0651a920b9a", "loginId" : "ybadal", "pwd" : "livelygig", "firstName"  : "Yasiman", "lastName" : "Badal", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_ybadal@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -24270,7 +24274,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S21" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A22)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "192a8f61-aac0-4261-918c-b1a31f8f26f6", "loginId" : "mthakur", "pwd" : "livelygig", "firstName"  : "Matrika", "lastName" : "Thakur", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_mthakur@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -24341,7 +24345,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S22" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A23)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "e4b86eaf-25ba-4ad5-a52e-35b5c9c17b70", "loginId" : "vdey", "pwd" : "livelygig", "firstName"  : "Vandana", "lastName" : "Dey", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_vdey@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -24412,7 +24416,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S23" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A24)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "aa1a1b4b-c9b4-4d72-96ac-f45f38802f70", "loginId" : "mharrison", "pwd" : "livelygig", "firstName"  : "Marlon", "lastName" : "Harrison", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_mharrison@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -24483,7 +24487,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S24" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A25)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "90139a7b-12bc-4ca1-b8c1-05f15f8baeb3", "loginId" : "erice", "pwd" : "livelygig", "firstName"  : "Ebony", "lastName" : "Rice", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_erice@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -24554,7 +24558,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S25" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A26)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "af4ffdd5-8e19-425f-9ff0-2be6fe96c244", "loginId" : "jhart", "pwd" : "livelygig", "firstName"  : "Jonathon", "lastName" : "Hart", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_jhart@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -24625,7 +24629,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S26" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A27)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "2317c0f4-c75a-4130-9965-c039bc39db62", "loginId" : "jlawson", "pwd" : "livelygig", "firstName"  : "Joey", "lastName" : "Lawson", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_jlawson@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -24696,7 +24700,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S27" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A28)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "8ae601e0-32dd-49d0-8c34-76196ad59861", "loginId" : "jdean", "pwd" : "livelygig", "firstName"  : "Jamie", "lastName" : "Dean", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_jdean@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -24767,7 +24771,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S28" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A29)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "f5cd3cf1-f5d3-4f50-a951-e898b9272eb1", "loginId" : "hhorton", "pwd" : "livelygig", "firstName"  : "Henry", "lastName" : "Horton", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_hhorton@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -24838,7 +24842,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S29" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A30)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "ed51310a-b84e-4864-9ada-583139871511", "loginId" : "lfrank", "pwd" : "livelygig", "firstName"  : "Lester", "lastName" : "Frank", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_lfrank@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -24909,7 +24913,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S30" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A31)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "9202217f-e525-46e8-b539-8d2206a526d0", "loginId" : "mhill", "pwd" : "livelygig", "firstName"  : "Melanie", "lastName" : "Hill", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_mhill@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -24980,7 +24984,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S31" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A32)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "2e7de2ea-9a33-4fd1-aeff-3ab2abf40adc", "loginId" : "nmendez", "pwd" : "livelygig", "firstName"  : "Nicolas", "lastName" : "Mendez", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_nmendez@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -25051,7 +25055,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S32" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A33)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "a0182840-d318-48dc-a2f9-550d9a39b9b5", "loginId" : "gmiller", "pwd" : "livelygig", "firstName"  : "Guadalupe", "lastName" : "Miller", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_gmiller@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -25122,7 +25126,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S33" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A34)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "5c06cf2d-4b1d-4ee7-b0ce-64bc5f1fd429", "loginId" : "jreed", "pwd" : "livelygig", "firstName"  : "Jane", "lastName" : "Reed", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_jreed@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -25193,7 +25197,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S34" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A35)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "622eae32-5c48-4c2f-8b93-dc655380e0e5", "loginId" : "danderson", "pwd" : "livelygig", "firstName"  : "Deborah", "lastName" : "Anderson", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_danderson@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -25264,7 +25268,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S35" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A36)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "23843ee2-0209-4809-9929-f33cc315fcc0", "loginId" : "wcoleman", "pwd" : "livelygig", "firstName"  : "Wanda", "lastName" : "Coleman", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_wcoleman@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -25335,7 +25339,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S36" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A37)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "6300a1bb-906c-4013-82cc-4d30f62dfac5", "loginId" : "mmartin", "pwd" : "livelygig", "firstName"  : "Mildred", "lastName" : "Martin", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_mmartin@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -25406,7 +25410,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S37" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A38)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "13421f9e-1bff-4575-820d-1806c8d31190", "loginId" : "iperry", "pwd" : "livelygig", "firstName"  : "Irene", "lastName" : "Perry", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_iperry@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -25477,7 +25481,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S38" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A39)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "a2ecef3f-df23-467a-bfe1-1fa2d331442d", "loginId" : "rperez", "pwd" : "livelygig", "firstName"  : "Roger", "lastName" : "Perez", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_rperez@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -25548,7 +25552,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S39" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A40)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "ee988673-4459-4630-91c3-6f6d9084641e", "loginId" : "mmorris", "pwd" : "livelygig", "firstName"  : "Maria", "lastName" : "Morris", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_mmorris@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -25619,7 +25623,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S40" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A41)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "93a381ad-c00d-4ee3-9a5a-fa47308efe64", "loginId" : "rmurphy", "pwd" : "livelygig", "firstName"  : "Roy", "lastName" : "Murphy", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_rmurphy@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -25690,7 +25694,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S41" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A42)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "b8616225-0496-417d-bcb9-be4a8bc54c7d", "loginId" : "ethomas", "pwd" : "livelygig", "firstName"  : "Ernest", "lastName" : "Thomas", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_ethomas@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -25761,7 +25765,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S42" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A43)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "bc9721c0-6db1-4dd3-a5e2-4e3823ac112b", "loginId" : "kmoore", "pwd" : "livelygig", "firstName"  : "Keith", "lastName" : "Moore", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_kmoore@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -25832,7 +25836,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S43" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A44)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "11252d6b-4da4-4fbd-8fe8-d7f36ffbd4c7", "loginId" : "dmoore", "pwd" : "livelygig", "firstName"  : "Deborah", "lastName" : "Moore", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_dmoore@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -25903,7 +25907,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S44" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A45)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "dbcc610b-ab0e-4a82-9aba-af849ffb6b6b", "loginId" : "hdreesens", "pwd" : "livelygig", "firstName"  : "Hermann", "lastName" : "Dreesens", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_hdreesens@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -25974,7 +25978,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S45" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A46)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "cb979e8b-8c81-42fe-a093-455a823f067d", "loginId" : "lborde", "pwd" : "livelygig", "firstName"  : "Lucia", "lastName" : "Borde", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_lborde@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -26045,7 +26049,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S46" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A47)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "770495fe-e2b3-43aa-925a-dc4223a99c92", "loginId" : "mdragomirov", "pwd" : "livelygig", "firstName"  : "Mihail", "lastName" : "Dragomirov", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_mdragomirov@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -26116,7 +26120,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S47" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A48)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "4c6642bc-dfe4-45d6-8077-52210d6dff15", "loginId" : "dcastro", "pwd" : "livelygig", "firstName"  : "Daryl", "lastName" : "Castro", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_dcastro@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -26187,7 +26191,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S48" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A49)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "b54e7190-040d-469d-8836-dd7afa6aed91", "loginId" : "rvogts", "pwd" : "livelygig", "firstName"  : "Ragnhildr", "lastName" : "Vogts", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_rvogts@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -26258,7 +26262,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S49" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A50)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "2af95444-262e-4d3d-93e4-3e9b09d8cc2f", "loginId" : "sseward", "pwd" : "livelygig", "firstName"  : "Silvester", "lastName" : "Seward", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_sseward@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -26329,7 +26333,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S50" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A51)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "1a1bb32e-3a44-4ce1-be6f-6095ff8306dc", "loginId" : "mstilo", "pwd" : "livelygig", "firstName"  : "Mandy", "lastName" : "Stilo", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_mstilo@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -26400,7 +26404,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S51" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A52)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "4c97d00a-f9b7-4073-93bc-968c29f4e86a", "loginId" : "iungaro", "pwd" : "livelygig", "firstName"  : "Issa", "lastName" : "Ungaro", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_iungaro@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -26471,7 +26475,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S52" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A53)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "7766a637-23b8-44aa-a043-3ccba9693d98", "loginId" : "famador", "pwd" : "livelygig", "firstName"  : "Ferdy", "lastName" : "Amador", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_famador@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -26542,7 +26546,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S53" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A54)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "0689abfa-06cc-49a5-adb6-0e53134b0958", "loginId" : "mlamberti", "pwd" : "livelygig", "firstName"  : "Manoel", "lastName" : "Lamberti", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_mlamberti@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -26613,7 +26617,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S54" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A55)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "476aab86-01a7-4cc8-a80e-b2f36ad6ed0e", "loginId" : "tantall", "pwd" : "livelygig", "firstName"  : "Twm", "lastName" : "Antall", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_tantall@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -26684,7 +26688,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S55" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A56)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "9c51c8d1-1948-4d63-9dc1-31e7ffe40865", "loginId" : "mdonalds", "pwd" : "livelygig", "firstName"  : "Menno", "lastName" : "Donalds", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_mdonalds@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -26755,7 +26759,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S56" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A57)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "4f773a4e-d1f7-4eb4-9a6f-5f81919bd4c5", "loginId" : "svincent", "pwd" : "livelygig", "firstName"  : "Setsuko", "lastName" : "Vincent", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_svincent@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -26826,7 +26830,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S57" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A58)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "94a8c78e-a71b-449d-aee7-38590853c242", "loginId" : "kdragic", "pwd" : "livelygig", "firstName"  : "Kalle", "lastName" : "Dragic", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_kdragic@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -26897,7 +26901,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S58" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A59)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "23e9ff8a-c0fd-40a3-8849-a1f1579f1179", "loginId" : "rsarkozi", "pwd" : "livelygig", "firstName"  : "Roxane", "lastName" : "Sarkozi", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_rsarkozi@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -26968,7 +26972,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S59" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A60)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "43a9f1ee-41d1-4181-9360-4415f9624ce2", "loginId" : "ghall", "pwd" : "livelygig", "firstName"  : "Gerulf", "lastName" : "Hall", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_ghall@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -27039,7 +27043,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S60" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A61)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "cb4ac0f8-8d6e-4458-a018-66484ce4dff9", "loginId" : "myap", "pwd" : "livelygig", "firstName"  : "Megaira", "lastName" : "Yap", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_myap@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -27110,7 +27114,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S61" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A62)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "d57e47d9-3ad4-45d3-9dd9-c7898dcfbfbc", "loginId" : "csalvage", "pwd" : "livelygig", "firstName"  : "Cerdic", "lastName" : "Salvage", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_csalvage@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -27181,7 +27185,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S62" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A63)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "3637b365-f83f-4746-9bad-041537e4ff2c", "loginId" : "dnagy", "pwd" : "livelygig", "firstName"  : "Dragana", "lastName" : "Nagy", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_dnagy@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -27252,7 +27256,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S63" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A64)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "9497068c-5c42-48e2-8de9-14a2e44dc651", "loginId" : "kestevez", "pwd" : "livelygig", "firstName"  : "Karina", "lastName" : "Estevez", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_kestevez@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -27323,7 +27327,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S64" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A65)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "dfe045e9-42ad-41e5-a2a0-9890b219e4f7", "loginId" : "mmachado", "pwd" : "livelygig", "firstName"  : "Mario", "lastName" : "Machado", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_mmachado@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -27394,7 +27398,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S65" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A66)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "955f3107-fd5f-46bc-a28d-f18f82cc8cf6", "loginId" : "dbenitez", "pwd" : "livelygig", "firstName"  : "Davor", "lastName" : "Benitez", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_dbenitez@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -27465,7 +27469,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S66" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A67)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "f7fe2ff1-5756-4ff9-a3fd-15961118746b", "loginId" : "apage", "pwd" : "livelygig", "firstName"  : "Atarah", "lastName" : "Page", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_apage@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -27536,7 +27540,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S67" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A68)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "4588b052-b643-4add-ade9-803c3607ffbd", "loginId" : "alim", "pwd" : "livelygig", "firstName"  : "Anita", "lastName" : "Lim", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_alim@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -27607,7 +27611,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S68" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A69)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "16b3ad7e-8e05-4f35-a81a-4e28b3456f73", "loginId" : "ymasson", "pwd" : "livelygig", "firstName"  : "Yadira", "lastName" : "Masson", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_ymasson@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -27678,7 +27682,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S69" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A70)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "63653fbb-2f01-4952-a455-a637f46db7ee", "loginId" : "cmendel", "pwd" : "livelygig", "firstName"  : "Chibueze", "lastName" : "Mendel", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_cmendel@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -27749,7 +27753,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S70" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A71)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "d1567958-1d4b-48eb-9613-fbfe7dc352b4", "loginId" : "lchevrolet", "pwd" : "livelygig", "firstName"  : "Lyuba", "lastName" : "Chevrolet", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_lchevrolet@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -27820,7 +27824,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S71" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A72)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "1e15d29f-3bfc-4c23-8be7-6f4bb0e19df9", "loginId" : "esheinfeld", "pwd" : "livelygig", "firstName"  : "Eva", "lastName" : "Sheinfeld", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_esheinfeld@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -27891,7 +27895,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S72" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A73)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "dd8bdf36-fdd1-4046-9fb7-f36848840cdd", "loginId" : "ddaniau", "pwd" : "livelygig", "firstName"  : "Dorofei", "lastName" : "Daniau", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_ddaniau@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -27962,7 +27966,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S73" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A74)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "b320523a-00e1-4700-bdac-8ff06aad24fc", "loginId" : "tzhu", "pwd" : "livelygig", "firstName"  : "Toomas", "lastName" : "Zhu", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_tzhu@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -28033,7 +28037,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S74" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A75)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "af258f6f-4dea-4f5a-936d-be49c638b262", "loginId" : "mhakim", "pwd" : "livelygig", "firstName"  : "Musa", "lastName" : "Hakim", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_mhakim@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -28104,7 +28108,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S75" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A76)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "04171b5e-c892-4647-aba2-9eed98b15214", "loginId" : "aamirmoez", "pwd" : "livelygig", "firstName"  : "Ahmad", "lastName" : "Amirmoez", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_aamirmoez@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -28175,7 +28179,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S76" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A77)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "0063a81d-a4ec-4588-bc34-d261c64a76d9", "loginId" : "tel-mofty", "pwd" : "livelygig", "firstName"  : "Toufik", "lastName" : "El-Mofty", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_tel-mofty@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -28246,7 +28250,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S77" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A78)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "c1835ecc-f9ea-4449-af7b-2fcea845763c", "loginId" : "zhakim", "pwd" : "livelygig", "firstName"  : "Zakiyya", "lastName" : "Hakim", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_zhakim@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -28317,7 +28321,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S78" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A79)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "7107881c-c5c3-4939-8886-5c7fd5a87b8c", "loginId" : "sxun", "pwd" : "livelygig", "firstName"  : "Samir", "lastName" : "Xun", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_sxun@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -28388,7 +28392,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S79" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A80)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "5a452f49-bb74-4f96-8656-65f6df9856be", "loginId" : "kabdulrashid", "pwd" : "livelygig", "firstName"  : "Khalifa", "lastName" : "Abdulrashid", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_kabdulrashid@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -28459,7 +28463,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S80" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A81)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "a4ebdfba-9bc3-4d91-98cc-7f652d849c3a", "loginId" : "iliao", "pwd" : "livelygig", "firstName"  : "Irfan", "lastName" : "Liao", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_iliao@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -28530,7 +28534,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S81" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A82)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "5da946b7-7b4e-4e7b-8cfd-4eb5c020b0c0", "loginId" : "bsaqqaf", "pwd" : "livelygig", "firstName"  : "Bo", "lastName" : "Saqqaf", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_bsaqqaf@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -28601,7 +28605,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S82" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A83)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "95580059-5628-403f-81c8-a3c5aa4d91ec", "loginId" : "ralfarsi", "pwd" : "livelygig", "firstName"  : "Rad", "lastName" : "Alfarsi", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_ralfarsi@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -28672,7 +28676,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S83" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A84)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "8ce7d7d3-4c83-48a5-b3b5-1eb0400f0408", "loginId" : "anadir", "pwd" : "community", "firstName"  : "Abed", "lastName" : "Nadir", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_anadir@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -28743,7 +28747,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S84" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A85)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "97c8738f-a95b-4e35-a8b2-bac9cb0e14d1", "loginId" : "tbarnes", "pwd" : "community", "firstName"  : "Troy", "lastName" : "Barnes", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_tbarnes@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -28814,7 +28818,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S85" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A86)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "0aa85ff5-d572-400b-acd0-497c17641601", "loginId" : "aeddison", "pwd" : "community", "firstName"  : "Annie", "lastName" : "Eddison", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_aeddison@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -28885,7 +28889,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S86" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A87)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "2e1b5dfe-feb3-46ed-abc8-f7342f1d5d61", "loginId" : "bperry", "pwd" : "community", "firstName"  : "Britta", "lastName" : "Perry", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_bperry@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -28956,7 +28960,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S87" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A88)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "96af8409-0805-4b62-84fe-f434572e6c9f", "loginId" : "sbennett", "pwd" : "community", "firstName"  : "Shirley", "lastName" : "Bennett", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_sbennett@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -29027,7 +29031,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S88" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A89)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "96d82e92-a79f-454d-bf2b-fe27b3b36871", "loginId" : "jwinger", "pwd" : "community", "firstName"  : "Jeff", "lastName" : "Winger", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_jwinger@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -29098,7 +29102,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S89" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A90)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "5f172d03-3a60-4e59-94fa-a4190d416260", "loginId" : "phawthorn", "pwd" : "community", "firstName"  : "Pierce", "lastName" : "Hawthorn", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_phawthorn@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -29169,7 +29173,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S90" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A91)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "60582911-c2cd-4c14-8513-d13b9cc8cbff", "loginId" : "dthomas", "pwd" : "united", "firstName"  : "Dylan", "lastName" : "Thomas", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_dthomas@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -29240,7 +29244,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S91" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A92)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "d2dd3995-b195-49ad-9e21-d1b90f9edc29", "loginId" : "bdylan", "pwd" : "united", "firstName"  : "Bob", "lastName" : "Dylan", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_bdylan@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -29311,7 +29315,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S92" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A93)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "95204302-2882-4c94-8631-5c494efeb2c2", "loginId" : "lcohen", "pwd" : "united", "firstName"  : "Leonard", "lastName" : "Cohen", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_lcohen@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -29382,7 +29386,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S93" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A94)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "98e22eea-4bc7-4ea6-9196-ec995ff038f7", "loginId" : "moliver", "pwd" : "united", "firstName"  : "Mary", "lastName" : "Oliver", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_moliver@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -29453,7 +29457,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S94" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A95)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "a2a73d30-274a-4173-b405-50a99eac3e2f", "loginId" : "psmith", "pwd" : "united", "firstName"  : "Patti", "lastName" : "Smith", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_psmith@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -29524,7 +29528,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S95" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A96)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "09f536f2-99d5-4c6d-bee8-6209e4fa650b", "loginId" : "slee", "pwd" : "united", "firstName"  : "Stan", "lastName" : "Lee", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_slee@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -29595,7 +29599,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S96" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A97)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "727f1d78-d9e6-4d17-b36b-d30485942d02", "loginId" : "rbrooks", "pwd" : "united", "firstName"  : "Rebekah", "lastName" : "Brooks", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_rbrooks@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -29666,7 +29670,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S97" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A98)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "aedaead9-fba3-4e87-a628-646e0064ca54", "loginId" : "sphan", "pwd" : "united", "firstName"  : "Sum", "lastName" : "Phan", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_sphan@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] }, </v>
       </c>
     </row>
@@ -29734,7 +29738,7 @@
         <v>"initialPosts" : [  ]</v>
       </c>
       <c r="S98" s="3" t="str">
-        <f>"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK($A99)," ",", ")</f>
+        <f ca="1">"{ "&amp;Table1[[#This Row],[id data]]&amp;Table1[[#This Row],[loginId data]]&amp;Table1[[#This Row],[pwd data]]&amp;Table1[[#This Row],[firstName data]]&amp;Table1[[#This Row],[lastName2]]&amp;Table1[[#This Row],[profilePic Data]]&amp;Table1[[#This Row],[bindings]]&amp;Table1[[#This Row],[contacts]]&amp;Table1[[#This Row],[Posts]]&amp;" }"&amp;IF(ISBLANK(OFFSET(Table1[[#This Row],[id]],1,0))," ",", ")</f>
         <v xml:space="preserve">{ "id" : "179ee405-aa43-4b8a-9e94-a49dc3b3d07d", "loginId" : "unitedfan", "pwd" : "united", "firstName"  : "", "lastName" : "UnitedFan", "profilePic" : "https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkhqCi-FONrFAs5jciS2vsNwFmQ6ni4Leo8-TXTw_KQ7BAVysl3g", "contacts" : { "channels": [ {"url" : "mailto:livelygig_unitedfan@mailinator.com", "channelType" : "email" } ] },"initialPosts" : [  ] } </v>
       </c>
     </row>
@@ -29754,8 +29758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30292,8 +30296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30495,10 +30499,10 @@
       <c r="B4" s="5" t="s">
         <v>2444</v>
       </c>
-      <c r="C4" s="118" t="s">
+      <c r="C4" s="115" t="s">
         <v>2449</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="115" t="s">
         <v>2451</v>
       </c>
       <c r="E4" s="96" t="s">
@@ -30904,13 +30908,13 @@
       <c r="C10" s="113" t="s">
         <v>2431</v>
       </c>
-      <c r="D10" s="115" t="s">
+      <c r="D10" s="116" t="s">
         <v>2418</v>
       </c>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="118"/>
     </row>
     <row r="11" spans="2:16" s="105" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="106" t="s">
@@ -31163,8 +31167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F357"/>
   <sheetViews>
-    <sheetView topLeftCell="A326" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F357"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F357" sqref="F2:F357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31208,7 +31212,7 @@
         <v>2078</v>
       </c>
       <c r="F2" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C3="]}",$C3="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "0683a16f-f16d-4af2-aa48-290dbdaf3af0", "functor" : "configuration",  "components" : [</v>
       </c>
     </row>
@@ -31226,7 +31230,7 @@
         <v>2339</v>
       </c>
       <c r="F3" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C4="]}",$C4="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "84f99aef-a83e-4458-b858-56936c86739c", "functor" : "spliciousPostTypeSpec",  "components" : [</v>
       </c>
     </row>
@@ -31244,7 +31248,7 @@
         <v>2350</v>
       </c>
       <c r="F4" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C5="]}",$C5="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "11276cf6-4d62-49de-aaee-af156c8dcfda" , "functor" : "uid" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -31265,7 +31269,7 @@
         <v>2345</v>
       </c>
       <c r="F5" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C6="]}",$C6="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "9ccb4618-9dbf-4445-9bcb-e4c6edc2020f" , "functor" : "type" , "components": [ { "value": "TEXT", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -31283,7 +31287,7 @@
         <v>2347</v>
       </c>
       <c r="F6" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C7="]}",$C7="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "c133645e-5709-4242-9cc1-570d6df1e5cc" , "functor" : "created" , "components": [ { "value": "2015-12-05 20:21:04", "type" : "date" } ] }  , </v>
       </c>
     </row>
@@ -31301,7 +31305,7 @@
         <v>2347</v>
       </c>
       <c r="F7" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C8="]}",$C8="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "163e4073-e43e-45d6-bcf5-8515449a47b5" , "functor" : "modified" , "components": [ { "value": "2015-12-05 20:21:04", "type" : "date" } ] }  , </v>
       </c>
     </row>
@@ -31319,7 +31323,7 @@
         <v>2348</v>
       </c>
       <c r="F8" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C9="]}",$C9="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "8df7e229-c29f-4062-9c3b-7f6cec6494d8" , "functor" : "labels" , "components": [ { "value": "[]", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -31337,7 +31341,7 @@
         <v>2348</v>
       </c>
       <c r="F9" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C10="]}",$C10="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "31dc86f5-6e66-4909-b342-e85937bf2f85" , "functor" : "connections" , "components": [ { "value": "[]", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -31352,7 +31356,7 @@
         <v>263</v>
       </c>
       <c r="F10" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C11="]}",$C11="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "dee68675-14c4-4e52-9a30-c61541225ef2" , "functor" : "text" , "components": [ { "value": "", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -31367,7 +31371,7 @@
         <v>2084</v>
       </c>
       <c r="F11" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C12="]}",$C12="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -31383,7 +31387,7 @@
       </c>
       <c r="D12" s="27"/>
       <c r="F12" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C13="]}",$C13="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "701e68b7-a7da-4d1e-a6a2-51407b553bb4", "functor" : "postTypeSpec",  "components" : [</v>
       </c>
     </row>
@@ -31401,7 +31405,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C14="]}",$C14="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "2c605e3d-41ec-4a4c-9331-032371d8837a" , "functor" : "specVersion" , "components": [ { "value": "1", "type" : "integer" } ] }  , </v>
       </c>
     </row>
@@ -31420,7 +31424,7 @@
         <v>2318</v>
       </c>
       <c r="F14" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C15="]}",$C15="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "3c998dce-d0b1-4896-8496-981d2daf90a3" , "functor" : "authorizingAddress" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -31436,7 +31440,7 @@
       </c>
       <c r="D15" s="27"/>
       <c r="F15" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C16="]}",$C16="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "42dd8f44-dcf0-45c8-822c-0729f01b2f35" , "functor" : "authorizingSignature" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -31455,7 +31459,7 @@
         <v>2315</v>
       </c>
       <c r="F16" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C17="]}",$C17="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "28634967-03f5-4591-a63a-5d1107af9d31" , "functor" : "pomotionTx" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -31473,7 +31477,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C18="]}",$C18="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "e8e3173b-1c42-4a29-b026-699e9992dd1a" , "functor" : "promotedAmount" , "components": [ { "value": "0", "type" : "float" } ] }  , </v>
       </c>
     </row>
@@ -31491,7 +31495,7 @@
         <v>2272</v>
       </c>
       <c r="F18" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C19="]}",$C19="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "adb03f06-b212-4b14-9ed9-e2ba33fba78e" , "functor" : "promoteStartTimestamp" , "components": [ { "value": "2002-05-30T09:30:10Z", "type" : "date" } ] }  , </v>
       </c>
     </row>
@@ -31509,7 +31513,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C20="]}",$C20="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "fff72f12-4a31-43f0-878a-9024871b0cc4" , "functor" : "promoteDurationInDays" , "components": [ { "value": "1", "type" : "float" } ] }  , </v>
       </c>
     </row>
@@ -31530,7 +31534,7 @@
         <v>2307</v>
       </c>
       <c r="F20" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C21="]}",$C21="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "92fc2b73-c99d-4102-b259-f5e88a1797f9" , "functor" : "canForward" , "components": [ { "value": "false", "type" : "boolean" } ] }  , </v>
       </c>
     </row>
@@ -31545,7 +31549,7 @@
         <v>2078</v>
       </c>
       <c r="F21" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C22="]}",$C22="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "6e239309-ebe1-4b46-9f8c-914101b5821e", "functor" : "posters",  "components" : [</v>
       </c>
     </row>
@@ -31566,7 +31570,7 @@
         <v>2081</v>
       </c>
       <c r="F22" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C23="]}",$C23="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "edeef568-67a6-425d-b942-f569f4136e9f" , "functor" : "posterId" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -31581,7 +31585,7 @@
         <v>2082</v>
       </c>
       <c r="F23" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C24="]}",$C24="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>]}</v>
       </c>
     </row>
@@ -31596,7 +31600,7 @@
         <v>2084</v>
       </c>
       <c r="F24" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C25="]}",$C25="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -31611,7 +31615,7 @@
         <v>2078</v>
       </c>
       <c r="F25" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C26="]}",$C26="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "dd8bfdc6-ab31-4a9f-ba57-23c6dcd73c2d", "functor" : "versionedPostTypeSpec",  "components" : [</v>
       </c>
     </row>
@@ -31629,7 +31633,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C27="]}",$C27="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "641febfe-4149-48f5-b109-6861bdd19e5d" , "functor" : "specVersion" , "components": [ { "value": "1", "type" : "integer" } ] }  , </v>
       </c>
     </row>
@@ -31647,7 +31651,7 @@
         <v>2083</v>
       </c>
       <c r="F27" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C28="]}",$C28="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "a302b09f-9283-4080-89e2-6e267498620a" , "functor" : "id" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -31668,7 +31672,7 @@
         <v>2268</v>
       </c>
       <c r="F28" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C29="]}",$C29="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "6795c7c6-fc72-4b5c-8c00-5b17e2a9eae8" , "functor" : "predecessorID" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -31689,7 +31693,7 @@
         <v>2269</v>
       </c>
       <c r="F29" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C30="]}",$C30="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "f66fbe5b-bb39-433c-b72c-e77e733a6ae7" , "functor" : "publishedDate" , "components": [ { "value": "2002-05-30T09:30:10Z", "type" : "date" } ] }  , </v>
       </c>
     </row>
@@ -31710,7 +31714,7 @@
         <v>2270</v>
       </c>
       <c r="F30" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C31="]}",$C31="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "49ee0022-ddb3-4938-9e7b-cb80b4ec20c7" , "functor" : "isCompleted" , "components": [ { "value": "false", "type" : "boolean" } ] } </v>
       </c>
     </row>
@@ -31725,7 +31729,7 @@
         <v>2084</v>
       </c>
       <c r="F31" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C32="]}",$C32="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -31740,7 +31744,7 @@
         <v>2078</v>
       </c>
       <c r="F32" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C33="]}",$C33="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "8b77dd88-c65b-4806-969f-fd7436959634", "functor" : "messagePostTypeSpec",  "components" : [</v>
       </c>
     </row>
@@ -31758,7 +31762,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C34="]}",$C34="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "70bd1311-b53d-47b9-a384-2494ede1b0a4" , "functor" : "specVersion" , "components": [ { "value": "1", "type" : "integer" } ] } </v>
       </c>
     </row>
@@ -31773,7 +31777,7 @@
         <v>2084</v>
       </c>
       <c r="F34" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C35="]}",$C35="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -31788,7 +31792,7 @@
         <v>2078</v>
       </c>
       <c r="F35" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C36="]}",$C36="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "cba62260-f2ec-4bfc-86fb-49c180c3987d", "functor" : "projectPostTypeSpec",  "components" : [</v>
       </c>
     </row>
@@ -31806,7 +31810,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C37="]}",$C37="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "50939b0d-b8f7-49dd-a641-12b5407faac1" , "functor" : "specVersion" , "components": [ { "value": "1", "type" : "integer" } ] }  , </v>
       </c>
     </row>
@@ -31824,7 +31828,7 @@
         <v>2272</v>
       </c>
       <c r="F37" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C38="]}",$C38="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "57c639f4-2992-4556-992e-635ced7119d9" , "functor" : "startDate" , "components": [ { "value": "2002-05-30T09:30:10Z", "type" : "date" } ] }  , </v>
       </c>
     </row>
@@ -31842,7 +31846,7 @@
         <v>2272</v>
       </c>
       <c r="F38" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C39="]}",$C39="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "d08d45c7-423e-42c9-85c9-7bc7fb9a7ea4" , "functor" : "endDate" , "components": [ { "value": "2002-05-30T09:30:10Z", "type" : "date" } ] }  , </v>
       </c>
     </row>
@@ -31858,7 +31862,7 @@
       </c>
       <c r="D39" s="28"/>
       <c r="F39" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C40="]}",$C40="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "49a38a6f-8b79-431d-9304-a5c09944c7af" , "functor" : "requiredSkills" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -31874,7 +31878,7 @@
       </c>
       <c r="D40" s="28"/>
       <c r="F40" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C41="]}",$C41="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "fe05f85d-8217-4573-9009-4e3934c3b37b" , "functor" : "projectCategories" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -31890,7 +31894,7 @@
       </c>
       <c r="D41" s="28"/>
       <c r="F41" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C42="]}",$C42="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "f8760bd5-372a-4670-9ed0-15354b5af21a" , "functor" : "projectState" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -31908,7 +31912,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C43="]}",$C43="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "9680baa1-2f8a-477f-a090-ed1b65e693d0" , "functor" : "budget" , "components": [ { "value": "0", "type" : "float" } ] }  , </v>
       </c>
     </row>
@@ -31926,7 +31930,7 @@
         <v>2070</v>
       </c>
       <c r="F43" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C44="]}",$C44="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "f854055f-c79b-410c-b77a-d4d48534a8ac" , "functor" : "budgetCurrency" , "components": [ { "value": "USD", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -31942,7 +31946,7 @@
       </c>
       <c r="D44" s="29"/>
       <c r="F44" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C45="]}",$C45="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "92bf80c8-8aa6-42fd-8b27-ed460329c3b0" , "functor" : "workLocation" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -31958,7 +31962,7 @@
       </c>
       <c r="D45" s="29"/>
       <c r="F45" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C46="]}",$C46="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "f5ad7820-99bb-4df5-805e-92367c3f3f06" , "functor" : "contractTemplate" , "components": [ { "value": "", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -31974,7 +31978,7 @@
       </c>
       <c r="D46" s="29"/>
       <c r="F46" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C47="]}",$C47="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -31989,7 +31993,7 @@
         <v>2078</v>
       </c>
       <c r="F47" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C48="]}",$C48="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "fa445724-06ec-49f7-92fe-6932dd1dc27e", "functor" : "sellerProfilePostTypeSpec",  "components" : [</v>
       </c>
     </row>
@@ -32007,7 +32011,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C49="]}",$C49="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "629b8953-5e84-4599-a835-3939f7e0a087" , "functor" : "specVersion" , "components": [ { "value": "1", "type" : "integer" } ] }  , </v>
       </c>
     </row>
@@ -32025,7 +32029,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C50="]}",$C50="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "6a25cb81-cfba-47de-92b0-6880a8bc8b5e" , "functor" : "numberProjectsCompleted" , "components": [ { "value": "0", "type" : "integer" } ] }  , </v>
       </c>
     </row>
@@ -32040,7 +32044,7 @@
         <v>263</v>
       </c>
       <c r="F50" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C51="]}",$C51="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "87e88589-992c-43b3-8c91-4d9e5d3947b5" , "functor" : "firstName" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -32055,7 +32059,7 @@
         <v>263</v>
       </c>
       <c r="F51" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C52="]}",$C52="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "17284f2b-b8cd-496b-8fc7-c05738b6166e" , "functor" : "middleName" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -32070,7 +32074,7 @@
         <v>263</v>
       </c>
       <c r="F52" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C53="]}",$C53="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "8ad94bfa-21a9-439c-9b45-b373abfba093" , "functor" : "lastName" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -32085,7 +32089,7 @@
         <v>263</v>
       </c>
       <c r="F53" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C54="]}",$C54="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "88fea945-36cc-45b1-a033-003a9e062db5" , "functor" : "address" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -32100,7 +32104,7 @@
         <v>263</v>
       </c>
       <c r="F54" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C55="]}",$C55="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "d79221e4-2cbc-471c-9dc4-97277426785b" , "functor" : "website" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -32115,7 +32119,7 @@
         <v>263</v>
       </c>
       <c r="F55" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C56="]}",$C56="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "cec2d206-6f9b-4ca2-bfd0-bac97fc93f72" , "functor" : "phone" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -32130,7 +32134,7 @@
         <v>263</v>
       </c>
       <c r="F56" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C57="]}",$C57="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "ab9f63ad-840e-4770-8b39-ae0d031569d6" , "functor" : "phoneType" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -32145,7 +32149,7 @@
         <v>263</v>
       </c>
       <c r="F57" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C58="]}",$C58="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "92617b39-8a66-4ab2-bf19-ae32c1f400da" , "functor" : "xbtWalletAddress" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -32160,7 +32164,7 @@
         <v>263</v>
       </c>
       <c r="F58" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C59="]}",$C59="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "228967f7-8e8e-401c-91f4-e126e9e5d3d5" , "functor" : "dibsAddress" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -32175,7 +32179,7 @@
         <v>263</v>
       </c>
       <c r="F59" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C60="]}",$C60="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "6fa92229-82b6-4910-a13d-4bf6b08fc6e1" , "functor" : "skills" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -32190,7 +32194,7 @@
         <v>2066</v>
       </c>
       <c r="F60" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C61="]}",$C61="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "bffac230-c08c-4e45-bc61-5bb8588ec49b" , "functor" : "availableFromDate" , "components": [ { "value": "", "type" : "date" } ] }  , </v>
       </c>
     </row>
@@ -32205,7 +32209,7 @@
         <v>2066</v>
       </c>
       <c r="F61" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C62="]}",$C62="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "bfefef51-5153-4af4-8f12-081d58130f8c" , "functor" : "availableToDate" , "components": [ { "value": "", "type" : "date" } ] }  , </v>
       </c>
     </row>
@@ -32220,7 +32224,7 @@
         <v>263</v>
       </c>
       <c r="F62" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C63="]}",$C63="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "9d2e0c89-9f55-4efc-a9ba-ea7e65116093" , "functor" : "currencyPreference" , "components": [ { "value": "", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -32235,7 +32239,7 @@
         <v>2084</v>
       </c>
       <c r="F63" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C64="]}",$C64="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -32250,7 +32254,7 @@
         <v>2078</v>
       </c>
       <c r="F64" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C65="]}",$C65="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "bd6ddc6b-dc2e-4d9e-9d9a-cb6160d71460", "functor" : "buyerProfilePostTypeSpec",  "components" : [</v>
       </c>
     </row>
@@ -32268,7 +32272,7 @@
         <v>1</v>
       </c>
       <c r="F65" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C66="]}",$C66="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "42409b39-88dc-4552-87c4-e544f2480bf5" , "functor" : "specVersion" , "components": [ { "value": "1", "type" : "integer" } ] } </v>
       </c>
     </row>
@@ -32283,7 +32287,7 @@
         <v>2084</v>
       </c>
       <c r="F66" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C67="]}",$C67="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -32298,7 +32302,7 @@
         <v>2078</v>
       </c>
       <c r="F67" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C68="]}",$C68="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "4fcd333e-0d33-45b1-9ffa-d536a2b05180", "functor" : "moderatorProfilePostTypeSpec",  "components" : [</v>
       </c>
     </row>
@@ -32316,7 +32320,7 @@
         <v>1</v>
       </c>
       <c r="F68" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C69="]}",$C69="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "1438dd6d-dfdf-4e69-a094-03ec091b6945" , "functor" : "specVersion" , "components": [ { "value": "1", "type" : "integer" } ] } </v>
       </c>
     </row>
@@ -32331,7 +32335,7 @@
         <v>2084</v>
       </c>
       <c r="F69" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C70="]}",$C70="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -32349,7 +32353,7 @@
         <v>2308</v>
       </c>
       <c r="F70" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C71="]}",$C71="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "5d11a852-8a6b-477f-b009-c0a1028ddc99", "functor" : "contractPostTypeSpec",  "components" : [</v>
       </c>
     </row>
@@ -32367,7 +32371,7 @@
         <v>1</v>
       </c>
       <c r="F71" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C72="]}",$C72="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "f2e5da87-d4a5-4580-8cc8-12a0f8189df2" , "functor" : "specVersion" , "components": [ { "value": "1", "type" : "integer" } ] }  , </v>
       </c>
     </row>
@@ -32382,7 +32386,7 @@
         <v>263</v>
       </c>
       <c r="F72" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C73="]}",$C73="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "a6549d56-2c60-4809-aae5-c956944ff60e" , "functor" : "state" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -32397,7 +32401,7 @@
         <v>263</v>
       </c>
       <c r="F73" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C74="]}",$C74="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "277ebd60-99fd-47d1-ba0b-ea627be18c52" , "functor" : "originatingPostID" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -32412,7 +32416,7 @@
         <v>263</v>
       </c>
       <c r="F74" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C75="]}",$C75="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "a6dcf980-95ce-478e-b9d8-556a1d8bbcf1" , "functor" : "buyerID" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -32427,7 +32431,7 @@
         <v>263</v>
       </c>
       <c r="F75" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C76="]}",$C76="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "d6323627-1bfb-4ee6-b947-c878d2edc032" , "functor" : "sellerID" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -32442,7 +32446,7 @@
         <v>263</v>
       </c>
       <c r="F76" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C77="]}",$C77="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "64ed1756-fef3-4e8c-abc5-d4c220193d2e" , "functor" : "moderatorID" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -32457,7 +32461,7 @@
         <v>263</v>
       </c>
       <c r="F77" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C78="]}",$C78="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "82dfdb60-b608-4866-aca1-94cb23fe3475" , "functor" : "feedbackBuyerToSeller" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -32472,7 +32476,7 @@
         <v>263</v>
       </c>
       <c r="F78" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C79="]}",$C79="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "7a55d001-aacf-4477-9875-010f7d42f81d" , "functor" : "feedbackSellerToBuyer" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -32487,7 +32491,7 @@
         <v>263</v>
       </c>
       <c r="F79" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C80="]}",$C80="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "7ad0d813-3d05-4c9b-b777-2de3b8ebba44" , "functor" : "feedbackBuyerToModerator" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -32502,7 +32506,7 @@
         <v>263</v>
       </c>
       <c r="F80" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C81="]}",$C81="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "4ce74909-13f4-4c7c-a9b4-919ce36665b9" , "functor" : "feedbackSellerToModerator" , "components": [ { "value": "", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -32517,7 +32521,7 @@
         <v>2084</v>
       </c>
       <c r="F81" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C82="]}",$C82="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -32532,7 +32536,7 @@
         <v>2078</v>
       </c>
       <c r="F82" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C83="]}",$C83="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "8700ce7b-cc9b-4f3a-92be-1d0af7c25e0d", "functor" : "offeringPostTypeSpec",  "components" : [</v>
       </c>
     </row>
@@ -32550,7 +32554,7 @@
         <v>1</v>
       </c>
       <c r="F83" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C84="]}",$C84="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "25eed948-59f6-40f5-b75c-af9decf3587b" , "functor" : "specVersion" , "components": [ { "value": "1", "type" : "integer" } ] } </v>
       </c>
     </row>
@@ -32565,7 +32569,7 @@
         <v>2084</v>
       </c>
       <c r="F84" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C85="]}",$C85="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -32580,7 +32584,7 @@
         <v>2078</v>
       </c>
       <c r="F85" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C86="]}",$C86="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "7953f11e-1f0e-4bcd-bae3-56f400d1866c", "functor" : "connectionTypeSpec",  "components" : [</v>
       </c>
     </row>
@@ -32595,7 +32599,7 @@
         <v>2066</v>
       </c>
       <c r="F86" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C87="]}",$C87="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "926274ca-0148-46ee-8b1c-83a5f1d61d14" , "functor" : "createdDate" , "components": [ { "value": "", "type" : "date" } ] }  , </v>
       </c>
     </row>
@@ -32610,7 +32614,7 @@
         <v>263</v>
       </c>
       <c r="F87" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C88="]}",$C88="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "5a7965ff-ae0b-4d74-9489-278252449fde" , "functor" : "introducedBy" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -32631,7 +32635,7 @@
         <v>2313</v>
       </c>
       <c r="F88" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C89="]}",$C89="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "1aeb3264-65a1-4968-a555-257dc744325f" , "functor" : "canIntroduce" , "components": [ { "value": "false", "type" : "boolean" } ] } </v>
       </c>
     </row>
@@ -32646,7 +32650,7 @@
         <v>2084</v>
       </c>
       <c r="F89" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C90="]}",$C90="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -32661,7 +32665,7 @@
         <v>2078</v>
       </c>
       <c r="F90" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C91="]}",$C91="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "75c5aa42-3be0-4f04-8997-e35c58629aa8", "functor" : "contractTypeTypeSpec",  "components" : [</v>
       </c>
     </row>
@@ -32676,7 +32680,7 @@
         <v>263</v>
       </c>
       <c r="F91" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C92="]}",$C92="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "99a01b34-f7db-489b-8ae6-d0cc6bdad3ab" , "functor" : "heading" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -32691,7 +32695,7 @@
         <v>263</v>
       </c>
       <c r="F92" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C93="]}",$C93="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "4ac66641-3a4f-4ecb-92c9-23abbffd0d9a" , "functor" : "text" , "components": [ { "value": "", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -32709,7 +32713,7 @@
         <v>2272</v>
       </c>
       <c r="F93" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C94="]}",$C94="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "7ab255ac-f0d5-4759-abb3-841a7da20826" , "functor" : "updated" , "components": [ { "value": "2002-05-30T09:30:10Z", "type" : "date" } ] } </v>
       </c>
     </row>
@@ -32724,7 +32728,7 @@
         <v>2084</v>
       </c>
       <c r="F94" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C95="]}",$C95="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -32742,7 +32746,7 @@
         <v>2267</v>
       </c>
       <c r="F95" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C96="]}",$C96="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "0a7a197d-9542-464a-9e35-955a69803c62", "functor" : "tabs",  "components" : [</v>
       </c>
     </row>
@@ -32757,7 +32761,7 @@
         <v>2078</v>
       </c>
       <c r="F96" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C97="]}",$C97="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "09cd1ae9-18a5-4e1d-993d-182329ad491e", "functor" : "tab",  "components" : [</v>
       </c>
     </row>
@@ -32775,7 +32779,7 @@
         <v>2164</v>
       </c>
       <c r="F97" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C98="]}",$C98="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "21bdcd7f-1da7-4481-88bf-4dbd227798ab" , "functor" : "tabName" , "components": [ { "value": "Messages", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -32790,7 +32794,7 @@
         <v>2078</v>
       </c>
       <c r="F98" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C99="]}",$C99="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "c42f23b6-f238-487d-8482-acb2121a4ca9", "functor" : "views",  "components" : [</v>
       </c>
     </row>
@@ -32805,7 +32809,7 @@
         <v>2078</v>
       </c>
       <c r="F99" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C100="]}",$C100="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "2c1a9407-d81c-44a2-83c3-f88471de66ac", "functor" : "view",  "components" : [</v>
       </c>
     </row>
@@ -32823,7 +32827,7 @@
         <v>2165</v>
       </c>
       <c r="F100" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C101="]}",$C101="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "81022f09-fd7f-44f2-a388-8b0e06497a68" , "functor" : "viewName" , "components": [ { "value": "Active", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -32838,7 +32842,7 @@
         <v>2084</v>
       </c>
       <c r="F101" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C102="]}",$C102="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -32853,7 +32857,7 @@
         <v>2078</v>
       </c>
       <c r="F102" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C103="]}",$C103="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "e1016a5a-1ae0-4136-8e22-a15117835dd4", "functor" : "view",  "components" : [</v>
       </c>
     </row>
@@ -32871,7 +32875,7 @@
         <v>2166</v>
       </c>
       <c r="F103" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C104="]}",$C104="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "f6de4ab7-9907-4a82-a339-652b4a116fff" , "functor" : "viewName" , "components": [ { "value": "Unread", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -32886,7 +32890,7 @@
         <v>2084</v>
       </c>
       <c r="F104" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C105="]}",$C105="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -32901,7 +32905,7 @@
         <v>2078</v>
       </c>
       <c r="F105" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C106="]}",$C106="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "9b0d3ccc-e67b-4324-8d59-f7f575d2e2d8", "functor" : "view",  "components" : [</v>
       </c>
     </row>
@@ -32919,7 +32923,7 @@
         <v>2167</v>
       </c>
       <c r="F106" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C107="]}",$C107="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "eeeaa8f1-2430-426e-8fce-e44d0c1bc0f7" , "functor" : "viewName" , "components": [ { "value": "Archive", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -32934,7 +32938,7 @@
         <v>2084</v>
       </c>
       <c r="F107" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C108="]}",$C108="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -32949,7 +32953,7 @@
         <v>2078</v>
       </c>
       <c r="F108" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C109="]}",$C109="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "c270d147-aea9-41bb-b917-e51f8b574b1f", "functor" : "view",  "components" : [</v>
       </c>
     </row>
@@ -32967,7 +32971,7 @@
         <v>2168</v>
       </c>
       <c r="F109" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C110="]}",$C110="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "23f32e72-39b8-4980-8c48-35ea580d88ae" , "functor" : "viewName" , "components": [ { "value": "Sent", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -32982,7 +32986,7 @@
         <v>2082</v>
       </c>
       <c r="F110" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C111="]}",$C111="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>]}</v>
       </c>
     </row>
@@ -32997,7 +33001,7 @@
         <v>2082</v>
       </c>
       <c r="F111" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C112="]}",$C112="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>]}</v>
       </c>
     </row>
@@ -33012,7 +33016,7 @@
         <v>2084</v>
       </c>
       <c r="F112" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C113="]}",$C113="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -33027,7 +33031,7 @@
         <v>2078</v>
       </c>
       <c r="F113" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C114="]}",$C114="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "2154be4c-f494-47de-b2c5-7662fe8503eb", "functor" : "tab",  "components" : [</v>
       </c>
     </row>
@@ -33045,7 +33049,7 @@
         <v>2169</v>
       </c>
       <c r="F114" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C115="]}",$C115="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "e8862908-41be-48f9-86ee-4540715ad44b" , "functor" : "tabName" , "components": [ { "value": "Projects", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -33060,7 +33064,7 @@
         <v>2078</v>
       </c>
       <c r="F115" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C116="]}",$C116="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "26754332-e1eb-4441-9480-87bc0c3137bf", "functor" : "views",  "components" : [</v>
       </c>
     </row>
@@ -33075,7 +33079,7 @@
         <v>2078</v>
       </c>
       <c r="F116" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C117="]}",$C117="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "5b3a3b4c-9b88-4036-9a4a-f3ba2f2198ca", "functor" : "view",  "components" : [</v>
       </c>
     </row>
@@ -33093,7 +33097,7 @@
         <v>2153</v>
       </c>
       <c r="F117" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C118="]}",$C118="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "6472c6e5-ecef-4cef-be8d-448960da7b2c" , "functor" : "viewName" , "components": [ { "value": "Suggested Matches", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -33108,7 +33112,7 @@
         <v>2084</v>
       </c>
       <c r="F118" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C119="]}",$C119="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -33123,7 +33127,7 @@
         <v>2078</v>
       </c>
       <c r="F119" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C120="]}",$C120="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "c21ac556-3531-482e-836d-81f838f3ceae", "functor" : "view",  "components" : [</v>
       </c>
     </row>
@@ -33141,7 +33145,7 @@
         <v>2165</v>
       </c>
       <c r="F120" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C121="]}",$C121="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "95217d15-346f-4a9d-beb1-6e6d6a1a1188" , "functor" : "viewName" , "components": [ { "value": "Active", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -33156,7 +33160,7 @@
         <v>2084</v>
       </c>
       <c r="F121" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C122="]}",$C122="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -33171,7 +33175,7 @@
         <v>2078</v>
       </c>
       <c r="F122" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C123="]}",$C123="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "bd79a624-10da-4378-85a0-94de6ae16511", "functor" : "view",  "components" : [</v>
       </c>
     </row>
@@ -33189,7 +33193,7 @@
         <v>2170</v>
       </c>
       <c r="F123" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C124="]}",$C124="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "a619c7fe-5b34-4788-ab47-0611cf2fe03a" , "functor" : "viewName" , "components": [ { "value": "Closed", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -33204,7 +33208,7 @@
         <v>2082</v>
       </c>
       <c r="F124" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C125="]}",$C125="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>]}</v>
       </c>
     </row>
@@ -33219,7 +33223,7 @@
         <v>2082</v>
       </c>
       <c r="F125" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C126="]}",$C126="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>]}</v>
       </c>
     </row>
@@ -33234,7 +33238,7 @@
         <v>2084</v>
       </c>
       <c r="F126" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C127="]}",$C127="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -33249,7 +33253,7 @@
         <v>2078</v>
       </c>
       <c r="F127" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C128="]}",$C128="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "f634e5cb-0fb4-44bb-8e70-0287a698fe02", "functor" : "tab",  "components" : [</v>
       </c>
     </row>
@@ -33267,7 +33271,7 @@
         <v>2171</v>
       </c>
       <c r="F128" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C129="]}",$C129="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "b782b57a-065f-4226-9d11-85390f91eb59" , "functor" : "tabName" , "components": [ { "value": "Offerings", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -33282,7 +33286,7 @@
         <v>2078</v>
       </c>
       <c r="F129" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C130="]}",$C130="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "7c1174df-7309-4cbd-8c19-968771d12679", "functor" : "views",  "components" : [</v>
       </c>
     </row>
@@ -33297,7 +33301,7 @@
         <v>2078</v>
       </c>
       <c r="F130" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C131="]}",$C131="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "6c52aade-d767-4ddb-ad14-5e1030cf537a", "functor" : "view",  "components" : [</v>
       </c>
     </row>
@@ -33315,7 +33319,7 @@
         <v>2153</v>
       </c>
       <c r="F131" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C132="]}",$C132="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "9a7f6fc3-b501-4b8b-9f7f-36bc3dbae00b" , "functor" : "viewName" , "components": [ { "value": "Suggested Matches", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -33330,7 +33334,7 @@
         <v>2084</v>
       </c>
       <c r="F132" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C133="]}",$C133="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -33345,7 +33349,7 @@
         <v>2078</v>
       </c>
       <c r="F133" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C134="]}",$C134="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "d20858e0-35a7-43a2-a32f-a2320c45135e", "functor" : "view",  "components" : [</v>
       </c>
     </row>
@@ -33363,7 +33367,7 @@
         <v>2155</v>
       </c>
       <c r="F134" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C135="]}",$C135="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "2913465b-13db-4518-bc8b-df39c39d512c" , "functor" : "viewName" , "components": [ { "value": "Inactive", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -33378,7 +33382,7 @@
         <v>2082</v>
       </c>
       <c r="F135" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C136="]}",$C136="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>]}</v>
       </c>
     </row>
@@ -33393,7 +33397,7 @@
         <v>2082</v>
       </c>
       <c r="F136" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C137="]}",$C137="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>]}</v>
       </c>
     </row>
@@ -33408,7 +33412,7 @@
         <v>2084</v>
       </c>
       <c r="F137" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C138="]}",$C138="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -33423,7 +33427,7 @@
         <v>2078</v>
       </c>
       <c r="F138" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C139="]}",$C139="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "db74019c-8ddd-4d25-a724-b58c01508ea0", "functor" : "tab",  "components" : [</v>
       </c>
     </row>
@@ -33441,7 +33445,7 @@
         <v>2152</v>
       </c>
       <c r="F139" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C140="]}",$C140="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "52ed8f50-eafb-47e6-9c57-fa1b5dfb265b" , "functor" : "tabName" , "components": [ { "value": "Talent", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -33456,7 +33460,7 @@
         <v>2078</v>
       </c>
       <c r="F140" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C141="]}",$C141="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "990acf27-580e-4038-822f-d3bc7147bccf", "functor" : "queryLabelViews",  "components" : [</v>
       </c>
     </row>
@@ -33471,7 +33475,7 @@
         <v>2078</v>
       </c>
       <c r="F141" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C142="]}",$C142="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "0107cf16-e88e-4c83-a08e-e309496c0dfa", "functor" : "queryLabelView",  "components" : [</v>
       </c>
     </row>
@@ -33489,7 +33493,7 @@
         <v>2086</v>
       </c>
       <c r="F142" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C143="]}",$C143="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "bcfb695c-bc3b-4680-a08c-42923ea7d953" , "functor" : "labelName" , "components": [ { "value": "Skills", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -33510,7 +33514,7 @@
         <v>2087</v>
       </c>
       <c r="F143" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C144="]}",$C144="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "5197a5f7-e0c1-40ad-a403-35b8067f4c66" , "functor" : "labelPointer" , "components": [ { "value": "9a36211f-8b6e-4d88-8f25-a85b1d2e22b6", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -33531,7 +33535,7 @@
         <v>2074</v>
       </c>
       <c r="F144" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C145="]}",$C145="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "4273be14-141e-482c-8827-782ec65a4509" , "functor" : "controlType" , "components": [ { "value": "autotype label", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -33546,7 +33550,7 @@
         <v>2084</v>
       </c>
       <c r="F145" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C146="]}",$C146="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -33561,7 +33565,7 @@
         <v>2078</v>
       </c>
       <c r="F146" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C147="]}",$C147="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "41fa535d-1ebc-4460-bc99-ca8e3c3bb32c", "functor" : "queryLabelView",  "components" : [</v>
       </c>
     </row>
@@ -33579,7 +33583,7 @@
         <v>2156</v>
       </c>
       <c r="F147" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C148="]}",$C148="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "9e52538b-6c67-479e-b364-a66af17faf59" , "functor" : "labelName" , "components": [ { "value": "Categories", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -33597,7 +33601,7 @@
         <v>2083</v>
       </c>
       <c r="F148" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C149="]}",$C149="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "a6fa29fb-527d-4c8f-9fcc-8be982a7bc9b" , "functor" : "labelPointer" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -33615,7 +33619,7 @@
         <v>2157</v>
       </c>
       <c r="F149" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C150="]}",$C150="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "c0ebce2f-a550-40d7-bc18-c25decb4fc91" , "functor" : "controlType" , "components": [ { "value": "checkbox tree", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -33630,7 +33634,7 @@
         <v>2084</v>
       </c>
       <c r="F150" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C151="]}",$C151="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -33645,7 +33649,7 @@
         <v>2078</v>
       </c>
       <c r="F151" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C152="]}",$C152="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "611156e8-5dda-4be8-bbfb-53a02ac1d273", "functor" : "queryLabelView",  "components" : [</v>
       </c>
     </row>
@@ -33663,7 +33667,7 @@
         <v>2158</v>
       </c>
       <c r="F152" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C153="]}",$C153="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "91f375be-71f0-46e2-9f29-0ad17b702f53" , "functor" : "labelName" , "components": [ { "value": "Price Range", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -33681,7 +33685,7 @@
         <v>2083</v>
       </c>
       <c r="F153" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C154="]}",$C154="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "b7b7a17d-ecde-4a14-9040-6e315548ded9" , "functor" : "labelPointer" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -33699,7 +33703,7 @@
         <v>2187</v>
       </c>
       <c r="F154" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C155="]}",$C155="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "9429e5da-72f1-4182-b88d-853f665699b5" , "functor" : "controlType" , "components": [ { "value": "checkbox basic filters", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -33714,7 +33718,7 @@
         <v>2084</v>
       </c>
       <c r="F155" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C156="]}",$C156="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -33729,7 +33733,7 @@
         <v>2078</v>
       </c>
       <c r="F156" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C157="]}",$C157="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "b8999b5a-0a22-4d88-8c73-2ea0e1b3083d", "functor" : "queryLabelView",  "components" : [</v>
       </c>
     </row>
@@ -33747,7 +33751,7 @@
         <v>2159</v>
       </c>
       <c r="F157" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C158="]}",$C158="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "c88c9fb6-5659-4bf0-804f-0b24902bbbfd" , "functor" : "labelName" , "components": [ { "value": "Posted Date", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -33765,7 +33769,7 @@
         <v>2083</v>
       </c>
       <c r="F158" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C159="]}",$C159="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "2408d5d1-a95d-4ed8-b1c0-2bff7ec3067f" , "functor" : "labelPointer" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -33783,7 +33787,7 @@
         <v>2160</v>
       </c>
       <c r="F159" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C160="]}",$C160="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "65f3e278-c1b4-478c-840a-484ca75703e6" , "functor" : "controlType" , "components": [ { "value": "checkbox date picker", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -33798,7 +33802,7 @@
         <v>2084</v>
       </c>
       <c r="F160" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C161="]}",$C161="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -33813,7 +33817,7 @@
         <v>2078</v>
       </c>
       <c r="F161" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C162="]}",$C162="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "ba8ffd77-1b70-4ff0-a4d0-0bcbf13a0909", "functor" : "queryLabelView",  "components" : [</v>
       </c>
     </row>
@@ -33831,7 +33835,7 @@
         <v>2185</v>
       </c>
       <c r="F162" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C163="]}",$C163="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "ffc0d35b-9e1f-4408-bd9b-a634a23e7eec" , "functor" : "labelName" , "components": [ { "value": "Interests", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -33849,7 +33853,7 @@
         <v>2083</v>
       </c>
       <c r="F163" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C164="]}",$C164="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "054b36d8-43a8-488a-8d4e-13966088de31" , "functor" : "labelPointer" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -33867,7 +33871,7 @@
         <v>2075</v>
       </c>
       <c r="F164" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C165="]}",$C165="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "c46ad357-7145-47e0-b85f-ba3b93211d8a" , "functor" : "controlType" , "components": [ { "value": "autotype label", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -33882,7 +33886,7 @@
         <v>2084</v>
       </c>
       <c r="F165" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C166="]}",$C166="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -33897,7 +33901,7 @@
         <v>2078</v>
       </c>
       <c r="F166" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C167="]}",$C167="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "1e5fd992-7577-4c5d-a717-4bdebe083f13", "functor" : "queryLabelView",  "components" : [</v>
       </c>
     </row>
@@ -33915,7 +33919,7 @@
         <v>2186</v>
       </c>
       <c r="F167" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C168="]}",$C168="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "45cdb5c6-e8bc-44bd-9ddc-89c21b1bac7a" , "functor" : "labelName" , "components": [ { "value": "Channels", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -33933,7 +33937,7 @@
         <v>2083</v>
       </c>
       <c r="F168" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C169="]}",$C169="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "384b4518-41fb-41dd-929d-cd587b7c54c6" , "functor" : "labelPointer" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -33951,7 +33955,7 @@
         <v>2075</v>
       </c>
       <c r="F169" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C170="]}",$C170="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "e84c8b23-c473-45c6-ad70-c3e5af3d8c63" , "functor" : "controlType" , "components": [ { "value": "autotype label", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -33966,7 +33970,7 @@
         <v>2082</v>
       </c>
       <c r="F170" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C171="]}",$C171="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>]}</v>
       </c>
     </row>
@@ -33981,7 +33985,7 @@
         <v>2084</v>
       </c>
       <c r="F171" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C172="]}",$C172="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -33996,7 +34000,7 @@
         <v>2078</v>
       </c>
       <c r="F172" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C173="]}",$C173="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "aa084a50-44ce-45d9-9c37-968473269349", "functor" : "views",  "components" : [</v>
       </c>
     </row>
@@ -34011,7 +34015,7 @@
         <v>2078</v>
       </c>
       <c r="F173" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C174="]}",$C174="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "d1b0588c-fad8-4202-bd60-cb24f4a80b56", "functor" : "view",  "components" : [</v>
       </c>
     </row>
@@ -34029,7 +34033,7 @@
         <v>2250</v>
       </c>
       <c r="F174" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C175="]}",$C175="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "ed4b0b1d-506b-406a-a077-6dd500caf179" , "functor" : "viewName" , "components": [ { "value": "Suggesed Matches", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -34044,7 +34048,7 @@
         <v>2078</v>
       </c>
       <c r="F175" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C176="]}",$C176="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "2fe6e725-e102-4bdb-bff3-0ee48777545e", "functor" : "prefillInControl",  "components" : [</v>
       </c>
     </row>
@@ -34065,7 +34069,7 @@
         <v>2086</v>
       </c>
       <c r="F176" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C177="]}",$C177="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "af511031-4593-47ec-be6d-4eed10c1ce33" , "functor" : "labelViewId" , "components": [ { "value": "61017577-5864-425e-b009-d4be2cb7701a", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -34084,7 +34088,7 @@
         <v>2089</v>
       </c>
       <c r="F177" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C178="]}",$C178="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "7705e700-2402-4818-88ad-3343dc1cbe5b", "functor" : "defaults",  "components" : [</v>
       </c>
     </row>
@@ -34105,7 +34109,7 @@
         <v>268</v>
       </c>
       <c r="F178" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C179="]}",$C179="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "bb843769-aa47-407f-9a32-2e94214fbdd1" , "functor" : "value" , "components": [ { "value": "b48bfe5a-15fa-4d8e-b253-752b51c2b94b", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -34126,7 +34130,7 @@
         <v>270</v>
       </c>
       <c r="F179" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C180="]}",$C180="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "575577a4-28bc-447c-8334-1aafdd6c2aa6" , "functor" : "value" , "components": [ { "value": "ef6a7b08-beaf-4c8a-994f-dcbed4a37909", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -34141,7 +34145,7 @@
         <v>2082</v>
       </c>
       <c r="F180" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C181="]}",$C181="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>]}</v>
       </c>
     </row>
@@ -34156,7 +34160,7 @@
         <v>2082</v>
       </c>
       <c r="F181" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C182="]}",$C182="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>]}</v>
       </c>
     </row>
@@ -34171,7 +34175,7 @@
         <v>2084</v>
       </c>
       <c r="F182" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C183="]}",$C183="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -34186,7 +34190,7 @@
         <v>2078</v>
       </c>
       <c r="F183" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C184="]}",$C184="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "5b387f0d-c845-4701-a571-03e49fd2d4d0", "functor" : "view",  "components" : [</v>
       </c>
     </row>
@@ -34204,7 +34208,7 @@
         <v>2251</v>
       </c>
       <c r="F184" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C185="]}",$C185="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "1de45d24-52e0-4bce-b666-19a5697133a0" , "functor" : "viewName" , "components": [ { "value": "Invisible", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -34219,7 +34223,7 @@
         <v>2084</v>
       </c>
       <c r="F185" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C186="]}",$C186="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -34234,7 +34238,7 @@
         <v>2078</v>
       </c>
       <c r="F186" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C187="]}",$C187="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "bc40fd83-04db-47ef-9e96-eee9e37e534b", "functor" : "view",  "components" : [</v>
       </c>
     </row>
@@ -34252,7 +34256,7 @@
         <v>2154</v>
       </c>
       <c r="F187" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C188="]}",$C188="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "42d9420c-ea6f-41d8-bd9a-e35bc78059cf" , "functor" : "viewName" , "components": [ { "value": "Available", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -34267,7 +34271,7 @@
         <v>2084</v>
       </c>
       <c r="F188" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C189="]}",$C189="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -34282,7 +34286,7 @@
         <v>2078</v>
       </c>
       <c r="F189" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C190="]}",$C190="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "12658918-e010-4e75-9e37-e566927cb9f1", "functor" : "view",  "components" : [</v>
       </c>
     </row>
@@ -34300,7 +34304,7 @@
         <v>2155</v>
       </c>
       <c r="F190" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C191="]}",$C191="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "3b668e68-fc39-4831-a297-b8686c77abe0" , "functor" : "viewName" , "components": [ { "value": "Inactive", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -34315,7 +34319,7 @@
         <v>2084</v>
       </c>
       <c r="F191" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C192="]}",$C192="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -34330,7 +34334,7 @@
         <v>2078</v>
       </c>
       <c r="F192" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C193="]}",$C193="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "cccb31c4-f74d-427e-8c3e-543850b3dcf8", "functor" : "view",  "components" : [</v>
       </c>
     </row>
@@ -34348,7 +34352,7 @@
         <v>2163</v>
       </c>
       <c r="F193" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C194="]}",$C194="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "f4b81f39-8390-4679-b4f1-8c8a2d85e1b4" , "functor" : "viewName" , "components": [ { "value": "Suppressed", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -34363,7 +34367,7 @@
         <v>2082</v>
       </c>
       <c r="F194" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C195="]}",$C195="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>]}</v>
       </c>
     </row>
@@ -34378,7 +34382,7 @@
         <v>2082</v>
       </c>
       <c r="F195" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C196="]}",$C196="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>]}</v>
       </c>
     </row>
@@ -34393,7 +34397,7 @@
         <v>2084</v>
       </c>
       <c r="F196" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C197="]}",$C197="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -34408,7 +34412,7 @@
         <v>2078</v>
       </c>
       <c r="F197" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C198="]}",$C198="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "a4a3ec35-811b-4c4b-ac03-ef9119b45282", "functor" : "tab",  "components" : [</v>
       </c>
     </row>
@@ -34426,7 +34430,7 @@
         <v>2172</v>
       </c>
       <c r="F198" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C199="]}",$C199="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "5666d7dd-7dfe-4dc7-925e-d2e14a1d0040" , "functor" : "tabName" , "components": [ { "value": "Connections", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -34441,7 +34445,7 @@
         <v>2078</v>
       </c>
       <c r="F199" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C200="]}",$C200="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "c1cc8da9-83f2-4b3d-a54e-f5d23eb84f07", "functor" : "views",  "components" : [</v>
       </c>
     </row>
@@ -34456,7 +34460,7 @@
         <v>2078</v>
       </c>
       <c r="F200" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C201="]}",$C201="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "7c5f91fd-c613-4c93-a055-a17243f959f5", "functor" : "view",  "components" : [</v>
       </c>
     </row>
@@ -34474,7 +34478,7 @@
         <v>2173</v>
       </c>
       <c r="F201" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C202="]}",$C202="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "2e6c3257-33df-409c-9c56-dda455e0b0a7" , "functor" : "viewName" , "components": [ { "value": "All", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -34489,7 +34493,7 @@
         <v>2084</v>
       </c>
       <c r="F202" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C203="]}",$C203="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -34504,7 +34508,7 @@
         <v>2078</v>
       </c>
       <c r="F203" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C204="]}",$C204="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "4e5ce069-b6d7-446c-bf65-d7e036488530", "functor" : "view",  "components" : [</v>
       </c>
     </row>
@@ -34522,7 +34526,7 @@
         <v>2174</v>
       </c>
       <c r="F204" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C205="]}",$C205="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "af431d7c-ff5b-44ac-b4b5-dcfa0411ebca" , "functor" : "viewName" , "components": [ { "value": "Favorites", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -34537,7 +34541,7 @@
         <v>2084</v>
       </c>
       <c r="F205" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C206="]}",$C206="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -34552,7 +34556,7 @@
         <v>2078</v>
       </c>
       <c r="F206" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C207="]}",$C207="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "fb4ee6cb-a239-4511-846b-2ffb3bbfec28", "functor" : "view",  "components" : [</v>
       </c>
     </row>
@@ -34570,7 +34574,7 @@
         <v>2175</v>
       </c>
       <c r="F207" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C208="]}",$C208="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "044a5d9e-478d-4bd0-af7d-36151f66f878" , "functor" : "viewName" , "components": [ { "value": "Frequent Posters", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -34585,7 +34589,7 @@
         <v>2084</v>
       </c>
       <c r="F208" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C209="]}",$C209="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -34600,7 +34604,7 @@
         <v>2078</v>
       </c>
       <c r="F209" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C210="]}",$C210="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "27488afb-b0ed-4e1a-b47d-28380f1dc706", "functor" : "view",  "components" : [</v>
       </c>
     </row>
@@ -34618,7 +34622,7 @@
         <v>2163</v>
       </c>
       <c r="F210" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C211="]}",$C211="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "c6cbc037-9d83-4f49-84f9-fbb4091cb6ec" , "functor" : "viewName" , "components": [ { "value": "Suppressed", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -34633,7 +34637,7 @@
         <v>2082</v>
       </c>
       <c r="F211" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C212="]}",$C212="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>]}</v>
       </c>
     </row>
@@ -34648,7 +34652,7 @@
         <v>2082</v>
       </c>
       <c r="F212" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C213="]}",$C213="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>]}</v>
       </c>
     </row>
@@ -34663,7 +34667,7 @@
         <v>2084</v>
       </c>
       <c r="F213" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C214="]}",$C214="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -34678,7 +34682,7 @@
         <v>2078</v>
       </c>
       <c r="F214" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C215="]}",$C215="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "8c6ae4e2-6ced-498b-9df6-ae4164c4f44b", "functor" : "tab",  "components" : [</v>
       </c>
     </row>
@@ -34696,7 +34700,7 @@
         <v>2252</v>
       </c>
       <c r="F215" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C216="]}",$C216="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "8efc6124-acf4-4c30-acac-886df546a27b" , "functor" : "tabName" , "components": [ { "value": "Moderators", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -34711,7 +34715,7 @@
         <v>2084</v>
       </c>
       <c r="F216" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C217="]}",$C217="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -34726,7 +34730,7 @@
         <v>2078</v>
       </c>
       <c r="F217" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C218="]}",$C218="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "5ad0747b-9989-4851-ba5b-b9e5cf29ca38", "functor" : "tab",  "components" : [</v>
       </c>
     </row>
@@ -34744,7 +34748,7 @@
         <v>2253</v>
       </c>
       <c r="F218" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C219="]}",$C219="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "410f258c-f290-4bbb-bf20-c18fe1accece" , "functor" : "tabName" , "components": [ { "value": "Contacts", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -34759,7 +34763,7 @@
         <v>2078</v>
       </c>
       <c r="F219" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C220="]}",$C220="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "c0dcbe0f-780d-4489-ab9d-a5b97eb72c09", "functor" : "views",  "components" : [</v>
       </c>
     </row>
@@ -34774,7 +34778,7 @@
         <v>2078</v>
       </c>
       <c r="F220" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C221="]}",$C221="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "e5c82d1e-a616-41dc-8d75-41bea0d3ce10", "functor" : "view",  "components" : [</v>
       </c>
     </row>
@@ -34792,7 +34796,7 @@
         <v>2173</v>
       </c>
       <c r="F221" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C222="]}",$C222="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "e7bacbda-8726-4479-b5cf-5ab407cf9c0d" , "functor" : "viewName" , "components": [ { "value": "All", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -34807,7 +34811,7 @@
         <v>2084</v>
       </c>
       <c r="F222" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C223="]}",$C223="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -34822,7 +34826,7 @@
         <v>2078</v>
       </c>
       <c r="F223" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C224="]}",$C224="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "d5d523f6-01b1-442b-a78a-b0ccd7b3daf0", "functor" : "view",  "components" : [</v>
       </c>
     </row>
@@ -34840,7 +34844,7 @@
         <v>2176</v>
       </c>
       <c r="F224" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C225="]}",$C225="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "b54cccf6-42c2-4c23-b626-f6dc25c9fdcd" , "functor" : "viewName" , "components": [ { "value": "Current", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -34855,7 +34859,7 @@
         <v>2084</v>
       </c>
       <c r="F225" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C226="]}",$C226="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -34870,7 +34874,7 @@
         <v>2078</v>
       </c>
       <c r="F226" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C227="]}",$C227="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "4c165732-0f1e-496e-b2b2-54564ebed3b3", "functor" : "view",  "components" : [</v>
       </c>
     </row>
@@ -34888,7 +34892,7 @@
         <v>2177</v>
       </c>
       <c r="F227" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C228="]}",$C228="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "0c6d3ffe-6f40-4a5e-a113-965fcbbdd094" , "functor" : "viewName" , "components": [ { "value": "Bidding", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -34903,7 +34907,7 @@
         <v>2084</v>
       </c>
       <c r="F228" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C229="]}",$C229="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -34918,7 +34922,7 @@
         <v>2078</v>
       </c>
       <c r="F229" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C230="]}",$C230="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "b0f04694-5347-4a02-a5ec-c4872b397c03", "functor" : "view",  "components" : [</v>
       </c>
     </row>
@@ -34936,7 +34940,7 @@
         <v>2170</v>
       </c>
       <c r="F230" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C231="]}",$C231="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "5ad05e45-fdbc-4afe-9ed5-1eea5cc3f6d0" , "functor" : "viewName" , "components": [ { "value": "Closed", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -34951,7 +34955,7 @@
         <v>2082</v>
       </c>
       <c r="F231" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C232="]}",$C232="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>]}</v>
       </c>
     </row>
@@ -34966,7 +34970,7 @@
         <v>2082</v>
       </c>
       <c r="F232" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C233="]}",$C233="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>]}</v>
       </c>
     </row>
@@ -34981,7 +34985,7 @@
         <v>2082</v>
       </c>
       <c r="F233" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C234="]}",$C234="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>]}</v>
       </c>
     </row>
@@ -34996,7 +35000,7 @@
         <v>2084</v>
       </c>
       <c r="F234" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C235="]}",$C235="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -35011,7 +35015,7 @@
         <v>2078</v>
       </c>
       <c r="F235" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C236="]}",$C236="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "9a36211f-8b6e-4d88-8f25-a85b1d2e22b6", "functor" : "skills",  "components" : [</v>
       </c>
     </row>
@@ -35029,7 +35033,7 @@
         <v>264</v>
       </c>
       <c r="F236" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C237="]}",$C237="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "f68fbdc6-f684-4e71-b4df-bd0b373c957a" , "functor" : "1" , "components": [ { "value": "Adobe Illustrator", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35047,7 +35051,7 @@
         <v>265</v>
       </c>
       <c r="F237" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C238="]}",$C238="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "154f5fef-a523-4aab-a3f9-6dced4fdee21" , "functor" : "2" , "components": [ { "value": "Adobe InDesign", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35065,7 +35069,7 @@
         <v>266</v>
       </c>
       <c r="F238" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C239="]}",$C239="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "4416192b-9dec-49b0-9d13-fb0815af6c3f" , "functor" : "3" , "components": [ { "value": "Adobe Photoshop", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35083,7 +35087,7 @@
         <v>267</v>
       </c>
       <c r="F239" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C240="]}",$C240="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "3c91c578-2d39-42d4-adb0-9071d9eb116a" , "functor" : "4" , "components": [ { "value": "Analytics", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35101,7 +35105,7 @@
         <v>268</v>
       </c>
       <c r="F240" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C241="]}",$C241="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "b48bfe5a-15fa-4d8e-b253-752b51c2b94b" , "functor" : "5" , "components": [ { "value": "Android", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35119,7 +35123,7 @@
         <v>269</v>
       </c>
       <c r="F241" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C242="]}",$C242="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "3c855583-2871-4a44-9cb5-87d066d0cfb0" , "functor" : "6" , "components": [ { "value": "APIs", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35137,7 +35141,7 @@
         <v>270</v>
       </c>
       <c r="F242" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C243="]}",$C243="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "ef6a7b08-beaf-4c8a-994f-dcbed4a37909" , "functor" : "7" , "components": [ { "value": "Art Design", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35155,7 +35159,7 @@
         <v>271</v>
       </c>
       <c r="F243" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C244="]}",$C244="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "133d68b1-590b-43f6-a8f3-5d71df21b832" , "functor" : "8" , "components": [ { "value": "AutoCAD", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35173,7 +35177,7 @@
         <v>272</v>
       </c>
       <c r="F244" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C245="]}",$C245="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "dabec9ba-3b44-4fc8-a012-0fb44329bce8" , "functor" : "9" , "components": [ { "value": "Backup Management", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35191,7 +35195,7 @@
         <v>273</v>
       </c>
       <c r="F245" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C246="]}",$C246="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "9b5454de-c111-41d1-a461-2eba1165499f" , "functor" : "10" , "components": [ { "value": "C", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35209,7 +35213,7 @@
         <v>274</v>
       </c>
       <c r="F246" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C247="]}",$C247="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "da1fd939-817f-4e4c-8579-109b387fecd4" , "functor" : "11" , "components": [ { "value": "C++", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35227,7 +35231,7 @@
         <v>275</v>
       </c>
       <c r="F247" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C248="]}",$C248="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "424e3129-edff-4646-aa99-b393495284a5" , "functor" : "12" , "components": [ { "value": "Certifications", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35245,7 +35249,7 @@
         <v>276</v>
       </c>
       <c r="F248" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C249="]}",$C249="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "75c9eaa6-31e5-4487-9bc7-50ecfd5e305e" , "functor" : "13" , "components": [ { "value": "Client Server", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35263,7 +35267,7 @@
         <v>277</v>
       </c>
       <c r="F249" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C250="]}",$C250="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "0aaf6951-0fdf-4849-a4e1-545a9e1686c4" , "functor" : "14" , "components": [ { "value": "Client Support", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35281,7 +35285,7 @@
         <v>278</v>
       </c>
       <c r="F250" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C251="]}",$C251="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "42a0860c-21e8-4634-a4a4-c4e73bf62062" , "functor" : "15" , "components": [ { "value": "Configuration", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35299,7 +35303,7 @@
         <v>279</v>
       </c>
       <c r="F251" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C252="]}",$C252="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "131e93e9-0065-4bdd-82ab-13b776412e09" , "functor" : "16" , "components": [ { "value": "Content Management Systems (CMS)", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35317,7 +35321,7 @@
         <v>280</v>
       </c>
       <c r="F252" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C253="]}",$C253="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "1361d3d5-ff58-42ec-b545-cd1f8adc5072" , "functor" : "17" , "components": [ { "value": "Content Managment", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35335,7 +35339,7 @@
         <v>281</v>
       </c>
       <c r="F253" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C254="]}",$C254="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "d5d446db-f750-4f97-b7b3-5e1a8eb469cd" , "functor" : "18" , "components": [ { "value": "Corel Draw", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35353,7 +35357,7 @@
         <v>282</v>
       </c>
       <c r="F254" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C255="]}",$C255="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "6a1e742c-f083-41bc-9bcc-ea4ee5c5138c" , "functor" : "19" , "components": [ { "value": "Corel Word Perfect", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35371,7 +35375,7 @@
         <v>283</v>
       </c>
       <c r="F255" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C256="]}",$C256="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "2be8fe9b-1d6b-4a52-9255-ff2e7fd93b38" , "functor" : "20" , "components": [ { "value": "CSS", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35389,7 +35393,7 @@
         <v>284</v>
       </c>
       <c r="F256" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C257="]}",$C257="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "aa570712-a85f-4d11-9ef7-fd6ffcd88e35" , "functor" : "21" , "components": [ { "value": "Data Analytics", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35407,7 +35411,7 @@
         <v>285</v>
       </c>
       <c r="F257" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C258="]}",$C258="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "b8960ddc-0f18-4d9f-99b1-3b714e649e09" , "functor" : "22" , "components": [ { "value": "Design", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35425,7 +35429,7 @@
         <v>286</v>
       </c>
       <c r="F258" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C259="]}",$C259="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "908206b9-0db2-4d7d-b6a2-6832a8b1f1f0" , "functor" : "23" , "components": [ { "value": "Desktop Publishing", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35443,7 +35447,7 @@
         <v>287</v>
       </c>
       <c r="F259" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C260="]}",$C260="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "73c04b1d-8711-404b-b7d4-02d94bcc79f1" , "functor" : "24" , "components": [ { "value": "Diagnostics", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35461,7 +35465,7 @@
         <v>288</v>
       </c>
       <c r="F260" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C261="]}",$C261="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "40bec80f-1aeb-431f-a060-c531ec285d1e" , "functor" : "25" , "components": [ { "value": "Documentation", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35479,7 +35483,7 @@
         <v>289</v>
       </c>
       <c r="F261" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C262="]}",$C262="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "2c4bb5ca-1197-4b3f-be11-933eb89657c4" , "functor" : "26" , "components": [ { "value": "Email", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35497,7 +35501,7 @@
         <v>290</v>
       </c>
       <c r="F262" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C263="]}",$C263="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "bdf6edbf-08f6-41ac-a60b-7683c5116400" , "functor" : "27" , "components": [ { "value": "End User Support", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35515,7 +35519,7 @@
         <v>291</v>
       </c>
       <c r="F263" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C264="]}",$C264="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "7943b084-f83a-43b7-8775-cfb384f7da20" , "functor" : "28" , "components": [ { "value": "Engineering", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35533,7 +35537,7 @@
         <v>292</v>
       </c>
       <c r="F264" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C265="]}",$C265="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "6a6dde8e-55d8-4986-b1b1-8ffc4de76194" , "functor" : "29" , "components": [ { "value": "Excel", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35551,7 +35555,7 @@
         <v>293</v>
       </c>
       <c r="F265" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C266="]}",$C266="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "694d0df8-2879-4500-a964-7f3ae79d912e" , "functor" : "30" , "components": [ { "value": "FileMaker Pro", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35569,7 +35573,7 @@
         <v>294</v>
       </c>
       <c r="F266" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C267="]}",$C267="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "2c737e85-ea19-4e4d-bd12-b4d3e320b0d5" , "functor" : "31" , "components": [ { "value": "Fortran", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35587,7 +35591,7 @@
         <v>295</v>
       </c>
       <c r="F267" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C268="]}",$C268="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "2fe89cd1-5a44-46bc-ad33-d90255cb5dc8" , "functor" : "32" , "components": [ { "value": "Graphic Design", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35605,7 +35609,7 @@
         <v>296</v>
       </c>
       <c r="F268" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C269="]}",$C269="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "565b2696-b9da-4291-8626-227e0494e26b" , "functor" : "33" , "components": [ { "value": "Hardware", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35623,7 +35627,7 @@
         <v>297</v>
       </c>
       <c r="F269" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C270="]}",$C270="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "fe6db36b-f241-4b5d-9d04-5d17a3d7e5ec" , "functor" : "34" , "components": [ { "value": "Help Desk", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35641,7 +35645,7 @@
         <v>298</v>
       </c>
       <c r="F270" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C271="]}",$C271="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "a3438181-d947-418b-af93-4a0dad89d726" , "functor" : "35" , "components": [ { "value": "HTML", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35659,7 +35663,7 @@
         <v>299</v>
       </c>
       <c r="F271" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C272="]}",$C272="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "5b4199c9-de2e-4019-a4e8-66e70151860d" , "functor" : "36" , "components": [ { "value": "Implementation", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35677,7 +35681,7 @@
         <v>300</v>
       </c>
       <c r="F272" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C273="]}",$C273="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "45562367-7158-4852-8aa1-140064dcb7b4" , "functor" : "37" , "components": [ { "value": "Installation", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35695,7 +35699,7 @@
         <v>301</v>
       </c>
       <c r="F273" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C274="]}",$C274="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "183bb5f5-faa9-44b8-880b-e9d2cc96310f" , "functor" : "38" , "components": [ { "value": "Internet", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35713,7 +35717,7 @@
         <v>302</v>
       </c>
       <c r="F274" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C275="]}",$C275="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "30e7d272-3e83-4f15-a3c4-2ce42f7a0ccd" , "functor" : "39" , "components": [ { "value": "iOS", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35731,7 +35735,7 @@
         <v>303</v>
       </c>
       <c r="F275" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C276="]}",$C276="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "2f491625-40a0-44bf-a594-abf85ed507bf" , "functor" : "40" , "components": [ { "value": "iPhone", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35749,7 +35753,7 @@
         <v>304</v>
       </c>
       <c r="F276" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C277="]}",$C277="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "55e4cf6b-36e7-446a-b2b3-d3f083d94c22" , "functor" : "41" , "components": [ { "value": "Java", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35767,7 +35771,7 @@
         <v>305</v>
       </c>
       <c r="F277" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C278="]}",$C278="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "e9ed81e1-787b-424f-a1ec-521c84d3a049" , "functor" : "42" , "components": [ { "value": "Javascript", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35785,7 +35789,7 @@
         <v>306</v>
       </c>
       <c r="F278" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C279="]}",$C279="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "2b9fa0b4-b3e9-46a2-bc89-0681333b1de2" , "functor" : "43" , "components": [ { "value": "Linux", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35803,7 +35807,7 @@
         <v>307</v>
       </c>
       <c r="F279" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C280="]}",$C280="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "33affc26-4ece-4a16-82e7-3543e78e9675" , "functor" : "44" , "components": [ { "value": "Mac", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35821,7 +35825,7 @@
         <v>308</v>
       </c>
       <c r="F280" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C281="]}",$C281="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "a39dcacc-a71b-458d-82fc-3b038e854468" , "functor" : "45" , "components": [ { "value": "Matlab", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35839,7 +35843,7 @@
         <v>309</v>
       </c>
       <c r="F281" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C282="]}",$C282="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "0389e579-be7e-497a-9a03-33437d5de1a8" , "functor" : "46" , "components": [ { "value": "Maya", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35857,7 +35861,7 @@
         <v>310</v>
       </c>
       <c r="F282" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C283="]}",$C283="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "3f30b4f6-62be-4c2f-85fe-4712ce37198a" , "functor" : "47" , "components": [ { "value": "Microsoft Excel", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35875,7 +35879,7 @@
         <v>311</v>
       </c>
       <c r="F283" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C284="]}",$C284="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "9d514783-a7de-4e9e-a1c7-ec5f2a49e45d" , "functor" : "48" , "components": [ { "value": "Microsoft Office", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35893,7 +35897,7 @@
         <v>312</v>
       </c>
       <c r="F284" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C285="]}",$C285="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "570f77cc-8ab3-4e2b-ba65-214198ed50ee" , "functor" : "49" , "components": [ { "value": "Microsoft Outlook", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35911,7 +35915,7 @@
         <v>313</v>
       </c>
       <c r="F285" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C286="]}",$C286="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "578b672c-aacc-485a-8694-ed648572a92d" , "functor" : "50" , "components": [ { "value": "Microsoft Publisher", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35929,7 +35933,7 @@
         <v>314</v>
       </c>
       <c r="F286" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C287="]}",$C287="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "d898c652-5bba-439b-adc5-7958d406d5f1" , "functor" : "51" , "components": [ { "value": "Microsoft Visual", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35947,7 +35951,7 @@
         <v>315</v>
       </c>
       <c r="F287" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C288="]}",$C288="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "0f8dd461-f29b-44ff-82d8-4298278c9dfb" , "functor" : "52" , "components": [ { "value": "Microsoft Word", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35965,7 +35969,7 @@
         <v>316</v>
       </c>
       <c r="F288" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C289="]}",$C289="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "fb161781-ed4f-4ace-9163-256c9c0152ea" , "functor" : "53" , "components": [ { "value": "Mobile", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -35983,7 +35987,7 @@
         <v>317</v>
       </c>
       <c r="F289" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C290="]}",$C290="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "79d5b3ac-5676-429f-b571-4f80f6e7b40c" , "functor" : "54" , "components": [ { "value": "MySQL", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -36001,7 +36005,7 @@
         <v>318</v>
       </c>
       <c r="F290" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C291="]}",$C291="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "c5cf9a59-fba1-4c7c-a01f-341eeaae2a13" , "functor" : "55" , "components": [ { "value": "Networks", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -36019,7 +36023,7 @@
         <v>319</v>
       </c>
       <c r="F291" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C292="]}",$C292="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "3d549721-450d-4a5b-b993-ee7f316a4721" , "functor" : "56" , "components": [ { "value": "Open Source Software", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -36037,7 +36041,7 @@
         <v>320</v>
       </c>
       <c r="F292" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C293="]}",$C293="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "27025d62-113b-4af5-a14d-f405ca68d5de" , "functor" : "57" , "components": [ { "value": "Oracle", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -36055,7 +36059,7 @@
         <v>321</v>
       </c>
       <c r="F293" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C294="]}",$C294="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "b76690d6-64e5-4bc5-9151-4321b8d854f9" , "functor" : "58" , "components": [ { "value": "Perl", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -36073,7 +36077,7 @@
         <v>322</v>
       </c>
       <c r="F294" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C295="]}",$C295="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "f050957d-983c-41c8-98fa-44833dd29620" , "functor" : "59" , "components": [ { "value": "PHP", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -36091,7 +36095,7 @@
         <v>323</v>
       </c>
       <c r="F295" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C296="]}",$C296="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "16f207b5-49ee-42ea-84d1-8b40e8ee6788" , "functor" : "60" , "components": [ { "value": "Presentations", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -36109,7 +36113,7 @@
         <v>324</v>
       </c>
       <c r="F296" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C297="]}",$C297="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "a0c07e61-2d03-4d97-9ebe-e92e827c0e29" , "functor" : "61" , "components": [ { "value": "Processing", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -36127,7 +36131,7 @@
         <v>325</v>
       </c>
       <c r="F297" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C298="]}",$C298="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "23279b58-ad81-4186-affc-797889a50b9b" , "functor" : "62" , "components": [ { "value": "Programming", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -36145,7 +36149,7 @@
         <v>326</v>
       </c>
       <c r="F298" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C299="]}",$C299="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "293d0806-57d7-4519-9d60-aa8a8d344862" , "functor" : "63" , "components": [ { "value": "PT Modeler", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -36163,7 +36167,7 @@
         <v>327</v>
       </c>
       <c r="F299" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C300="]}",$C300="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "4944b871-87d8-4c86-8b99-77289c52be2c" , "functor" : "64" , "components": [ { "value": "Python", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -36181,7 +36185,7 @@
         <v>328</v>
       </c>
       <c r="F300" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C301="]}",$C301="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "8a0c0b38-e1b4-4bfc-83b2-1f641eafdf3e" , "functor" : "65" , "components": [ { "value": "QuickBooks", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -36199,7 +36203,7 @@
         <v>329</v>
       </c>
       <c r="F301" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C302="]}",$C302="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "7c0a2c8e-3303-4de7-94dc-95ad1edab9da" , "functor" : "66" , "components": [ { "value": "Ruby", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -36217,7 +36221,7 @@
         <v>330</v>
       </c>
       <c r="F302" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C303="]}",$C303="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "936db0f8-82c3-4788-827b-dba8fc3490e1" , "functor" : "67" , "components": [ { "value": "Shade", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -36235,7 +36239,7 @@
         <v>331</v>
       </c>
       <c r="F303" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C304="]}",$C304="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "97c4a074-847b-4803-945d-5d12de2e33e3" , "functor" : "68" , "components": [ { "value": "Software", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -36253,7 +36257,7 @@
         <v>332</v>
       </c>
       <c r="F304" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C305="]}",$C305="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "759ad788-e526-4821-b365-b32767ba852a" , "functor" : "69" , "components": [ { "value": "Spreadsheet", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -36271,7 +36275,7 @@
         <v>333</v>
       </c>
       <c r="F305" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C306="]}",$C306="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "34e598eb-b232-4ca6-92be-903da6e37d13" , "functor" : "70" , "components": [ { "value": "SQL", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -36289,7 +36293,7 @@
         <v>334</v>
       </c>
       <c r="F306" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C307="]}",$C307="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "8ab87f04-b07a-407d-93ec-bb1def7ecd8c" , "functor" : "71" , "components": [ { "value": "Support", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -36307,7 +36311,7 @@
         <v>335</v>
       </c>
       <c r="F307" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C308="]}",$C308="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "80032caf-b243-47c7-8d1b-b4bbc740afa0" , "functor" : "72" , "components": [ { "value": "Systems Administration", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -36325,7 +36329,7 @@
         <v>336</v>
       </c>
       <c r="F308" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C309="]}",$C309="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "2040fea0-4c71-4834-a91a-23f1963a2808" , "functor" : "73" , "components": [ { "value": "Tech Support", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -36343,7 +36347,7 @@
         <v>337</v>
       </c>
       <c r="F309" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C310="]}",$C310="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "e7c24dfa-8ea7-483c-8a54-ee937086f242" , "functor" : "74" , "components": [ { "value": "Troubleshooting", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -36361,7 +36365,7 @@
         <v>338</v>
       </c>
       <c r="F310" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C311="]}",$C311="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "64d7da3d-7b14-4557-9e6f-72922031d3ad" , "functor" : "75" , "components": [ { "value": "UI / UX", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -36379,7 +36383,7 @@
         <v>339</v>
       </c>
       <c r="F311" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C312="]}",$C312="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "100c88b6-4538-4e5c-9eae-bab19e64e225" , "functor" : "76" , "components": [ { "value": "Unix", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -36397,7 +36401,7 @@
         <v>340</v>
       </c>
       <c r="F312" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C313="]}",$C313="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "03ac8624-0ada-4354-b1af-bec36f4db486" , "functor" : "77" , "components": [ { "value": "Web Page Design", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -36415,7 +36419,7 @@
         <v>341</v>
       </c>
       <c r="F313" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C314="]}",$C314="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "b9630bfe-c428-4f68-8850-d418cec23c4a" , "functor" : "78" , "components": [ { "value": "Windows", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -36433,7 +36437,7 @@
         <v>342</v>
       </c>
       <c r="F314" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C315="]}",$C315="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "41535868-f3a8-4ac9-8c05-0e919f722b0e" , "functor" : "79" , "components": [ { "value": "Word Processing", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -36451,7 +36455,7 @@
         <v>343</v>
       </c>
       <c r="F315" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C316="]}",$C316="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "673b1f06-3d4c-4040-a9f0-6aa6abc73cdc" , "functor" : "80" , "components": [ { "value": "XHTML", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -36469,7 +36473,7 @@
         <v>344</v>
       </c>
       <c r="F316" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C317="]}",$C317="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "a84a856d-f2a2-42ca-87dc-6fed616f99d6" , "functor" : "81" , "components": [ { "value": "XML", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -36484,7 +36488,7 @@
         <v>2084</v>
       </c>
       <c r="F317" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C318="]}",$C318="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -36499,7 +36503,7 @@
         <v>2078</v>
       </c>
       <c r="F318" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C319="]}",$C319="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "4f6f4c0a-7142-4585-a814-9ba69b08dae4", "functor" : "projectCategories",  "components" : [</v>
       </c>
     </row>
@@ -36517,7 +36521,7 @@
         <v>331</v>
       </c>
       <c r="F319" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C320="]}",$C320="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "18a204b8-d9fb-4b85-badc-6771ee2313dd" , "functor" : "1" , "components": [ { "value": "Software", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -36535,7 +36539,7 @@
         <v>285</v>
       </c>
       <c r="F320" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C321="]}",$C321="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "f5261965-e9d8-494f-884f-69c7799c6553" , "functor" : "2" , "components": [ { "value": "Design", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -36553,7 +36557,7 @@
         <v>2161</v>
       </c>
       <c r="F321" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C322="]}",$C322="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "18a29610-2868-4ad9-a0a7-6de594f45dd2" , "functor" : "3" , "components": [ { "value": "Content Management", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -36571,7 +36575,7 @@
         <v>2162</v>
       </c>
       <c r="F322" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C323="]}",$C323="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "8208837f-8eb5-44e8-aa91-3e54973222fd" , "functor" : "4" , "components": [ { "value": "Microtask", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -36586,7 +36590,7 @@
         <v>2084</v>
       </c>
       <c r="F323" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C324="]}",$C324="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -36601,7 +36605,7 @@
         <v>2078</v>
       </c>
       <c r="F324" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C325="]}",$C325="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "70d14638-c57f-4e68-b213-364379465eb3", "functor" : "userLists",  "components" : [</v>
       </c>
     </row>
@@ -36619,7 +36623,7 @@
         <v>2140</v>
       </c>
       <c r="F325" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C326="]}",$C326="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "04573123-6beb-4d49-a6e2-1acb44ef5027", "functor" : "favoriteAgents",  "components" : [</v>
       </c>
     </row>
@@ -36637,7 +36641,7 @@
         <v>2083</v>
       </c>
       <c r="F326" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C327="]}",$C327="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "66fac0e9-abf4-4b86-aaa0-1fddf65c3bde" , "functor" : "ID" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -36652,7 +36656,7 @@
         <v>2084</v>
       </c>
       <c r="F327" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C328="]}",$C328="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -36667,7 +36671,7 @@
         <v>2078</v>
       </c>
       <c r="F328" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C329="]}",$C329="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "4d7790b0-f040-4694-9749-ca309bb176e0", "functor" : "mutedAgents",  "components" : [</v>
       </c>
     </row>
@@ -36685,7 +36689,7 @@
         <v>2083</v>
       </c>
       <c r="F329" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C330="]}",$C330="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "9c6d34b7-7f2c-4e65-876a-80b6b86a833c" , "functor" : "ID" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -36700,7 +36704,7 @@
         <v>2084</v>
       </c>
       <c r="F330" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C331="]}",$C331="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -36715,7 +36719,7 @@
         <v>2078</v>
       </c>
       <c r="F331" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C332="]}",$C332="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "171ec2a7-f325-427a-9e95-9c9e793b65cc", "functor" : "favoriteProjects",  "components" : [</v>
       </c>
     </row>
@@ -36733,7 +36737,7 @@
         <v>2083</v>
       </c>
       <c r="F332" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C333="]}",$C333="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "6ba58b17-fd16-4162-9334-42d4bc14fcae" , "functor" : "ID" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -36748,7 +36752,7 @@
         <v>2084</v>
       </c>
       <c r="F333" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C334="]}",$C334="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -36763,7 +36767,7 @@
         <v>2078</v>
       </c>
       <c r="F334" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C335="]}",$C335="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "e402c845-eb17-478a-8560-74ba0c3827ad", "functor" : "ignoredProjects",  "components" : [</v>
       </c>
     </row>
@@ -36781,7 +36785,7 @@
         <v>2083</v>
       </c>
       <c r="F335" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C336="]}",$C336="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "51e87b6d-58e0-40fb-8155-41cf9664ce1b" , "functor" : "ID" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -36796,7 +36800,7 @@
         <v>2084</v>
       </c>
       <c r="F336" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C337="]}",$C337="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -36811,7 +36815,7 @@
         <v>2078</v>
       </c>
       <c r="F337" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C338="]}",$C338="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "45222d4f-4760-4b21-a7ec-f4d5337b5224", "functor" : "favoriteConnections",  "components" : [</v>
       </c>
     </row>
@@ -36829,7 +36833,7 @@
         <v>2083</v>
       </c>
       <c r="F338" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C339="]}",$C339="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "2a6d4329-3cfc-4aae-b494-c09edc020eab" , "functor" : "ID" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -36844,7 +36848,7 @@
         <v>2084</v>
       </c>
       <c r="F339" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C340="]}",$C340="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">]}, </v>
       </c>
     </row>
@@ -36859,7 +36863,7 @@
         <v>2078</v>
       </c>
       <c r="F340" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C341="]}",$C341="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "f6a87938-f8a9-49c1-881e-2d35055b5547", "functor" : "connectionGroups",  "components" : [</v>
       </c>
     </row>
@@ -36874,7 +36878,7 @@
         <v>2078</v>
       </c>
       <c r="F341" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C342="]}",$C342="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "2e7181ed-c933-4a9b-b495-1c81445c684d", "functor" : "connectionGroup",  "components" : [</v>
       </c>
     </row>
@@ -36892,7 +36896,7 @@
         <v>2260</v>
       </c>
       <c r="F342" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C343="]}",$C343="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "26a1feb2-a6cb-4fea-a581-a6cca4e8f72e" , "functor" : "GroupName" , "components": [ { "value": "Group1", "type" : "string" } ] }  , </v>
       </c>
     </row>
@@ -36907,7 +36911,7 @@
         <v>2078</v>
       </c>
       <c r="F343" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C344="]}",$C344="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>{"id" : "98c76196-dab3-4cba-abc9-1d8b5e3596c7", "functor" : "connections",  "components" : [</v>
       </c>
     </row>
@@ -36925,7 +36929,7 @@
         <v>2083</v>
       </c>
       <c r="F344" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C345="]}",$C345="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v xml:space="preserve">{"id" : "fdd7afe4-cefb-48a7-bf7e-4dbd35c57052" , "functor" : "ID" , "components": [ { "value": "00000000-0000-0000-0000-000000000000", "type" : "string" } ] } </v>
       </c>
     </row>
@@ -36940,7 +36944,7 @@
         <v>2082</v>
       </c>
       <c r="F345" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C346="]}",$C346="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>]}</v>
       </c>
     </row>
@@ -36955,7 +36959,7 @@
         <v>2082</v>
       </c>
       <c r="F346" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C347="]}",$C347="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR(OFFSET(Table6[[#This Row],[Type]],1,0)="]}",OFFSET(Table6[[#This Row],[Type]],1,0)="]},"),""," , ")))))</f>
         <v>]}</v>
       </c>
     </row>
@@ -36970,7 +36974,7 @@
         <v>2082</v>
       </c>
       <c r="F347" s="23" t="str">
-        <f>IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""", ""functor"" : """ &amp;Table6[[#This Row],[L1]]&amp;""",  ""components"" : [",IF(Table6[[#This Row],[Type]]="]},","]}, ",IF(Table6[[#This Row],[Type]]="]}","]}",IF(MATCH(Table6[[#This Row],[Type]],{"integer","float","string","date","boolean"},0),"{""id"" : """&amp;Table6[[#This Row],[ID]]&amp;""" , ""functor"" : """&amp;Table6[[#This Row],[L1]]&amp;""" , ""components"": [ { ""value"": """ &amp; Table6[[#This Row],[Value]]&amp;""", ""type"" : """&amp;Table6[[#This Row],[Type]]&amp;""" } ] } "&amp;IF(OR($C348="]}",$C348="]},"),""," , ")))))</f>
+        <f ca="1">IF(Table6[[#This Row],[Type]]="functor","{""id"" : """&amp;Table6[[#This Row